--- a/Bases_de_Dados_(2022-2023)/Peru Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Peru Primera División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK94"/>
+  <dimension ref="A1:BK95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AT5" t="n">
         <v>0.5</v>
@@ -3136,7 +3136,7 @@
         <v>1</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -6178,7 +6178,7 @@
         <v>0</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AT28" t="n">
         <v>0</v>
@@ -6587,7 +6587,7 @@
         <v>1.5</v>
       </c>
       <c r="AT30" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AU30" t="n">
         <v>0</v>
@@ -8614,7 +8614,7 @@
         <v>1.5</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AT40" t="n">
         <v>2</v>
@@ -11050,7 +11050,7 @@
         <v>0</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AT52" t="n">
         <v>0.5</v>
@@ -11865,7 +11865,7 @@
         <v>2.33</v>
       </c>
       <c r="AT56" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AU56" t="n">
         <v>1.28</v>
@@ -14095,7 +14095,7 @@
         <v>1</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AT67" t="n">
         <v>1.33</v>
@@ -16531,7 +16531,7 @@
         <v>0.67</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AT79" t="n">
         <v>0.5</v>
@@ -17346,7 +17346,7 @@
         <v>2.5</v>
       </c>
       <c r="AT83" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AU83" t="n">
         <v>1.62</v>
@@ -19631,6 +19631,209 @@
       </c>
       <c r="BK94" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="n">
+        <v>5053056</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Peru Primera División</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E95" s="2" t="n">
+        <v>45037.72916666666</v>
+      </c>
+      <c r="F95" t="n">
+        <v>13</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>UTC Cajamarca</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Atlético Grau</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0</v>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="n">
+        <v>1</v>
+      </c>
+      <c r="N95" t="n">
+        <v>2</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>['70']</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>['90+3']</t>
+        </is>
+      </c>
+      <c r="Q95" t="n">
+        <v>11</v>
+      </c>
+      <c r="R95" t="n">
+        <v>6</v>
+      </c>
+      <c r="S95" t="n">
+        <v>17</v>
+      </c>
+      <c r="T95" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U95" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V95" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="W95" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X95" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y95" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Z95" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA95" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AB95" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC95" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AD95" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE95" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AF95" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG95" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH95" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AI95" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="AJ95" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK95" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL95" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM95" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN95" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AO95" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP95" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AQ95" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AR95" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS95" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AT95" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AU95" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AV95" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AW95" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AX95" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AY95" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="AZ95" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="BA95" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BB95" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BC95" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BD95" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BE95" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BF95" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG95" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH95" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI95" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ95" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK95" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Peru Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Peru Primera División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK95"/>
+  <dimension ref="A1:BK98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1715,7 +1715,7 @@
         <v>1.5</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>1.17</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AT11" t="n">
         <v>1.33</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AT12" t="n">
         <v>1.33</v>
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AT22" t="n">
         <v>0.5</v>
@@ -5166,7 +5166,7 @@
         <v>1.17</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AU23" t="n">
         <v>2.17</v>
@@ -5369,7 +5369,7 @@
         <v>1.5</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AU24" t="n">
         <v>0</v>
@@ -5978,7 +5978,7 @@
         <v>1.17</v>
       </c>
       <c r="AT27" t="n">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AU27" t="n">
         <v>0</v>
@@ -7396,7 +7396,7 @@
         <v>0</v>
       </c>
       <c r="AS34" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AT34" t="n">
         <v>1.33</v>
@@ -7602,7 +7602,7 @@
         <v>1.17</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AU35" t="n">
         <v>1.81</v>
@@ -7802,7 +7802,7 @@
         <v>0</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AT36" t="n">
         <v>0</v>
@@ -8008,7 +8008,7 @@
         <v>2.33</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AU37" t="n">
         <v>0.8100000000000001</v>
@@ -8211,7 +8211,7 @@
         <v>2.17</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AU38" t="n">
         <v>1.84</v>
@@ -10035,7 +10035,7 @@
         <v>1.5</v>
       </c>
       <c r="AS47" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AT47" t="n">
         <v>0.5</v>
@@ -11253,7 +11253,7 @@
         <v>0</v>
       </c>
       <c r="AS53" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AT53" t="n">
         <v>0.5</v>
@@ -11459,7 +11459,7 @@
         <v>2.5</v>
       </c>
       <c r="AT54" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AU54" t="n">
         <v>1.8</v>
@@ -11662,7 +11662,7 @@
         <v>2.17</v>
       </c>
       <c r="AT55" t="n">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AU55" t="n">
         <v>1.99</v>
@@ -12065,7 +12065,7 @@
         <v>2</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AT57" t="n">
         <v>2</v>
@@ -12271,7 +12271,7 @@
         <v>2.4</v>
       </c>
       <c r="AT58" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AU58" t="n">
         <v>1.94</v>
@@ -13895,7 +13895,7 @@
         <v>1.5</v>
       </c>
       <c r="AT66" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AU66" t="n">
         <v>1.93</v>
@@ -16128,7 +16128,7 @@
         <v>2.4</v>
       </c>
       <c r="AT77" t="n">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AU77" t="n">
         <v>1.75</v>
@@ -16534,7 +16534,7 @@
         <v>1.71</v>
       </c>
       <c r="AT79" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AU79" t="n">
         <v>1.44</v>
@@ -16734,10 +16734,10 @@
         <v>1.8</v>
       </c>
       <c r="AS80" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AT80" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AU80" t="n">
         <v>0.95</v>
@@ -17140,7 +17140,7 @@
         <v>0.4</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AT82" t="n">
         <v>0.5</v>
@@ -17546,7 +17546,7 @@
         <v>0</v>
       </c>
       <c r="AS84" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AT84" t="n">
         <v>0.5</v>
@@ -19834,6 +19834,615 @@
       </c>
       <c r="BK95" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="n">
+        <v>5053055</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Peru Primera División</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E96" s="2" t="n">
+        <v>45038.625</v>
+      </c>
+      <c r="F96" t="n">
+        <v>13</v>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Academia Cantolao</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Carlos Manucci</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0</v>
+      </c>
+      <c r="L96" t="n">
+        <v>0</v>
+      </c>
+      <c r="M96" t="n">
+        <v>2</v>
+      </c>
+      <c r="N96" t="n">
+        <v>2</v>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>['46', '56']</t>
+        </is>
+      </c>
+      <c r="Q96" t="n">
+        <v>5</v>
+      </c>
+      <c r="R96" t="n">
+        <v>3</v>
+      </c>
+      <c r="S96" t="n">
+        <v>8</v>
+      </c>
+      <c r="T96" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U96" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V96" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="W96" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X96" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y96" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Z96" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AA96" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AB96" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC96" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AD96" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE96" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AF96" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG96" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH96" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI96" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ96" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK96" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL96" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM96" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN96" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AO96" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP96" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AQ96" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AR96" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS96" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AT96" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AU96" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AV96" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AW96" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AX96" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AY96" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ96" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BA96" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB96" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BC96" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BD96" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BE96" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BF96" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG96" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH96" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI96" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ96" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK96" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="n">
+        <v>5053060</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Peru Primera División</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E97" s="2" t="n">
+        <v>45038.72916666666</v>
+      </c>
+      <c r="F97" t="n">
+        <v>13</v>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Sport Huancayo</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>ADT</t>
+        </is>
+      </c>
+      <c r="I97" t="n">
+        <v>1</v>
+      </c>
+      <c r="J97" t="n">
+        <v>1</v>
+      </c>
+      <c r="K97" t="n">
+        <v>2</v>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="n">
+        <v>3</v>
+      </c>
+      <c r="N97" t="n">
+        <v>4</v>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>['17']</t>
+        </is>
+      </c>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>['24', '52', '60']</t>
+        </is>
+      </c>
+      <c r="Q97" t="n">
+        <v>6</v>
+      </c>
+      <c r="R97" t="n">
+        <v>6</v>
+      </c>
+      <c r="S97" t="n">
+        <v>12</v>
+      </c>
+      <c r="T97" t="n">
+        <v>0</v>
+      </c>
+      <c r="U97" t="n">
+        <v>0</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="n">
+        <v>0</v>
+      </c>
+      <c r="X97" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y97" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC97" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AD97" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE97" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ97" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK97" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ97" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR97" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS97" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT97" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU97" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AV97" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AW97" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="AX97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ97" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA97" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB97" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC97" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD97" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE97" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF97" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG97" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH97" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI97" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ97" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK97" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="n">
+        <v>5053062</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Peru Primera División</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E98" s="2" t="n">
+        <v>45038.83333333334</v>
+      </c>
+      <c r="F98" t="n">
+        <v>13</v>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Cienciano</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Deportivo Binacional</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0</v>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="n">
+        <v>1</v>
+      </c>
+      <c r="N98" t="n">
+        <v>2</v>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>['72']</t>
+        </is>
+      </c>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>['68']</t>
+        </is>
+      </c>
+      <c r="Q98" t="n">
+        <v>5</v>
+      </c>
+      <c r="R98" t="n">
+        <v>2</v>
+      </c>
+      <c r="S98" t="n">
+        <v>7</v>
+      </c>
+      <c r="T98" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U98" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V98" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W98" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X98" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y98" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Z98" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA98" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB98" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC98" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AD98" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AE98" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AF98" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG98" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH98" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI98" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ98" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK98" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AL98" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM98" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN98" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AO98" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP98" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AQ98" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR98" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AS98" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AT98" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AU98" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AV98" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AW98" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AX98" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AY98" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AZ98" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BA98" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB98" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BC98" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BD98" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BE98" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BF98" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG98" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH98" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI98" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ98" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK98" t="n">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Peru Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Peru Primera División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK98"/>
+  <dimension ref="A1:BK103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AT2" t="n">
         <v>1.17</v>
@@ -1106,7 +1106,7 @@
         <v>1.5</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AT4" t="n">
         <v>0</v>
@@ -1918,7 +1918,7 @@
         <v>2.33</v>
       </c>
       <c r="AT7" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT9" t="n">
         <v>1</v>
@@ -3261,31 +3261,31 @@
         <v>9</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>4.33</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="Z14" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AA14" t="n">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="AB14" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AC14" t="n">
         <v>1.43</v>
@@ -3297,16 +3297,16 @@
         <v>4.83</v>
       </c>
       <c r="AF14" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="AG14" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AH14" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AJ14" t="n">
         <v>1.77</v>
@@ -3315,19 +3315,19 @@
         <v>1.77</v>
       </c>
       <c r="AL14" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="AM14" t="n">
-        <v>0</v>
+        <v>2.11</v>
       </c>
       <c r="AN14" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AO14" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AP14" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="AQ14" t="n">
         <v>0</v>
@@ -3339,7 +3339,7 @@
         <v>1.67</v>
       </c>
       <c r="AT14" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3351,46 +3351,46 @@
         <v>0</v>
       </c>
       <c r="AX14" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="AY14" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AZ14" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="BA14" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="BB14" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="BC14" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="BD14" t="n">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="BE14" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="BF14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BG14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BH14" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="BI14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BJ14" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="BK14" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT15" t="n">
         <v>0.5</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AT16" t="n">
         <v>1.4</v>
@@ -3948,7 +3948,7 @@
         <v>2</v>
       </c>
       <c r="AT17" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>1.33</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -4557,7 +4557,7 @@
         <v>2.33</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AU20" t="n">
         <v>0</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT21" t="n">
         <v>0.5</v>
@@ -5291,31 +5291,31 @@
         <v>13</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>3.28</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="Z24" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AA24" t="n">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="AB24" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="AC24" t="n">
         <v>1.67</v>
@@ -5327,16 +5327,16 @@
         <v>4.24</v>
       </c>
       <c r="AF24" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="AG24" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AH24" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AI24" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="AJ24" t="n">
         <v>1.63</v>
@@ -5345,19 +5345,19 @@
         <v>2.14</v>
       </c>
       <c r="AL24" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="AM24" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AN24" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="AO24" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AP24" t="n">
-        <v>0</v>
+        <v>2.72</v>
       </c>
       <c r="AQ24" t="n">
         <v>3</v>
@@ -5381,46 +5381,46 @@
         <v>0</v>
       </c>
       <c r="AX24" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AY24" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AZ24" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="BA24" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="BB24" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="BC24" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="BD24" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="BE24" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="BF24" t="n">
         <v>5</v>
       </c>
       <c r="BG24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BH24" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BI24" t="n">
         <v>6</v>
       </c>
       <c r="BJ24" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BK24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25">
@@ -5569,10 +5569,10 @@
         <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AT25" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AU25" t="n">
         <v>2.25</v>
@@ -5772,7 +5772,7 @@
         <v>1</v>
       </c>
       <c r="AS26" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AT26" t="n">
         <v>1</v>
@@ -6381,7 +6381,7 @@
         <v>3</v>
       </c>
       <c r="AS29" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT29" t="n">
         <v>1.17</v>
@@ -6787,7 +6787,7 @@
         <v>0</v>
       </c>
       <c r="AS31" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AT31" t="n">
         <v>0.5</v>
@@ -6915,31 +6915,31 @@
         <v>9</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="Z32" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AA32" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="AB32" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="AC32" t="n">
         <v>1.87</v>
@@ -6951,16 +6951,16 @@
         <v>3.45</v>
       </c>
       <c r="AF32" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AG32" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AH32" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AI32" t="n">
-        <v>0</v>
+        <v>3.88</v>
       </c>
       <c r="AJ32" t="n">
         <v>1.78</v>
@@ -6969,19 +6969,19 @@
         <v>2</v>
       </c>
       <c r="AL32" t="n">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="AM32" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AN32" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="AO32" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AP32" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AQ32" t="n">
         <v>0</v>
@@ -6993,58 +6993,58 @@
         <v>1.67</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AU32" t="n">
-        <v>2.85</v>
+        <v>3.15</v>
       </c>
       <c r="AV32" t="n">
         <v>0.92</v>
       </c>
       <c r="AW32" t="n">
-        <v>3.77</v>
+        <v>4.07</v>
       </c>
       <c r="AX32" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="AY32" t="n">
-        <v>0</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AZ32" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="BA32" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="BB32" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="BC32" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="BD32" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="BE32" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="BF32" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BG32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BH32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BI32" t="n">
         <v>6</v>
       </c>
       <c r="BJ32" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BK32" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33">
@@ -7930,31 +7930,31 @@
         <v>18</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="Z37" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AA37" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AB37" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="AC37" t="n">
         <v>1.4</v>
@@ -7966,16 +7966,16 @@
         <v>6.5</v>
       </c>
       <c r="AF37" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="AG37" t="n">
-        <v>0</v>
+        <v>16.25</v>
       </c>
       <c r="AH37" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AI37" t="n">
-        <v>0</v>
+        <v>3.87</v>
       </c>
       <c r="AJ37" t="n">
         <v>1.6</v>
@@ -7984,19 +7984,19 @@
         <v>2.1</v>
       </c>
       <c r="AL37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM37" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="AN37" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="AO37" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AP37" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="AQ37" t="n">
         <v>3</v>
@@ -8014,49 +8014,49 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AV37" t="n">
-        <v>1.24</v>
+        <v>1.38</v>
       </c>
       <c r="AW37" t="n">
-        <v>2.05</v>
+        <v>2.19</v>
       </c>
       <c r="AX37" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AY37" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AZ37" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="BA37" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="BB37" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="BC37" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="BD37" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="BE37" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="BF37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BG37" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BH37" t="n">
         <v>8</v>
       </c>
       <c r="BI37" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BJ37" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BK37" t="n">
         <v>15</v>
@@ -8208,7 +8208,7 @@
         <v>3</v>
       </c>
       <c r="AS38" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT38" t="n">
         <v>1.71</v>
@@ -8411,10 +8411,10 @@
         <v>0</v>
       </c>
       <c r="AS39" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AU39" t="n">
         <v>1.92</v>
@@ -8617,7 +8617,7 @@
         <v>1.71</v>
       </c>
       <c r="AT40" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AU40" t="n">
         <v>1.54</v>
@@ -8820,16 +8820,16 @@
         <v>1.17</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AU41" t="n">
         <v>1.47</v>
       </c>
       <c r="AV41" t="n">
-        <v>0.83</v>
+        <v>1.15</v>
       </c>
       <c r="AW41" t="n">
-        <v>2.3</v>
+        <v>2.62</v>
       </c>
       <c r="AX41" t="n">
         <v>1.55</v>
@@ -9020,7 +9020,7 @@
         <v>0</v>
       </c>
       <c r="AS42" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AT42" t="n">
         <v>0.5</v>
@@ -9148,31 +9148,31 @@
         <v>12</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="Z43" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AA43" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="AB43" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="AC43" t="n">
         <v>1.53</v>
@@ -9184,16 +9184,16 @@
         <v>5.19</v>
       </c>
       <c r="AF43" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="AG43" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AH43" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AI43" t="n">
-        <v>0</v>
+        <v>4.33</v>
       </c>
       <c r="AJ43" t="n">
         <v>1.91</v>
@@ -9202,19 +9202,19 @@
         <v>1.97</v>
       </c>
       <c r="AL43" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="AM43" t="n">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="AN43" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="AO43" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AP43" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="AQ43" t="n">
         <v>1.5</v>
@@ -9229,55 +9229,55 @@
         <v>0.25</v>
       </c>
       <c r="AU43" t="n">
-        <v>1.87</v>
+        <v>2.18</v>
       </c>
       <c r="AV43" t="n">
         <v>0.68</v>
       </c>
       <c r="AW43" t="n">
-        <v>2.55</v>
+        <v>2.86</v>
       </c>
       <c r="AX43" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="AY43" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AZ43" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BA43" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="BB43" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="BC43" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="BD43" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="BE43" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="BF43" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BG43" t="n">
         <v>3</v>
       </c>
       <c r="BH43" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI43" t="n">
         <v>7</v>
       </c>
-      <c r="BI43" t="n">
-        <v>6</v>
-      </c>
       <c r="BJ43" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BK43" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44">
@@ -9629,7 +9629,7 @@
         <v>1.5</v>
       </c>
       <c r="AS45" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AT45" t="n">
         <v>1.17</v>
@@ -9835,16 +9835,16 @@
         <v>1.5</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AU46" t="n">
-        <v>1.6</v>
+        <v>1.72</v>
       </c>
       <c r="AV46" t="n">
-        <v>0.78</v>
+        <v>0.92</v>
       </c>
       <c r="AW46" t="n">
-        <v>2.38</v>
+        <v>2.64</v>
       </c>
       <c r="AX46" t="n">
         <v>1.5</v>
@@ -10241,7 +10241,7 @@
         <v>1.5</v>
       </c>
       <c r="AT48" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU48" t="n">
         <v>1.61</v>
@@ -10647,16 +10647,16 @@
         <v>1.17</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AU50" t="n">
         <v>1.67</v>
       </c>
       <c r="AV50" t="n">
-        <v>1.01</v>
+        <v>1.17</v>
       </c>
       <c r="AW50" t="n">
-        <v>2.68</v>
+        <v>2.84</v>
       </c>
       <c r="AX50" t="n">
         <v>1.42</v>
@@ -10847,7 +10847,7 @@
         <v>0</v>
       </c>
       <c r="AS51" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT51" t="n">
         <v>0</v>
@@ -11053,7 +11053,7 @@
         <v>1.71</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AU52" t="n">
         <v>1.35</v>
@@ -11381,31 +11381,31 @@
         <v>6</v>
       </c>
       <c r="T54" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="U54" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="V54" t="n">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="W54" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="X54" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y54" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="Z54" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AA54" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AB54" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="AC54" t="n">
         <v>1.33</v>
@@ -11417,16 +11417,16 @@
         <v>8.5</v>
       </c>
       <c r="AF54" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="AG54" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AH54" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AI54" t="n">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="AJ54" t="n">
         <v>1.85</v>
@@ -11435,19 +11435,19 @@
         <v>1.93</v>
       </c>
       <c r="AL54" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="AM54" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AN54" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="AO54" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AP54" t="n">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="AQ54" t="n">
         <v>2</v>
@@ -11456,7 +11456,7 @@
         <v>1</v>
       </c>
       <c r="AS54" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AT54" t="n">
         <v>1</v>
@@ -11465,52 +11465,52 @@
         <v>1.8</v>
       </c>
       <c r="AV54" t="n">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="AW54" t="n">
-        <v>3.35</v>
+        <v>3.38</v>
       </c>
       <c r="AX54" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AY54" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AZ54" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="BA54" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="BB54" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="BC54" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="BD54" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="BE54" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="BF54" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG54" t="n">
         <v>5</v>
       </c>
-      <c r="BG54" t="n">
-        <v>6</v>
-      </c>
       <c r="BH54" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BI54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BJ54" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="BK54" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55">
@@ -11659,7 +11659,7 @@
         <v>0.33</v>
       </c>
       <c r="AS55" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT55" t="n">
         <v>0.33</v>
@@ -11868,13 +11868,13 @@
         <v>0.8</v>
       </c>
       <c r="AU56" t="n">
-        <v>1.28</v>
+        <v>1.15</v>
       </c>
       <c r="AV56" t="n">
         <v>1.33</v>
       </c>
       <c r="AW56" t="n">
-        <v>2.61</v>
+        <v>2.48</v>
       </c>
       <c r="AX56" t="n">
         <v>1.29</v>
@@ -12068,7 +12068,7 @@
         <v>1.4</v>
       </c>
       <c r="AT57" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AU57" t="n">
         <v>2.85</v>
@@ -12268,7 +12268,7 @@
         <v>2</v>
       </c>
       <c r="AS58" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AT58" t="n">
         <v>1.71</v>
@@ -12471,19 +12471,19 @@
         <v>1</v>
       </c>
       <c r="AS59" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AT59" t="n">
         <v>0.5</v>
       </c>
       <c r="AU59" t="n">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="AV59" t="n">
         <v>1.6</v>
       </c>
       <c r="AW59" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="AX59" t="n">
         <v>0</v>
@@ -12680,13 +12680,13 @@
         <v>0</v>
       </c>
       <c r="AU60" t="n">
-        <v>1.21</v>
+        <v>1.12</v>
       </c>
       <c r="AV60" t="n">
         <v>0.8100000000000001</v>
       </c>
       <c r="AW60" t="n">
-        <v>2.02</v>
+        <v>1.93</v>
       </c>
       <c r="AX60" t="n">
         <v>1.09</v>
@@ -12877,7 +12877,7 @@
         <v>1</v>
       </c>
       <c r="AS61" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT61" t="n">
         <v>1.17</v>
@@ -13286,16 +13286,16 @@
         <v>1.5</v>
       </c>
       <c r="AT63" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AU63" t="n">
-        <v>1.26</v>
+        <v>1.33</v>
       </c>
       <c r="AV63" t="n">
         <v>0.97</v>
       </c>
       <c r="AW63" t="n">
-        <v>2.23</v>
+        <v>2.3</v>
       </c>
       <c r="AX63" t="n">
         <v>2.2</v>
@@ -13411,31 +13411,31 @@
         <v>9</v>
       </c>
       <c r="T64" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="U64" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="V64" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="W64" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="X64" t="n">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="Y64" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="Z64" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AA64" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AB64" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="AC64" t="n">
         <v>2.95</v>
@@ -13447,16 +13447,16 @@
         <v>2.35</v>
       </c>
       <c r="AF64" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="AG64" t="n">
-        <v>0</v>
+        <v>9.35</v>
       </c>
       <c r="AH64" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AI64" t="n">
-        <v>0</v>
+        <v>2.81</v>
       </c>
       <c r="AJ64" t="n">
         <v>2.15</v>
@@ -13465,19 +13465,19 @@
         <v>1.62</v>
       </c>
       <c r="AL64" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="AM64" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AN64" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AO64" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AP64" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AQ64" t="n">
         <v>2</v>
@@ -13489,58 +13489,58 @@
         <v>1.67</v>
       </c>
       <c r="AT64" t="n">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AU64" t="n">
-        <v>1.76</v>
+        <v>2.03</v>
       </c>
       <c r="AV64" t="n">
         <v>1.32</v>
       </c>
       <c r="AW64" t="n">
-        <v>3.08</v>
+        <v>3.35</v>
       </c>
       <c r="AX64" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AY64" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AZ64" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="BA64" t="n">
         <v>0</v>
       </c>
       <c r="BB64" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="BC64" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="BD64" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="BE64" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="BF64" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG64" t="n">
         <v>3</v>
       </c>
-      <c r="BG64" t="n">
-        <v>4</v>
-      </c>
       <c r="BH64" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BI64" t="n">
         <v>5</v>
       </c>
       <c r="BJ64" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BK64" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65">
@@ -14301,7 +14301,7 @@
         <v>1.17</v>
       </c>
       <c r="AT68" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU68" t="n">
         <v>1.59</v>
@@ -14426,31 +14426,31 @@
         <v>13</v>
       </c>
       <c r="T69" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="U69" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="V69" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="W69" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="X69" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="Y69" t="n">
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="Z69" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AA69" t="n">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="AB69" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="AC69" t="n">
         <v>1.91</v>
@@ -14462,16 +14462,16 @@
         <v>3.5</v>
       </c>
       <c r="AF69" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AG69" t="n">
-        <v>0</v>
+        <v>11.25</v>
       </c>
       <c r="AH69" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AI69" t="n">
-        <v>0</v>
+        <v>3.22</v>
       </c>
       <c r="AJ69" t="n">
         <v>2.1</v>
@@ -14480,19 +14480,19 @@
         <v>1.65</v>
       </c>
       <c r="AL69" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AM69" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AN69" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AO69" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AP69" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AQ69" t="n">
         <v>1.75</v>
@@ -14507,37 +14507,37 @@
         <v>1.33</v>
       </c>
       <c r="AU69" t="n">
-        <v>1.55</v>
+        <v>1.78</v>
       </c>
       <c r="AV69" t="n">
         <v>2.15</v>
       </c>
       <c r="AW69" t="n">
-        <v>3.7</v>
+        <v>3.93</v>
       </c>
       <c r="AX69" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AY69" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AZ69" t="n">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="BA69" t="n">
         <v>0</v>
       </c>
       <c r="BB69" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="BC69" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="BD69" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="BE69" t="n">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="BF69" t="n">
         <v>6</v>
@@ -14546,13 +14546,13 @@
         <v>2</v>
       </c>
       <c r="BH69" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BI69" t="n">
         <v>4</v>
       </c>
       <c r="BJ69" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BK69" t="n">
         <v>6</v>
@@ -15313,7 +15313,7 @@
         <v>1.33</v>
       </c>
       <c r="AS73" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AT73" t="n">
         <v>1</v>
@@ -15725,13 +15725,13 @@
         <v>0.25</v>
       </c>
       <c r="AU75" t="n">
-        <v>1.41</v>
+        <v>1.45</v>
       </c>
       <c r="AV75" t="n">
-        <v>0.84</v>
+        <v>0.87</v>
       </c>
       <c r="AW75" t="n">
-        <v>2.25</v>
+        <v>2.32</v>
       </c>
       <c r="AX75" t="n">
         <v>0</v>
@@ -16125,7 +16125,7 @@
         <v>0.25</v>
       </c>
       <c r="AS77" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AT77" t="n">
         <v>0.33</v>
@@ -16331,16 +16331,16 @@
         <v>1.17</v>
       </c>
       <c r="AT78" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AU78" t="n">
         <v>1.56</v>
       </c>
       <c r="AV78" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="AW78" t="n">
-        <v>2.37</v>
+        <v>2.46</v>
       </c>
       <c r="AX78" t="n">
         <v>0</v>
@@ -16456,31 +16456,31 @@
         <v>15</v>
       </c>
       <c r="T79" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="U79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V79" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="W79" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="X79" t="n">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="Y79" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="Z79" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AA79" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AB79" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="AC79" t="n">
         <v>2.2</v>
@@ -16492,16 +16492,16 @@
         <v>3.2</v>
       </c>
       <c r="AF79" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="AG79" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AH79" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AI79" t="n">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="AJ79" t="n">
         <v>2.25</v>
@@ -16510,19 +16510,19 @@
         <v>1.62</v>
       </c>
       <c r="AL79" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AM79" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="AN79" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AO79" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AP79" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AQ79" t="n">
         <v>1.6</v>
@@ -16540,43 +16540,43 @@
         <v>1.44</v>
       </c>
       <c r="AV79" t="n">
-        <v>1.48</v>
+        <v>1.41</v>
       </c>
       <c r="AW79" t="n">
-        <v>2.92</v>
+        <v>2.85</v>
       </c>
       <c r="AX79" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="AY79" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AZ79" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="BA79" t="n">
         <v>0</v>
       </c>
       <c r="BB79" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="BC79" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="BD79" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="BE79" t="n">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="BF79" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BG79" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BH79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BI79" t="n">
         <v>7</v>
@@ -16585,7 +16585,7 @@
         <v>8</v>
       </c>
       <c r="BK79" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80">
@@ -16937,10 +16937,10 @@
         <v>1.8</v>
       </c>
       <c r="AS81" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT81" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AU81" t="n">
         <v>1.67</v>
@@ -17143,16 +17143,16 @@
         <v>1.4</v>
       </c>
       <c r="AT82" t="n">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AU82" t="n">
         <v>2.45</v>
       </c>
       <c r="AV82" t="n">
-        <v>1.28</v>
+        <v>1.24</v>
       </c>
       <c r="AW82" t="n">
-        <v>3.73</v>
+        <v>3.69</v>
       </c>
       <c r="AX82" t="n">
         <v>1.92</v>
@@ -17343,19 +17343,19 @@
         <v>1</v>
       </c>
       <c r="AS83" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AT83" t="n">
         <v>0.8</v>
       </c>
       <c r="AU83" t="n">
-        <v>1.62</v>
+        <v>1.74</v>
       </c>
       <c r="AV83" t="n">
         <v>1.2</v>
       </c>
       <c r="AW83" t="n">
-        <v>2.82</v>
+        <v>2.94</v>
       </c>
       <c r="AX83" t="n">
         <v>1.33</v>
@@ -17749,19 +17749,19 @@
         <v>2</v>
       </c>
       <c r="AS85" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AU85" t="n">
         <v>1.99</v>
       </c>
       <c r="AV85" t="n">
-        <v>1.32</v>
+        <v>1.43</v>
       </c>
       <c r="AW85" t="n">
-        <v>3.31</v>
+        <v>3.42</v>
       </c>
       <c r="AX85" t="n">
         <v>1.33</v>
@@ -17958,13 +17958,13 @@
         <v>0.25</v>
       </c>
       <c r="AU86" t="n">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="AV86" t="n">
-        <v>0.82</v>
+        <v>0.84</v>
       </c>
       <c r="AW86" t="n">
-        <v>2.17</v>
+        <v>2.13</v>
       </c>
       <c r="AX86" t="n">
         <v>1.1</v>
@@ -18364,13 +18364,13 @@
         <v>1.33</v>
       </c>
       <c r="AU88" t="n">
-        <v>1.59</v>
+        <v>1.62</v>
       </c>
       <c r="AV88" t="n">
         <v>1.44</v>
       </c>
       <c r="AW88" t="n">
-        <v>3.03</v>
+        <v>3.06</v>
       </c>
       <c r="AX88" t="n">
         <v>1.67</v>
@@ -18892,73 +18892,73 @@
         <v>12</v>
       </c>
       <c r="T91" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="U91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V91" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="W91" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="X91" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="Y91" t="n">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="Z91" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AA91" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AB91" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="AC91" t="n">
-        <v>0</v>
+        <v>2.09</v>
       </c>
       <c r="AD91" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="AE91" t="n">
-        <v>0</v>
+        <v>3.17</v>
       </c>
       <c r="AF91" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="AG91" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AH91" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AI91" t="n">
-        <v>0</v>
+        <v>2.97</v>
       </c>
       <c r="AJ91" t="n">
-        <v>0</v>
+        <v>2.07</v>
       </c>
       <c r="AK91" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AL91" t="n">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="AM91" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="AN91" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AO91" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AP91" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="AQ91" t="n">
         <v>2</v>
@@ -18973,55 +18973,55 @@
         <v>1.33</v>
       </c>
       <c r="AU91" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AV91" t="n">
         <v>1.15</v>
       </c>
       <c r="AW91" t="n">
-        <v>2.65</v>
+        <v>2.86</v>
       </c>
       <c r="AX91" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="AY91" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AZ91" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="BA91" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="BB91" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="BC91" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="BD91" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="BE91" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="BF91" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BG91" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BH91" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BI91" t="n">
         <v>5</v>
       </c>
       <c r="BJ91" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="BK91" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="92">
@@ -19785,13 +19785,13 @@
         <v>0.8</v>
       </c>
       <c r="AU95" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AV95" t="n">
         <v>1.27</v>
       </c>
       <c r="AW95" t="n">
-        <v>2.71</v>
+        <v>2.69</v>
       </c>
       <c r="AX95" t="n">
         <v>1.48</v>
@@ -20110,31 +20110,31 @@
         <v>12</v>
       </c>
       <c r="T97" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="U97" t="n">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="V97" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="W97" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="X97" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="Y97" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="Z97" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="AA97" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AB97" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="AC97" t="n">
         <v>1.53</v>
@@ -20146,16 +20146,16 @@
         <v>6</v>
       </c>
       <c r="AF97" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AG97" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AH97" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AI97" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AJ97" t="n">
         <v>2.1</v>
@@ -20164,19 +20164,19 @@
         <v>1.6</v>
       </c>
       <c r="AL97" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AM97" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AN97" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AO97" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AP97" t="n">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AQ97" t="n">
         <v>1.75</v>
@@ -20194,52 +20194,52 @@
         <v>2.28</v>
       </c>
       <c r="AV97" t="n">
-        <v>1.49</v>
+        <v>1.41</v>
       </c>
       <c r="AW97" t="n">
-        <v>3.77</v>
+        <v>3.69</v>
       </c>
       <c r="AX97" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="AY97" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AZ97" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="BA97" t="n">
         <v>0</v>
       </c>
       <c r="BB97" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="BC97" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="BD97" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="BE97" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="BF97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BG97" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BH97" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BI97" t="n">
         <v>6</v>
       </c>
       <c r="BJ97" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BK97" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98">
@@ -20443,6 +20443,1021 @@
       </c>
       <c r="BK98" t="n">
         <v>13</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="n">
+        <v>5053061</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Peru Primera División</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E99" s="2" t="n">
+        <v>45039.625</v>
+      </c>
+      <c r="F99" t="n">
+        <v>13</v>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Unión Comercio</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Alianza Lima</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1</v>
+      </c>
+      <c r="K99" t="n">
+        <v>2</v>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="n">
+        <v>3</v>
+      </c>
+      <c r="N99" t="n">
+        <v>4</v>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>['44']</t>
+        </is>
+      </c>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>['25', '51', '90+3']</t>
+        </is>
+      </c>
+      <c r="Q99" t="n">
+        <v>5</v>
+      </c>
+      <c r="R99" t="n">
+        <v>4</v>
+      </c>
+      <c r="S99" t="n">
+        <v>9</v>
+      </c>
+      <c r="T99" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="U99" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V99" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W99" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X99" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y99" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Z99" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA99" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB99" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC99" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="AD99" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE99" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AF99" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG99" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH99" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI99" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ99" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AK99" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AL99" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM99" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN99" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AO99" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP99" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AQ99" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AR99" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS99" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT99" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AU99" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AV99" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AW99" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AX99" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AY99" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ99" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BA99" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BB99" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BC99" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BD99" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BE99" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="BF99" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG99" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH99" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI99" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ99" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK99" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="n">
+        <v>5053054</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Peru Primera División</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E100" s="2" t="n">
+        <v>45039.72916666666</v>
+      </c>
+      <c r="F100" t="n">
+        <v>13</v>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Real Garcilaso</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Deportivo Garcilaso</t>
+        </is>
+      </c>
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="n">
+        <v>1</v>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="n">
+        <v>2</v>
+      </c>
+      <c r="M100" t="n">
+        <v>1</v>
+      </c>
+      <c r="N100" t="n">
+        <v>3</v>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>['56', '66']</t>
+        </is>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>['24']</t>
+        </is>
+      </c>
+      <c r="Q100" t="n">
+        <v>6</v>
+      </c>
+      <c r="R100" t="n">
+        <v>4</v>
+      </c>
+      <c r="S100" t="n">
+        <v>10</v>
+      </c>
+      <c r="T100" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="U100" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V100" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W100" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X100" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Y100" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Z100" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AA100" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB100" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC100" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AD100" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="AE100" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="AF100" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG100" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH100" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI100" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ100" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK100" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AL100" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM100" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN100" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO100" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP100" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AQ100" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AR100" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS100" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AT100" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AU100" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AV100" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AW100" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="AX100" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AY100" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ100" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA100" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BB100" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BC100" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BD100" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE100" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BF100" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG100" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH100" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI100" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ100" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK100" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="n">
+        <v>5053058</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Peru Primera División</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E101" s="2" t="n">
+        <v>45040.625</v>
+      </c>
+      <c r="F101" t="n">
+        <v>13</v>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Alianza Atlético</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Melgar</t>
+        </is>
+      </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="n">
+        <v>2</v>
+      </c>
+      <c r="K101" t="n">
+        <v>2</v>
+      </c>
+      <c r="L101" t="n">
+        <v>3</v>
+      </c>
+      <c r="M101" t="n">
+        <v>3</v>
+      </c>
+      <c r="N101" t="n">
+        <v>6</v>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>['47', '86', '90+4']</t>
+        </is>
+      </c>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>['16', '45+2', '59']</t>
+        </is>
+      </c>
+      <c r="Q101" t="n">
+        <v>6</v>
+      </c>
+      <c r="R101" t="n">
+        <v>1</v>
+      </c>
+      <c r="S101" t="n">
+        <v>7</v>
+      </c>
+      <c r="T101" t="n">
+        <v>3</v>
+      </c>
+      <c r="U101" t="n">
+        <v>2</v>
+      </c>
+      <c r="V101" t="n">
+        <v>4</v>
+      </c>
+      <c r="W101" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="X101" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Y101" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Z101" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA101" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB101" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC101" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD101" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE101" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AF101" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG101" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH101" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI101" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ101" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK101" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL101" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AM101" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN101" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AO101" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AP101" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ101" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AR101" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS101" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT101" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AU101" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AV101" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AW101" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AX101" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AY101" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ101" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BA101" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB101" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC101" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BD101" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BE101" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="BF101" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG101" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH101" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI101" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ101" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK101" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="n">
+        <v>5053057</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Peru Primera División</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E102" s="2" t="n">
+        <v>45040.83333333334</v>
+      </c>
+      <c r="F102" t="n">
+        <v>13</v>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>César Vallejo</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Deportivo Municipal</t>
+        </is>
+      </c>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
+      <c r="K102" t="n">
+        <v>0</v>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="n">
+        <v>1</v>
+      </c>
+      <c r="N102" t="n">
+        <v>2</v>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>['66']</t>
+        </is>
+      </c>
+      <c r="P102" t="inlineStr">
+        <is>
+          <t>['69']</t>
+        </is>
+      </c>
+      <c r="Q102" t="n">
+        <v>5</v>
+      </c>
+      <c r="R102" t="n">
+        <v>2</v>
+      </c>
+      <c r="S102" t="n">
+        <v>7</v>
+      </c>
+      <c r="T102" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="U102" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V102" t="n">
+        <v>6</v>
+      </c>
+      <c r="W102" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X102" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y102" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Z102" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA102" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AB102" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC102" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AD102" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE102" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AF102" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG102" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH102" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI102" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AJ102" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK102" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL102" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM102" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN102" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AO102" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP102" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AQ102" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AR102" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AS102" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT102" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AU102" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AV102" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW102" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AX102" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AY102" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ102" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA102" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB102" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC102" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BD102" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BE102" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="BF102" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG102" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH102" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI102" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ102" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK102" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="n">
+        <v>5053059</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Peru Primera División</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E103" s="2" t="n">
+        <v>45040.9375</v>
+      </c>
+      <c r="F103" t="n">
+        <v>13</v>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Universitario</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Sporting Cristal</t>
+        </is>
+      </c>
+      <c r="I103" t="n">
+        <v>1</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="n">
+        <v>2</v>
+      </c>
+      <c r="M103" t="n">
+        <v>0</v>
+      </c>
+      <c r="N103" t="n">
+        <v>2</v>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>['45+3', '85']</t>
+        </is>
+      </c>
+      <c r="P103" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q103" t="n">
+        <v>12</v>
+      </c>
+      <c r="R103" t="n">
+        <v>1</v>
+      </c>
+      <c r="S103" t="n">
+        <v>13</v>
+      </c>
+      <c r="T103" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="U103" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V103" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W103" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X103" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Y103" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Z103" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA103" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB103" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC103" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AD103" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE103" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF103" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG103" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH103" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI103" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ103" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK103" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL103" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AM103" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN103" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO103" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP103" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AQ103" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AR103" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS103" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AT103" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AU103" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AV103" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AW103" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="AX103" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AY103" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ103" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BA103" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB103" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BC103" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD103" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BE103" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BF103" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG103" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH103" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI103" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ103" t="n">
+        <v>20</v>
+      </c>
+      <c r="BK103" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Peru Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Peru Primera División_2023.xlsx
@@ -21036,22 +21036,22 @@
         <v>2.91</v>
       </c>
       <c r="BF101" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BG101" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BH101" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BI101" t="n">
         <v>2</v>
       </c>
       <c r="BJ101" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BK101" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="102">

--- a/Bases_de_Dados_(2022-2023)/Peru Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Peru Primera División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK103"/>
+  <dimension ref="A1:BK104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AT7" t="n">
         <v>2.14</v>
@@ -2933,7 +2933,7 @@
         <v>0.6</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AT20" t="n">
         <v>0.57</v>
@@ -8005,7 +8005,7 @@
         <v>1</v>
       </c>
       <c r="AS37" t="n">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AT37" t="n">
         <v>1</v>
@@ -11862,7 +11862,7 @@
         <v>1.5</v>
       </c>
       <c r="AS56" t="n">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AT56" t="n">
         <v>0.8</v>
@@ -12674,7 +12674,7 @@
         <v>0</v>
       </c>
       <c r="AS60" t="n">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AT60" t="n">
         <v>0</v>
@@ -14504,7 +14504,7 @@
         <v>1.67</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU69" t="n">
         <v>1.78</v>
@@ -17952,7 +17952,7 @@
         <v>0</v>
       </c>
       <c r="AS86" t="n">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AT86" t="n">
         <v>0.25</v>
@@ -18361,7 +18361,7 @@
         <v>1.5</v>
       </c>
       <c r="AT88" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU88" t="n">
         <v>1.62</v>
@@ -21458,6 +21458,209 @@
       </c>
       <c r="BK103" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" t="n">
+        <v>5053071</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Peru Primera División</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E104" s="2" t="n">
+        <v>45044.72916666666</v>
+      </c>
+      <c r="F104" t="n">
+        <v>14</v>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Sporting Cristal</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>César Vallejo</t>
+        </is>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
+      <c r="K104" t="n">
+        <v>0</v>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="n">
+        <v>1</v>
+      </c>
+      <c r="N104" t="n">
+        <v>2</v>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>['66']</t>
+        </is>
+      </c>
+      <c r="P104" t="inlineStr">
+        <is>
+          <t>['57']</t>
+        </is>
+      </c>
+      <c r="Q104" t="n">
+        <v>17</v>
+      </c>
+      <c r="R104" t="n">
+        <v>3</v>
+      </c>
+      <c r="S104" t="n">
+        <v>20</v>
+      </c>
+      <c r="T104" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="U104" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="V104" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="W104" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X104" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y104" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Z104" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AA104" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB104" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC104" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AD104" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="AE104" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AF104" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG104" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH104" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI104" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ104" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK104" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL104" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM104" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN104" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AO104" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP104" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AQ104" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AR104" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS104" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AT104" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AU104" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AV104" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AW104" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AX104" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AY104" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ104" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="BA104" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BB104" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BC104" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BD104" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BE104" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BF104" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG104" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH104" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI104" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ104" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK104" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Peru Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Peru Primera División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK104"/>
+  <dimension ref="A1:BK108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>2.5</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AT3" t="n">
         <v>0.57</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT6" t="n">
         <v>0.33</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AT8" t="n">
         <v>0.5</v>
@@ -2730,7 +2730,7 @@
         <v>2.5</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>2</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT19" t="n">
         <v>1.6</v>
@@ -5163,7 +5163,7 @@
         <v>3</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AT23" t="n">
         <v>1.71</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AT24" t="n">
         <v>1</v>
@@ -6384,7 +6384,7 @@
         <v>2</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AU29" t="n">
         <v>1.4</v>
@@ -6584,7 +6584,7 @@
         <v>3</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT30" t="n">
         <v>0.8</v>
@@ -7196,7 +7196,7 @@
         <v>2</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AU33" t="n">
         <v>0.97</v>
@@ -7399,7 +7399,7 @@
         <v>0.6</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU34" t="n">
         <v>0.83</v>
@@ -7599,7 +7599,7 @@
         <v>0</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AT35" t="n">
         <v>0.33</v>
@@ -9429,7 +9429,7 @@
         <v>3</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU44" t="n">
         <v>1.74</v>
@@ -9632,7 +9632,7 @@
         <v>2</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AU45" t="n">
         <v>1.14</v>
@@ -9832,7 +9832,7 @@
         <v>1.5</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AT46" t="n">
         <v>1.6</v>
@@ -10238,7 +10238,7 @@
         <v>1</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT48" t="n">
         <v>0.75</v>
@@ -10444,7 +10444,7 @@
         <v>1</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AU49" t="n">
         <v>1.41</v>
@@ -10644,7 +10644,7 @@
         <v>3</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AT50" t="n">
         <v>1.2</v>
@@ -12880,7 +12880,7 @@
         <v>2</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AU61" t="n">
         <v>1.9</v>
@@ -13283,7 +13283,7 @@
         <v>1.5</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AT63" t="n">
         <v>2.14</v>
@@ -13689,7 +13689,7 @@
         <v>0.5</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AT65" t="n">
         <v>1</v>
@@ -13892,7 +13892,7 @@
         <v>1.5</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT66" t="n">
         <v>1.71</v>
@@ -14098,7 +14098,7 @@
         <v>1.71</v>
       </c>
       <c r="AT67" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU67" t="n">
         <v>1.37</v>
@@ -14704,10 +14704,10 @@
         <v>1</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AU70" t="n">
         <v>2.17</v>
@@ -14907,10 +14907,10 @@
         <v>1</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU71" t="n">
         <v>1.27</v>
@@ -15519,7 +15519,7 @@
         <v>2</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AU74" t="n">
         <v>1.42</v>
@@ -15719,7 +15719,7 @@
         <v>0</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AT75" t="n">
         <v>0.25</v>
@@ -16328,7 +16328,7 @@
         <v>1.33</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AT78" t="n">
         <v>1.6</v>
@@ -18155,7 +18155,7 @@
         <v>0.6</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT87" t="n">
         <v>0.5</v>
@@ -18358,7 +18358,7 @@
         <v>1.5</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AT88" t="n">
         <v>1.25</v>
@@ -18764,7 +18764,7 @@
         <v>0.33</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT90" t="n">
         <v>0.5</v>
@@ -18970,7 +18970,7 @@
         <v>1.67</v>
       </c>
       <c r="AT91" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU91" t="n">
         <v>1.71</v>
@@ -19173,7 +19173,7 @@
         <v>1.17</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AU92" t="n">
         <v>1.6</v>
@@ -19376,7 +19376,7 @@
         <v>1</v>
       </c>
       <c r="AT93" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AU93" t="n">
         <v>1.44</v>
@@ -21661,6 +21661,818 @@
       </c>
       <c r="BK104" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" t="n">
+        <v>5053065</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Peru Primera División</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E105" s="2" t="n">
+        <v>45045.625</v>
+      </c>
+      <c r="F105" t="n">
+        <v>14</v>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Atlético Grau</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Real Garcilaso</t>
+        </is>
+      </c>
+      <c r="I105" t="n">
+        <v>1</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="n">
+        <v>3</v>
+      </c>
+      <c r="M105" t="n">
+        <v>0</v>
+      </c>
+      <c r="N105" t="n">
+        <v>3</v>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>['45+3', '61', '90+3']</t>
+        </is>
+      </c>
+      <c r="P105" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q105" t="n">
+        <v>11</v>
+      </c>
+      <c r="R105" t="n">
+        <v>6</v>
+      </c>
+      <c r="S105" t="n">
+        <v>17</v>
+      </c>
+      <c r="T105" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="U105" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V105" t="n">
+        <v>4</v>
+      </c>
+      <c r="W105" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X105" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y105" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z105" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA105" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB105" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC105" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AD105" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="AE105" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="AF105" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG105" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH105" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI105" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ105" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK105" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AL105" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AM105" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN105" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO105" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP105" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AQ105" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR105" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS105" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AT105" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AU105" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AV105" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AW105" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AX105" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AY105" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ105" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BA105" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB105" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC105" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BD105" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BE105" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BF105" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG105" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH105" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI105" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ105" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK105" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" t="n">
+        <v>5053069</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Peru Primera División</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E106" s="2" t="n">
+        <v>45045.70833333334</v>
+      </c>
+      <c r="F106" t="n">
+        <v>14</v>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Sport Boys</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Universitario</t>
+        </is>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
+      <c r="K106" t="n">
+        <v>0</v>
+      </c>
+      <c r="L106" t="n">
+        <v>0</v>
+      </c>
+      <c r="M106" t="n">
+        <v>3</v>
+      </c>
+      <c r="N106" t="n">
+        <v>3</v>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P106" t="inlineStr">
+        <is>
+          <t>['52', '81', '85']</t>
+        </is>
+      </c>
+      <c r="Q106" t="n">
+        <v>1</v>
+      </c>
+      <c r="R106" t="n">
+        <v>7</v>
+      </c>
+      <c r="S106" t="n">
+        <v>8</v>
+      </c>
+      <c r="T106" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="U106" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V106" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W106" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X106" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="Y106" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="Z106" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA106" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB106" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC106" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AD106" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE106" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AF106" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG106" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH106" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI106" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ106" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AK106" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AL106" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM106" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN106" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AO106" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP106" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AQ106" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AR106" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS106" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT106" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AU106" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AV106" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AW106" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AX106" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="AY106" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AZ106" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BA106" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB106" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BC106" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BD106" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE106" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BF106" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG106" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH106" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI106" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ106" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK106" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" t="n">
+        <v>5053064</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Peru Primera División</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E107" s="2" t="n">
+        <v>45045.72916666666</v>
+      </c>
+      <c r="F107" t="n">
+        <v>14</v>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Deportivo Garcilaso</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Sport Huancayo</t>
+        </is>
+      </c>
+      <c r="I107" t="n">
+        <v>1</v>
+      </c>
+      <c r="J107" t="n">
+        <v>1</v>
+      </c>
+      <c r="K107" t="n">
+        <v>2</v>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="n">
+        <v>1</v>
+      </c>
+      <c r="N107" t="n">
+        <v>2</v>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>['11']</t>
+        </is>
+      </c>
+      <c r="P107" t="inlineStr">
+        <is>
+          <t>['23']</t>
+        </is>
+      </c>
+      <c r="Q107" t="n">
+        <v>2</v>
+      </c>
+      <c r="R107" t="n">
+        <v>13</v>
+      </c>
+      <c r="S107" t="n">
+        <v>15</v>
+      </c>
+      <c r="T107" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="U107" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V107" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W107" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X107" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Y107" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Z107" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AA107" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB107" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC107" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AD107" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE107" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AF107" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG107" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH107" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI107" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ107" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK107" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL107" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM107" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN107" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO107" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP107" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ107" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR107" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AS107" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AT107" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AU107" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AV107" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AW107" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AX107" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AY107" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AZ107" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="BA107" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BB107" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BC107" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BD107" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BE107" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BF107" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG107" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH107" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI107" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ107" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK107" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" t="n">
+        <v>5053067</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Peru Primera División</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E108" s="2" t="n">
+        <v>45045.83333333334</v>
+      </c>
+      <c r="F108" t="n">
+        <v>14</v>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>Melgar</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Academia Cantolao</t>
+        </is>
+      </c>
+      <c r="I108" t="n">
+        <v>4</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
+      <c r="K108" t="n">
+        <v>4</v>
+      </c>
+      <c r="L108" t="n">
+        <v>5</v>
+      </c>
+      <c r="M108" t="n">
+        <v>0</v>
+      </c>
+      <c r="N108" t="n">
+        <v>5</v>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>['16', '21', '24', '41', '68']</t>
+        </is>
+      </c>
+      <c r="P108" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q108" t="n">
+        <v>3</v>
+      </c>
+      <c r="R108" t="n">
+        <v>3</v>
+      </c>
+      <c r="S108" t="n">
+        <v>6</v>
+      </c>
+      <c r="T108" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="U108" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="V108" t="n">
+        <v>10</v>
+      </c>
+      <c r="W108" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X108" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Y108" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z108" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AA108" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AB108" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC108" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AD108" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AE108" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF108" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG108" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH108" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AI108" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AJ108" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK108" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AL108" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AM108" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AN108" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AO108" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AP108" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AQ108" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS108" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU108" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AV108" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="AW108" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AX108" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AY108" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ108" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="BA108" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BB108" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BC108" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BD108" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE108" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BF108" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG108" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH108" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI108" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ108" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK108" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Peru Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Peru Primera División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK108"/>
+  <dimension ref="A1:BK112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1512,7 +1512,7 @@
         <v>1.71</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -2121,7 +2121,7 @@
         <v>1</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>2</v>
       </c>
       <c r="AT9" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT10" t="n">
         <v>1.71</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AT13" t="n">
         <v>0.8</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AT14" t="n">
         <v>1.2</v>
@@ -3542,7 +3542,7 @@
         <v>2</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AT17" t="n">
         <v>0.75</v>
@@ -4760,7 +4760,7 @@
         <v>2</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU21" t="n">
         <v>1.69</v>
@@ -4963,7 +4963,7 @@
         <v>1.4</v>
       </c>
       <c r="AT22" t="n">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AU22" t="n">
         <v>0</v>
@@ -5775,7 +5775,7 @@
         <v>2.5</v>
       </c>
       <c r="AT26" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU26" t="n">
         <v>0</v>
@@ -5975,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT27" t="n">
         <v>0.33</v>
@@ -6790,7 +6790,7 @@
         <v>2</v>
       </c>
       <c r="AT31" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AU31" t="n">
         <v>0.86</v>
@@ -6990,7 +6990,7 @@
         <v>3</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AT32" t="n">
         <v>1.6</v>
@@ -7193,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AT33" t="n">
         <v>1.67</v>
@@ -8817,7 +8817,7 @@
         <v>3</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT41" t="n">
         <v>1.2</v>
@@ -9023,7 +9023,7 @@
         <v>2.5</v>
       </c>
       <c r="AT42" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU42" t="n">
         <v>0</v>
@@ -9223,7 +9223,7 @@
         <v>0</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AT43" t="n">
         <v>0.25</v>
@@ -10038,7 +10038,7 @@
         <v>0.6</v>
       </c>
       <c r="AT47" t="n">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AU47" t="n">
         <v>1.14</v>
@@ -10441,7 +10441,7 @@
         <v>0</v>
       </c>
       <c r="AS49" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AT49" t="n">
         <v>1.67</v>
@@ -11256,7 +11256,7 @@
         <v>2.5</v>
       </c>
       <c r="AT53" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU53" t="n">
         <v>0.4</v>
@@ -12474,7 +12474,7 @@
         <v>2.57</v>
       </c>
       <c r="AT59" t="n">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AU59" t="n">
         <v>1.85</v>
@@ -13080,10 +13080,10 @@
         <v>0</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT62" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU62" t="n">
         <v>1.55</v>
@@ -13486,7 +13486,7 @@
         <v>0.25</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AT64" t="n">
         <v>0.57</v>
@@ -13692,7 +13692,7 @@
         <v>1</v>
       </c>
       <c r="AT65" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU65" t="n">
         <v>1.6</v>
@@ -14298,7 +14298,7 @@
         <v>1</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT68" t="n">
         <v>0.75</v>
@@ -14501,7 +14501,7 @@
         <v>3</v>
       </c>
       <c r="AS69" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AT69" t="n">
         <v>1.25</v>
@@ -15113,7 +15113,7 @@
         <v>3</v>
       </c>
       <c r="AT72" t="n">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AU72" t="n">
         <v>1.76</v>
@@ -15316,7 +15316,7 @@
         <v>2</v>
       </c>
       <c r="AT73" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU73" t="n">
         <v>1.45</v>
@@ -15516,7 +15516,7 @@
         <v>1.5</v>
       </c>
       <c r="AS74" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AT74" t="n">
         <v>1.14</v>
@@ -15922,10 +15922,10 @@
         <v>0</v>
       </c>
       <c r="AS76" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AT76" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AU76" t="n">
         <v>1.38</v>
@@ -17549,7 +17549,7 @@
         <v>0.6</v>
       </c>
       <c r="AT84" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU84" t="n">
         <v>1.16</v>
@@ -18158,7 +18158,7 @@
         <v>1.75</v>
       </c>
       <c r="AT87" t="n">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AU87" t="n">
         <v>1.27</v>
@@ -18767,7 +18767,7 @@
         <v>1.43</v>
       </c>
       <c r="AT90" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AU90" t="n">
         <v>2.05</v>
@@ -18967,7 +18967,7 @@
         <v>1</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AT91" t="n">
         <v>1.14</v>
@@ -19170,7 +19170,7 @@
         <v>1</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT92" t="n">
         <v>1.67</v>
@@ -19373,7 +19373,7 @@
         <v>1.4</v>
       </c>
       <c r="AS93" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AT93" t="n">
         <v>1.14</v>
@@ -19576,10 +19576,10 @@
         <v>1.25</v>
       </c>
       <c r="AS94" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AT94" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU94" t="n">
         <v>1.35</v>
@@ -22473,6 +22473,818 @@
       </c>
       <c r="BK108" t="n">
         <v>5</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" t="n">
+        <v>5053070</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Peru Primera División</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E109" s="2" t="n">
+        <v>45046.625</v>
+      </c>
+      <c r="F109" t="n">
+        <v>14</v>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>Deportivo Binacional</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Alianza Atlético</t>
+        </is>
+      </c>
+      <c r="I109" t="n">
+        <v>1</v>
+      </c>
+      <c r="J109" t="n">
+        <v>2</v>
+      </c>
+      <c r="K109" t="n">
+        <v>3</v>
+      </c>
+      <c r="L109" t="n">
+        <v>4</v>
+      </c>
+      <c r="M109" t="n">
+        <v>2</v>
+      </c>
+      <c r="N109" t="n">
+        <v>6</v>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>['35', '49', '52', '65']</t>
+        </is>
+      </c>
+      <c r="P109" t="inlineStr">
+        <is>
+          <t>['3', '11']</t>
+        </is>
+      </c>
+      <c r="Q109" t="n">
+        <v>5</v>
+      </c>
+      <c r="R109" t="n">
+        <v>1</v>
+      </c>
+      <c r="S109" t="n">
+        <v>6</v>
+      </c>
+      <c r="T109" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="U109" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V109" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W109" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X109" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Y109" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Z109" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA109" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB109" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC109" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AD109" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE109" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AF109" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG109" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH109" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI109" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ109" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK109" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL109" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM109" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN109" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AO109" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP109" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AQ109" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR109" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS109" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT109" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AU109" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AV109" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AW109" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="AX109" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AY109" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ109" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="BA109" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BB109" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BC109" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BD109" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BE109" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BF109" t="n">
+        <v>11</v>
+      </c>
+      <c r="BG109" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH109" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI109" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ109" t="n">
+        <v>20</v>
+      </c>
+      <c r="BK109" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" t="n">
+        <v>5053066</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Peru Primera División</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E110" s="2" t="n">
+        <v>45046.70833333334</v>
+      </c>
+      <c r="F110" t="n">
+        <v>14</v>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>Deportivo Municipal</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>UTC Cajamarca</t>
+        </is>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
+      <c r="K110" t="n">
+        <v>0</v>
+      </c>
+      <c r="L110" t="n">
+        <v>2</v>
+      </c>
+      <c r="M110" t="n">
+        <v>0</v>
+      </c>
+      <c r="N110" t="n">
+        <v>2</v>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>['71', '74']</t>
+        </is>
+      </c>
+      <c r="P110" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q110" t="n">
+        <v>6</v>
+      </c>
+      <c r="R110" t="n">
+        <v>5</v>
+      </c>
+      <c r="S110" t="n">
+        <v>11</v>
+      </c>
+      <c r="T110" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U110" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V110" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="W110" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X110" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y110" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Z110" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AA110" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AB110" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC110" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AD110" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE110" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="AF110" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG110" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AH110" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AI110" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AJ110" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK110" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL110" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM110" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN110" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO110" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP110" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AQ110" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AR110" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS110" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AT110" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AU110" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AV110" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AW110" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AX110" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AY110" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ110" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BA110" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BB110" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BC110" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BD110" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BE110" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BF110" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG110" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH110" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI110" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ110" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK110" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" t="n">
+        <v>5053068</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Peru Primera División</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E111" s="2" t="n">
+        <v>45046.72916666666</v>
+      </c>
+      <c r="F111" t="n">
+        <v>14</v>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>ADT</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Cienciano</t>
+        </is>
+      </c>
+      <c r="I111" t="n">
+        <v>1</v>
+      </c>
+      <c r="J111" t="n">
+        <v>4</v>
+      </c>
+      <c r="K111" t="n">
+        <v>5</v>
+      </c>
+      <c r="L111" t="n">
+        <v>3</v>
+      </c>
+      <c r="M111" t="n">
+        <v>4</v>
+      </c>
+      <c r="N111" t="n">
+        <v>7</v>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>['43', '50', '85']</t>
+        </is>
+      </c>
+      <c r="P111" t="inlineStr">
+        <is>
+          <t>['10', '17', '29', '39']</t>
+        </is>
+      </c>
+      <c r="Q111" t="n">
+        <v>5</v>
+      </c>
+      <c r="R111" t="n">
+        <v>4</v>
+      </c>
+      <c r="S111" t="n">
+        <v>9</v>
+      </c>
+      <c r="T111" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="U111" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V111" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W111" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X111" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y111" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Z111" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA111" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB111" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC111" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AD111" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE111" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AF111" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG111" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH111" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI111" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AJ111" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AK111" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AL111" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AM111" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN111" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AO111" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP111" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AQ111" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR111" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS111" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AT111" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AU111" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AV111" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AW111" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AX111" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY111" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ111" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA111" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB111" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC111" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD111" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE111" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF111" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG111" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH111" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI111" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ111" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK111" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B112" t="n">
+        <v>5053063</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Peru Primera División</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E112" s="2" t="n">
+        <v>45046.875</v>
+      </c>
+      <c r="F112" t="n">
+        <v>14</v>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>Carlos Manucci</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Unión Comercio</t>
+        </is>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="n">
+        <v>0</v>
+      </c>
+      <c r="L112" t="n">
+        <v>2</v>
+      </c>
+      <c r="M112" t="n">
+        <v>0</v>
+      </c>
+      <c r="N112" t="n">
+        <v>2</v>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>['69', '90+7']</t>
+        </is>
+      </c>
+      <c r="P112" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q112" t="n">
+        <v>7</v>
+      </c>
+      <c r="R112" t="n">
+        <v>4</v>
+      </c>
+      <c r="S112" t="n">
+        <v>11</v>
+      </c>
+      <c r="T112" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U112" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V112" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W112" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X112" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y112" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z112" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA112" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB112" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC112" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AD112" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE112" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF112" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG112" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AH112" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AI112" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ112" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK112" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL112" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM112" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN112" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AO112" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP112" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AQ112" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR112" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS112" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AT112" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AU112" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AV112" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AW112" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AX112" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AY112" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ112" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BA112" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BB112" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BC112" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BD112" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BE112" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="BF112" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG112" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH112" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI112" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ112" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK112" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Peru Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Peru Primera División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK112"/>
+  <dimension ref="A1:BK114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AT2" t="n">
         <v>1.14</v>
@@ -1715,7 +1715,7 @@
         <v>1.43</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AT12" t="n">
         <v>1.25</v>
@@ -4354,7 +4354,7 @@
         <v>1.75</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -5772,7 +5772,7 @@
         <v>1</v>
       </c>
       <c r="AS26" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AT26" t="n">
         <v>0.83</v>
@@ -5978,7 +5978,7 @@
         <v>1.43</v>
       </c>
       <c r="AT27" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AU27" t="n">
         <v>0</v>
@@ -6993,7 +6993,7 @@
         <v>1.43</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AU32" t="n">
         <v>3.15</v>
@@ -7396,7 +7396,7 @@
         <v>0</v>
       </c>
       <c r="AS34" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AT34" t="n">
         <v>1.14</v>
@@ -7602,7 +7602,7 @@
         <v>1</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AU35" t="n">
         <v>1.81</v>
@@ -9020,7 +9020,7 @@
         <v>0</v>
       </c>
       <c r="AS42" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AT42" t="n">
         <v>0.43</v>
@@ -9835,7 +9835,7 @@
         <v>1.71</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AU46" t="n">
         <v>1.72</v>
@@ -10035,7 +10035,7 @@
         <v>1.5</v>
       </c>
       <c r="AS47" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AT47" t="n">
         <v>0.86</v>
@@ -11662,7 +11662,7 @@
         <v>2</v>
       </c>
       <c r="AT55" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AU55" t="n">
         <v>1.99</v>
@@ -12268,7 +12268,7 @@
         <v>2</v>
       </c>
       <c r="AS58" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AT58" t="n">
         <v>1.71</v>
@@ -16125,10 +16125,10 @@
         <v>0.25</v>
       </c>
       <c r="AS77" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AT77" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AU77" t="n">
         <v>1.75</v>
@@ -16331,7 +16331,7 @@
         <v>1</v>
       </c>
       <c r="AT78" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AU78" t="n">
         <v>1.56</v>
@@ -17546,7 +17546,7 @@
         <v>0</v>
       </c>
       <c r="AS84" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AT84" t="n">
         <v>0.43</v>
@@ -19982,7 +19982,7 @@
         <v>1.5</v>
       </c>
       <c r="AS96" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AT96" t="n">
         <v>1.71</v>
@@ -20391,7 +20391,7 @@
         <v>2.5</v>
       </c>
       <c r="AT98" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AU98" t="n">
         <v>1.17</v>
@@ -20794,7 +20794,7 @@
         <v>1.5</v>
       </c>
       <c r="AS100" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AT100" t="n">
         <v>1.2</v>
@@ -21203,7 +21203,7 @@
         <v>2</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AU102" t="n">
         <v>1.91</v>
@@ -23285,6 +23285,412 @@
       </c>
       <c r="BK112" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" t="n">
+        <v>5053073</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Peru Primera División</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E113" s="2" t="n">
+        <v>45051.625</v>
+      </c>
+      <c r="F113" t="n">
+        <v>15</v>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>Academia Cantolao</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Deportivo Binacional</t>
+        </is>
+      </c>
+      <c r="I113" t="n">
+        <v>1</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="n">
+        <v>0</v>
+      </c>
+      <c r="N113" t="n">
+        <v>1</v>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>['35']</t>
+        </is>
+      </c>
+      <c r="P113" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q113" t="n">
+        <v>5</v>
+      </c>
+      <c r="R113" t="n">
+        <v>6</v>
+      </c>
+      <c r="S113" t="n">
+        <v>11</v>
+      </c>
+      <c r="T113" t="n">
+        <v>4</v>
+      </c>
+      <c r="U113" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V113" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="W113" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X113" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y113" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Z113" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA113" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB113" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC113" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AD113" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE113" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AF113" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG113" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH113" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI113" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ113" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK113" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL113" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AM113" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN113" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AO113" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP113" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AQ113" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AR113" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AS113" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT113" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AU113" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AV113" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AW113" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="AX113" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AY113" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AZ113" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BA113" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB113" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BC113" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BD113" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BE113" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BF113" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG113" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH113" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI113" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ113" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK113" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" t="n">
+        <v>5053072</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Peru Primera División</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E114" s="2" t="n">
+        <v>45051.72916666666</v>
+      </c>
+      <c r="F114" t="n">
+        <v>15</v>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>Real Garcilaso</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Deportivo Municipal</t>
+        </is>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="n">
+        <v>0</v>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="n">
+        <v>0</v>
+      </c>
+      <c r="N114" t="n">
+        <v>1</v>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>['61']</t>
+        </is>
+      </c>
+      <c r="P114" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q114" t="n">
+        <v>3</v>
+      </c>
+      <c r="R114" t="n">
+        <v>4</v>
+      </c>
+      <c r="S114" t="n">
+        <v>7</v>
+      </c>
+      <c r="T114" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U114" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="V114" t="n">
+        <v>5</v>
+      </c>
+      <c r="W114" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X114" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y114" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z114" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA114" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB114" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC114" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AD114" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="AE114" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="AF114" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG114" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH114" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI114" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ114" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AK114" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AL114" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM114" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN114" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO114" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP114" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AQ114" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AR114" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AS114" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AT114" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU114" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AV114" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="AW114" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AX114" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AY114" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ114" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="BA114" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB114" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BC114" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BD114" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BE114" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BF114" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG114" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH114" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI114" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ114" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK114" t="n">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Peru Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Peru Primera División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK114"/>
+  <dimension ref="A1:BK117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AT11" t="n">
         <v>1.14</v>
@@ -3136,7 +3136,7 @@
         <v>1.4</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3339,7 +3339,7 @@
         <v>1.43</v>
       </c>
       <c r="AT14" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT15" t="n">
         <v>0.4</v>
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT22" t="n">
         <v>0.86</v>
@@ -6381,7 +6381,7 @@
         <v>3</v>
       </c>
       <c r="AS29" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT29" t="n">
         <v>1.14</v>
@@ -6587,7 +6587,7 @@
         <v>1.43</v>
       </c>
       <c r="AT30" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU30" t="n">
         <v>0</v>
@@ -7802,7 +7802,7 @@
         <v>0</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT36" t="n">
         <v>0</v>
@@ -8820,7 +8820,7 @@
         <v>1.43</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AU41" t="n">
         <v>1.47</v>
@@ -10647,7 +10647,7 @@
         <v>1</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AU50" t="n">
         <v>1.67</v>
@@ -10847,7 +10847,7 @@
         <v>0</v>
       </c>
       <c r="AS51" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT51" t="n">
         <v>0</v>
@@ -11253,7 +11253,7 @@
         <v>0</v>
       </c>
       <c r="AS53" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AT53" t="n">
         <v>0.43</v>
@@ -11865,7 +11865,7 @@
         <v>2.14</v>
       </c>
       <c r="AT56" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU56" t="n">
         <v>1.15</v>
@@ -12065,7 +12065,7 @@
         <v>2</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT57" t="n">
         <v>2.14</v>
@@ -16734,7 +16734,7 @@
         <v>1.8</v>
       </c>
       <c r="AS80" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AT80" t="n">
         <v>1.71</v>
@@ -16937,7 +16937,7 @@
         <v>1.8</v>
       </c>
       <c r="AS81" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT81" t="n">
         <v>2.14</v>
@@ -17140,7 +17140,7 @@
         <v>0.4</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT82" t="n">
         <v>0.57</v>
@@ -17346,7 +17346,7 @@
         <v>2.57</v>
       </c>
       <c r="AT83" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU83" t="n">
         <v>1.74</v>
@@ -17752,7 +17752,7 @@
         <v>2</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AU85" t="n">
         <v>1.99</v>
@@ -19782,7 +19782,7 @@
         <v>1.71</v>
       </c>
       <c r="AT95" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU95" t="n">
         <v>1.42</v>
@@ -20185,7 +20185,7 @@
         <v>0.5</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT97" t="n">
         <v>1</v>
@@ -20388,7 +20388,7 @@
         <v>0.2</v>
       </c>
       <c r="AS98" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AT98" t="n">
         <v>0.29</v>
@@ -20797,7 +20797,7 @@
         <v>2.57</v>
       </c>
       <c r="AT100" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AU100" t="n">
         <v>1.72</v>
@@ -20997,7 +20997,7 @@
         <v>0.5</v>
       </c>
       <c r="AS101" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT101" t="n">
         <v>0.57</v>
@@ -23691,6 +23691,615 @@
       </c>
       <c r="BK114" t="n">
         <v>15</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" t="n">
+        <v>5053076</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Peru Primera División</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E115" s="2" t="n">
+        <v>45052.625</v>
+      </c>
+      <c r="F115" t="n">
+        <v>15</v>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>Alianza Atlético</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>ADT</t>
+        </is>
+      </c>
+      <c r="I115" t="n">
+        <v>1</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+      <c r="N115" t="n">
+        <v>2</v>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>['33']</t>
+        </is>
+      </c>
+      <c r="P115" t="inlineStr">
+        <is>
+          <t>['90+4']</t>
+        </is>
+      </c>
+      <c r="Q115" t="n">
+        <v>6</v>
+      </c>
+      <c r="R115" t="n">
+        <v>3</v>
+      </c>
+      <c r="S115" t="n">
+        <v>9</v>
+      </c>
+      <c r="T115" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U115" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V115" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W115" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X115" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y115" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Z115" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AA115" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB115" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC115" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AD115" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE115" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AF115" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG115" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH115" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI115" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AJ115" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AK115" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL115" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM115" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN115" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO115" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP115" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AQ115" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR115" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS115" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AT115" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU115" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AV115" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AW115" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AX115" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AY115" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ115" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BA115" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB115" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BC115" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BD115" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BE115" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BF115" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG115" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH115" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI115" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ115" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK115" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" t="n">
+        <v>5053077</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Peru Primera División</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E116" s="2" t="n">
+        <v>45052.72916666666</v>
+      </c>
+      <c r="F116" t="n">
+        <v>15</v>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>Sport Huancayo</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Atlético Grau</t>
+        </is>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="n">
+        <v>0</v>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="n">
+        <v>0</v>
+      </c>
+      <c r="N116" t="n">
+        <v>1</v>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>['79']</t>
+        </is>
+      </c>
+      <c r="P116" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q116" t="n">
+        <v>8</v>
+      </c>
+      <c r="R116" t="n">
+        <v>5</v>
+      </c>
+      <c r="S116" t="n">
+        <v>13</v>
+      </c>
+      <c r="T116" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U116" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V116" t="n">
+        <v>5</v>
+      </c>
+      <c r="W116" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X116" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Y116" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z116" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AA116" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB116" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC116" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AD116" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE116" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF116" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG116" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AH116" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI116" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ116" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK116" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AL116" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM116" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AN116" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AO116" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP116" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AQ116" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR116" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AS116" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT116" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU116" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AV116" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AW116" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AX116" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AY116" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AZ116" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BA116" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB116" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BC116" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BD116" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BE116" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BF116" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG116" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH116" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI116" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ116" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK116" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B117" t="n">
+        <v>5053080</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Peru Primera División</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E117" s="2" t="n">
+        <v>45052.875</v>
+      </c>
+      <c r="F117" t="n">
+        <v>15</v>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>Cienciano</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Deportivo Garcilaso</t>
+        </is>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="n">
+        <v>0</v>
+      </c>
+      <c r="L117" t="n">
+        <v>0</v>
+      </c>
+      <c r="M117" t="n">
+        <v>0</v>
+      </c>
+      <c r="N117" t="n">
+        <v>0</v>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P117" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q117" t="n">
+        <v>2</v>
+      </c>
+      <c r="R117" t="n">
+        <v>5</v>
+      </c>
+      <c r="S117" t="n">
+        <v>7</v>
+      </c>
+      <c r="T117" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U117" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V117" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="W117" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X117" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Y117" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z117" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AA117" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB117" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC117" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AD117" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AE117" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AF117" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG117" t="n">
+        <v>13.75</v>
+      </c>
+      <c r="AH117" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI117" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AJ117" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AK117" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AL117" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM117" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN117" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AO117" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AP117" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ117" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AR117" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AS117" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AT117" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AU117" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AV117" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AW117" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AX117" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY117" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ117" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA117" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB117" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC117" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BD117" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BE117" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BF117" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG117" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH117" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI117" t="n">
+        <v>13</v>
+      </c>
+      <c r="BJ117" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK117" t="n">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Peru Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Peru Primera División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK117"/>
+  <dimension ref="A1:BK121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,7 +1106,7 @@
         <v>1.71</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AT5" t="n">
         <v>0.86</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT9" t="n">
         <v>0.83</v>
@@ -2527,7 +2527,7 @@
         <v>1.43</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT16" t="n">
         <v>1.67</v>
@@ -3948,7 +3948,7 @@
         <v>2.2</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4151,7 +4151,7 @@
         <v>3</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4557,7 +4557,7 @@
         <v>2.14</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AU20" t="n">
         <v>0</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT21" t="n">
         <v>0.43</v>
@@ -5166,7 +5166,7 @@
         <v>1</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AU23" t="n">
         <v>2.17</v>
@@ -6178,7 +6178,7 @@
         <v>0</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AT28" t="n">
         <v>0</v>
@@ -6787,7 +6787,7 @@
         <v>0</v>
       </c>
       <c r="AS31" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT31" t="n">
         <v>0.4</v>
@@ -8208,10 +8208,10 @@
         <v>3</v>
       </c>
       <c r="AS38" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AU38" t="n">
         <v>1.84</v>
@@ -8414,7 +8414,7 @@
         <v>2.57</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AU39" t="n">
         <v>1.92</v>
@@ -8614,7 +8614,7 @@
         <v>1.5</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AT40" t="n">
         <v>2.14</v>
@@ -9226,7 +9226,7 @@
         <v>1.43</v>
       </c>
       <c r="AT43" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AU43" t="n">
         <v>2.18</v>
@@ -9629,7 +9629,7 @@
         <v>1.5</v>
       </c>
       <c r="AS45" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT45" t="n">
         <v>1.14</v>
@@ -10241,7 +10241,7 @@
         <v>1.43</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AU48" t="n">
         <v>1.61</v>
@@ -11050,10 +11050,10 @@
         <v>0</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AU52" t="n">
         <v>1.35</v>
@@ -11659,7 +11659,7 @@
         <v>0.33</v>
       </c>
       <c r="AS55" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT55" t="n">
         <v>0.29</v>
@@ -12271,7 +12271,7 @@
         <v>2.57</v>
       </c>
       <c r="AT58" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AU58" t="n">
         <v>1.94</v>
@@ -12877,7 +12877,7 @@
         <v>1</v>
       </c>
       <c r="AS61" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT61" t="n">
         <v>1.14</v>
@@ -13489,7 +13489,7 @@
         <v>1.43</v>
       </c>
       <c r="AT64" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AU64" t="n">
         <v>2.03</v>
@@ -13895,7 +13895,7 @@
         <v>1.43</v>
       </c>
       <c r="AT66" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AU66" t="n">
         <v>1.93</v>
@@ -14095,7 +14095,7 @@
         <v>1</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AT67" t="n">
         <v>1.14</v>
@@ -14301,7 +14301,7 @@
         <v>1.43</v>
       </c>
       <c r="AT68" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AU68" t="n">
         <v>1.59</v>
@@ -15313,7 +15313,7 @@
         <v>1.33</v>
       </c>
       <c r="AS73" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT73" t="n">
         <v>0.83</v>
@@ -15722,7 +15722,7 @@
         <v>1.71</v>
       </c>
       <c r="AT75" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AU75" t="n">
         <v>1.45</v>
@@ -16531,7 +16531,7 @@
         <v>0.67</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AT79" t="n">
         <v>1</v>
@@ -16737,7 +16737,7 @@
         <v>2.2</v>
       </c>
       <c r="AT80" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AU80" t="n">
         <v>0.95</v>
@@ -17143,7 +17143,7 @@
         <v>1.67</v>
       </c>
       <c r="AT82" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AU82" t="n">
         <v>2.45</v>
@@ -17749,7 +17749,7 @@
         <v>2</v>
       </c>
       <c r="AS85" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT85" t="n">
         <v>1.17</v>
@@ -17955,7 +17955,7 @@
         <v>2.14</v>
       </c>
       <c r="AT86" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AU86" t="n">
         <v>1.29</v>
@@ -19779,7 +19779,7 @@
         <v>0.75</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AT95" t="n">
         <v>0.67</v>
@@ -19985,7 +19985,7 @@
         <v>1</v>
       </c>
       <c r="AT96" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AU96" t="n">
         <v>1.42</v>
@@ -20591,7 +20591,7 @@
         <v>2</v>
       </c>
       <c r="AS99" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT99" t="n">
         <v>2.14</v>
@@ -21000,7 +21000,7 @@
         <v>1.83</v>
       </c>
       <c r="AT101" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AU101" t="n">
         <v>1.54</v>
@@ -21200,7 +21200,7 @@
         <v>1.75</v>
       </c>
       <c r="AS102" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT102" t="n">
         <v>1.33</v>
@@ -21406,7 +21406,7 @@
         <v>2.57</v>
       </c>
       <c r="AT103" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AU103" t="n">
         <v>1.79</v>
@@ -24300,6 +24300,818 @@
       </c>
       <c r="BK117" t="n">
         <v>16</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B118" t="n">
+        <v>5053074</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Peru Primera División</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E118" s="2" t="n">
+        <v>45053.71875</v>
+      </c>
+      <c r="F118" t="n">
+        <v>15</v>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>UTC Cajamarca</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Sporting Cristal</t>
+        </is>
+      </c>
+      <c r="I118" t="n">
+        <v>1</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+      <c r="N118" t="n">
+        <v>2</v>
+      </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>['4']</t>
+        </is>
+      </c>
+      <c r="P118" t="inlineStr">
+        <is>
+          <t>['81']</t>
+        </is>
+      </c>
+      <c r="Q118" t="n">
+        <v>7</v>
+      </c>
+      <c r="R118" t="n">
+        <v>7</v>
+      </c>
+      <c r="S118" t="n">
+        <v>14</v>
+      </c>
+      <c r="T118" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="U118" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V118" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="W118" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X118" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y118" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Z118" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AA118" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB118" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC118" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AD118" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE118" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF118" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG118" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH118" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI118" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="AJ118" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK118" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL118" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM118" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN118" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AO118" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP118" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AQ118" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AR118" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS118" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AT118" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AU118" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AV118" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AW118" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AX118" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AY118" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AZ118" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BA118" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB118" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BC118" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BD118" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BE118" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BF118" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG118" t="n">
+        <v>10</v>
+      </c>
+      <c r="BH118" t="n">
+        <v>15</v>
+      </c>
+      <c r="BI118" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ118" t="n">
+        <v>21</v>
+      </c>
+      <c r="BK118" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B119" t="n">
+        <v>5053075</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Peru Primera División</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E119" s="2" t="n">
+        <v>45053.8125</v>
+      </c>
+      <c r="F119" t="n">
+        <v>15</v>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>César Vallejo</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Sport Boys</t>
+        </is>
+      </c>
+      <c r="I119" t="n">
+        <v>1</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="n">
+        <v>2</v>
+      </c>
+      <c r="M119" t="n">
+        <v>0</v>
+      </c>
+      <c r="N119" t="n">
+        <v>2</v>
+      </c>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>['38', '49']</t>
+        </is>
+      </c>
+      <c r="P119" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q119" t="n">
+        <v>3</v>
+      </c>
+      <c r="R119" t="n">
+        <v>5</v>
+      </c>
+      <c r="S119" t="n">
+        <v>8</v>
+      </c>
+      <c r="T119" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="U119" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="V119" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="W119" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X119" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Y119" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z119" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AA119" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB119" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC119" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AD119" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AE119" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AF119" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG119" t="n">
+        <v>15.25</v>
+      </c>
+      <c r="AH119" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI119" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AJ119" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK119" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL119" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM119" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN119" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AO119" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AP119" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AQ119" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR119" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AS119" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AT119" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AU119" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AV119" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AW119" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AX119" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY119" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ119" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA119" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB119" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC119" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BD119" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BE119" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BF119" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG119" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH119" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI119" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ119" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK119" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B120" t="n">
+        <v>5053079</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Peru Primera División</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E120" s="2" t="n">
+        <v>45053.91666666666</v>
+      </c>
+      <c r="F120" t="n">
+        <v>15</v>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>Alianza Lima</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Carlos Manucci</t>
+        </is>
+      </c>
+      <c r="I120" t="n">
+        <v>2</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" t="n">
+        <v>2</v>
+      </c>
+      <c r="L120" t="n">
+        <v>3</v>
+      </c>
+      <c r="M120" t="n">
+        <v>0</v>
+      </c>
+      <c r="N120" t="n">
+        <v>3</v>
+      </c>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>['4', '18', '54']</t>
+        </is>
+      </c>
+      <c r="P120" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q120" t="n">
+        <v>3</v>
+      </c>
+      <c r="R120" t="n">
+        <v>6</v>
+      </c>
+      <c r="S120" t="n">
+        <v>9</v>
+      </c>
+      <c r="T120" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="U120" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="V120" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="W120" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X120" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Y120" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z120" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AA120" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB120" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC120" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AD120" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AE120" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF120" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG120" t="n">
+        <v>15.25</v>
+      </c>
+      <c r="AH120" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI120" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AJ120" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK120" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL120" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM120" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN120" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AO120" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AP120" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AQ120" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR120" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AS120" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT120" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU120" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AV120" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AW120" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AX120" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AY120" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ120" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA120" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB120" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BC120" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BD120" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BE120" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BF120" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG120" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH120" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI120" t="n">
+        <v>14</v>
+      </c>
+      <c r="BJ120" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK120" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B121" t="n">
+        <v>5053078</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Peru Primera División</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E121" s="2" t="n">
+        <v>45054.625</v>
+      </c>
+      <c r="F121" t="n">
+        <v>15</v>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>Unión Comercio</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Melgar</t>
+        </is>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="n">
+        <v>0</v>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="n">
+        <v>2</v>
+      </c>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>['90+6']</t>
+        </is>
+      </c>
+      <c r="P121" t="inlineStr">
+        <is>
+          <t>['69']</t>
+        </is>
+      </c>
+      <c r="Q121" t="n">
+        <v>6</v>
+      </c>
+      <c r="R121" t="n">
+        <v>4</v>
+      </c>
+      <c r="S121" t="n">
+        <v>10</v>
+      </c>
+      <c r="T121" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U121" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V121" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="W121" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X121" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Y121" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z121" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA121" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB121" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC121" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AD121" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE121" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AF121" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG121" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH121" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI121" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ121" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AK121" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL121" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AM121" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN121" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AO121" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AP121" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ121" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR121" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AS121" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AT121" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AU121" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AV121" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AW121" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AX121" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AY121" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ121" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BA121" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BB121" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BC121" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BD121" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BE121" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BF121" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG121" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH121" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI121" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ121" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK121" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Peru Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Peru Primera División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK121"/>
+  <dimension ref="A1:BK122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2324,7 +2324,7 @@
         <v>2.13</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AT11" t="n">
         <v>1.14</v>
@@ -5775,7 +5775,7 @@
         <v>2.57</v>
       </c>
       <c r="AT26" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU26" t="n">
         <v>0</v>
@@ -11253,7 +11253,7 @@
         <v>0</v>
       </c>
       <c r="AS53" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AT53" t="n">
         <v>0.43</v>
@@ -13692,7 +13692,7 @@
         <v>1</v>
       </c>
       <c r="AT65" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU65" t="n">
         <v>1.6</v>
@@ -15316,7 +15316,7 @@
         <v>1.83</v>
       </c>
       <c r="AT73" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU73" t="n">
         <v>1.45</v>
@@ -16734,7 +16734,7 @@
         <v>1.8</v>
       </c>
       <c r="AS80" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AT80" t="n">
         <v>1.5</v>
@@ -19579,7 +19579,7 @@
         <v>2.2</v>
       </c>
       <c r="AT94" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU94" t="n">
         <v>1.35</v>
@@ -20388,7 +20388,7 @@
         <v>0.2</v>
       </c>
       <c r="AS98" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AT98" t="n">
         <v>0.29</v>
@@ -22624,7 +22624,7 @@
         <v>1.4</v>
       </c>
       <c r="AT109" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU109" t="n">
         <v>1.69</v>
@@ -24245,7 +24245,7 @@
         <v>1.2</v>
       </c>
       <c r="AS117" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AT117" t="n">
         <v>1.17</v>
@@ -25096,22 +25096,225 @@
         <v>2.36</v>
       </c>
       <c r="BF121" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BG121" t="n">
         <v>4</v>
       </c>
       <c r="BH121" t="n">
+        <v>14</v>
+      </c>
+      <c r="BI121" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ121" t="n">
+        <v>21</v>
+      </c>
+      <c r="BK121" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B122" t="n">
+        <v>5053006</v>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Peru Primera División</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E122" s="2" t="n">
+        <v>45056.72916666666</v>
+      </c>
+      <c r="F122" t="n">
+        <v>7</v>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>Cienciano</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Alianza Atlético</t>
+        </is>
+      </c>
+      <c r="I122" t="n">
+        <v>3</v>
+      </c>
+      <c r="J122" t="n">
+        <v>2</v>
+      </c>
+      <c r="K122" t="n">
+        <v>5</v>
+      </c>
+      <c r="L122" t="n">
+        <v>5</v>
+      </c>
+      <c r="M122" t="n">
+        <v>2</v>
+      </c>
+      <c r="N122" t="n">
+        <v>7</v>
+      </c>
+      <c r="O122" t="inlineStr">
+        <is>
+          <t>['13', '26', '30', '60', '67']</t>
+        </is>
+      </c>
+      <c r="P122" t="inlineStr">
+        <is>
+          <t>['3', '18']</t>
+        </is>
+      </c>
+      <c r="Q122" t="n">
+        <v>7</v>
+      </c>
+      <c r="R122" t="n">
+        <v>1</v>
+      </c>
+      <c r="S122" t="n">
         <v>8</v>
       </c>
-      <c r="BI121" t="n">
+      <c r="T122" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="U122" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V122" t="n">
+        <v>6</v>
+      </c>
+      <c r="W122" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X122" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Y122" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Z122" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA122" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AB122" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC122" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AD122" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AE122" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AF122" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG122" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH122" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI122" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="AJ122" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AK122" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL122" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AM122" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AN122" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AO122" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP122" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AQ122" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AR122" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AS122" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AT122" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AU122" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AV122" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AW122" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AX122" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY122" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ122" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA122" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB122" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC122" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD122" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BE122" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF122" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG122" t="n">
+        <v>10</v>
+      </c>
+      <c r="BH122" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI122" t="n">
         <v>5</v>
       </c>
-      <c r="BJ121" t="n">
-        <v>13</v>
-      </c>
-      <c r="BK121" t="n">
-        <v>9</v>
+      <c r="BJ122" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK122" t="n">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Peru Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Peru Primera División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK122"/>
+  <dimension ref="A1:BK126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2933,7 +2933,7 @@
         <v>1</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT13" t="n">
         <v>0.67</v>
@@ -3542,7 +3542,7 @@
         <v>1.83</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -4151,7 +4151,7 @@
         <v>3</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AT19" t="n">
         <v>1.33</v>
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT22" t="n">
         <v>0.86</v>
@@ -5369,7 +5369,7 @@
         <v>1.71</v>
       </c>
       <c r="AT24" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU24" t="n">
         <v>0</v>
@@ -6790,7 +6790,7 @@
         <v>1.83</v>
       </c>
       <c r="AT31" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AU31" t="n">
         <v>0.86</v>
@@ -7802,7 +7802,7 @@
         <v>0</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT36" t="n">
         <v>0</v>
@@ -8008,7 +8008,7 @@
         <v>2.14</v>
       </c>
       <c r="AT37" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU37" t="n">
         <v>0.8100000000000001</v>
@@ -9226,7 +9226,7 @@
         <v>1.43</v>
       </c>
       <c r="AT43" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AU43" t="n">
         <v>2.18</v>
@@ -10441,7 +10441,7 @@
         <v>0</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT49" t="n">
         <v>1.67</v>
@@ -11459,7 +11459,7 @@
         <v>2.57</v>
       </c>
       <c r="AT54" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU54" t="n">
         <v>1.8</v>
@@ -12065,7 +12065,7 @@
         <v>2</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT57" t="n">
         <v>2.14</v>
@@ -14504,7 +14504,7 @@
         <v>1.43</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AU69" t="n">
         <v>1.78</v>
@@ -14907,7 +14907,7 @@
         <v>1</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AT71" t="n">
         <v>1.14</v>
@@ -15722,7 +15722,7 @@
         <v>1.71</v>
       </c>
       <c r="AT75" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AU75" t="n">
         <v>1.45</v>
@@ -15922,10 +15922,10 @@
         <v>0</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT76" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AU76" t="n">
         <v>1.38</v>
@@ -16534,7 +16534,7 @@
         <v>1.63</v>
       </c>
       <c r="AT79" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU79" t="n">
         <v>1.44</v>
@@ -17140,7 +17140,7 @@
         <v>0.4</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT82" t="n">
         <v>0.63</v>
@@ -17955,7 +17955,7 @@
         <v>2.14</v>
       </c>
       <c r="AT86" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AU86" t="n">
         <v>1.29</v>
@@ -18155,7 +18155,7 @@
         <v>0.6</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AT87" t="n">
         <v>0.86</v>
@@ -18361,7 +18361,7 @@
         <v>1.71</v>
       </c>
       <c r="AT88" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AU88" t="n">
         <v>1.62</v>
@@ -18767,7 +18767,7 @@
         <v>1.43</v>
       </c>
       <c r="AT90" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AU90" t="n">
         <v>2.05</v>
@@ -19373,7 +19373,7 @@
         <v>1.4</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT93" t="n">
         <v>1.14</v>
@@ -20185,10 +20185,10 @@
         <v>0.5</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT97" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU97" t="n">
         <v>2.28</v>
@@ -21609,7 +21609,7 @@
         <v>2.14</v>
       </c>
       <c r="AT104" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AU104" t="n">
         <v>1.38</v>
@@ -22418,7 +22418,7 @@
         <v>0</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AT108" t="n">
         <v>0</v>
@@ -22621,7 +22621,7 @@
         <v>1</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT109" t="n">
         <v>0.71</v>
@@ -22827,7 +22827,7 @@
         <v>1.43</v>
       </c>
       <c r="AT110" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AU110" t="n">
         <v>1.64</v>
@@ -23842,7 +23842,7 @@
         <v>1.83</v>
       </c>
       <c r="AT115" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU115" t="n">
         <v>1.53</v>
@@ -24042,7 +24042,7 @@
         <v>0.8</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT116" t="n">
         <v>0.67</v>
@@ -24654,7 +24654,7 @@
         <v>2.13</v>
       </c>
       <c r="AT119" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AU119" t="n">
         <v>1.79</v>
@@ -25315,6 +25315,818 @@
       </c>
       <c r="BK122" t="n">
         <v>15</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B123" t="n">
+        <v>5052998</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Peru Primera División</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E123" s="2" t="n">
+        <v>45057.91666666666</v>
+      </c>
+      <c r="F123" t="n">
+        <v>6</v>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>Alianza Lima</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>César Vallejo</t>
+        </is>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" t="n">
+        <v>0</v>
+      </c>
+      <c r="L123" t="n">
+        <v>2</v>
+      </c>
+      <c r="M123" t="n">
+        <v>0</v>
+      </c>
+      <c r="N123" t="n">
+        <v>2</v>
+      </c>
+      <c r="O123" t="inlineStr">
+        <is>
+          <t>['60', '83']</t>
+        </is>
+      </c>
+      <c r="P123" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q123" t="n">
+        <v>5</v>
+      </c>
+      <c r="R123" t="n">
+        <v>3</v>
+      </c>
+      <c r="S123" t="n">
+        <v>8</v>
+      </c>
+      <c r="T123" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U123" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V123" t="n">
+        <v>6</v>
+      </c>
+      <c r="W123" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X123" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Y123" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Z123" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA123" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB123" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC123" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AD123" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AE123" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AF123" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG123" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH123" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI123" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ123" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AK123" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AL123" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AM123" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AN123" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AO123" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP123" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AQ123" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR123" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS123" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT123" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU123" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AV123" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AW123" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AX123" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AY123" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ123" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BA123" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BB123" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BC123" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BD123" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BE123" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BF123" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG123" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH123" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI123" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ123" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK123" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B124" t="n">
+        <v>5052958</v>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Peru Primera División</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E124" s="2" t="n">
+        <v>45058.625</v>
+      </c>
+      <c r="F124" t="n">
+        <v>2</v>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>Sport Huancayo</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>UTC Cajamarca</t>
+        </is>
+      </c>
+      <c r="I124" t="n">
+        <v>2</v>
+      </c>
+      <c r="J124" t="n">
+        <v>1</v>
+      </c>
+      <c r="K124" t="n">
+        <v>3</v>
+      </c>
+      <c r="L124" t="n">
+        <v>5</v>
+      </c>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="n">
+        <v>6</v>
+      </c>
+      <c r="O124" t="inlineStr">
+        <is>
+          <t>['11', '24', '59', '63', '82']</t>
+        </is>
+      </c>
+      <c r="P124" t="inlineStr">
+        <is>
+          <t>['35']</t>
+        </is>
+      </c>
+      <c r="Q124" t="n">
+        <v>7</v>
+      </c>
+      <c r="R124" t="n">
+        <v>4</v>
+      </c>
+      <c r="S124" t="n">
+        <v>11</v>
+      </c>
+      <c r="T124" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="U124" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="V124" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="W124" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="X124" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Y124" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z124" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AA124" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AB124" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC124" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AD124" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE124" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="AF124" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG124" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH124" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AI124" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AJ124" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK124" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL124" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AM124" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN124" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO124" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AP124" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AQ124" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR124" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AS124" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AT124" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AU124" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AV124" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AW124" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="AX124" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AY124" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ124" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BA124" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB124" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC124" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BD124" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BE124" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BF124" t="n">
+        <v>17</v>
+      </c>
+      <c r="BG124" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH124" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI124" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ124" t="n">
+        <v>26</v>
+      </c>
+      <c r="BK124" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B125" t="n">
+        <v>5052995</v>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Peru Primera División</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E125" s="2" t="n">
+        <v>45058.72916666666</v>
+      </c>
+      <c r="F125" t="n">
+        <v>6</v>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>Melgar</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Sport Boys</t>
+        </is>
+      </c>
+      <c r="I125" t="n">
+        <v>1</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="n">
+        <v>2</v>
+      </c>
+      <c r="M125" t="n">
+        <v>0</v>
+      </c>
+      <c r="N125" t="n">
+        <v>2</v>
+      </c>
+      <c r="O125" t="inlineStr">
+        <is>
+          <t>['40', '61']</t>
+        </is>
+      </c>
+      <c r="P125" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q125" t="n">
+        <v>6</v>
+      </c>
+      <c r="R125" t="n">
+        <v>2</v>
+      </c>
+      <c r="S125" t="n">
+        <v>8</v>
+      </c>
+      <c r="T125" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U125" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V125" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="W125" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X125" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Y125" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Z125" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA125" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB125" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC125" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AD125" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AE125" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AF125" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG125" t="n">
+        <v>15.75</v>
+      </c>
+      <c r="AH125" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI125" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AJ125" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AK125" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AL125" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AM125" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN125" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AO125" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AP125" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AQ125" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR125" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AS125" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT125" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AU125" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AV125" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AW125" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AX125" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AY125" t="n">
+        <v>14.75</v>
+      </c>
+      <c r="AZ125" t="n">
+        <v>6.55</v>
+      </c>
+      <c r="BA125" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB125" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BC125" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BD125" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BE125" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BF125" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG125" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH125" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI125" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ125" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK125" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B126" t="n">
+        <v>5052963</v>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Peru Primera División</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E126" s="2" t="n">
+        <v>45058.83333333334</v>
+      </c>
+      <c r="F126" t="n">
+        <v>2</v>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>Deportivo Binacional</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>ADT</t>
+        </is>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
+      <c r="K126" t="n">
+        <v>0</v>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="n">
+        <v>0</v>
+      </c>
+      <c r="N126" t="n">
+        <v>1</v>
+      </c>
+      <c r="O126" t="inlineStr">
+        <is>
+          <t>['88']</t>
+        </is>
+      </c>
+      <c r="P126" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q126" t="n">
+        <v>2</v>
+      </c>
+      <c r="R126" t="n">
+        <v>9</v>
+      </c>
+      <c r="S126" t="n">
+        <v>11</v>
+      </c>
+      <c r="T126" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U126" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V126" t="n">
+        <v>5</v>
+      </c>
+      <c r="W126" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X126" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Y126" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z126" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AA126" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB126" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC126" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AD126" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE126" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="AF126" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG126" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH126" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI126" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ126" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AK126" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AL126" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM126" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN126" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO126" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP126" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AQ126" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR126" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS126" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT126" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AU126" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AV126" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AW126" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AX126" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AY126" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ126" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BA126" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB126" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BC126" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BD126" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BE126" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BF126" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG126" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH126" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI126" t="n">
+        <v>13</v>
+      </c>
+      <c r="BJ126" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK126" t="n">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Peru Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Peru Primera División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK126"/>
+  <dimension ref="A1:BK132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AT11" t="n">
         <v>1.14</v>
@@ -3136,7 +3136,7 @@
         <v>1.67</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3339,7 +3339,7 @@
         <v>1.43</v>
       </c>
       <c r="AT14" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT15" t="n">
         <v>0.33</v>
@@ -3742,10 +3742,10 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4351,10 +4351,10 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -6381,7 +6381,7 @@
         <v>3</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT29" t="n">
         <v>1.14</v>
@@ -6587,7 +6587,7 @@
         <v>1.43</v>
       </c>
       <c r="AT30" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU30" t="n">
         <v>0</v>
@@ -6787,7 +6787,7 @@
         <v>0</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT31" t="n">
         <v>0.33</v>
@@ -6993,7 +6993,7 @@
         <v>1.43</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU32" t="n">
         <v>3.15</v>
@@ -7193,10 +7193,10 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AU33" t="n">
         <v>0.97</v>
@@ -8820,7 +8820,7 @@
         <v>1.43</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AU41" t="n">
         <v>1.47</v>
@@ -9629,7 +9629,7 @@
         <v>1.5</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT45" t="n">
         <v>1.14</v>
@@ -9835,7 +9835,7 @@
         <v>1.71</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU46" t="n">
         <v>1.72</v>
@@ -10241,7 +10241,7 @@
         <v>1.43</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AU48" t="n">
         <v>1.61</v>
@@ -10444,7 +10444,7 @@
         <v>1.67</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AU49" t="n">
         <v>1.41</v>
@@ -10647,7 +10647,7 @@
         <v>1</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AU50" t="n">
         <v>1.67</v>
@@ -10847,7 +10847,7 @@
         <v>0</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT51" t="n">
         <v>0</v>
@@ -11253,7 +11253,7 @@
         <v>0</v>
       </c>
       <c r="AS53" t="n">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AT53" t="n">
         <v>0.43</v>
@@ -11865,7 +11865,7 @@
         <v>2.14</v>
       </c>
       <c r="AT56" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU56" t="n">
         <v>1.15</v>
@@ -14301,7 +14301,7 @@
         <v>1.43</v>
       </c>
       <c r="AT68" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AU68" t="n">
         <v>1.59</v>
@@ -14707,7 +14707,7 @@
         <v>1.43</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AU70" t="n">
         <v>2.17</v>
@@ -14907,7 +14907,7 @@
         <v>1</v>
       </c>
       <c r="AS71" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AT71" t="n">
         <v>1.14</v>
@@ -15313,7 +15313,7 @@
         <v>1.33</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT73" t="n">
         <v>0.71</v>
@@ -15516,7 +15516,7 @@
         <v>1.5</v>
       </c>
       <c r="AS74" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AT74" t="n">
         <v>1.14</v>
@@ -16331,7 +16331,7 @@
         <v>1</v>
       </c>
       <c r="AT78" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU78" t="n">
         <v>1.56</v>
@@ -16734,7 +16734,7 @@
         <v>1.8</v>
       </c>
       <c r="AS80" t="n">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AT80" t="n">
         <v>1.5</v>
@@ -16937,7 +16937,7 @@
         <v>1.8</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT81" t="n">
         <v>2.14</v>
@@ -17346,7 +17346,7 @@
         <v>2.57</v>
       </c>
       <c r="AT83" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU83" t="n">
         <v>1.74</v>
@@ -17752,7 +17752,7 @@
         <v>2.13</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AU85" t="n">
         <v>1.99</v>
@@ -18155,7 +18155,7 @@
         <v>0.6</v>
       </c>
       <c r="AS87" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AT87" t="n">
         <v>0.86</v>
@@ -19173,7 +19173,7 @@
         <v>1.43</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AU92" t="n">
         <v>1.6</v>
@@ -19576,7 +19576,7 @@
         <v>1.25</v>
       </c>
       <c r="AS94" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AT94" t="n">
         <v>0.71</v>
@@ -19782,7 +19782,7 @@
         <v>1.63</v>
       </c>
       <c r="AT95" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU95" t="n">
         <v>1.42</v>
@@ -20388,7 +20388,7 @@
         <v>0.2</v>
       </c>
       <c r="AS98" t="n">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AT98" t="n">
         <v>0.29</v>
@@ -20591,7 +20591,7 @@
         <v>2</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT99" t="n">
         <v>2.14</v>
@@ -20797,7 +20797,7 @@
         <v>2.57</v>
       </c>
       <c r="AT100" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AU100" t="n">
         <v>1.72</v>
@@ -20997,7 +20997,7 @@
         <v>0.5</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT101" t="n">
         <v>0.63</v>
@@ -21203,7 +21203,7 @@
         <v>2.13</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU102" t="n">
         <v>1.91</v>
@@ -21406,7 +21406,7 @@
         <v>2.57</v>
       </c>
       <c r="AT103" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AU103" t="n">
         <v>1.79</v>
@@ -22015,7 +22015,7 @@
         <v>1</v>
       </c>
       <c r="AT106" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AU106" t="n">
         <v>1.45</v>
@@ -22418,7 +22418,7 @@
         <v>0</v>
       </c>
       <c r="AS108" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AT108" t="n">
         <v>0</v>
@@ -23230,7 +23230,7 @@
         <v>0.5</v>
       </c>
       <c r="AS112" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AT112" t="n">
         <v>0.43</v>
@@ -23639,7 +23639,7 @@
         <v>2.57</v>
       </c>
       <c r="AT114" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU114" t="n">
         <v>1.71</v>
@@ -23839,7 +23839,7 @@
         <v>1</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT115" t="n">
         <v>0.86</v>
@@ -24045,7 +24045,7 @@
         <v>1.86</v>
       </c>
       <c r="AT116" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU116" t="n">
         <v>2.04</v>
@@ -24245,10 +24245,10 @@
         <v>1.2</v>
       </c>
       <c r="AS117" t="n">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AT117" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AU117" t="n">
         <v>1.26</v>
@@ -24451,7 +24451,7 @@
         <v>1.63</v>
       </c>
       <c r="AT118" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AU118" t="n">
         <v>1.5</v>
@@ -25057,7 +25057,7 @@
         <v>0.57</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT121" t="n">
         <v>0.63</v>
@@ -25260,7 +25260,7 @@
         <v>0.83</v>
       </c>
       <c r="AS122" t="n">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AT122" t="n">
         <v>0.71</v>
@@ -25869,7 +25869,7 @@
         <v>0.2</v>
       </c>
       <c r="AS125" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AT125" t="n">
         <v>0.17</v>
@@ -26127,6 +26127,1224 @@
       </c>
       <c r="BK126" t="n">
         <v>20</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B127" t="n">
+        <v>5052960</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Peru Primera División</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E127" s="2" t="n">
+        <v>45059.625</v>
+      </c>
+      <c r="F127" t="n">
+        <v>2</v>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>Unión Comercio</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>Sporting Cristal</t>
+        </is>
+      </c>
+      <c r="I127" t="n">
+        <v>1</v>
+      </c>
+      <c r="J127" t="n">
+        <v>2</v>
+      </c>
+      <c r="K127" t="n">
+        <v>3</v>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="n">
+        <v>6</v>
+      </c>
+      <c r="N127" t="n">
+        <v>7</v>
+      </c>
+      <c r="O127" t="inlineStr">
+        <is>
+          <t>['10']</t>
+        </is>
+      </c>
+      <c r="P127" t="inlineStr">
+        <is>
+          <t>['1', '45+1', '62', '73', '82', '90+2']</t>
+        </is>
+      </c>
+      <c r="Q127" t="n">
+        <v>4</v>
+      </c>
+      <c r="R127" t="n">
+        <v>1</v>
+      </c>
+      <c r="S127" t="n">
+        <v>5</v>
+      </c>
+      <c r="T127" t="n">
+        <v>5</v>
+      </c>
+      <c r="U127" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V127" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W127" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X127" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Y127" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z127" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AA127" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AB127" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC127" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AD127" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AE127" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AF127" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG127" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH127" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AI127" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AJ127" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AK127" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AL127" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AM127" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AN127" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AO127" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP127" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AQ127" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AR127" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AS127" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AT127" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AU127" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AV127" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AW127" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AX127" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AY127" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ127" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BA127" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB127" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BC127" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BD127" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE127" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BF127" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG127" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH127" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI127" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ127" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK127" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B128" t="n">
+        <v>5052955</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Peru Primera División</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E128" s="2" t="n">
+        <v>45059.875</v>
+      </c>
+      <c r="F128" t="n">
+        <v>2</v>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>Carlos Manucci</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>Atlético Grau</t>
+        </is>
+      </c>
+      <c r="I128" t="n">
+        <v>1</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="n">
+        <v>0</v>
+      </c>
+      <c r="N128" t="n">
+        <v>1</v>
+      </c>
+      <c r="O128" t="inlineStr">
+        <is>
+          <t>['39']</t>
+        </is>
+      </c>
+      <c r="P128" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q128" t="n">
+        <v>3</v>
+      </c>
+      <c r="R128" t="n">
+        <v>8</v>
+      </c>
+      <c r="S128" t="n">
+        <v>11</v>
+      </c>
+      <c r="T128" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U128" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V128" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="W128" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X128" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Y128" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Z128" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AA128" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB128" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC128" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AD128" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE128" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AF128" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG128" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH128" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI128" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AJ128" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK128" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL128" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AM128" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN128" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO128" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP128" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AQ128" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AR128" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS128" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AT128" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AU128" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AV128" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AW128" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AX128" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AY128" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ128" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BA128" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB128" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BC128" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BD128" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BE128" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BF128" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG128" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH128" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI128" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ128" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK128" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B129" t="n">
+        <v>5052957</v>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Peru Primera División</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E129" s="2" t="n">
+        <v>45060.625</v>
+      </c>
+      <c r="F129" t="n">
+        <v>2</v>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>Alianza Atlético</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>Universitario</t>
+        </is>
+      </c>
+      <c r="I129" t="n">
+        <v>1</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="n">
+        <v>3</v>
+      </c>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="n">
+        <v>4</v>
+      </c>
+      <c r="O129" t="inlineStr">
+        <is>
+          <t>['23', '56', '86']</t>
+        </is>
+      </c>
+      <c r="P129" t="inlineStr">
+        <is>
+          <t>['50']</t>
+        </is>
+      </c>
+      <c r="Q129" t="n">
+        <v>1</v>
+      </c>
+      <c r="R129" t="n">
+        <v>5</v>
+      </c>
+      <c r="S129" t="n">
+        <v>6</v>
+      </c>
+      <c r="T129" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="U129" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V129" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W129" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X129" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Y129" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Z129" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AA129" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB129" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC129" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AD129" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE129" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AF129" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG129" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH129" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI129" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AJ129" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AK129" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AL129" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AM129" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN129" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AO129" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP129" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AQ129" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AR129" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AS129" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT129" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AU129" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AV129" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AW129" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AX129" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AY129" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ129" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BA129" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB129" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BC129" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BD129" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BE129" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BF129" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG129" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH129" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI129" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ129" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK129" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B130" t="n">
+        <v>5052962</v>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Peru Primera División</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E130" s="2" t="n">
+        <v>45060.72916666666</v>
+      </c>
+      <c r="F130" t="n">
+        <v>2</v>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>Cienciano</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>César Vallejo</t>
+        </is>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" t="n">
+        <v>0</v>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="n">
+        <v>2</v>
+      </c>
+      <c r="O130" t="inlineStr">
+        <is>
+          <t>['65']</t>
+        </is>
+      </c>
+      <c r="P130" t="inlineStr">
+        <is>
+          <t>['90']</t>
+        </is>
+      </c>
+      <c r="Q130" t="n">
+        <v>7</v>
+      </c>
+      <c r="R130" t="n">
+        <v>1</v>
+      </c>
+      <c r="S130" t="n">
+        <v>8</v>
+      </c>
+      <c r="T130" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U130" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V130" t="n">
+        <v>5</v>
+      </c>
+      <c r="W130" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X130" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y130" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z130" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA130" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB130" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC130" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AD130" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE130" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AF130" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG130" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH130" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AI130" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ130" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AK130" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL130" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM130" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN130" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO130" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP130" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AQ130" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AR130" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS130" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AT130" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU130" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AV130" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AW130" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AX130" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AY130" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AZ130" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="BA130" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB130" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BC130" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BD130" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="BE130" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BF130" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG130" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH130" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI130" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ130" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK130" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B131" t="n">
+        <v>5052959</v>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Peru Primera División</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E131" s="2" t="n">
+        <v>45061.72916666666</v>
+      </c>
+      <c r="F131" t="n">
+        <v>2</v>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>Melgar</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Deportivo Garcilaso</t>
+        </is>
+      </c>
+      <c r="I131" t="n">
+        <v>1</v>
+      </c>
+      <c r="J131" t="n">
+        <v>3</v>
+      </c>
+      <c r="K131" t="n">
+        <v>4</v>
+      </c>
+      <c r="L131" t="n">
+        <v>2</v>
+      </c>
+      <c r="M131" t="n">
+        <v>4</v>
+      </c>
+      <c r="N131" t="n">
+        <v>6</v>
+      </c>
+      <c r="O131" t="inlineStr">
+        <is>
+          <t>['16', '75']</t>
+        </is>
+      </c>
+      <c r="P131" t="inlineStr">
+        <is>
+          <t>['10', '29', '45+3', '89']</t>
+        </is>
+      </c>
+      <c r="Q131" t="n">
+        <v>8</v>
+      </c>
+      <c r="R131" t="n">
+        <v>5</v>
+      </c>
+      <c r="S131" t="n">
+        <v>13</v>
+      </c>
+      <c r="T131" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U131" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="V131" t="n">
+        <v>8</v>
+      </c>
+      <c r="W131" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X131" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Y131" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Z131" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA131" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AB131" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC131" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AD131" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AE131" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AF131" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG131" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH131" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI131" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AJ131" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK131" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AL131" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AM131" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AN131" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AO131" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AP131" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AQ131" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR131" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AS131" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT131" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AU131" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AV131" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AW131" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AX131" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AY131" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ131" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA131" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BB131" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BC131" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BD131" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BE131" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BF131" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG131" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH131" t="n">
+        <v>17</v>
+      </c>
+      <c r="BI131" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ131" t="n">
+        <v>24</v>
+      </c>
+      <c r="BK131" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B132" t="n">
+        <v>5052961</v>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Peru Primera División</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E132" s="2" t="n">
+        <v>45061.91666666666</v>
+      </c>
+      <c r="F132" t="n">
+        <v>2</v>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>Alianza Lima</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Deportivo Municipal</t>
+        </is>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
+      <c r="K132" t="n">
+        <v>0</v>
+      </c>
+      <c r="L132" t="n">
+        <v>2</v>
+      </c>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="n">
+        <v>3</v>
+      </c>
+      <c r="O132" t="inlineStr">
+        <is>
+          <t>['61', '85']</t>
+        </is>
+      </c>
+      <c r="P132" t="inlineStr">
+        <is>
+          <t>['47']</t>
+        </is>
+      </c>
+      <c r="Q132" t="n">
+        <v>9</v>
+      </c>
+      <c r="R132" t="n">
+        <v>3</v>
+      </c>
+      <c r="S132" t="n">
+        <v>12</v>
+      </c>
+      <c r="T132" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="U132" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="V132" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="W132" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="X132" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y132" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z132" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA132" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AB132" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC132" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AD132" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="AE132" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AF132" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG132" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH132" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI132" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AJ132" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK132" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL132" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AM132" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AN132" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AO132" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AP132" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AQ132" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR132" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS132" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT132" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AU132" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AV132" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AW132" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AX132" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AY132" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ132" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA132" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB132" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BC132" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD132" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE132" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="BF132" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG132" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH132" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI132" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ132" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK132" t="n">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Peru Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Peru Primera División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK132"/>
+  <dimension ref="A1:BK135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AT13" t="n">
         <v>0.57</v>
@@ -3542,7 +3542,7 @@
         <v>2</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4151,7 +4151,7 @@
         <v>3</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.17</v>
+        <v>0.29</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -6790,7 +6790,7 @@
         <v>1.57</v>
       </c>
       <c r="AT31" t="n">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AU31" t="n">
         <v>0.86</v>
@@ -7193,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AT33" t="n">
         <v>1.43</v>
@@ -9226,7 +9226,7 @@
         <v>1.43</v>
       </c>
       <c r="AT43" t="n">
-        <v>0.17</v>
+        <v>0.29</v>
       </c>
       <c r="AU43" t="n">
         <v>2.18</v>
@@ -10241,7 +10241,7 @@
         <v>1.43</v>
       </c>
       <c r="AT48" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AU48" t="n">
         <v>1.61</v>
@@ -10441,7 +10441,7 @@
         <v>0</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AT49" t="n">
         <v>1.43</v>
@@ -14301,7 +14301,7 @@
         <v>1.43</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AU68" t="n">
         <v>1.59</v>
@@ -15516,7 +15516,7 @@
         <v>1.5</v>
       </c>
       <c r="AS74" t="n">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AT74" t="n">
         <v>1.14</v>
@@ -15722,7 +15722,7 @@
         <v>1.71</v>
       </c>
       <c r="AT75" t="n">
-        <v>0.17</v>
+        <v>0.29</v>
       </c>
       <c r="AU75" t="n">
         <v>1.45</v>
@@ -15922,10 +15922,10 @@
         <v>0</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AT76" t="n">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AU76" t="n">
         <v>1.38</v>
@@ -17955,7 +17955,7 @@
         <v>2.14</v>
       </c>
       <c r="AT86" t="n">
-        <v>0.17</v>
+        <v>0.29</v>
       </c>
       <c r="AU86" t="n">
         <v>1.29</v>
@@ -18767,7 +18767,7 @@
         <v>1.43</v>
       </c>
       <c r="AT90" t="n">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AU90" t="n">
         <v>2.05</v>
@@ -19373,7 +19373,7 @@
         <v>1.4</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AT93" t="n">
         <v>1.14</v>
@@ -19576,7 +19576,7 @@
         <v>1.25</v>
       </c>
       <c r="AS94" t="n">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AT94" t="n">
         <v>0.71</v>
@@ -21406,7 +21406,7 @@
         <v>2.57</v>
       </c>
       <c r="AT103" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AU103" t="n">
         <v>1.79</v>
@@ -22621,7 +22621,7 @@
         <v>1</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AT109" t="n">
         <v>0.71</v>
@@ -22827,7 +22827,7 @@
         <v>1.43</v>
       </c>
       <c r="AT110" t="n">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AU110" t="n">
         <v>1.64</v>
@@ -23230,7 +23230,7 @@
         <v>0.5</v>
       </c>
       <c r="AS112" t="n">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AT112" t="n">
         <v>0.43</v>
@@ -24451,7 +24451,7 @@
         <v>1.63</v>
       </c>
       <c r="AT118" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AU118" t="n">
         <v>1.5</v>
@@ -24654,7 +24654,7 @@
         <v>2.13</v>
       </c>
       <c r="AT119" t="n">
-        <v>0.17</v>
+        <v>0.29</v>
       </c>
       <c r="AU119" t="n">
         <v>1.79</v>
@@ -25669,7 +25669,7 @@
         <v>1.86</v>
       </c>
       <c r="AT124" t="n">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AU124" t="n">
         <v>1.99</v>
@@ -25872,7 +25872,7 @@
         <v>1.67</v>
       </c>
       <c r="AT125" t="n">
-        <v>0.17</v>
+        <v>0.29</v>
       </c>
       <c r="AU125" t="n">
         <v>1.4</v>
@@ -26072,7 +26072,7 @@
         <v>1</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AT126" t="n">
         <v>0.86</v>
@@ -26278,7 +26278,7 @@
         <v>1.57</v>
       </c>
       <c r="AT127" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AU127" t="n">
         <v>1.58</v>
@@ -26478,7 +26478,7 @@
         <v>0.67</v>
       </c>
       <c r="AS128" t="n">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AT128" t="n">
         <v>0.57</v>
@@ -27345,6 +27345,615 @@
       </c>
       <c r="BK132" t="n">
         <v>14</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B133" t="n">
+        <v>5052956</v>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Peru Primera División</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E133" s="2" t="n">
+        <v>45062.72916666666</v>
+      </c>
+      <c r="F133" t="n">
+        <v>2</v>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>Academia Cantolao</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>Sport Boys</t>
+        </is>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="n">
+        <v>0</v>
+      </c>
+      <c r="L133" t="n">
+        <v>0</v>
+      </c>
+      <c r="M133" t="n">
+        <v>0</v>
+      </c>
+      <c r="N133" t="n">
+        <v>0</v>
+      </c>
+      <c r="O133" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P133" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q133" t="n">
+        <v>0</v>
+      </c>
+      <c r="R133" t="n">
+        <v>7</v>
+      </c>
+      <c r="S133" t="n">
+        <v>7</v>
+      </c>
+      <c r="T133" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U133" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="V133" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W133" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X133" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="Y133" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Z133" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AA133" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB133" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC133" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AD133" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE133" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AF133" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG133" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH133" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI133" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AJ133" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK133" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AL133" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AM133" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AN133" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO133" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AP133" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ133" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR133" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AS133" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT133" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AU133" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AV133" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="AW133" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AX133" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AY133" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ133" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BA133" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB133" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC133" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BD133" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BE133" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BF133" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG133" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH133" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI133" t="n">
+        <v>17</v>
+      </c>
+      <c r="BJ133" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK133" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B134" t="n">
+        <v>5053009</v>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Peru Primera División</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E134" s="2" t="n">
+        <v>45063.70833333334</v>
+      </c>
+      <c r="F134" t="n">
+        <v>8</v>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>Carlos Manucci</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>UTC Cajamarca</t>
+        </is>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="n">
+        <v>1</v>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="n">
+        <v>0</v>
+      </c>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="n">
+        <v>1</v>
+      </c>
+      <c r="O134" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P134" t="inlineStr">
+        <is>
+          <t>['44']</t>
+        </is>
+      </c>
+      <c r="Q134" t="n">
+        <v>7</v>
+      </c>
+      <c r="R134" t="n">
+        <v>4</v>
+      </c>
+      <c r="S134" t="n">
+        <v>11</v>
+      </c>
+      <c r="T134" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U134" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V134" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W134" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X134" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Y134" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z134" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA134" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB134" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC134" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AD134" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE134" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF134" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG134" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH134" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI134" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AJ134" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK134" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL134" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM134" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN134" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO134" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP134" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AQ134" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AR134" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AS134" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT134" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AU134" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AV134" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AW134" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AX134" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AY134" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ134" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BA134" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BB134" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BC134" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BD134" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BE134" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BF134" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG134" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH134" t="n">
+        <v>15</v>
+      </c>
+      <c r="BI134" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ134" t="n">
+        <v>23</v>
+      </c>
+      <c r="BK134" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B135" t="n">
+        <v>5052999</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Peru Primera División</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E135" s="2" t="n">
+        <v>45063.875</v>
+      </c>
+      <c r="F135" t="n">
+        <v>6</v>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>Deportivo Binacional</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>Sporting Cristal</t>
+        </is>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
+      <c r="K135" t="n">
+        <v>0</v>
+      </c>
+      <c r="L135" t="n">
+        <v>0</v>
+      </c>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="n">
+        <v>1</v>
+      </c>
+      <c r="O135" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P135" t="inlineStr">
+        <is>
+          <t>['90+2']</t>
+        </is>
+      </c>
+      <c r="Q135" t="n">
+        <v>3</v>
+      </c>
+      <c r="R135" t="n">
+        <v>0</v>
+      </c>
+      <c r="S135" t="n">
+        <v>3</v>
+      </c>
+      <c r="T135" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U135" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V135" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W135" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X135" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Y135" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z135" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AA135" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AB135" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC135" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AD135" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE135" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AF135" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG135" t="n">
+        <v>15.25</v>
+      </c>
+      <c r="AH135" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI135" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="AJ135" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK135" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL135" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AM135" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN135" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO135" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP135" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AQ135" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR135" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AS135" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AT135" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AU135" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AV135" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AW135" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="AX135" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AY135" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ135" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BA135" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BB135" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BC135" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BD135" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BE135" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BF135" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG135" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH135" t="n">
+        <v>18</v>
+      </c>
+      <c r="BI135" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ135" t="n">
+        <v>23</v>
+      </c>
+      <c r="BK135" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Peru Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Peru Primera División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK135"/>
+  <dimension ref="A1:BK140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AT4" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT6" t="n">
         <v>0.29</v>
@@ -1915,10 +1915,10 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>2.13</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>2.14</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2933,7 +2933,7 @@
         <v>1</v>
       </c>
       <c r="AT12" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT14" t="n">
         <v>1.43</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT19" t="n">
         <v>1.14</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT20" t="n">
         <v>0.63</v>
@@ -5569,10 +5569,10 @@
         <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AT25" t="n">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AU25" t="n">
         <v>2.25</v>
@@ -5775,7 +5775,7 @@
         <v>2.57</v>
       </c>
       <c r="AT26" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU26" t="n">
         <v>0</v>
@@ -6181,7 +6181,7 @@
         <v>1.63</v>
       </c>
       <c r="AT28" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="AU28" t="n">
         <v>0</v>
@@ -6584,7 +6584,7 @@
         <v>3</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT30" t="n">
         <v>0.57</v>
@@ -6990,7 +6990,7 @@
         <v>3</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT32" t="n">
         <v>1.14</v>
@@ -7399,7 +7399,7 @@
         <v>1</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU34" t="n">
         <v>0.83</v>
@@ -7805,7 +7805,7 @@
         <v>1.86</v>
       </c>
       <c r="AT36" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="AU36" t="n">
         <v>2.39</v>
@@ -8005,7 +8005,7 @@
         <v>1</v>
       </c>
       <c r="AS37" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT37" t="n">
         <v>0.86</v>
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="AS39" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AT39" t="n">
         <v>0.63</v>
@@ -8617,7 +8617,7 @@
         <v>1.63</v>
       </c>
       <c r="AT40" t="n">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AU40" t="n">
         <v>1.54</v>
@@ -9223,7 +9223,7 @@
         <v>0</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT43" t="n">
         <v>0.29</v>
@@ -9429,7 +9429,7 @@
         <v>3</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU44" t="n">
         <v>1.74</v>
@@ -10238,7 +10238,7 @@
         <v>1</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT48" t="n">
         <v>1.43</v>
@@ -10850,7 +10850,7 @@
         <v>2</v>
       </c>
       <c r="AT51" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="AU51" t="n">
         <v>1.72</v>
@@ -11456,7 +11456,7 @@
         <v>1</v>
       </c>
       <c r="AS54" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AT54" t="n">
         <v>0.86</v>
@@ -11862,7 +11862,7 @@
         <v>1.5</v>
       </c>
       <c r="AS56" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT56" t="n">
         <v>0.57</v>
@@ -12068,7 +12068,7 @@
         <v>1.86</v>
       </c>
       <c r="AT57" t="n">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AU57" t="n">
         <v>2.85</v>
@@ -12471,7 +12471,7 @@
         <v>1</v>
       </c>
       <c r="AS59" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AT59" t="n">
         <v>0.86</v>
@@ -12674,10 +12674,10 @@
         <v>0</v>
       </c>
       <c r="AS60" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT60" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="AU60" t="n">
         <v>1.12</v>
@@ -13286,7 +13286,7 @@
         <v>1.71</v>
       </c>
       <c r="AT63" t="n">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AU63" t="n">
         <v>1.33</v>
@@ -13486,7 +13486,7 @@
         <v>0.25</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT64" t="n">
         <v>0.63</v>
@@ -13692,7 +13692,7 @@
         <v>1</v>
       </c>
       <c r="AT65" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU65" t="n">
         <v>1.6</v>
@@ -13892,7 +13892,7 @@
         <v>1.5</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT66" t="n">
         <v>1.5</v>
@@ -14098,7 +14098,7 @@
         <v>1.63</v>
       </c>
       <c r="AT67" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU67" t="n">
         <v>1.37</v>
@@ -14501,10 +14501,10 @@
         <v>3</v>
       </c>
       <c r="AS69" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT69" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU69" t="n">
         <v>1.78</v>
@@ -14704,7 +14704,7 @@
         <v>1</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT70" t="n">
         <v>1.43</v>
@@ -14907,10 +14907,10 @@
         <v>1</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU71" t="n">
         <v>1.27</v>
@@ -15316,7 +15316,7 @@
         <v>1.57</v>
       </c>
       <c r="AT73" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU73" t="n">
         <v>1.45</v>
@@ -16940,7 +16940,7 @@
         <v>2</v>
       </c>
       <c r="AT81" t="n">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AU81" t="n">
         <v>1.67</v>
@@ -17343,7 +17343,7 @@
         <v>1</v>
       </c>
       <c r="AS83" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AT83" t="n">
         <v>0.57</v>
@@ -17952,7 +17952,7 @@
         <v>0</v>
       </c>
       <c r="AS86" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT86" t="n">
         <v>0.29</v>
@@ -18155,7 +18155,7 @@
         <v>0.6</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT87" t="n">
         <v>0.86</v>
@@ -18361,7 +18361,7 @@
         <v>1.71</v>
       </c>
       <c r="AT88" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU88" t="n">
         <v>1.62</v>
@@ -18564,7 +18564,7 @@
         <v>3</v>
       </c>
       <c r="AT89" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="AU89" t="n">
         <v>1.6</v>
@@ -18764,7 +18764,7 @@
         <v>0.33</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT90" t="n">
         <v>0.71</v>
@@ -18967,10 +18967,10 @@
         <v>1</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT91" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU91" t="n">
         <v>1.71</v>
@@ -19579,7 +19579,7 @@
         <v>2</v>
       </c>
       <c r="AT94" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU94" t="n">
         <v>1.35</v>
@@ -20594,7 +20594,7 @@
         <v>1.57</v>
       </c>
       <c r="AT99" t="n">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AU99" t="n">
         <v>1.57</v>
@@ -21403,7 +21403,7 @@
         <v>1</v>
       </c>
       <c r="AS103" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AT103" t="n">
         <v>1.43</v>
@@ -21606,10 +21606,10 @@
         <v>1.33</v>
       </c>
       <c r="AS104" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT104" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU104" t="n">
         <v>1.38</v>
@@ -21812,7 +21812,7 @@
         <v>1.71</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU105" t="n">
         <v>1.79</v>
@@ -22215,7 +22215,7 @@
         <v>1.17</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT107" t="n">
         <v>1.14</v>
@@ -22418,10 +22418,10 @@
         <v>0</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT108" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="AU108" t="n">
         <v>1.22</v>
@@ -22624,7 +22624,7 @@
         <v>1.43</v>
       </c>
       <c r="AT109" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU109" t="n">
         <v>1.69</v>
@@ -23027,7 +23027,7 @@
         <v>0.5</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT111" t="n">
         <v>0.86</v>
@@ -25263,7 +25263,7 @@
         <v>2.14</v>
       </c>
       <c r="AT122" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU122" t="n">
         <v>1.37</v>
@@ -25466,7 +25466,7 @@
         <v>3</v>
       </c>
       <c r="AT123" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU123" t="n">
         <v>1.61</v>
@@ -25869,7 +25869,7 @@
         <v>0.2</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT125" t="n">
         <v>0.29</v>
@@ -26887,7 +26887,7 @@
         <v>2.14</v>
       </c>
       <c r="AT130" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU130" t="n">
         <v>1.39</v>
@@ -27087,7 +27087,7 @@
         <v>1.17</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT131" t="n">
         <v>1.43</v>
@@ -27954,6 +27954,1021 @@
       </c>
       <c r="BK135" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B136" t="n">
+        <v>5053085</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Peru Primera División</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E136" s="2" t="n">
+        <v>45065.85416666666</v>
+      </c>
+      <c r="F136" t="n">
+        <v>16</v>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>Melgar</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>Alianza Lima</t>
+        </is>
+      </c>
+      <c r="I136" t="n">
+        <v>1</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="n">
+        <v>2</v>
+      </c>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="n">
+        <v>3</v>
+      </c>
+      <c r="O136" t="inlineStr">
+        <is>
+          <t>['45', '90+5']</t>
+        </is>
+      </c>
+      <c r="P136" t="inlineStr">
+        <is>
+          <t>['53']</t>
+        </is>
+      </c>
+      <c r="Q136" t="n">
+        <v>3</v>
+      </c>
+      <c r="R136" t="n">
+        <v>1</v>
+      </c>
+      <c r="S136" t="n">
+        <v>4</v>
+      </c>
+      <c r="T136" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="U136" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V136" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="W136" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X136" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="Y136" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z136" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA136" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AB136" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC136" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD136" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE136" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AF136" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG136" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AH136" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI136" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ136" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK136" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AL136" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM136" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN136" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AO136" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP136" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AQ136" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR136" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AS136" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AT136" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AU136" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AV136" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AW136" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AX136" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AY136" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ136" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BA136" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB136" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BC136" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD136" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BE136" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BF136" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG136" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH136" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI136" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ136" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK136" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B137" t="n">
+        <v>5053083</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Peru Primera División</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E137" s="2" t="n">
+        <v>45065.9375</v>
+      </c>
+      <c r="F137" t="n">
+        <v>16</v>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>Universitario</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>César Vallejo</t>
+        </is>
+      </c>
+      <c r="I137" t="n">
+        <v>2</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K137" t="n">
+        <v>2</v>
+      </c>
+      <c r="L137" t="n">
+        <v>4</v>
+      </c>
+      <c r="M137" t="n">
+        <v>0</v>
+      </c>
+      <c r="N137" t="n">
+        <v>4</v>
+      </c>
+      <c r="O137" t="inlineStr">
+        <is>
+          <t>['14', '25', '50', '66']</t>
+        </is>
+      </c>
+      <c r="P137" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q137" t="n">
+        <v>6</v>
+      </c>
+      <c r="R137" t="n">
+        <v>3</v>
+      </c>
+      <c r="S137" t="n">
+        <v>9</v>
+      </c>
+      <c r="T137" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U137" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="V137" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="W137" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X137" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="Y137" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Z137" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AA137" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="AB137" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC137" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AD137" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AE137" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF137" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG137" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH137" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI137" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="AJ137" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AK137" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AL137" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM137" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN137" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AO137" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP137" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AQ137" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AR137" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS137" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AT137" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AU137" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AV137" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AW137" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX137" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AY137" t="n">
+        <v>12.25</v>
+      </c>
+      <c r="AZ137" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="BA137" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BB137" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC137" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD137" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE137" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF137" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG137" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH137" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI137" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ137" t="n">
+        <v>22</v>
+      </c>
+      <c r="BK137" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B138" t="n">
+        <v>5053086</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Peru Primera División</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E138" s="2" t="n">
+        <v>45066.625</v>
+      </c>
+      <c r="F138" t="n">
+        <v>16</v>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>ADT</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>Academia Cantolao</t>
+        </is>
+      </c>
+      <c r="I138" t="n">
+        <v>1</v>
+      </c>
+      <c r="J138" t="n">
+        <v>1</v>
+      </c>
+      <c r="K138" t="n">
+        <v>2</v>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="n">
+        <v>2</v>
+      </c>
+      <c r="O138" t="inlineStr">
+        <is>
+          <t>['10']</t>
+        </is>
+      </c>
+      <c r="P138" t="inlineStr">
+        <is>
+          <t>['16']</t>
+        </is>
+      </c>
+      <c r="Q138" t="n">
+        <v>16</v>
+      </c>
+      <c r="R138" t="n">
+        <v>4</v>
+      </c>
+      <c r="S138" t="n">
+        <v>20</v>
+      </c>
+      <c r="T138" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="U138" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="V138" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="W138" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X138" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y138" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Z138" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AA138" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="AB138" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC138" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AD138" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AE138" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AF138" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG138" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH138" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI138" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="AJ138" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK138" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AL138" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM138" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN138" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AO138" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP138" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AQ138" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AR138" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS138" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AT138" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AU138" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AV138" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AW138" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AX138" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AY138" t="n">
+        <v>12.75</v>
+      </c>
+      <c r="AZ138" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BA138" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB138" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC138" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BD138" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BE138" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BF138" t="n">
+        <v>12</v>
+      </c>
+      <c r="BG138" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH138" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI138" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ138" t="n">
+        <v>24</v>
+      </c>
+      <c r="BK138" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B139" t="n">
+        <v>5053081</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Peru Primera División</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E139" s="2" t="n">
+        <v>45066.83333333334</v>
+      </c>
+      <c r="F139" t="n">
+        <v>16</v>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>Deportivo Garcilaso</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>Alianza Atlético</t>
+        </is>
+      </c>
+      <c r="I139" t="n">
+        <v>2</v>
+      </c>
+      <c r="J139" t="n">
+        <v>1</v>
+      </c>
+      <c r="K139" t="n">
+        <v>3</v>
+      </c>
+      <c r="L139" t="n">
+        <v>3</v>
+      </c>
+      <c r="M139" t="n">
+        <v>2</v>
+      </c>
+      <c r="N139" t="n">
+        <v>5</v>
+      </c>
+      <c r="O139" t="inlineStr">
+        <is>
+          <t>['10', '39', '52']</t>
+        </is>
+      </c>
+      <c r="P139" t="inlineStr">
+        <is>
+          <t>['20', '77']</t>
+        </is>
+      </c>
+      <c r="Q139" t="n">
+        <v>10</v>
+      </c>
+      <c r="R139" t="n">
+        <v>2</v>
+      </c>
+      <c r="S139" t="n">
+        <v>12</v>
+      </c>
+      <c r="T139" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="U139" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="V139" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="W139" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X139" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Y139" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Z139" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AA139" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AB139" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC139" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AD139" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AE139" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF139" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG139" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH139" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI139" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="AJ139" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK139" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AL139" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM139" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN139" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AO139" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AP139" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AQ139" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AR139" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AS139" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AT139" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AU139" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AV139" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AW139" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AX139" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AY139" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AZ139" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="BA139" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB139" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC139" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BD139" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BE139" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BF139" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG139" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH139" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI139" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ139" t="n">
+        <v>21</v>
+      </c>
+      <c r="BK139" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B140" t="n">
+        <v>5053089</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Peru Primera División</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E140" s="2" t="n">
+        <v>45066.9375</v>
+      </c>
+      <c r="F140" t="n">
+        <v>16</v>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>Sporting Cristal</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>Real Garcilaso</t>
+        </is>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="n">
+        <v>2</v>
+      </c>
+      <c r="K140" t="n">
+        <v>2</v>
+      </c>
+      <c r="L140" t="n">
+        <v>3</v>
+      </c>
+      <c r="M140" t="n">
+        <v>2</v>
+      </c>
+      <c r="N140" t="n">
+        <v>5</v>
+      </c>
+      <c r="O140" t="inlineStr">
+        <is>
+          <t>['50', '60', '72']</t>
+        </is>
+      </c>
+      <c r="P140" t="inlineStr">
+        <is>
+          <t>['6', '13']</t>
+        </is>
+      </c>
+      <c r="Q140" t="n">
+        <v>7</v>
+      </c>
+      <c r="R140" t="n">
+        <v>6</v>
+      </c>
+      <c r="S140" t="n">
+        <v>13</v>
+      </c>
+      <c r="T140" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U140" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="V140" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="W140" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X140" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Y140" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Z140" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AA140" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB140" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC140" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AD140" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="AE140" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="AF140" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG140" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH140" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI140" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AJ140" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK140" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AL140" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM140" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AN140" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AO140" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AP140" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AQ140" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AR140" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AS140" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AT140" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU140" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AV140" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AW140" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AX140" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AY140" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ140" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="BA140" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB140" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BC140" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BD140" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BE140" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="BF140" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG140" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH140" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI140" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ140" t="n">
+        <v>21</v>
+      </c>
+      <c r="BK140" t="n">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Peru Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Peru Primera División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK140"/>
+  <dimension ref="A1:BK142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>2.57</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT3" t="n">
         <v>0.63</v>
@@ -1512,7 +1512,7 @@
         <v>1.63</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT10" t="n">
         <v>1.5</v>
@@ -4963,7 +4963,7 @@
         <v>1.86</v>
       </c>
       <c r="AT22" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU22" t="n">
         <v>0</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT24" t="n">
         <v>0.86</v>
@@ -5975,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT27" t="n">
         <v>0.29</v>
@@ -6384,7 +6384,7 @@
         <v>2</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AU29" t="n">
         <v>1.4</v>
@@ -8817,7 +8817,7 @@
         <v>3</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT41" t="n">
         <v>1.43</v>
@@ -9632,7 +9632,7 @@
         <v>1.57</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AU45" t="n">
         <v>1.14</v>
@@ -9832,7 +9832,7 @@
         <v>1.5</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT46" t="n">
         <v>1.14</v>
@@ -10038,7 +10038,7 @@
         <v>1</v>
       </c>
       <c r="AT47" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU47" t="n">
         <v>1.14</v>
@@ -12474,7 +12474,7 @@
         <v>2.63</v>
       </c>
       <c r="AT59" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU59" t="n">
         <v>1.85</v>
@@ -12880,7 +12880,7 @@
         <v>2.13</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AU61" t="n">
         <v>1.9</v>
@@ -13080,7 +13080,7 @@
         <v>0</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT62" t="n">
         <v>0.43</v>
@@ -13283,7 +13283,7 @@
         <v>1.5</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT63" t="n">
         <v>1.88</v>
@@ -14298,7 +14298,7 @@
         <v>1</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT68" t="n">
         <v>1.43</v>
@@ -15113,7 +15113,7 @@
         <v>3</v>
       </c>
       <c r="AT72" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU72" t="n">
         <v>1.76</v>
@@ -15519,7 +15519,7 @@
         <v>2</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AU74" t="n">
         <v>1.42</v>
@@ -15719,7 +15719,7 @@
         <v>0</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT75" t="n">
         <v>0.29</v>
@@ -18158,7 +18158,7 @@
         <v>1.86</v>
       </c>
       <c r="AT87" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU87" t="n">
         <v>1.27</v>
@@ -18358,7 +18358,7 @@
         <v>1.5</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT88" t="n">
         <v>0.86</v>
@@ -19170,7 +19170,7 @@
         <v>1</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT92" t="n">
         <v>1.43</v>
@@ -19376,7 +19376,7 @@
         <v>1.43</v>
       </c>
       <c r="AT93" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AU93" t="n">
         <v>1.44</v>
@@ -21809,7 +21809,7 @@
         <v>1.33</v>
       </c>
       <c r="AS105" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT105" t="n">
         <v>1</v>
@@ -22218,7 +22218,7 @@
         <v>1.63</v>
       </c>
       <c r="AT107" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AU107" t="n">
         <v>2.14</v>
@@ -22824,7 +22824,7 @@
         <v>0.5</v>
       </c>
       <c r="AS110" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT110" t="n">
         <v>0.71</v>
@@ -23030,7 +23030,7 @@
         <v>1.38</v>
       </c>
       <c r="AT111" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU111" t="n">
         <v>1.82</v>
@@ -28424,13 +28424,13 @@
         </is>
       </c>
       <c r="Q138" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R138" t="n">
         <v>4</v>
       </c>
       <c r="S138" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="T138" t="n">
         <v>1.87</v>
@@ -28969,6 +28969,412 @@
       </c>
       <c r="BK140" t="n">
         <v>16</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B141" t="n">
+        <v>5053082</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Peru Primera División</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E141" s="2" t="n">
+        <v>45067.625</v>
+      </c>
+      <c r="F141" t="n">
+        <v>16</v>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>Atlético Grau</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>Cienciano</t>
+        </is>
+      </c>
+      <c r="I141" t="n">
+        <v>3</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
+      <c r="K141" t="n">
+        <v>3</v>
+      </c>
+      <c r="L141" t="n">
+        <v>4</v>
+      </c>
+      <c r="M141" t="n">
+        <v>0</v>
+      </c>
+      <c r="N141" t="n">
+        <v>4</v>
+      </c>
+      <c r="O141" t="inlineStr">
+        <is>
+          <t>['24', '40', '45', '90+2']</t>
+        </is>
+      </c>
+      <c r="P141" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q141" t="n">
+        <v>2</v>
+      </c>
+      <c r="R141" t="n">
+        <v>2</v>
+      </c>
+      <c r="S141" t="n">
+        <v>4</v>
+      </c>
+      <c r="T141" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U141" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V141" t="n">
+        <v>4</v>
+      </c>
+      <c r="W141" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X141" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y141" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Z141" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA141" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB141" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC141" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AD141" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE141" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AF141" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG141" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH141" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI141" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ141" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AK141" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AL141" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM141" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN141" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO141" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP141" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ141" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AR141" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AS141" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AT141" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AU141" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AV141" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AW141" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AX141" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY141" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ141" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA141" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB141" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC141" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD141" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE141" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF141" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG141" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH141" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI141" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ141" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK141" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B142" t="n">
+        <v>5053084</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Peru Primera División</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E142" s="2" t="n">
+        <v>45067.70833333334</v>
+      </c>
+      <c r="F142" t="n">
+        <v>16</v>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>Deportivo Municipal</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>Sport Huancayo</t>
+        </is>
+      </c>
+      <c r="I142" t="n">
+        <v>1</v>
+      </c>
+      <c r="J142" t="n">
+        <v>1</v>
+      </c>
+      <c r="K142" t="n">
+        <v>2</v>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="n">
+        <v>2</v>
+      </c>
+      <c r="N142" t="n">
+        <v>3</v>
+      </c>
+      <c r="O142" t="inlineStr">
+        <is>
+          <t>['14']</t>
+        </is>
+      </c>
+      <c r="P142" t="inlineStr">
+        <is>
+          <t>['29', '75']</t>
+        </is>
+      </c>
+      <c r="Q142" t="n">
+        <v>6</v>
+      </c>
+      <c r="R142" t="n">
+        <v>5</v>
+      </c>
+      <c r="S142" t="n">
+        <v>11</v>
+      </c>
+      <c r="T142" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="U142" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V142" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W142" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X142" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y142" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Z142" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA142" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB142" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC142" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD142" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE142" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF142" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG142" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH142" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI142" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ142" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AK142" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AL142" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM142" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN142" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO142" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP142" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AQ142" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AR142" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AS142" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT142" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AU142" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AV142" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AW142" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AX142" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AY142" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ142" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BA142" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB142" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BC142" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BD142" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BE142" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BF142" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG142" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH142" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI142" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ142" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK142" t="n">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Peru Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Peru Primera División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK142"/>
+  <dimension ref="A1:BK144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2118,10 +2118,10 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT13" t="n">
         <v>0.57</v>
@@ -3542,7 +3542,7 @@
         <v>2</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -4760,7 +4760,7 @@
         <v>2.13</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AU21" t="n">
         <v>1.69</v>
@@ -5163,7 +5163,7 @@
         <v>3</v>
       </c>
       <c r="AS23" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT23" t="n">
         <v>1.5</v>
@@ -6790,7 +6790,7 @@
         <v>1.57</v>
       </c>
       <c r="AT31" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU31" t="n">
         <v>0.86</v>
@@ -7599,7 +7599,7 @@
         <v>0</v>
       </c>
       <c r="AS35" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT35" t="n">
         <v>0.29</v>
@@ -9023,7 +9023,7 @@
         <v>2.57</v>
       </c>
       <c r="AT42" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AU42" t="n">
         <v>0</v>
@@ -10441,7 +10441,7 @@
         <v>0</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT49" t="n">
         <v>1.43</v>
@@ -10644,7 +10644,7 @@
         <v>3</v>
       </c>
       <c r="AS50" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT50" t="n">
         <v>1.43</v>
@@ -11256,7 +11256,7 @@
         <v>2.14</v>
       </c>
       <c r="AT53" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AU53" t="n">
         <v>0.4</v>
@@ -13083,7 +13083,7 @@
         <v>1.25</v>
       </c>
       <c r="AT62" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AU62" t="n">
         <v>1.55</v>
@@ -13689,7 +13689,7 @@
         <v>0.5</v>
       </c>
       <c r="AS65" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT65" t="n">
         <v>0.63</v>
@@ -15922,10 +15922,10 @@
         <v>0</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT76" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU76" t="n">
         <v>1.38</v>
@@ -16328,7 +16328,7 @@
         <v>1.33</v>
       </c>
       <c r="AS78" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT78" t="n">
         <v>1.14</v>
@@ -17549,7 +17549,7 @@
         <v>1</v>
       </c>
       <c r="AT84" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AU84" t="n">
         <v>1.16</v>
@@ -18767,7 +18767,7 @@
         <v>1.63</v>
       </c>
       <c r="AT90" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU90" t="n">
         <v>2.05</v>
@@ -19373,7 +19373,7 @@
         <v>1.4</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT93" t="n">
         <v>1.38</v>
@@ -22012,7 +22012,7 @@
         <v>1.4</v>
       </c>
       <c r="AS106" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT106" t="n">
         <v>1.43</v>
@@ -22621,7 +22621,7 @@
         <v>1</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT109" t="n">
         <v>0.63</v>
@@ -22827,7 +22827,7 @@
         <v>1.25</v>
       </c>
       <c r="AT110" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU110" t="n">
         <v>1.64</v>
@@ -23233,7 +23233,7 @@
         <v>2</v>
       </c>
       <c r="AT112" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AU112" t="n">
         <v>1.43</v>
@@ -25669,7 +25669,7 @@
         <v>1.86</v>
       </c>
       <c r="AT124" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU124" t="n">
         <v>1.99</v>
@@ -26072,7 +26072,7 @@
         <v>1</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT126" t="n">
         <v>0.86</v>
@@ -27699,7 +27699,7 @@
         <v>2</v>
       </c>
       <c r="AT134" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU134" t="n">
         <v>1.55</v>
@@ -27899,7 +27899,7 @@
         <v>1.17</v>
       </c>
       <c r="AS135" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT135" t="n">
         <v>1.43</v>
@@ -29156,22 +29156,22 @@
         <v>0</v>
       </c>
       <c r="BF141" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BG141" t="n">
         <v>4</v>
       </c>
       <c r="BH141" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI141" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ141" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK141" t="n">
         <v>8</v>
-      </c>
-      <c r="BI141" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ141" t="n">
-        <v>13</v>
-      </c>
-      <c r="BK141" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="142">
@@ -29374,6 +29374,412 @@
         <v>15</v>
       </c>
       <c r="BK142" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B143" t="n">
+        <v>5053087</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Peru Primera División</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E143" s="2" t="n">
+        <v>45068.72916666666</v>
+      </c>
+      <c r="F143" t="n">
+        <v>16</v>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>Sport Boys</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>UTC Cajamarca</t>
+        </is>
+      </c>
+      <c r="I143" t="n">
+        <v>1</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="n">
+        <v>3</v>
+      </c>
+      <c r="M143" t="n">
+        <v>2</v>
+      </c>
+      <c r="N143" t="n">
+        <v>5</v>
+      </c>
+      <c r="O143" t="inlineStr">
+        <is>
+          <t>['13', '62', '76']</t>
+        </is>
+      </c>
+      <c r="P143" t="inlineStr">
+        <is>
+          <t>['51', '90+4']</t>
+        </is>
+      </c>
+      <c r="Q143" t="n">
+        <v>4</v>
+      </c>
+      <c r="R143" t="n">
+        <v>4</v>
+      </c>
+      <c r="S143" t="n">
+        <v>8</v>
+      </c>
+      <c r="T143" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="U143" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V143" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="W143" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X143" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Y143" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z143" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA143" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB143" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC143" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AD143" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AE143" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AF143" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG143" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH143" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI143" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ143" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AK143" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AL143" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AM143" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN143" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AO143" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP143" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ143" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR143" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AS143" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT143" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AU143" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AV143" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AW143" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AX143" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AY143" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AZ143" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="BA143" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB143" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BC143" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BD143" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BE143" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BF143" t="n">
+        <v>11</v>
+      </c>
+      <c r="BG143" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH143" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI143" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ143" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK143" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B144" t="n">
+        <v>5053088</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Peru Primera División</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E144" s="2" t="n">
+        <v>45068.91666666666</v>
+      </c>
+      <c r="F144" t="n">
+        <v>16</v>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>Deportivo Binacional</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>Unión Comercio</t>
+        </is>
+      </c>
+      <c r="I144" t="n">
+        <v>3</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" t="n">
+        <v>3</v>
+      </c>
+      <c r="L144" t="n">
+        <v>5</v>
+      </c>
+      <c r="M144" t="n">
+        <v>0</v>
+      </c>
+      <c r="N144" t="n">
+        <v>5</v>
+      </c>
+      <c r="O144" t="inlineStr">
+        <is>
+          <t>['17', '37', '43', '67', '70']</t>
+        </is>
+      </c>
+      <c r="P144" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q144" t="n">
+        <v>8</v>
+      </c>
+      <c r="R144" t="n">
+        <v>0</v>
+      </c>
+      <c r="S144" t="n">
+        <v>8</v>
+      </c>
+      <c r="T144" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U144" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="V144" t="n">
+        <v>5</v>
+      </c>
+      <c r="W144" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X144" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="Y144" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="Z144" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AA144" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AB144" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC144" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AD144" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AE144" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AF144" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG144" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AH144" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI144" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ144" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AK144" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AL144" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AM144" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN144" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AO144" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP144" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AQ144" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AR144" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AS144" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AT144" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AU144" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AV144" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AW144" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AX144" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AY144" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ144" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="BA144" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB144" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BC144" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BD144" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BE144" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BF144" t="n">
+        <v>15</v>
+      </c>
+      <c r="BG144" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH144" t="n">
+        <v>17</v>
+      </c>
+      <c r="BI144" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ144" t="n">
+        <v>32</v>
+      </c>
+      <c r="BK144" t="n">
         <v>13</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Peru Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Peru Primera División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK144"/>
+  <dimension ref="A1:BK153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AT2" t="n">
         <v>1.38</v>
@@ -1106,7 +1106,7 @@
         <v>1.88</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT5" t="n">
         <v>0.75</v>
@@ -1715,7 +1715,7 @@
         <v>1.63</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT11" t="n">
         <v>1</v>
@@ -3136,7 +3136,7 @@
         <v>1.63</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3339,7 +3339,7 @@
         <v>1.38</v>
       </c>
       <c r="AT14" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT15" t="n">
         <v>0.63</v>
@@ -3742,10 +3742,10 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4151,7 +4151,7 @@
         <v>3</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>1.86</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -4557,7 +4557,7 @@
         <v>2.25</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AU20" t="n">
         <v>0</v>
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT22" t="n">
         <v>0.75</v>
@@ -5369,7 +5369,7 @@
         <v>1.88</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU24" t="n">
         <v>0</v>
@@ -5772,7 +5772,7 @@
         <v>1</v>
       </c>
       <c r="AS26" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AT26" t="n">
         <v>0.63</v>
@@ -5978,7 +5978,7 @@
         <v>1.25</v>
       </c>
       <c r="AT27" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AU27" t="n">
         <v>0</v>
@@ -6178,7 +6178,7 @@
         <v>0</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT28" t="n">
         <v>0.13</v>
@@ -6381,7 +6381,7 @@
         <v>3</v>
       </c>
       <c r="AS29" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT29" t="n">
         <v>1.38</v>
@@ -6587,7 +6587,7 @@
         <v>1.63</v>
       </c>
       <c r="AT30" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU30" t="n">
         <v>0</v>
@@ -6787,7 +6787,7 @@
         <v>0</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT31" t="n">
         <v>0.63</v>
@@ -6993,7 +6993,7 @@
         <v>1.38</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU32" t="n">
         <v>3.15</v>
@@ -7193,10 +7193,10 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU33" t="n">
         <v>0.97</v>
@@ -7602,7 +7602,7 @@
         <v>1.25</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AU35" t="n">
         <v>1.81</v>
@@ -7802,7 +7802,7 @@
         <v>0</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT36" t="n">
         <v>0.13</v>
@@ -8008,7 +8008,7 @@
         <v>2.25</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU37" t="n">
         <v>0.8100000000000001</v>
@@ -8414,7 +8414,7 @@
         <v>2.63</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AU39" t="n">
         <v>1.92</v>
@@ -8614,7 +8614,7 @@
         <v>1.5</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT40" t="n">
         <v>1.88</v>
@@ -8820,7 +8820,7 @@
         <v>1.25</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AU41" t="n">
         <v>1.47</v>
@@ -9020,7 +9020,7 @@
         <v>0</v>
       </c>
       <c r="AS42" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AT42" t="n">
         <v>0.38</v>
@@ -9226,7 +9226,7 @@
         <v>1.38</v>
       </c>
       <c r="AT43" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AU43" t="n">
         <v>2.18</v>
@@ -9629,7 +9629,7 @@
         <v>1.5</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT45" t="n">
         <v>1.38</v>
@@ -9835,7 +9835,7 @@
         <v>1.88</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU46" t="n">
         <v>1.72</v>
@@ -10241,7 +10241,7 @@
         <v>1.63</v>
       </c>
       <c r="AT48" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AU48" t="n">
         <v>1.61</v>
@@ -10444,7 +10444,7 @@
         <v>1.63</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU49" t="n">
         <v>1.41</v>
@@ -10647,7 +10647,7 @@
         <v>1.25</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AU50" t="n">
         <v>1.67</v>
@@ -10847,7 +10847,7 @@
         <v>0</v>
       </c>
       <c r="AS51" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT51" t="n">
         <v>0.13</v>
@@ -11050,10 +11050,10 @@
         <v>0</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AU52" t="n">
         <v>1.35</v>
@@ -11253,7 +11253,7 @@
         <v>0</v>
       </c>
       <c r="AS53" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT53" t="n">
         <v>0.38</v>
@@ -11459,7 +11459,7 @@
         <v>2.63</v>
       </c>
       <c r="AT54" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU54" t="n">
         <v>1.8</v>
@@ -11662,7 +11662,7 @@
         <v>2.13</v>
       </c>
       <c r="AT55" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AU55" t="n">
         <v>1.99</v>
@@ -11865,7 +11865,7 @@
         <v>2.25</v>
       </c>
       <c r="AT56" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU56" t="n">
         <v>1.15</v>
@@ -12065,7 +12065,7 @@
         <v>2</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT57" t="n">
         <v>1.88</v>
@@ -12268,7 +12268,7 @@
         <v>2</v>
       </c>
       <c r="AS58" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AT58" t="n">
         <v>1.5</v>
@@ -13489,7 +13489,7 @@
         <v>1.38</v>
       </c>
       <c r="AT64" t="n">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AU64" t="n">
         <v>2.03</v>
@@ -14095,7 +14095,7 @@
         <v>1</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT67" t="n">
         <v>1</v>
@@ -14301,7 +14301,7 @@
         <v>1.25</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AU68" t="n">
         <v>1.59</v>
@@ -14707,7 +14707,7 @@
         <v>1.63</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU70" t="n">
         <v>2.17</v>
@@ -15313,7 +15313,7 @@
         <v>1.33</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT73" t="n">
         <v>0.63</v>
@@ -15516,7 +15516,7 @@
         <v>1.5</v>
       </c>
       <c r="AS74" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT74" t="n">
         <v>1.38</v>
@@ -15722,7 +15722,7 @@
         <v>1.88</v>
       </c>
       <c r="AT75" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AU75" t="n">
         <v>1.45</v>
@@ -16125,10 +16125,10 @@
         <v>0.25</v>
       </c>
       <c r="AS77" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AT77" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AU77" t="n">
         <v>1.75</v>
@@ -16331,7 +16331,7 @@
         <v>1.25</v>
       </c>
       <c r="AT78" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU78" t="n">
         <v>1.56</v>
@@ -16531,10 +16531,10 @@
         <v>0.67</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT79" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU79" t="n">
         <v>1.44</v>
@@ -16734,7 +16734,7 @@
         <v>1.8</v>
       </c>
       <c r="AS80" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT80" t="n">
         <v>1.5</v>
@@ -16937,7 +16937,7 @@
         <v>1.8</v>
       </c>
       <c r="AS81" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT81" t="n">
         <v>1.88</v>
@@ -17140,10 +17140,10 @@
         <v>0.4</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT82" t="n">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AU82" t="n">
         <v>2.45</v>
@@ -17346,7 +17346,7 @@
         <v>2.63</v>
       </c>
       <c r="AT83" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU83" t="n">
         <v>1.74</v>
@@ -17752,7 +17752,7 @@
         <v>2.13</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AU85" t="n">
         <v>1.99</v>
@@ -17955,7 +17955,7 @@
         <v>2.25</v>
       </c>
       <c r="AT86" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AU86" t="n">
         <v>1.29</v>
@@ -19173,7 +19173,7 @@
         <v>1.25</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU92" t="n">
         <v>1.6</v>
@@ -19576,7 +19576,7 @@
         <v>1.25</v>
       </c>
       <c r="AS94" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT94" t="n">
         <v>0.63</v>
@@ -19779,10 +19779,10 @@
         <v>0.75</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT95" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU95" t="n">
         <v>1.42</v>
@@ -20185,10 +20185,10 @@
         <v>0.5</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT97" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU97" t="n">
         <v>2.28</v>
@@ -20388,10 +20388,10 @@
         <v>0.2</v>
       </c>
       <c r="AS98" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT98" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AU98" t="n">
         <v>1.17</v>
@@ -20591,7 +20591,7 @@
         <v>2</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT99" t="n">
         <v>1.88</v>
@@ -20794,10 +20794,10 @@
         <v>1.5</v>
       </c>
       <c r="AS100" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AT100" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AU100" t="n">
         <v>1.72</v>
@@ -20997,10 +20997,10 @@
         <v>0.5</v>
       </c>
       <c r="AS101" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT101" t="n">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AU101" t="n">
         <v>1.54</v>
@@ -21203,7 +21203,7 @@
         <v>2.13</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU102" t="n">
         <v>1.91</v>
@@ -21406,7 +21406,7 @@
         <v>2.63</v>
       </c>
       <c r="AT103" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AU103" t="n">
         <v>1.79</v>
@@ -22015,7 +22015,7 @@
         <v>1.25</v>
       </c>
       <c r="AT106" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU106" t="n">
         <v>1.45</v>
@@ -23230,7 +23230,7 @@
         <v>0.5</v>
       </c>
       <c r="AS112" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT112" t="n">
         <v>0.38</v>
@@ -23436,7 +23436,7 @@
         <v>1</v>
       </c>
       <c r="AT113" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AU113" t="n">
         <v>1.42</v>
@@ -23636,10 +23636,10 @@
         <v>1.6</v>
       </c>
       <c r="AS114" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AT114" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU114" t="n">
         <v>1.71</v>
@@ -23839,10 +23839,10 @@
         <v>1</v>
       </c>
       <c r="AS115" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT115" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU115" t="n">
         <v>1.53</v>
@@ -24042,10 +24042,10 @@
         <v>0.8</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT116" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU116" t="n">
         <v>2.04</v>
@@ -24245,10 +24245,10 @@
         <v>1.2</v>
       </c>
       <c r="AS117" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT117" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AU117" t="n">
         <v>1.26</v>
@@ -24448,10 +24448,10 @@
         <v>0.75</v>
       </c>
       <c r="AS118" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AT118" t="n">
         <v>1.63</v>
-      </c>
-      <c r="AT118" t="n">
-        <v>1.43</v>
       </c>
       <c r="AU118" t="n">
         <v>1.5</v>
@@ -24654,7 +24654,7 @@
         <v>2.13</v>
       </c>
       <c r="AT119" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AU119" t="n">
         <v>1.79</v>
@@ -25057,10 +25057,10 @@
         <v>0.57</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT121" t="n">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AU121" t="n">
         <v>1.46</v>
@@ -25260,7 +25260,7 @@
         <v>0.83</v>
       </c>
       <c r="AS122" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT122" t="n">
         <v>0.63</v>
@@ -25666,7 +25666,7 @@
         <v>0.4</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT124" t="n">
         <v>0.63</v>
@@ -25872,7 +25872,7 @@
         <v>1.86</v>
       </c>
       <c r="AT125" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AU125" t="n">
         <v>1.4</v>
@@ -26075,7 +26075,7 @@
         <v>1.63</v>
       </c>
       <c r="AT126" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU126" t="n">
         <v>1.83</v>
@@ -26275,10 +26275,10 @@
         <v>0.8</v>
       </c>
       <c r="AS127" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT127" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AU127" t="n">
         <v>1.58</v>
@@ -26478,10 +26478,10 @@
         <v>0.67</v>
       </c>
       <c r="AS128" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT128" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU128" t="n">
         <v>1.56</v>
@@ -26681,10 +26681,10 @@
         <v>1.67</v>
       </c>
       <c r="AS129" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT129" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU129" t="n">
         <v>1.57</v>
@@ -26884,7 +26884,7 @@
         <v>1</v>
       </c>
       <c r="AS130" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT130" t="n">
         <v>0.86</v>
@@ -27090,7 +27090,7 @@
         <v>1.86</v>
       </c>
       <c r="AT131" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AU131" t="n">
         <v>1.55</v>
@@ -27293,7 +27293,7 @@
         <v>3</v>
       </c>
       <c r="AT132" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU132" t="n">
         <v>1.6</v>
@@ -27496,7 +27496,7 @@
         <v>1</v>
       </c>
       <c r="AT133" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AU133" t="n">
         <v>1.4</v>
@@ -27696,7 +27696,7 @@
         <v>0.33</v>
       </c>
       <c r="AS134" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT134" t="n">
         <v>0.63</v>
@@ -27902,7 +27902,7 @@
         <v>1.63</v>
       </c>
       <c r="AT135" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AU135" t="n">
         <v>1.76</v>
@@ -29781,6 +29781,1833 @@
       </c>
       <c r="BK144" t="n">
         <v>13</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B145" t="n">
+        <v>5053092</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Peru Primera División</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E145" s="2" t="n">
+        <v>45072.70833333334</v>
+      </c>
+      <c r="F145" t="n">
+        <v>17</v>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>Academia Cantolao</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>Deportivo Garcilaso</t>
+        </is>
+      </c>
+      <c r="I145" t="n">
+        <v>1</v>
+      </c>
+      <c r="J145" t="n">
+        <v>1</v>
+      </c>
+      <c r="K145" t="n">
+        <v>2</v>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="n">
+        <v>2</v>
+      </c>
+      <c r="O145" t="inlineStr">
+        <is>
+          <t>['2']</t>
+        </is>
+      </c>
+      <c r="P145" t="inlineStr">
+        <is>
+          <t>['12']</t>
+        </is>
+      </c>
+      <c r="Q145" t="n">
+        <v>4</v>
+      </c>
+      <c r="R145" t="n">
+        <v>5</v>
+      </c>
+      <c r="S145" t="n">
+        <v>9</v>
+      </c>
+      <c r="T145" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="U145" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V145" t="n">
+        <v>3</v>
+      </c>
+      <c r="W145" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X145" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Y145" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Z145" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AA145" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB145" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC145" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AD145" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE145" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AF145" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG145" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH145" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI145" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AJ145" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK145" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AL145" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AM145" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AN145" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AO145" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP145" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AQ145" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR145" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AS145" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT145" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AU145" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AV145" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AW145" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AX145" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AY145" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ145" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BA145" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB145" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BC145" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BD145" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BE145" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BF145" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG145" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH145" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI145" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ145" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK145" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B146" t="n">
+        <v>5053098</v>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Peru Primera División</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E146" s="2" t="n">
+        <v>45072.875</v>
+      </c>
+      <c r="F146" t="n">
+        <v>17</v>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>Cienciano</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>Deportivo Municipal</t>
+        </is>
+      </c>
+      <c r="I146" t="n">
+        <v>1</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="n">
+        <v>0</v>
+      </c>
+      <c r="N146" t="n">
+        <v>1</v>
+      </c>
+      <c r="O146" t="inlineStr">
+        <is>
+          <t>['27']</t>
+        </is>
+      </c>
+      <c r="P146" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q146" t="n">
+        <v>7</v>
+      </c>
+      <c r="R146" t="n">
+        <v>2</v>
+      </c>
+      <c r="S146" t="n">
+        <v>9</v>
+      </c>
+      <c r="T146" t="n">
+        <v>2</v>
+      </c>
+      <c r="U146" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="V146" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W146" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="X146" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y146" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Z146" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA146" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB146" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AC146" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AD146" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="AE146" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AF146" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG146" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH146" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI146" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AJ146" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AK146" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AL146" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM146" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN146" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AO146" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP146" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AQ146" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AR146" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AS146" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AT146" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU146" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AV146" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AW146" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AX146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ146" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA146" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB146" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC146" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD146" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BE146" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF146" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG146" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH146" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI146" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ146" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK146" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B147" t="n">
+        <v>5053094</v>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Peru Primera División</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E147" s="2" t="n">
+        <v>45073.625</v>
+      </c>
+      <c r="F147" t="n">
+        <v>17</v>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>Alianza Atlético</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>Atlético Grau</t>
+        </is>
+      </c>
+      <c r="I147" t="n">
+        <v>2</v>
+      </c>
+      <c r="J147" t="n">
+        <v>1</v>
+      </c>
+      <c r="K147" t="n">
+        <v>3</v>
+      </c>
+      <c r="L147" t="n">
+        <v>3</v>
+      </c>
+      <c r="M147" t="n">
+        <v>2</v>
+      </c>
+      <c r="N147" t="n">
+        <v>5</v>
+      </c>
+      <c r="O147" t="inlineStr">
+        <is>
+          <t>['19', '41', '55']</t>
+        </is>
+      </c>
+      <c r="P147" t="inlineStr">
+        <is>
+          <t>['10', '59']</t>
+        </is>
+      </c>
+      <c r="Q147" t="n">
+        <v>1</v>
+      </c>
+      <c r="R147" t="n">
+        <v>8</v>
+      </c>
+      <c r="S147" t="n">
+        <v>9</v>
+      </c>
+      <c r="T147" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U147" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V147" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="W147" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X147" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y147" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Z147" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA147" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB147" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC147" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AD147" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE147" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AF147" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG147" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH147" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI147" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ147" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK147" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL147" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM147" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN147" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO147" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP147" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AQ147" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR147" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AS147" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AT147" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU147" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AV147" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AW147" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AX147" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AY147" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ147" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BA147" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB147" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BC147" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BD147" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE147" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BF147" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG147" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH147" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI147" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ147" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK147" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B148" t="n">
+        <v>5053091</v>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Peru Primera División</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E148" s="2" t="n">
+        <v>45073.72916666666</v>
+      </c>
+      <c r="F148" t="n">
+        <v>17</v>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>Real Garcilaso</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>Sport Boys</t>
+        </is>
+      </c>
+      <c r="I148" t="n">
+        <v>1</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="n">
+        <v>2</v>
+      </c>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="n">
+        <v>3</v>
+      </c>
+      <c r="O148" t="inlineStr">
+        <is>
+          <t>['5', '86']</t>
+        </is>
+      </c>
+      <c r="P148" t="inlineStr">
+        <is>
+          <t>['70']</t>
+        </is>
+      </c>
+      <c r="Q148" t="n">
+        <v>7</v>
+      </c>
+      <c r="R148" t="n">
+        <v>3</v>
+      </c>
+      <c r="S148" t="n">
+        <v>10</v>
+      </c>
+      <c r="T148" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="U148" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="V148" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="W148" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X148" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Y148" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="Z148" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AA148" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="AB148" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC148" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AD148" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="AE148" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AF148" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG148" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AH148" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AI148" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="AJ148" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AK148" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AL148" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AM148" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN148" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AO148" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP148" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AQ148" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AR148" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AS148" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AT148" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AU148" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AV148" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AW148" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AX148" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY148" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ148" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA148" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB148" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC148" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD148" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE148" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF148" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG148" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH148" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI148" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ148" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK148" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B149" t="n">
+        <v>5053096</v>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Peru Primera División</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E149" s="2" t="n">
+        <v>45074.625</v>
+      </c>
+      <c r="F149" t="n">
+        <v>17</v>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>Unión Comercio</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>ADT</t>
+        </is>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="n">
+        <v>2</v>
+      </c>
+      <c r="K149" t="n">
+        <v>2</v>
+      </c>
+      <c r="L149" t="n">
+        <v>4</v>
+      </c>
+      <c r="M149" t="n">
+        <v>3</v>
+      </c>
+      <c r="N149" t="n">
+        <v>7</v>
+      </c>
+      <c r="O149" t="inlineStr">
+        <is>
+          <t>['66', '73', '77', '89']</t>
+        </is>
+      </c>
+      <c r="P149" t="inlineStr">
+        <is>
+          <t>['30', '33', '68']</t>
+        </is>
+      </c>
+      <c r="Q149" t="n">
+        <v>9</v>
+      </c>
+      <c r="R149" t="n">
+        <v>2</v>
+      </c>
+      <c r="S149" t="n">
+        <v>11</v>
+      </c>
+      <c r="T149" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="U149" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V149" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W149" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X149" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Y149" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z149" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AA149" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB149" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC149" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AD149" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AE149" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AF149" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG149" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH149" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AI149" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="AJ149" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AK149" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AL149" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM149" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN149" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AO149" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AP149" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ149" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AR149" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AS149" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT149" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AU149" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AV149" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AW149" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX149" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AY149" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ149" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BA149" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BB149" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BC149" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BD149" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BE149" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BF149" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG149" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH149" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI149" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ149" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK149" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B150" t="n">
+        <v>5053093</v>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Peru Primera División</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E150" s="2" t="n">
+        <v>45074.72916666666</v>
+      </c>
+      <c r="F150" t="n">
+        <v>17</v>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>UTC Cajamarca</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>Universitario</t>
+        </is>
+      </c>
+      <c r="I150" t="n">
+        <v>1</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="n">
+        <v>0</v>
+      </c>
+      <c r="N150" t="n">
+        <v>1</v>
+      </c>
+      <c r="O150" t="inlineStr">
+        <is>
+          <t>['39']</t>
+        </is>
+      </c>
+      <c r="P150" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q150" t="n">
+        <v>7</v>
+      </c>
+      <c r="R150" t="n">
+        <v>12</v>
+      </c>
+      <c r="S150" t="n">
+        <v>19</v>
+      </c>
+      <c r="T150" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U150" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V150" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W150" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X150" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y150" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Z150" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA150" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AB150" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC150" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AD150" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AE150" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AF150" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG150" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH150" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI150" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ150" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AK150" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AL150" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AM150" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AN150" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AO150" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP150" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AQ150" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AR150" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AS150" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AT150" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AU150" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AV150" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AW150" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AX150" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AY150" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ150" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BA150" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BB150" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BC150" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BD150" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BE150" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BF150" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG150" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH150" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI150" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ150" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK150" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B151" t="n">
+        <v>5053095</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Peru Primera División</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E151" s="2" t="n">
+        <v>45074.83333333334</v>
+      </c>
+      <c r="F151" t="n">
+        <v>17</v>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>Sport Huancayo</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>Sporting Cristal</t>
+        </is>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
+      <c r="K151" t="n">
+        <v>0</v>
+      </c>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="n">
+        <v>2</v>
+      </c>
+      <c r="N151" t="n">
+        <v>3</v>
+      </c>
+      <c r="O151" t="inlineStr">
+        <is>
+          <t>['57']</t>
+        </is>
+      </c>
+      <c r="P151" t="inlineStr">
+        <is>
+          <t>['69', '78']</t>
+        </is>
+      </c>
+      <c r="Q151" t="n">
+        <v>4</v>
+      </c>
+      <c r="R151" t="n">
+        <v>4</v>
+      </c>
+      <c r="S151" t="n">
+        <v>8</v>
+      </c>
+      <c r="T151" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U151" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V151" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W151" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="X151" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y151" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Z151" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AA151" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB151" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC151" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AD151" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE151" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AF151" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG151" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH151" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI151" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AJ151" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AK151" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AL151" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AM151" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AN151" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO151" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP151" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AQ151" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AR151" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AS151" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AT151" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AU151" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AV151" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AW151" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="AX151" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AY151" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ151" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BA151" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB151" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BC151" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BD151" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BE151" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BF151" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG151" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH151" t="n">
+        <v>14</v>
+      </c>
+      <c r="BI151" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ151" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK151" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B152" t="n">
+        <v>5053090</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Peru Primera División</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E152" s="2" t="n">
+        <v>45074.85416666666</v>
+      </c>
+      <c r="F152" t="n">
+        <v>17</v>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>Carlos Manucci</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>Melgar</t>
+        </is>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
+      <c r="K152" t="n">
+        <v>0</v>
+      </c>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="n">
+        <v>2</v>
+      </c>
+      <c r="N152" t="n">
+        <v>3</v>
+      </c>
+      <c r="O152" t="inlineStr">
+        <is>
+          <t>['90+2']</t>
+        </is>
+      </c>
+      <c r="P152" t="inlineStr">
+        <is>
+          <t>['87', '90+7']</t>
+        </is>
+      </c>
+      <c r="Q152" t="n">
+        <v>2</v>
+      </c>
+      <c r="R152" t="n">
+        <v>5</v>
+      </c>
+      <c r="S152" t="n">
+        <v>7</v>
+      </c>
+      <c r="T152" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U152" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V152" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W152" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X152" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Y152" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Z152" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA152" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB152" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC152" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AD152" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AE152" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AF152" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG152" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AH152" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI152" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AJ152" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AK152" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AL152" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM152" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AN152" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AO152" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP152" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AQ152" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR152" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AS152" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT152" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AU152" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AV152" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AW152" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AX152" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AY152" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ152" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BA152" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BB152" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BC152" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BD152" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BE152" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BF152" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG152" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH152" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI152" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ152" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK152" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B153" t="n">
+        <v>5053097</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Peru Primera División</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E153" s="2" t="n">
+        <v>45074.9375</v>
+      </c>
+      <c r="F153" t="n">
+        <v>17</v>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>Alianza Lima</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>Deportivo Binacional</t>
+        </is>
+      </c>
+      <c r="I153" t="n">
+        <v>2</v>
+      </c>
+      <c r="J153" t="n">
+        <v>1</v>
+      </c>
+      <c r="K153" t="n">
+        <v>3</v>
+      </c>
+      <c r="L153" t="n">
+        <v>6</v>
+      </c>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="n">
+        <v>7</v>
+      </c>
+      <c r="O153" t="inlineStr">
+        <is>
+          <t>['8', '45+3', '52', '53', '82', '88']</t>
+        </is>
+      </c>
+      <c r="P153" t="inlineStr">
+        <is>
+          <t>['22']</t>
+        </is>
+      </c>
+      <c r="Q153" t="n">
+        <v>11</v>
+      </c>
+      <c r="R153" t="n">
+        <v>3</v>
+      </c>
+      <c r="S153" t="n">
+        <v>14</v>
+      </c>
+      <c r="T153" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U153" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V153" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="W153" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X153" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Y153" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Z153" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AA153" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AB153" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC153" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AD153" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="AE153" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AF153" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG153" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH153" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI153" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="AJ153" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AK153" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AL153" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM153" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN153" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AO153" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AP153" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AQ153" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR153" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AS153" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT153" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AU153" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AV153" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AW153" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="AX153" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AY153" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ153" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BA153" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BB153" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BC153" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BD153" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BE153" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BF153" t="n">
+        <v>15</v>
+      </c>
+      <c r="BG153" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH153" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI153" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ153" t="n">
+        <v>26</v>
+      </c>
+      <c r="BK153" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Peru Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Peru Primera División_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="276">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -622,6 +622,33 @@
     <t>['8', '45+3', '52', '53', '82', '88']</t>
   </si>
   <si>
+    <t>['20', '62']</t>
+  </si>
+  <si>
+    <t>['41', '44', '61', '62']</t>
+  </si>
+  <si>
+    <t>['25', '81']</t>
+  </si>
+  <si>
+    <t>['45+1']</t>
+  </si>
+  <si>
+    <t>['18', '45+3']</t>
+  </si>
+  <si>
+    <t>['15', '39', '51']</t>
+  </si>
+  <si>
+    <t>['65', '68']</t>
+  </si>
+  <si>
+    <t>['7', '55', '88']</t>
+  </si>
+  <si>
+    <t>['52', '70', '90+1']</t>
+  </si>
+  <si>
     <t>['81']</t>
   </si>
   <si>
@@ -806,6 +833,15 @@
   </si>
   <si>
     <t>['22']</t>
+  </si>
+  <si>
+    <t>['67', '71']</t>
+  </si>
+  <si>
+    <t>['83', '90+8']</t>
+  </si>
+  <si>
+    <t>['70', '76']</t>
   </si>
 </sst>
 </file>
@@ -1167,7 +1203,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK153"/>
+  <dimension ref="A1:BK163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1501,7 +1537,7 @@
         <v>2.63</v>
       </c>
       <c r="AT2">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1689,7 +1725,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AT3">
         <v>0.89</v>
@@ -1880,10 +1916,10 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AT4">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2074,7 +2110,7 @@
         <v>1.78</v>
       </c>
       <c r="AT5">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2262,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT6">
         <v>0.25</v>
@@ -2453,10 +2489,10 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT7">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2557,7 +2593,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="Q8">
         <v>9</v>
@@ -2644,10 +2680,10 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT8">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2748,7 +2784,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -2835,10 +2871,10 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT9">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -3026,10 +3062,10 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT10">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3220,7 +3256,7 @@
         <v>2.25</v>
       </c>
       <c r="AT11">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3321,7 +3357,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="Q12">
         <v>2</v>
@@ -3411,7 +3447,7 @@
         <v>1</v>
       </c>
       <c r="AT12">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3512,7 +3548,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="Q13">
         <v>6</v>
@@ -3599,7 +3635,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT13">
         <v>0.5</v>
@@ -3703,7 +3739,7 @@
         <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="Q14">
         <v>7</v>
@@ -3790,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT14">
         <v>1.38</v>
@@ -3984,7 +4020,7 @@
         <v>2.13</v>
       </c>
       <c r="AT15">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4658,7 +4694,7 @@
         <v>84</v>
       </c>
       <c r="P19" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="Q19">
         <v>6</v>
@@ -4745,7 +4781,7 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AT19">
         <v>1</v>
@@ -4936,7 +4972,7 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT20">
         <v>0.89</v>
@@ -5127,10 +5163,10 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT21">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AU21">
         <v>1.69</v>
@@ -5231,7 +5267,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="Q22">
         <v>10</v>
@@ -5321,7 +5357,7 @@
         <v>1.63</v>
       </c>
       <c r="AT22">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU22">
         <v>0</v>
@@ -5509,10 +5545,10 @@
         <v>3</v>
       </c>
       <c r="AS23">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT23">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU23">
         <v>2.17</v>
@@ -5700,7 +5736,7 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AT24">
         <v>0.75</v>
@@ -5804,7 +5840,7 @@
         <v>101</v>
       </c>
       <c r="P25" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="Q25">
         <v>6</v>
@@ -5891,10 +5927,10 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AT25">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AU25">
         <v>2.25</v>
@@ -5995,7 +6031,7 @@
         <v>102</v>
       </c>
       <c r="P26" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="Q26">
         <v>1</v>
@@ -6085,7 +6121,7 @@
         <v>2.63</v>
       </c>
       <c r="AT26">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU26">
         <v>0</v>
@@ -6273,7 +6309,7 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT27">
         <v>0.25</v>
@@ -6467,7 +6503,7 @@
         <v>1.78</v>
       </c>
       <c r="AT28">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AU28">
         <v>0</v>
@@ -6568,7 +6604,7 @@
         <v>105</v>
       </c>
       <c r="P29" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="Q29">
         <v>10</v>
@@ -6658,7 +6694,7 @@
         <v>2.13</v>
       </c>
       <c r="AT29">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU29">
         <v>1.4</v>
@@ -6846,7 +6882,7 @@
         <v>3</v>
       </c>
       <c r="AS30">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT30">
         <v>0.5</v>
@@ -7040,7 +7076,7 @@
         <v>1.75</v>
       </c>
       <c r="AT31">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU31">
         <v>0.86</v>
@@ -7228,7 +7264,7 @@
         <v>3</v>
       </c>
       <c r="AS32">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT32">
         <v>1</v>
@@ -7523,7 +7559,7 @@
         <v>110</v>
       </c>
       <c r="P34" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="Q34">
         <v>2</v>
@@ -7613,7 +7649,7 @@
         <v>1</v>
       </c>
       <c r="AT34">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU34">
         <v>0.83</v>
@@ -7714,7 +7750,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="Q35">
         <v>8</v>
@@ -7801,7 +7837,7 @@
         <v>0</v>
       </c>
       <c r="AS35">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT35">
         <v>0.25</v>
@@ -7995,7 +8031,7 @@
         <v>1.63</v>
       </c>
       <c r="AT36">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AU36">
         <v>2.39</v>
@@ -8183,7 +8219,7 @@
         <v>1</v>
       </c>
       <c r="AS37">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT37">
         <v>0.75</v>
@@ -8374,10 +8410,10 @@
         <v>3</v>
       </c>
       <c r="AS38">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT38">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU38">
         <v>1.84</v>
@@ -8565,7 +8601,7 @@
         <v>0</v>
       </c>
       <c r="AS39">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AT39">
         <v>0.89</v>
@@ -8669,7 +8705,7 @@
         <v>84</v>
       </c>
       <c r="P40" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="Q40">
         <v>5</v>
@@ -8759,7 +8795,7 @@
         <v>1.78</v>
       </c>
       <c r="AT40">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AU40">
         <v>1.54</v>
@@ -8860,7 +8896,7 @@
         <v>84</v>
       </c>
       <c r="P41" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="Q41">
         <v>8</v>
@@ -8947,7 +8983,7 @@
         <v>3</v>
       </c>
       <c r="AS41">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT41">
         <v>1.38</v>
@@ -9051,7 +9087,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="Q42">
         <v>11</v>
@@ -9141,7 +9177,7 @@
         <v>2.63</v>
       </c>
       <c r="AT42">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AU42">
         <v>0</v>
@@ -9329,7 +9365,7 @@
         <v>0</v>
       </c>
       <c r="AS43">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT43">
         <v>0.25</v>
@@ -9523,7 +9559,7 @@
         <v>3</v>
       </c>
       <c r="AT44">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU44">
         <v>1.74</v>
@@ -9714,7 +9750,7 @@
         <v>1.75</v>
       </c>
       <c r="AT45">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU45">
         <v>1.14</v>
@@ -9902,7 +9938,7 @@
         <v>1.5</v>
       </c>
       <c r="AS46">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AT46">
         <v>1</v>
@@ -10096,7 +10132,7 @@
         <v>1</v>
       </c>
       <c r="AT47">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU47">
         <v>1.14</v>
@@ -10197,7 +10233,7 @@
         <v>121</v>
       </c>
       <c r="P48" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="Q48">
         <v>7</v>
@@ -10284,7 +10320,7 @@
         <v>1</v>
       </c>
       <c r="AS48">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT48">
         <v>1.63</v>
@@ -10388,7 +10424,7 @@
         <v>122</v>
       </c>
       <c r="P49" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -10475,7 +10511,7 @@
         <v>0</v>
       </c>
       <c r="AS49">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT49">
         <v>1.25</v>
@@ -10579,7 +10615,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="Q50">
         <v>3</v>
@@ -10666,7 +10702,7 @@
         <v>3</v>
       </c>
       <c r="AS50">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT50">
         <v>1.38</v>
@@ -10860,7 +10896,7 @@
         <v>2.13</v>
       </c>
       <c r="AT51">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AU51">
         <v>1.72</v>
@@ -11152,7 +11188,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -11242,7 +11278,7 @@
         <v>2.25</v>
       </c>
       <c r="AT53">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AU53">
         <v>0.4</v>
@@ -11343,7 +11379,7 @@
         <v>126</v>
       </c>
       <c r="P54" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -11430,7 +11466,7 @@
         <v>1</v>
       </c>
       <c r="AS54">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AT54">
         <v>0.75</v>
@@ -11621,7 +11657,7 @@
         <v>0.33</v>
       </c>
       <c r="AS55">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT55">
         <v>0.25</v>
@@ -11812,7 +11848,7 @@
         <v>1.5</v>
       </c>
       <c r="AS56">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT56">
         <v>0.5</v>
@@ -11916,7 +11952,7 @@
         <v>129</v>
       </c>
       <c r="P57" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12006,7 +12042,7 @@
         <v>1.63</v>
       </c>
       <c r="AT57">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AU57">
         <v>2.85</v>
@@ -12197,7 +12233,7 @@
         <v>2.63</v>
       </c>
       <c r="AT58">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU58">
         <v>1.94</v>
@@ -12385,10 +12421,10 @@
         <v>1</v>
       </c>
       <c r="AS59">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AT59">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU59">
         <v>1.85</v>
@@ -12576,10 +12612,10 @@
         <v>0</v>
       </c>
       <c r="AS60">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT60">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AU60">
         <v>1.12</v>
@@ -12680,7 +12716,7 @@
         <v>84</v>
       </c>
       <c r="P61" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="Q61">
         <v>10</v>
@@ -12767,10 +12803,10 @@
         <v>1</v>
       </c>
       <c r="AS61">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT61">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU61">
         <v>1.9</v>
@@ -12958,10 +12994,10 @@
         <v>0</v>
       </c>
       <c r="AS62">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT62">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AU62">
         <v>1.55</v>
@@ -13062,7 +13098,7 @@
         <v>134</v>
       </c>
       <c r="P63" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="Q63">
         <v>3</v>
@@ -13149,10 +13185,10 @@
         <v>1.5</v>
       </c>
       <c r="AS63">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AT63">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AU63">
         <v>1.33</v>
@@ -13340,7 +13376,7 @@
         <v>0.25</v>
       </c>
       <c r="AS64">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT64">
         <v>0.89</v>
@@ -13444,7 +13480,7 @@
         <v>84</v>
       </c>
       <c r="P65" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="Q65">
         <v>4</v>
@@ -13531,10 +13567,10 @@
         <v>0.5</v>
       </c>
       <c r="AS65">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT65">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU65">
         <v>1.6</v>
@@ -13635,7 +13671,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="Q66">
         <v>10</v>
@@ -13722,10 +13758,10 @@
         <v>1.5</v>
       </c>
       <c r="AS66">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT66">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU66">
         <v>1.93</v>
@@ -13916,7 +13952,7 @@
         <v>1.78</v>
       </c>
       <c r="AT67">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU67">
         <v>1.37</v>
@@ -14017,7 +14053,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="Q68">
         <v>7</v>
@@ -14104,7 +14140,7 @@
         <v>1</v>
       </c>
       <c r="AS68">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT68">
         <v>1.63</v>
@@ -14295,10 +14331,10 @@
         <v>3</v>
       </c>
       <c r="AS69">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT69">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU69">
         <v>1.78</v>
@@ -14486,7 +14522,7 @@
         <v>1</v>
       </c>
       <c r="AS70">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT70">
         <v>1.25</v>
@@ -14590,7 +14626,7 @@
         <v>138</v>
       </c>
       <c r="P71" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="Q71">
         <v>3</v>
@@ -14677,10 +14713,10 @@
         <v>1</v>
       </c>
       <c r="AS71">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AT71">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU71">
         <v>1.27</v>
@@ -14871,7 +14907,7 @@
         <v>3</v>
       </c>
       <c r="AT72">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU72">
         <v>1.76</v>
@@ -14972,7 +15008,7 @@
         <v>140</v>
       </c>
       <c r="P73" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="Q73">
         <v>5</v>
@@ -15062,7 +15098,7 @@
         <v>1.75</v>
       </c>
       <c r="AT73">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU73">
         <v>1.45</v>
@@ -15253,7 +15289,7 @@
         <v>1.75</v>
       </c>
       <c r="AT74">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU74">
         <v>1.42</v>
@@ -15441,7 +15477,7 @@
         <v>0</v>
       </c>
       <c r="AS75">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AT75">
         <v>0.25</v>
@@ -15545,7 +15581,7 @@
         <v>142</v>
       </c>
       <c r="P76" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="Q76">
         <v>7</v>
@@ -15632,10 +15668,10 @@
         <v>0</v>
       </c>
       <c r="AS76">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT76">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU76">
         <v>1.38</v>
@@ -15927,7 +15963,7 @@
         <v>84</v>
       </c>
       <c r="P78" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="Q78">
         <v>5</v>
@@ -16014,7 +16050,7 @@
         <v>1.33</v>
       </c>
       <c r="AS78">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT78">
         <v>1</v>
@@ -16399,7 +16435,7 @@
         <v>2.25</v>
       </c>
       <c r="AT80">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU80">
         <v>0.95</v>
@@ -16500,7 +16536,7 @@
         <v>84</v>
       </c>
       <c r="P81" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="Q81">
         <v>4</v>
@@ -16590,7 +16626,7 @@
         <v>2.13</v>
       </c>
       <c r="AT81">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AU81">
         <v>1.67</v>
@@ -16691,7 +16727,7 @@
         <v>146</v>
       </c>
       <c r="P82" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="Q82">
         <v>10</v>
@@ -16882,7 +16918,7 @@
         <v>147</v>
       </c>
       <c r="P83" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="Q83">
         <v>6</v>
@@ -16969,7 +17005,7 @@
         <v>1</v>
       </c>
       <c r="AS83">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AT83">
         <v>0.5</v>
@@ -17073,7 +17109,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="Q84">
         <v>10</v>
@@ -17163,7 +17199,7 @@
         <v>1</v>
       </c>
       <c r="AT84">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AU84">
         <v>1.16</v>
@@ -17351,7 +17387,7 @@
         <v>2</v>
       </c>
       <c r="AS85">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT85">
         <v>1.38</v>
@@ -17455,7 +17491,7 @@
         <v>150</v>
       </c>
       <c r="P86" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="Q86">
         <v>8</v>
@@ -17542,7 +17578,7 @@
         <v>0</v>
       </c>
       <c r="AS86">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT86">
         <v>0.25</v>
@@ -17733,10 +17769,10 @@
         <v>0.6</v>
       </c>
       <c r="AS87">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AT87">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU87">
         <v>1.27</v>
@@ -17837,7 +17873,7 @@
         <v>152</v>
       </c>
       <c r="P88" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="Q88">
         <v>11</v>
@@ -17924,10 +17960,10 @@
         <v>1.5</v>
       </c>
       <c r="AS88">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AT88">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU88">
         <v>1.62</v>
@@ -18118,7 +18154,7 @@
         <v>3</v>
       </c>
       <c r="AT89">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AU89">
         <v>1.6</v>
@@ -18219,7 +18255,7 @@
         <v>154</v>
       </c>
       <c r="P90" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="Q90">
         <v>19</v>
@@ -18306,10 +18342,10 @@
         <v>0.33</v>
       </c>
       <c r="AS90">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT90">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU90">
         <v>2.05</v>
@@ -18410,7 +18446,7 @@
         <v>84</v>
       </c>
       <c r="P91" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="Q91">
         <v>5</v>
@@ -18497,10 +18533,10 @@
         <v>1</v>
       </c>
       <c r="AS91">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT91">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU91">
         <v>1.71</v>
@@ -18601,7 +18637,7 @@
         <v>155</v>
       </c>
       <c r="P92" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="Q92">
         <v>5</v>
@@ -18688,7 +18724,7 @@
         <v>1</v>
       </c>
       <c r="AS92">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT92">
         <v>1.25</v>
@@ -18792,7 +18828,7 @@
         <v>156</v>
       </c>
       <c r="P93" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="Q93">
         <v>9</v>
@@ -18879,10 +18915,10 @@
         <v>1.4</v>
       </c>
       <c r="AS93">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT93">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU93">
         <v>1.44</v>
@@ -19073,7 +19109,7 @@
         <v>1.75</v>
       </c>
       <c r="AT94">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU94">
         <v>1.35</v>
@@ -19365,7 +19401,7 @@
         <v>84</v>
       </c>
       <c r="P96" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -19455,7 +19491,7 @@
         <v>1</v>
       </c>
       <c r="AT96">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU96">
         <v>1.42</v>
@@ -19556,7 +19592,7 @@
         <v>159</v>
       </c>
       <c r="P97" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="Q97">
         <v>6</v>
@@ -19938,7 +19974,7 @@
         <v>151</v>
       </c>
       <c r="P99" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="Q99">
         <v>5</v>
@@ -20028,7 +20064,7 @@
         <v>1.75</v>
       </c>
       <c r="AT99">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AU99">
         <v>1.57</v>
@@ -20129,7 +20165,7 @@
         <v>161</v>
       </c>
       <c r="P100" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="Q100">
         <v>6</v>
@@ -20320,7 +20356,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="Q101">
         <v>6</v>
@@ -20511,7 +20547,7 @@
         <v>163</v>
       </c>
       <c r="P102" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -20598,7 +20634,7 @@
         <v>1.75</v>
       </c>
       <c r="AS102">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT102">
         <v>1</v>
@@ -20789,7 +20825,7 @@
         <v>1</v>
       </c>
       <c r="AS103">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AT103">
         <v>1.63</v>
@@ -20980,10 +21016,10 @@
         <v>1.33</v>
       </c>
       <c r="AS104">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT104">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU104">
         <v>1.38</v>
@@ -21171,10 +21207,10 @@
         <v>1.33</v>
       </c>
       <c r="AS105">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AT105">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU105">
         <v>1.79</v>
@@ -21275,7 +21311,7 @@
         <v>84</v>
       </c>
       <c r="P106" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="Q106">
         <v>1</v>
@@ -21362,7 +21398,7 @@
         <v>1.4</v>
       </c>
       <c r="AS106">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT106">
         <v>1.25</v>
@@ -21553,10 +21589,10 @@
         <v>1.17</v>
       </c>
       <c r="AS107">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT107">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU107">
         <v>2.14</v>
@@ -21744,10 +21780,10 @@
         <v>0</v>
       </c>
       <c r="AS108">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AT108">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AU108">
         <v>1.22</v>
@@ -21848,7 +21884,7 @@
         <v>167</v>
       </c>
       <c r="P109" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="Q109">
         <v>5</v>
@@ -21935,10 +21971,10 @@
         <v>1</v>
       </c>
       <c r="AS109">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT109">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU109">
         <v>1.69</v>
@@ -22126,10 +22162,10 @@
         <v>0.5</v>
       </c>
       <c r="AS110">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT110">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU110">
         <v>1.64</v>
@@ -22230,7 +22266,7 @@
         <v>169</v>
       </c>
       <c r="P111" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="Q111">
         <v>5</v>
@@ -22317,10 +22353,10 @@
         <v>0.5</v>
       </c>
       <c r="AS111">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT111">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU111">
         <v>1.82</v>
@@ -22511,7 +22547,7 @@
         <v>1.75</v>
       </c>
       <c r="AT112">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AU112">
         <v>1.43</v>
@@ -22994,7 +23030,7 @@
         <v>173</v>
       </c>
       <c r="P115" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="Q115">
         <v>6</v>
@@ -23567,7 +23603,7 @@
         <v>174</v>
       </c>
       <c r="P118" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="Q118">
         <v>7</v>
@@ -23845,7 +23881,7 @@
         <v>0.25</v>
       </c>
       <c r="AS119">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT119">
         <v>0.25</v>
@@ -24039,7 +24075,7 @@
         <v>3</v>
       </c>
       <c r="AT120">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU120">
         <v>1.64</v>
@@ -24140,7 +24176,7 @@
         <v>177</v>
       </c>
       <c r="P121" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="Q121">
         <v>6</v>
@@ -24331,7 +24367,7 @@
         <v>178</v>
       </c>
       <c r="P122" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="Q122">
         <v>7</v>
@@ -24421,7 +24457,7 @@
         <v>2.25</v>
       </c>
       <c r="AT122">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU122">
         <v>1.37</v>
@@ -24612,7 +24648,7 @@
         <v>3</v>
       </c>
       <c r="AT123">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU123">
         <v>1.61</v>
@@ -24803,7 +24839,7 @@
         <v>1.63</v>
       </c>
       <c r="AT124">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU124">
         <v>1.99</v>
@@ -24991,7 +25027,7 @@
         <v>0.2</v>
       </c>
       <c r="AS125">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AT125">
         <v>0.25</v>
@@ -25182,7 +25218,7 @@
         <v>1</v>
       </c>
       <c r="AS126">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT126">
         <v>0.75</v>
@@ -25286,7 +25322,7 @@
         <v>182</v>
       </c>
       <c r="P127" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="Q127">
         <v>4</v>
@@ -25668,7 +25704,7 @@
         <v>184</v>
       </c>
       <c r="P129" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="Q129">
         <v>1</v>
@@ -25859,7 +25895,7 @@
         <v>144</v>
       </c>
       <c r="P130" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="Q130">
         <v>7</v>
@@ -25949,7 +25985,7 @@
         <v>2.25</v>
       </c>
       <c r="AT130">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU130">
         <v>1.39</v>
@@ -26050,7 +26086,7 @@
         <v>185</v>
       </c>
       <c r="P131" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="Q131">
         <v>8</v>
@@ -26137,7 +26173,7 @@
         <v>1.17</v>
       </c>
       <c r="AS131">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AT131">
         <v>1.38</v>
@@ -26713,7 +26749,7 @@
         <v>1.75</v>
       </c>
       <c r="AT134">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU134">
         <v>1.55</v>
@@ -26901,7 +26937,7 @@
         <v>1.17</v>
       </c>
       <c r="AS135">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT135">
         <v>1.63</v>
@@ -27005,7 +27041,7 @@
         <v>187</v>
       </c>
       <c r="P136" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="Q136">
         <v>3</v>
@@ -27092,10 +27128,10 @@
         <v>2.14</v>
       </c>
       <c r="AS136">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AT136">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AU136">
         <v>1.74</v>
@@ -27283,10 +27319,10 @@
         <v>1</v>
       </c>
       <c r="AS137">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AT137">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU137">
         <v>1.87</v>
@@ -27474,10 +27510,10 @@
         <v>0</v>
       </c>
       <c r="AS138">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT138">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AU138">
         <v>1.79</v>
@@ -27578,7 +27614,7 @@
         <v>189</v>
       </c>
       <c r="P139" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="Q139">
         <v>10</v>
@@ -27665,10 +27701,10 @@
         <v>0.71</v>
       </c>
       <c r="AS139">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT139">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU139">
         <v>1.96</v>
@@ -27769,7 +27805,7 @@
         <v>190</v>
       </c>
       <c r="P140" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="Q140">
         <v>7</v>
@@ -27856,10 +27892,10 @@
         <v>1.14</v>
       </c>
       <c r="AS140">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT140">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU140">
         <v>1.49</v>
@@ -28047,10 +28083,10 @@
         <v>0.86</v>
       </c>
       <c r="AS141">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AT141">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU141">
         <v>1.83</v>
@@ -28151,7 +28187,7 @@
         <v>134</v>
       </c>
       <c r="P142" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="Q142">
         <v>6</v>
@@ -28238,10 +28274,10 @@
         <v>1.14</v>
       </c>
       <c r="AS142">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT142">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU142">
         <v>1.58</v>
@@ -28342,7 +28378,7 @@
         <v>192</v>
       </c>
       <c r="P143" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="Q143">
         <v>4</v>
@@ -28429,10 +28465,10 @@
         <v>0.71</v>
       </c>
       <c r="AS143">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT143">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU143">
         <v>1.35</v>
@@ -28620,10 +28656,10 @@
         <v>0.43</v>
       </c>
       <c r="AS144">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT144">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AU144">
         <v>1.78</v>
@@ -28724,7 +28760,7 @@
         <v>194</v>
       </c>
       <c r="P145" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="Q145">
         <v>4</v>
@@ -29106,7 +29142,7 @@
         <v>196</v>
       </c>
       <c r="P147" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="Q147">
         <v>1</v>
@@ -29488,7 +29524,7 @@
         <v>198</v>
       </c>
       <c r="P149" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="Q149">
         <v>9</v>
@@ -29870,7 +29906,7 @@
         <v>199</v>
       </c>
       <c r="P151" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="Q151">
         <v>4</v>
@@ -30061,7 +30097,7 @@
         <v>200</v>
       </c>
       <c r="P152" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="Q152">
         <v>2</v>
@@ -30252,7 +30288,7 @@
         <v>201</v>
       </c>
       <c r="P153" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="Q153">
         <v>11</v>
@@ -30394,6 +30430,1916 @@
       </c>
       <c r="BK153">
         <v>10</v>
+      </c>
+    </row>
+    <row r="154" spans="1:63">
+      <c r="A154" s="1">
+        <v>153</v>
+      </c>
+      <c r="B154">
+        <v>5053013</v>
+      </c>
+      <c r="C154" t="s">
+        <v>63</v>
+      </c>
+      <c r="D154" t="s">
+        <v>64</v>
+      </c>
+      <c r="E154" s="2">
+        <v>45077.875</v>
+      </c>
+      <c r="F154">
+        <v>8</v>
+      </c>
+      <c r="G154" t="s">
+        <v>82</v>
+      </c>
+      <c r="H154" t="s">
+        <v>72</v>
+      </c>
+      <c r="I154">
+        <v>1</v>
+      </c>
+      <c r="J154">
+        <v>0</v>
+      </c>
+      <c r="K154">
+        <v>1</v>
+      </c>
+      <c r="L154">
+        <v>2</v>
+      </c>
+      <c r="M154">
+        <v>2</v>
+      </c>
+      <c r="N154">
+        <v>4</v>
+      </c>
+      <c r="O154" t="s">
+        <v>202</v>
+      </c>
+      <c r="P154" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q154">
+        <v>2</v>
+      </c>
+      <c r="R154">
+        <v>2</v>
+      </c>
+      <c r="S154">
+        <v>4</v>
+      </c>
+      <c r="T154">
+        <v>2.2</v>
+      </c>
+      <c r="U154">
+        <v>2.2</v>
+      </c>
+      <c r="V154">
+        <v>6</v>
+      </c>
+      <c r="W154">
+        <v>1.42</v>
+      </c>
+      <c r="X154">
+        <v>2.9</v>
+      </c>
+      <c r="Y154">
+        <v>2.95</v>
+      </c>
+      <c r="Z154">
+        <v>1.38</v>
+      </c>
+      <c r="AA154">
+        <v>7.5</v>
+      </c>
+      <c r="AB154">
+        <v>1.07</v>
+      </c>
+      <c r="AC154">
+        <v>1.39</v>
+      </c>
+      <c r="AD154">
+        <v>4.8</v>
+      </c>
+      <c r="AE154">
+        <v>8</v>
+      </c>
+      <c r="AF154">
+        <v>1.05</v>
+      </c>
+      <c r="AG154">
+        <v>11</v>
+      </c>
+      <c r="AH154">
+        <v>1.33</v>
+      </c>
+      <c r="AI154">
+        <v>3.3</v>
+      </c>
+      <c r="AJ154">
+        <v>1.85</v>
+      </c>
+      <c r="AK154">
+        <v>1.96</v>
+      </c>
+      <c r="AL154">
+        <v>1.87</v>
+      </c>
+      <c r="AM154">
+        <v>1.87</v>
+      </c>
+      <c r="AN154">
+        <v>1.22</v>
+      </c>
+      <c r="AO154">
+        <v>1.22</v>
+      </c>
+      <c r="AP154">
+        <v>2</v>
+      </c>
+      <c r="AQ154">
+        <v>1.86</v>
+      </c>
+      <c r="AR154">
+        <v>0.86</v>
+      </c>
+      <c r="AS154">
+        <v>1.75</v>
+      </c>
+      <c r="AT154">
+        <v>0.88</v>
+      </c>
+      <c r="AU154">
+        <v>1.65</v>
+      </c>
+      <c r="AV154">
+        <v>1.17</v>
+      </c>
+      <c r="AW154">
+        <v>2.82</v>
+      </c>
+      <c r="AX154">
+        <v>1.36</v>
+      </c>
+      <c r="AY154">
+        <v>9.5</v>
+      </c>
+      <c r="AZ154">
+        <v>3.6</v>
+      </c>
+      <c r="BA154">
+        <v>1.26</v>
+      </c>
+      <c r="BB154">
+        <v>1.32</v>
+      </c>
+      <c r="BC154">
+        <v>1.6</v>
+      </c>
+      <c r="BD154">
+        <v>2.01</v>
+      </c>
+      <c r="BE154">
+        <v>2.62</v>
+      </c>
+      <c r="BF154">
+        <v>8</v>
+      </c>
+      <c r="BG154">
+        <v>5</v>
+      </c>
+      <c r="BH154">
+        <v>10</v>
+      </c>
+      <c r="BI154">
+        <v>8</v>
+      </c>
+      <c r="BJ154">
+        <v>18</v>
+      </c>
+      <c r="BK154">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="155" spans="1:63">
+      <c r="A155" s="1">
+        <v>154</v>
+      </c>
+      <c r="B155">
+        <v>5053107</v>
+      </c>
+      <c r="C155" t="s">
+        <v>63</v>
+      </c>
+      <c r="D155" t="s">
+        <v>64</v>
+      </c>
+      <c r="E155" s="2">
+        <v>45078.91666666666</v>
+      </c>
+      <c r="F155">
+        <v>18</v>
+      </c>
+      <c r="G155" t="s">
+        <v>70</v>
+      </c>
+      <c r="H155" t="s">
+        <v>74</v>
+      </c>
+      <c r="I155">
+        <v>2</v>
+      </c>
+      <c r="J155">
+        <v>0</v>
+      </c>
+      <c r="K155">
+        <v>2</v>
+      </c>
+      <c r="L155">
+        <v>4</v>
+      </c>
+      <c r="M155">
+        <v>2</v>
+      </c>
+      <c r="N155">
+        <v>6</v>
+      </c>
+      <c r="O155" t="s">
+        <v>203</v>
+      </c>
+      <c r="P155" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q155">
+        <v>6</v>
+      </c>
+      <c r="R155">
+        <v>6</v>
+      </c>
+      <c r="S155">
+        <v>12</v>
+      </c>
+      <c r="T155">
+        <v>1.9</v>
+      </c>
+      <c r="U155">
+        <v>2.45</v>
+      </c>
+      <c r="V155">
+        <v>7</v>
+      </c>
+      <c r="W155">
+        <v>1.36</v>
+      </c>
+      <c r="X155">
+        <v>3.1</v>
+      </c>
+      <c r="Y155">
+        <v>2.7</v>
+      </c>
+      <c r="Z155">
+        <v>1.44</v>
+      </c>
+      <c r="AA155">
+        <v>6.5</v>
+      </c>
+      <c r="AB155">
+        <v>1.09</v>
+      </c>
+      <c r="AC155">
+        <v>1.33</v>
+      </c>
+      <c r="AD155">
+        <v>4.6</v>
+      </c>
+      <c r="AE155">
+        <v>8</v>
+      </c>
+      <c r="AF155">
+        <v>1.03</v>
+      </c>
+      <c r="AG155">
+        <v>13</v>
+      </c>
+      <c r="AH155">
+        <v>1.25</v>
+      </c>
+      <c r="AI155">
+        <v>3.75</v>
+      </c>
+      <c r="AJ155">
+        <v>1.8</v>
+      </c>
+      <c r="AK155">
+        <v>1.87</v>
+      </c>
+      <c r="AL155">
+        <v>2.1</v>
+      </c>
+      <c r="AM155">
+        <v>1.7</v>
+      </c>
+      <c r="AN155">
+        <v>1.05</v>
+      </c>
+      <c r="AO155">
+        <v>1.16</v>
+      </c>
+      <c r="AP155">
+        <v>3</v>
+      </c>
+      <c r="AQ155">
+        <v>2.25</v>
+      </c>
+      <c r="AR155">
+        <v>0.75</v>
+      </c>
+      <c r="AS155">
+        <v>2.33</v>
+      </c>
+      <c r="AT155">
+        <v>0.67</v>
+      </c>
+      <c r="AU155">
+        <v>1.61</v>
+      </c>
+      <c r="AV155">
+        <v>1.1</v>
+      </c>
+      <c r="AW155">
+        <v>2.71</v>
+      </c>
+      <c r="AX155">
+        <v>1.28</v>
+      </c>
+      <c r="AY155">
+        <v>9</v>
+      </c>
+      <c r="AZ155">
+        <v>5.5</v>
+      </c>
+      <c r="BA155">
+        <v>0</v>
+      </c>
+      <c r="BB155">
+        <v>0</v>
+      </c>
+      <c r="BC155">
+        <v>1.47</v>
+      </c>
+      <c r="BD155">
+        <v>1.77</v>
+      </c>
+      <c r="BE155">
+        <v>2.25</v>
+      </c>
+      <c r="BF155">
+        <v>6</v>
+      </c>
+      <c r="BG155">
+        <v>8</v>
+      </c>
+      <c r="BH155">
+        <v>9</v>
+      </c>
+      <c r="BI155">
+        <v>6</v>
+      </c>
+      <c r="BJ155">
+        <v>15</v>
+      </c>
+      <c r="BK155">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="156" spans="1:63">
+      <c r="A156" s="1">
+        <v>155</v>
+      </c>
+      <c r="B156">
+        <v>5053104</v>
+      </c>
+      <c r="C156" t="s">
+        <v>63</v>
+      </c>
+      <c r="D156" t="s">
+        <v>64</v>
+      </c>
+      <c r="E156" s="2">
+        <v>45079.91666666666</v>
+      </c>
+      <c r="F156">
+        <v>18</v>
+      </c>
+      <c r="G156" t="s">
+        <v>77</v>
+      </c>
+      <c r="H156" t="s">
+        <v>81</v>
+      </c>
+      <c r="I156">
+        <v>1</v>
+      </c>
+      <c r="J156">
+        <v>0</v>
+      </c>
+      <c r="K156">
+        <v>1</v>
+      </c>
+      <c r="L156">
+        <v>2</v>
+      </c>
+      <c r="M156">
+        <v>1</v>
+      </c>
+      <c r="N156">
+        <v>3</v>
+      </c>
+      <c r="O156" t="s">
+        <v>204</v>
+      </c>
+      <c r="P156" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q156">
+        <v>8</v>
+      </c>
+      <c r="R156">
+        <v>2</v>
+      </c>
+      <c r="S156">
+        <v>10</v>
+      </c>
+      <c r="T156">
+        <v>3.2</v>
+      </c>
+      <c r="U156">
+        <v>2.15</v>
+      </c>
+      <c r="V156">
+        <v>2.88</v>
+      </c>
+      <c r="W156">
+        <v>1.36</v>
+      </c>
+      <c r="X156">
+        <v>3</v>
+      </c>
+      <c r="Y156">
+        <v>2.68</v>
+      </c>
+      <c r="Z156">
+        <v>1.44</v>
+      </c>
+      <c r="AA156">
+        <v>6.55</v>
+      </c>
+      <c r="AB156">
+        <v>1.09</v>
+      </c>
+      <c r="AC156">
+        <v>2.38</v>
+      </c>
+      <c r="AD156">
+        <v>3.35</v>
+      </c>
+      <c r="AE156">
+        <v>2.66</v>
+      </c>
+      <c r="AF156">
+        <v>1.01</v>
+      </c>
+      <c r="AG156">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH156">
+        <v>1.24</v>
+      </c>
+      <c r="AI156">
+        <v>3.6</v>
+      </c>
+      <c r="AJ156">
+        <v>1.8</v>
+      </c>
+      <c r="AK156">
+        <v>1.9</v>
+      </c>
+      <c r="AL156">
+        <v>1.66</v>
+      </c>
+      <c r="AM156">
+        <v>2.16</v>
+      </c>
+      <c r="AN156">
+        <v>1.52</v>
+      </c>
+      <c r="AO156">
+        <v>1.27</v>
+      </c>
+      <c r="AP156">
+        <v>1.41</v>
+      </c>
+      <c r="AQ156">
+        <v>1.38</v>
+      </c>
+      <c r="AR156">
+        <v>1.88</v>
+      </c>
+      <c r="AS156">
+        <v>1.56</v>
+      </c>
+      <c r="AT156">
+        <v>1.67</v>
+      </c>
+      <c r="AU156">
+        <v>1.91</v>
+      </c>
+      <c r="AV156">
+        <v>1.16</v>
+      </c>
+      <c r="AW156">
+        <v>3.07</v>
+      </c>
+      <c r="AX156">
+        <v>1.86</v>
+      </c>
+      <c r="AY156">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AZ156">
+        <v>2.23</v>
+      </c>
+      <c r="BA156">
+        <v>1.15</v>
+      </c>
+      <c r="BB156">
+        <v>1.27</v>
+      </c>
+      <c r="BC156">
+        <v>1.51</v>
+      </c>
+      <c r="BD156">
+        <v>1.87</v>
+      </c>
+      <c r="BE156">
+        <v>2.36</v>
+      </c>
+      <c r="BF156">
+        <v>9</v>
+      </c>
+      <c r="BG156">
+        <v>2</v>
+      </c>
+      <c r="BH156">
+        <v>12</v>
+      </c>
+      <c r="BI156">
+        <v>4</v>
+      </c>
+      <c r="BJ156">
+        <v>21</v>
+      </c>
+      <c r="BK156">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="157" spans="1:63">
+      <c r="A157" s="1">
+        <v>156</v>
+      </c>
+      <c r="B157">
+        <v>5053102</v>
+      </c>
+      <c r="C157" t="s">
+        <v>63</v>
+      </c>
+      <c r="D157" t="s">
+        <v>64</v>
+      </c>
+      <c r="E157" s="2">
+        <v>45079.9375</v>
+      </c>
+      <c r="F157">
+        <v>18</v>
+      </c>
+      <c r="G157" t="s">
+        <v>67</v>
+      </c>
+      <c r="H157" t="s">
+        <v>65</v>
+      </c>
+      <c r="I157">
+        <v>1</v>
+      </c>
+      <c r="J157">
+        <v>0</v>
+      </c>
+      <c r="K157">
+        <v>1</v>
+      </c>
+      <c r="L157">
+        <v>1</v>
+      </c>
+      <c r="M157">
+        <v>0</v>
+      </c>
+      <c r="N157">
+        <v>1</v>
+      </c>
+      <c r="O157" t="s">
+        <v>205</v>
+      </c>
+      <c r="P157" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q157">
+        <v>3</v>
+      </c>
+      <c r="R157">
+        <v>3</v>
+      </c>
+      <c r="S157">
+        <v>6</v>
+      </c>
+      <c r="T157">
+        <v>1.87</v>
+      </c>
+      <c r="U157">
+        <v>2.38</v>
+      </c>
+      <c r="V157">
+        <v>7.3</v>
+      </c>
+      <c r="W157">
+        <v>1.36</v>
+      </c>
+      <c r="X157">
+        <v>3</v>
+      </c>
+      <c r="Y157">
+        <v>2.68</v>
+      </c>
+      <c r="Z157">
+        <v>1.44</v>
+      </c>
+      <c r="AA157">
+        <v>6.55</v>
+      </c>
+      <c r="AB157">
+        <v>1.09</v>
+      </c>
+      <c r="AC157">
+        <v>1.29</v>
+      </c>
+      <c r="AD157">
+        <v>4.34</v>
+      </c>
+      <c r="AE157">
+        <v>7.43</v>
+      </c>
+      <c r="AF157">
+        <v>1.01</v>
+      </c>
+      <c r="AG157">
+        <v>9.9</v>
+      </c>
+      <c r="AH157">
+        <v>1.24</v>
+      </c>
+      <c r="AI157">
+        <v>3.55</v>
+      </c>
+      <c r="AJ157">
+        <v>1.74</v>
+      </c>
+      <c r="AK157">
+        <v>1.87</v>
+      </c>
+      <c r="AL157">
+        <v>2.1</v>
+      </c>
+      <c r="AM157">
+        <v>1.7</v>
+      </c>
+      <c r="AN157">
+        <v>1.05</v>
+      </c>
+      <c r="AO157">
+        <v>1.18</v>
+      </c>
+      <c r="AP157">
+        <v>2.92</v>
+      </c>
+      <c r="AQ157">
+        <v>2.63</v>
+      </c>
+      <c r="AR157">
+        <v>1</v>
+      </c>
+      <c r="AS157">
+        <v>2.67</v>
+      </c>
+      <c r="AT157">
+        <v>0.89</v>
+      </c>
+      <c r="AU157">
+        <v>1.95</v>
+      </c>
+      <c r="AV157">
+        <v>1.25</v>
+      </c>
+      <c r="AW157">
+        <v>3.2</v>
+      </c>
+      <c r="AX157">
+        <v>1.18</v>
+      </c>
+      <c r="AY157">
+        <v>12.75</v>
+      </c>
+      <c r="AZ157">
+        <v>5.95</v>
+      </c>
+      <c r="BA157">
+        <v>1.17</v>
+      </c>
+      <c r="BB157">
+        <v>1.3</v>
+      </c>
+      <c r="BC157">
+        <v>1.54</v>
+      </c>
+      <c r="BD157">
+        <v>1.91</v>
+      </c>
+      <c r="BE157">
+        <v>2.44</v>
+      </c>
+      <c r="BF157">
+        <v>3</v>
+      </c>
+      <c r="BG157">
+        <v>2</v>
+      </c>
+      <c r="BH157">
+        <v>8</v>
+      </c>
+      <c r="BI157">
+        <v>4</v>
+      </c>
+      <c r="BJ157">
+        <v>11</v>
+      </c>
+      <c r="BK157">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="158" spans="1:63">
+      <c r="A158" s="1">
+        <v>157</v>
+      </c>
+      <c r="B158">
+        <v>5053103</v>
+      </c>
+      <c r="C158" t="s">
+        <v>63</v>
+      </c>
+      <c r="D158" t="s">
+        <v>64</v>
+      </c>
+      <c r="E158" s="2">
+        <v>45080.70833333334</v>
+      </c>
+      <c r="F158">
+        <v>18</v>
+      </c>
+      <c r="G158" t="s">
+        <v>73</v>
+      </c>
+      <c r="H158" t="s">
+        <v>78</v>
+      </c>
+      <c r="I158">
+        <v>2</v>
+      </c>
+      <c r="J158">
+        <v>1</v>
+      </c>
+      <c r="K158">
+        <v>3</v>
+      </c>
+      <c r="L158">
+        <v>2</v>
+      </c>
+      <c r="M158">
+        <v>1</v>
+      </c>
+      <c r="N158">
+        <v>3</v>
+      </c>
+      <c r="O158" t="s">
+        <v>206</v>
+      </c>
+      <c r="P158" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q158">
+        <v>6</v>
+      </c>
+      <c r="R158">
+        <v>5</v>
+      </c>
+      <c r="S158">
+        <v>11</v>
+      </c>
+      <c r="T158">
+        <v>2.34</v>
+      </c>
+      <c r="U158">
+        <v>2.26</v>
+      </c>
+      <c r="V158">
+        <v>4.5</v>
+      </c>
+      <c r="W158">
+        <v>1.34</v>
+      </c>
+      <c r="X158">
+        <v>3.1</v>
+      </c>
+      <c r="Y158">
+        <v>2.58</v>
+      </c>
+      <c r="Z158">
+        <v>1.47</v>
+      </c>
+      <c r="AA158">
+        <v>6.2</v>
+      </c>
+      <c r="AB158">
+        <v>1.1</v>
+      </c>
+      <c r="AC158">
+        <v>1.75</v>
+      </c>
+      <c r="AD158">
+        <v>3.4</v>
+      </c>
+      <c r="AE158">
+        <v>4</v>
+      </c>
+      <c r="AF158">
+        <v>1</v>
+      </c>
+      <c r="AG158">
+        <v>10.5</v>
+      </c>
+      <c r="AH158">
+        <v>1.22</v>
+      </c>
+      <c r="AI158">
+        <v>3.72</v>
+      </c>
+      <c r="AJ158">
+        <v>1.73</v>
+      </c>
+      <c r="AK158">
+        <v>2</v>
+      </c>
+      <c r="AL158">
+        <v>1.69</v>
+      </c>
+      <c r="AM158">
+        <v>2.11</v>
+      </c>
+      <c r="AN158">
+        <v>1.21</v>
+      </c>
+      <c r="AO158">
+        <v>1.23</v>
+      </c>
+      <c r="AP158">
+        <v>1.93</v>
+      </c>
+      <c r="AQ158">
+        <v>1.25</v>
+      </c>
+      <c r="AR158">
+        <v>0.63</v>
+      </c>
+      <c r="AS158">
+        <v>1.44</v>
+      </c>
+      <c r="AT158">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AU158">
+        <v>1.59</v>
+      </c>
+      <c r="AV158">
+        <v>1.49</v>
+      </c>
+      <c r="AW158">
+        <v>3.08</v>
+      </c>
+      <c r="AX158">
+        <v>1.45</v>
+      </c>
+      <c r="AY158">
+        <v>9</v>
+      </c>
+      <c r="AZ158">
+        <v>3.24</v>
+      </c>
+      <c r="BA158">
+        <v>1.17</v>
+      </c>
+      <c r="BB158">
+        <v>1.29</v>
+      </c>
+      <c r="BC158">
+        <v>1.51</v>
+      </c>
+      <c r="BD158">
+        <v>1.9</v>
+      </c>
+      <c r="BE158">
+        <v>2.45</v>
+      </c>
+      <c r="BF158">
+        <v>5</v>
+      </c>
+      <c r="BG158">
+        <v>3</v>
+      </c>
+      <c r="BH158">
+        <v>5</v>
+      </c>
+      <c r="BI158">
+        <v>4</v>
+      </c>
+      <c r="BJ158">
+        <v>10</v>
+      </c>
+      <c r="BK158">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="159" spans="1:63">
+      <c r="A159" s="1">
+        <v>158</v>
+      </c>
+      <c r="B159">
+        <v>5053106</v>
+      </c>
+      <c r="C159" t="s">
+        <v>63</v>
+      </c>
+      <c r="D159" t="s">
+        <v>64</v>
+      </c>
+      <c r="E159" s="2">
+        <v>45080.83333333334</v>
+      </c>
+      <c r="F159">
+        <v>18</v>
+      </c>
+      <c r="G159" t="s">
+        <v>76</v>
+      </c>
+      <c r="H159" t="s">
+        <v>80</v>
+      </c>
+      <c r="I159">
+        <v>2</v>
+      </c>
+      <c r="J159">
+        <v>0</v>
+      </c>
+      <c r="K159">
+        <v>2</v>
+      </c>
+      <c r="L159">
+        <v>3</v>
+      </c>
+      <c r="M159">
+        <v>0</v>
+      </c>
+      <c r="N159">
+        <v>3</v>
+      </c>
+      <c r="O159" t="s">
+        <v>207</v>
+      </c>
+      <c r="P159" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q159">
+        <v>6</v>
+      </c>
+      <c r="R159">
+        <v>1</v>
+      </c>
+      <c r="S159">
+        <v>7</v>
+      </c>
+      <c r="T159">
+        <v>1.85</v>
+      </c>
+      <c r="U159">
+        <v>2.5</v>
+      </c>
+      <c r="V159">
+        <v>5.5</v>
+      </c>
+      <c r="W159">
+        <v>1.25</v>
+      </c>
+      <c r="X159">
+        <v>3.75</v>
+      </c>
+      <c r="Y159">
+        <v>2.3</v>
+      </c>
+      <c r="Z159">
+        <v>1.56</v>
+      </c>
+      <c r="AA159">
+        <v>5.1</v>
+      </c>
+      <c r="AB159">
+        <v>1.13</v>
+      </c>
+      <c r="AC159">
+        <v>1.28</v>
+      </c>
+      <c r="AD159">
+        <v>4.8</v>
+      </c>
+      <c r="AE159">
+        <v>8.5</v>
+      </c>
+      <c r="AF159">
+        <v>1.01</v>
+      </c>
+      <c r="AG159">
+        <v>18</v>
+      </c>
+      <c r="AH159">
+        <v>1.16</v>
+      </c>
+      <c r="AI159">
+        <v>4.4</v>
+      </c>
+      <c r="AJ159">
+        <v>1.52</v>
+      </c>
+      <c r="AK159">
+        <v>2.55</v>
+      </c>
+      <c r="AL159">
+        <v>1.8</v>
+      </c>
+      <c r="AM159">
+        <v>1.9</v>
+      </c>
+      <c r="AN159">
+        <v>1.1</v>
+      </c>
+      <c r="AO159">
+        <v>1.15</v>
+      </c>
+      <c r="AP159">
+        <v>2.8</v>
+      </c>
+      <c r="AQ159">
+        <v>1.63</v>
+      </c>
+      <c r="AR159">
+        <v>1.5</v>
+      </c>
+      <c r="AS159">
+        <v>1.78</v>
+      </c>
+      <c r="AT159">
+        <v>1.33</v>
+      </c>
+      <c r="AU159">
+        <v>2.01</v>
+      </c>
+      <c r="AV159">
+        <v>1.16</v>
+      </c>
+      <c r="AW159">
+        <v>3.17</v>
+      </c>
+      <c r="AX159">
+        <v>1.24</v>
+      </c>
+      <c r="AY159">
+        <v>13.5</v>
+      </c>
+      <c r="AZ159">
+        <v>4.6</v>
+      </c>
+      <c r="BA159">
+        <v>1.13</v>
+      </c>
+      <c r="BB159">
+        <v>1.26</v>
+      </c>
+      <c r="BC159">
+        <v>1.43</v>
+      </c>
+      <c r="BD159">
+        <v>1.75</v>
+      </c>
+      <c r="BE159">
+        <v>2.22</v>
+      </c>
+      <c r="BF159">
+        <v>7</v>
+      </c>
+      <c r="BG159">
+        <v>2</v>
+      </c>
+      <c r="BH159">
+        <v>10</v>
+      </c>
+      <c r="BI159">
+        <v>9</v>
+      </c>
+      <c r="BJ159">
+        <v>17</v>
+      </c>
+      <c r="BK159">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="160" spans="1:63">
+      <c r="A160" s="1">
+        <v>159</v>
+      </c>
+      <c r="B160">
+        <v>5053099</v>
+      </c>
+      <c r="C160" t="s">
+        <v>63</v>
+      </c>
+      <c r="D160" t="s">
+        <v>64</v>
+      </c>
+      <c r="E160" s="2">
+        <v>45080.9375</v>
+      </c>
+      <c r="F160">
+        <v>18</v>
+      </c>
+      <c r="G160" t="s">
+        <v>69</v>
+      </c>
+      <c r="H160" t="s">
+        <v>79</v>
+      </c>
+      <c r="I160">
+        <v>0</v>
+      </c>
+      <c r="J160">
+        <v>0</v>
+      </c>
+      <c r="K160">
+        <v>0</v>
+      </c>
+      <c r="L160">
+        <v>2</v>
+      </c>
+      <c r="M160">
+        <v>2</v>
+      </c>
+      <c r="N160">
+        <v>4</v>
+      </c>
+      <c r="O160" t="s">
+        <v>208</v>
+      </c>
+      <c r="P160" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q160">
+        <v>15</v>
+      </c>
+      <c r="R160">
+        <v>0</v>
+      </c>
+      <c r="S160">
+        <v>15</v>
+      </c>
+      <c r="T160">
+        <v>2</v>
+      </c>
+      <c r="U160">
+        <v>2.45</v>
+      </c>
+      <c r="V160">
+        <v>6.5</v>
+      </c>
+      <c r="W160">
+        <v>1.29</v>
+      </c>
+      <c r="X160">
+        <v>3.3</v>
+      </c>
+      <c r="Y160">
+        <v>2.37</v>
+      </c>
+      <c r="Z160">
+        <v>1.51</v>
+      </c>
+      <c r="AA160">
+        <v>5.5</v>
+      </c>
+      <c r="AB160">
+        <v>1.12</v>
+      </c>
+      <c r="AC160">
+        <v>1.43</v>
+      </c>
+      <c r="AD160">
+        <v>4.5</v>
+      </c>
+      <c r="AE160">
+        <v>6.85</v>
+      </c>
+      <c r="AF160">
+        <v>1.03</v>
+      </c>
+      <c r="AG160">
+        <v>10.5</v>
+      </c>
+      <c r="AH160">
+        <v>1.22</v>
+      </c>
+      <c r="AI160">
+        <v>3.72</v>
+      </c>
+      <c r="AJ160">
+        <v>1.74</v>
+      </c>
+      <c r="AK160">
+        <v>2.02</v>
+      </c>
+      <c r="AL160">
+        <v>1.95</v>
+      </c>
+      <c r="AM160">
+        <v>1.8</v>
+      </c>
+      <c r="AN160">
+        <v>1.1</v>
+      </c>
+      <c r="AO160">
+        <v>1.2</v>
+      </c>
+      <c r="AP160">
+        <v>2.8</v>
+      </c>
+      <c r="AQ160">
+        <v>1.63</v>
+      </c>
+      <c r="AR160">
+        <v>0.38</v>
+      </c>
+      <c r="AS160">
+        <v>1.56</v>
+      </c>
+      <c r="AT160">
+        <v>0.44</v>
+      </c>
+      <c r="AU160">
+        <v>1.99</v>
+      </c>
+      <c r="AV160">
+        <v>1.12</v>
+      </c>
+      <c r="AW160">
+        <v>3.11</v>
+      </c>
+      <c r="AX160">
+        <v>1.2</v>
+      </c>
+      <c r="AY160">
+        <v>15</v>
+      </c>
+      <c r="AZ160">
+        <v>5</v>
+      </c>
+      <c r="BA160">
+        <v>1.15</v>
+      </c>
+      <c r="BB160">
+        <v>1.31</v>
+      </c>
+      <c r="BC160">
+        <v>1.51</v>
+      </c>
+      <c r="BD160">
+        <v>1.85</v>
+      </c>
+      <c r="BE160">
+        <v>2.35</v>
+      </c>
+      <c r="BF160">
+        <v>13</v>
+      </c>
+      <c r="BG160">
+        <v>8</v>
+      </c>
+      <c r="BH160">
+        <v>11</v>
+      </c>
+      <c r="BI160">
+        <v>2</v>
+      </c>
+      <c r="BJ160">
+        <v>24</v>
+      </c>
+      <c r="BK160">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="161" spans="1:63">
+      <c r="A161" s="1">
+        <v>160</v>
+      </c>
+      <c r="B161">
+        <v>5053101</v>
+      </c>
+      <c r="C161" t="s">
+        <v>63</v>
+      </c>
+      <c r="D161" t="s">
+        <v>64</v>
+      </c>
+      <c r="E161" s="2">
+        <v>45081.625</v>
+      </c>
+      <c r="F161">
+        <v>18</v>
+      </c>
+      <c r="G161" t="s">
+        <v>66</v>
+      </c>
+      <c r="H161" t="s">
+        <v>75</v>
+      </c>
+      <c r="I161">
+        <v>1</v>
+      </c>
+      <c r="J161">
+        <v>0</v>
+      </c>
+      <c r="K161">
+        <v>1</v>
+      </c>
+      <c r="L161">
+        <v>3</v>
+      </c>
+      <c r="M161">
+        <v>0</v>
+      </c>
+      <c r="N161">
+        <v>3</v>
+      </c>
+      <c r="O161" t="s">
+        <v>209</v>
+      </c>
+      <c r="P161" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q161">
+        <v>3</v>
+      </c>
+      <c r="R161">
+        <v>2</v>
+      </c>
+      <c r="S161">
+        <v>5</v>
+      </c>
+      <c r="T161">
+        <v>1.78</v>
+      </c>
+      <c r="U161">
+        <v>2.35</v>
+      </c>
+      <c r="V161">
+        <v>7.75</v>
+      </c>
+      <c r="W161">
+        <v>1.36</v>
+      </c>
+      <c r="X161">
+        <v>2.87</v>
+      </c>
+      <c r="Y161">
+        <v>2.7</v>
+      </c>
+      <c r="Z161">
+        <v>1.41</v>
+      </c>
+      <c r="AA161">
+        <v>6.75</v>
+      </c>
+      <c r="AB161">
+        <v>1.09</v>
+      </c>
+      <c r="AC161">
+        <v>1.25</v>
+      </c>
+      <c r="AD161">
+        <v>4.8</v>
+      </c>
+      <c r="AE161">
+        <v>11</v>
+      </c>
+      <c r="AF161">
+        <v>1.04</v>
+      </c>
+      <c r="AG161">
+        <v>11</v>
+      </c>
+      <c r="AH161">
+        <v>1.28</v>
+      </c>
+      <c r="AI161">
+        <v>3.37</v>
+      </c>
+      <c r="AJ161">
+        <v>1.86</v>
+      </c>
+      <c r="AK161">
+        <v>1.86</v>
+      </c>
+      <c r="AL161">
+        <v>2.37</v>
+      </c>
+      <c r="AM161">
+        <v>1.5</v>
+      </c>
+      <c r="AN161">
+        <v>1.02</v>
+      </c>
+      <c r="AO161">
+        <v>1.15</v>
+      </c>
+      <c r="AP161">
+        <v>3.5</v>
+      </c>
+      <c r="AQ161">
+        <v>1.88</v>
+      </c>
+      <c r="AR161">
+        <v>0.13</v>
+      </c>
+      <c r="AS161">
+        <v>2</v>
+      </c>
+      <c r="AT161">
+        <v>0.11</v>
+      </c>
+      <c r="AU161">
+        <v>1.88</v>
+      </c>
+      <c r="AV161">
+        <v>0.75</v>
+      </c>
+      <c r="AW161">
+        <v>2.63</v>
+      </c>
+      <c r="AX161">
+        <v>1.1</v>
+      </c>
+      <c r="AY161">
+        <v>13</v>
+      </c>
+      <c r="AZ161">
+        <v>7.5</v>
+      </c>
+      <c r="BA161">
+        <v>1.2</v>
+      </c>
+      <c r="BB161">
+        <v>1.33</v>
+      </c>
+      <c r="BC161">
+        <v>1.61</v>
+      </c>
+      <c r="BD161">
+        <v>2.03</v>
+      </c>
+      <c r="BE161">
+        <v>2.62</v>
+      </c>
+      <c r="BF161">
+        <v>9</v>
+      </c>
+      <c r="BG161">
+        <v>2</v>
+      </c>
+      <c r="BH161">
+        <v>4</v>
+      </c>
+      <c r="BI161">
+        <v>3</v>
+      </c>
+      <c r="BJ161">
+        <v>13</v>
+      </c>
+      <c r="BK161">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="162" spans="1:63">
+      <c r="A162" s="1">
+        <v>161</v>
+      </c>
+      <c r="B162">
+        <v>5053105</v>
+      </c>
+      <c r="C162" t="s">
+        <v>63</v>
+      </c>
+      <c r="D162" t="s">
+        <v>64</v>
+      </c>
+      <c r="E162" s="2">
+        <v>45081.72916666666</v>
+      </c>
+      <c r="F162">
+        <v>18</v>
+      </c>
+      <c r="G162" t="s">
+        <v>71</v>
+      </c>
+      <c r="H162" t="s">
+        <v>83</v>
+      </c>
+      <c r="I162">
+        <v>0</v>
+      </c>
+      <c r="J162">
+        <v>0</v>
+      </c>
+      <c r="K162">
+        <v>0</v>
+      </c>
+      <c r="L162">
+        <v>1</v>
+      </c>
+      <c r="M162">
+        <v>0</v>
+      </c>
+      <c r="N162">
+        <v>1</v>
+      </c>
+      <c r="O162" t="s">
+        <v>160</v>
+      </c>
+      <c r="P162" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q162">
+        <v>9</v>
+      </c>
+      <c r="R162">
+        <v>1</v>
+      </c>
+      <c r="S162">
+        <v>10</v>
+      </c>
+      <c r="T162">
+        <v>3.4</v>
+      </c>
+      <c r="U162">
+        <v>2.2</v>
+      </c>
+      <c r="V162">
+        <v>3</v>
+      </c>
+      <c r="W162">
+        <v>1.36</v>
+      </c>
+      <c r="X162">
+        <v>3.1</v>
+      </c>
+      <c r="Y162">
+        <v>2.6</v>
+      </c>
+      <c r="Z162">
+        <v>1.47</v>
+      </c>
+      <c r="AA162">
+        <v>6</v>
+      </c>
+      <c r="AB162">
+        <v>1.11</v>
+      </c>
+      <c r="AC162">
+        <v>2.8</v>
+      </c>
+      <c r="AD162">
+        <v>3.52</v>
+      </c>
+      <c r="AE162">
+        <v>2.34</v>
+      </c>
+      <c r="AF162">
+        <v>1.04</v>
+      </c>
+      <c r="AG162">
+        <v>13</v>
+      </c>
+      <c r="AH162">
+        <v>1.22</v>
+      </c>
+      <c r="AI162">
+        <v>4</v>
+      </c>
+      <c r="AJ162">
+        <v>1.74</v>
+      </c>
+      <c r="AK162">
+        <v>2.02</v>
+      </c>
+      <c r="AL162">
+        <v>1.6</v>
+      </c>
+      <c r="AM162">
+        <v>2.25</v>
+      </c>
+      <c r="AN162">
+        <v>1.6</v>
+      </c>
+      <c r="AO162">
+        <v>1.25</v>
+      </c>
+      <c r="AP162">
+        <v>1.42</v>
+      </c>
+      <c r="AQ162">
+        <v>1.25</v>
+      </c>
+      <c r="AR162">
+        <v>1.38</v>
+      </c>
+      <c r="AS162">
+        <v>1.44</v>
+      </c>
+      <c r="AT162">
+        <v>1.22</v>
+      </c>
+      <c r="AU162">
+        <v>1.42</v>
+      </c>
+      <c r="AV162">
+        <v>1.4</v>
+      </c>
+      <c r="AW162">
+        <v>2.82</v>
+      </c>
+      <c r="AX162">
+        <v>2.15</v>
+      </c>
+      <c r="AY162">
+        <v>7</v>
+      </c>
+      <c r="AZ162">
+        <v>2.15</v>
+      </c>
+      <c r="BA162">
+        <v>0</v>
+      </c>
+      <c r="BB162">
+        <v>1.21</v>
+      </c>
+      <c r="BC162">
+        <v>1.39</v>
+      </c>
+      <c r="BD162">
+        <v>1.55</v>
+      </c>
+      <c r="BE162">
+        <v>1.87</v>
+      </c>
+      <c r="BF162">
+        <v>6</v>
+      </c>
+      <c r="BG162">
+        <v>2</v>
+      </c>
+      <c r="BH162">
+        <v>4</v>
+      </c>
+      <c r="BI162">
+        <v>0</v>
+      </c>
+      <c r="BJ162">
+        <v>10</v>
+      </c>
+      <c r="BK162">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:63">
+      <c r="A163" s="1">
+        <v>162</v>
+      </c>
+      <c r="B163">
+        <v>5053100</v>
+      </c>
+      <c r="C163" t="s">
+        <v>63</v>
+      </c>
+      <c r="D163" t="s">
+        <v>64</v>
+      </c>
+      <c r="E163" s="2">
+        <v>45081.83333333334</v>
+      </c>
+      <c r="F163">
+        <v>18</v>
+      </c>
+      <c r="G163" t="s">
+        <v>72</v>
+      </c>
+      <c r="H163" t="s">
+        <v>68</v>
+      </c>
+      <c r="I163">
+        <v>0</v>
+      </c>
+      <c r="J163">
+        <v>0</v>
+      </c>
+      <c r="K163">
+        <v>0</v>
+      </c>
+      <c r="L163">
+        <v>3</v>
+      </c>
+      <c r="M163">
+        <v>1</v>
+      </c>
+      <c r="N163">
+        <v>4</v>
+      </c>
+      <c r="O163" t="s">
+        <v>210</v>
+      </c>
+      <c r="P163" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q163">
+        <v>5</v>
+      </c>
+      <c r="R163">
+        <v>4</v>
+      </c>
+      <c r="S163">
+        <v>9</v>
+      </c>
+      <c r="T163">
+        <v>2</v>
+      </c>
+      <c r="U163">
+        <v>2.3</v>
+      </c>
+      <c r="V163">
+        <v>7</v>
+      </c>
+      <c r="W163">
+        <v>1.38</v>
+      </c>
+      <c r="X163">
+        <v>2.75</v>
+      </c>
+      <c r="Y163">
+        <v>2.75</v>
+      </c>
+      <c r="Z163">
+        <v>1.38</v>
+      </c>
+      <c r="AA163">
+        <v>7.25</v>
+      </c>
+      <c r="AB163">
+        <v>1.08</v>
+      </c>
+      <c r="AC163">
+        <v>1.43</v>
+      </c>
+      <c r="AD163">
+        <v>4.28</v>
+      </c>
+      <c r="AE163">
+        <v>7.4</v>
+      </c>
+      <c r="AF163">
+        <v>1.04</v>
+      </c>
+      <c r="AG163">
+        <v>11</v>
+      </c>
+      <c r="AH163">
+        <v>1.33</v>
+      </c>
+      <c r="AI163">
+        <v>3.4</v>
+      </c>
+      <c r="AJ163">
+        <v>1.97</v>
+      </c>
+      <c r="AK163">
+        <v>1.78</v>
+      </c>
+      <c r="AL163">
+        <v>2.25</v>
+      </c>
+      <c r="AM163">
+        <v>1.61</v>
+      </c>
+      <c r="AN163">
+        <v>1.08</v>
+      </c>
+      <c r="AO163">
+        <v>1.17</v>
+      </c>
+      <c r="AP163">
+        <v>2.8</v>
+      </c>
+      <c r="AQ163">
+        <v>2.13</v>
+      </c>
+      <c r="AR163">
+        <v>0.63</v>
+      </c>
+      <c r="AS163">
+        <v>2.22</v>
+      </c>
+      <c r="AT163">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AU163">
+        <v>1.77</v>
+      </c>
+      <c r="AV163">
+        <v>1.34</v>
+      </c>
+      <c r="AW163">
+        <v>3.11</v>
+      </c>
+      <c r="AX163">
+        <v>1.4</v>
+      </c>
+      <c r="AY163">
+        <v>9.5</v>
+      </c>
+      <c r="AZ163">
+        <v>3.4</v>
+      </c>
+      <c r="BA163">
+        <v>1.17</v>
+      </c>
+      <c r="BB163">
+        <v>1.29</v>
+      </c>
+      <c r="BC163">
+        <v>1.51</v>
+      </c>
+      <c r="BD163">
+        <v>1.9</v>
+      </c>
+      <c r="BE163">
+        <v>2.45</v>
+      </c>
+      <c r="BF163">
+        <v>5</v>
+      </c>
+      <c r="BG163">
+        <v>4</v>
+      </c>
+      <c r="BH163">
+        <v>9</v>
+      </c>
+      <c r="BI163">
+        <v>3</v>
+      </c>
+      <c r="BJ163">
+        <v>14</v>
+      </c>
+      <c r="BK163">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Peru Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Peru Primera División_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="276">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1203,7 +1203,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK163"/>
+  <dimension ref="A1:BK164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3253,7 +3253,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT11">
         <v>0.89</v>
@@ -4593,7 +4593,7 @@
         <v>3</v>
       </c>
       <c r="AT18">
-        <v>0.25</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -9368,7 +9368,7 @@
         <v>1.56</v>
       </c>
       <c r="AT43">
-        <v>0.25</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU43">
         <v>2.18</v>
@@ -11275,7 +11275,7 @@
         <v>0</v>
       </c>
       <c r="AS53">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT53">
         <v>0.44</v>
@@ -15480,7 +15480,7 @@
         <v>2</v>
       </c>
       <c r="AT75">
-        <v>0.25</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU75">
         <v>1.45</v>
@@ -16432,7 +16432,7 @@
         <v>1.8</v>
       </c>
       <c r="AS80">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT80">
         <v>1.33</v>
@@ -17581,7 +17581,7 @@
         <v>2.33</v>
       </c>
       <c r="AT86">
-        <v>0.25</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU86">
         <v>1.29</v>
@@ -19870,7 +19870,7 @@
         <v>0.2</v>
       </c>
       <c r="AS98">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT98">
         <v>0.25</v>
@@ -23499,7 +23499,7 @@
         <v>1.2</v>
       </c>
       <c r="AS117">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT117">
         <v>1.38</v>
@@ -23884,7 +23884,7 @@
         <v>2.22</v>
       </c>
       <c r="AT119">
-        <v>0.25</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU119">
         <v>1.79</v>
@@ -24454,7 +24454,7 @@
         <v>0.83</v>
       </c>
       <c r="AS122">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT122">
         <v>0.5600000000000001</v>
@@ -25030,7 +25030,7 @@
         <v>1.75</v>
       </c>
       <c r="AT125">
-        <v>0.25</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU125">
         <v>1.4</v>
@@ -25982,7 +25982,7 @@
         <v>1</v>
       </c>
       <c r="AS130">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT130">
         <v>0.88</v>
@@ -26558,7 +26558,7 @@
         <v>1</v>
       </c>
       <c r="AT133">
-        <v>0.25</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU133">
         <v>1.4</v>
@@ -29038,7 +29038,7 @@
         <v>1.14</v>
       </c>
       <c r="AS146">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT146">
         <v>1</v>
@@ -29423,7 +29423,7 @@
         <v>2.63</v>
       </c>
       <c r="AT148">
-        <v>0.25</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU148">
         <v>1.63</v>
@@ -32340,6 +32340,197 @@
       </c>
       <c r="BK163">
         <v>7</v>
+      </c>
+    </row>
+    <row r="164" spans="1:63">
+      <c r="A164" s="1">
+        <v>163</v>
+      </c>
+      <c r="B164">
+        <v>5053116</v>
+      </c>
+      <c r="C164" t="s">
+        <v>63</v>
+      </c>
+      <c r="D164" t="s">
+        <v>64</v>
+      </c>
+      <c r="E164" s="2">
+        <v>45086.875</v>
+      </c>
+      <c r="F164">
+        <v>19</v>
+      </c>
+      <c r="G164" t="s">
+        <v>74</v>
+      </c>
+      <c r="H164" t="s">
+        <v>71</v>
+      </c>
+      <c r="I164">
+        <v>0</v>
+      </c>
+      <c r="J164">
+        <v>0</v>
+      </c>
+      <c r="K164">
+        <v>0</v>
+      </c>
+      <c r="L164">
+        <v>0</v>
+      </c>
+      <c r="M164">
+        <v>1</v>
+      </c>
+      <c r="N164">
+        <v>1</v>
+      </c>
+      <c r="O164" t="s">
+        <v>84</v>
+      </c>
+      <c r="P164" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q164">
+        <v>5</v>
+      </c>
+      <c r="R164">
+        <v>1</v>
+      </c>
+      <c r="S164">
+        <v>6</v>
+      </c>
+      <c r="T164">
+        <v>1.73</v>
+      </c>
+      <c r="U164">
+        <v>2.63</v>
+      </c>
+      <c r="V164">
+        <v>8</v>
+      </c>
+      <c r="W164">
+        <v>1.28</v>
+      </c>
+      <c r="X164">
+        <v>3.6</v>
+      </c>
+      <c r="Y164">
+        <v>2.3</v>
+      </c>
+      <c r="Z164">
+        <v>1.57</v>
+      </c>
+      <c r="AA164">
+        <v>5</v>
+      </c>
+      <c r="AB164">
+        <v>1.15</v>
+      </c>
+      <c r="AC164">
+        <v>1.25</v>
+      </c>
+      <c r="AD164">
+        <v>5.5</v>
+      </c>
+      <c r="AE164">
+        <v>9</v>
+      </c>
+      <c r="AF164">
+        <v>1.02</v>
+      </c>
+      <c r="AG164">
+        <v>17</v>
+      </c>
+      <c r="AH164">
+        <v>1.18</v>
+      </c>
+      <c r="AI164">
+        <v>5</v>
+      </c>
+      <c r="AJ164">
+        <v>1.57</v>
+      </c>
+      <c r="AK164">
+        <v>2.38</v>
+      </c>
+      <c r="AL164">
+        <v>1.9</v>
+      </c>
+      <c r="AM164">
+        <v>1.83</v>
+      </c>
+      <c r="AN164">
+        <v>1.02</v>
+      </c>
+      <c r="AO164">
+        <v>1.11</v>
+      </c>
+      <c r="AP164">
+        <v>3.5</v>
+      </c>
+      <c r="AQ164">
+        <v>2.25</v>
+      </c>
+      <c r="AR164">
+        <v>0.25</v>
+      </c>
+      <c r="AS164">
+        <v>2</v>
+      </c>
+      <c r="AT164">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AU164">
+        <v>1.47</v>
+      </c>
+      <c r="AV164">
+        <v>0.9</v>
+      </c>
+      <c r="AW164">
+        <v>2.37</v>
+      </c>
+      <c r="AX164">
+        <v>1.25</v>
+      </c>
+      <c r="AY164">
+        <v>11.75</v>
+      </c>
+      <c r="AZ164">
+        <v>4.8</v>
+      </c>
+      <c r="BA164">
+        <v>1.17</v>
+      </c>
+      <c r="BB164">
+        <v>1.29</v>
+      </c>
+      <c r="BC164">
+        <v>1.57</v>
+      </c>
+      <c r="BD164">
+        <v>1.93</v>
+      </c>
+      <c r="BE164">
+        <v>2.4</v>
+      </c>
+      <c r="BF164">
+        <v>6</v>
+      </c>
+      <c r="BG164">
+        <v>4</v>
+      </c>
+      <c r="BH164">
+        <v>9</v>
+      </c>
+      <c r="BI164">
+        <v>6</v>
+      </c>
+      <c r="BJ164">
+        <v>15</v>
+      </c>
+      <c r="BK164">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Peru Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Peru Primera División_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="282">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -649,6 +649,18 @@
     <t>['52', '70', '90+1']</t>
   </si>
   <si>
+    <t>['37', '65']</t>
+  </si>
+  <si>
+    <t>['41', '54']</t>
+  </si>
+  <si>
+    <t>['12']</t>
+  </si>
+  <si>
+    <t>['16', '32', '85']</t>
+  </si>
+  <si>
     <t>['81']</t>
   </si>
   <si>
@@ -716,9 +728,6 @@
   </si>
   <si>
     <t>['75', '84']</t>
-  </si>
-  <si>
-    <t>['12']</t>
   </si>
   <si>
     <t>['49']</t>
@@ -842,6 +851,15 @@
   </si>
   <si>
     <t>['70', '76']</t>
+  </si>
+  <si>
+    <t>['9', '53']</t>
+  </si>
+  <si>
+    <t>['19']</t>
+  </si>
+  <si>
+    <t>['73', '90+4']</t>
   </si>
 </sst>
 </file>
@@ -1203,7 +1221,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK164"/>
+  <dimension ref="A1:BK169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2301,7 +2319,7 @@
         <v>1.56</v>
       </c>
       <c r="AT6">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2593,7 +2611,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q8">
         <v>9</v>
@@ -2784,7 +2802,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -3357,7 +3375,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q12">
         <v>2</v>
@@ -3444,7 +3462,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT12">
         <v>0.88</v>
@@ -3548,7 +3566,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q13">
         <v>6</v>
@@ -3638,7 +3656,7 @@
         <v>1.78</v>
       </c>
       <c r="AT13">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3739,7 +3757,7 @@
         <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q14">
         <v>7</v>
@@ -3829,7 +3847,7 @@
         <v>1.56</v>
       </c>
       <c r="AT14">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -4208,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT16">
         <v>1.25</v>
@@ -4399,7 +4417,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT17">
         <v>1.63</v>
@@ -4694,7 +4712,7 @@
         <v>84</v>
       </c>
       <c r="P19" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q19">
         <v>6</v>
@@ -4781,10 +4799,10 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT19">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -5267,7 +5285,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q22">
         <v>10</v>
@@ -5739,7 +5757,7 @@
         <v>2</v>
       </c>
       <c r="AT24">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU24">
         <v>0</v>
@@ -5840,7 +5858,7 @@
         <v>101</v>
       </c>
       <c r="P25" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q25">
         <v>6</v>
@@ -6031,7 +6049,7 @@
         <v>102</v>
       </c>
       <c r="P26" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q26">
         <v>1</v>
@@ -6312,7 +6330,7 @@
         <v>1.44</v>
       </c>
       <c r="AT27">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AU27">
         <v>0</v>
@@ -6604,7 +6622,7 @@
         <v>105</v>
       </c>
       <c r="P29" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q29">
         <v>10</v>
@@ -6885,7 +6903,7 @@
         <v>1.56</v>
       </c>
       <c r="AT30">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU30">
         <v>0</v>
@@ -7073,7 +7091,7 @@
         <v>0</v>
       </c>
       <c r="AS31">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT31">
         <v>0.5600000000000001</v>
@@ -7267,7 +7285,7 @@
         <v>1.56</v>
       </c>
       <c r="AT32">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU32">
         <v>3.15</v>
@@ -7455,7 +7473,7 @@
         <v>0</v>
       </c>
       <c r="AS33">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT33">
         <v>1.25</v>
@@ -7559,7 +7577,7 @@
         <v>110</v>
       </c>
       <c r="P34" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q34">
         <v>2</v>
@@ -7646,7 +7664,7 @@
         <v>0</v>
       </c>
       <c r="AS34">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT34">
         <v>0.89</v>
@@ -7750,7 +7768,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q35">
         <v>8</v>
@@ -7840,7 +7858,7 @@
         <v>1.44</v>
       </c>
       <c r="AT35">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AU35">
         <v>1.81</v>
@@ -8222,7 +8240,7 @@
         <v>2.33</v>
       </c>
       <c r="AT37">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU37">
         <v>0.8100000000000001</v>
@@ -8705,7 +8723,7 @@
         <v>84</v>
       </c>
       <c r="P40" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q40">
         <v>5</v>
@@ -8896,7 +8914,7 @@
         <v>84</v>
       </c>
       <c r="P41" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q41">
         <v>8</v>
@@ -8986,7 +9004,7 @@
         <v>1.44</v>
       </c>
       <c r="AT41">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU41">
         <v>1.47</v>
@@ -9087,7 +9105,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q42">
         <v>11</v>
@@ -9747,7 +9765,7 @@
         <v>1.5</v>
       </c>
       <c r="AS45">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT45">
         <v>1.22</v>
@@ -9941,7 +9959,7 @@
         <v>2</v>
       </c>
       <c r="AT46">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU46">
         <v>1.72</v>
@@ -10129,7 +10147,7 @@
         <v>1.5</v>
       </c>
       <c r="AS47">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT47">
         <v>0.67</v>
@@ -10233,7 +10251,7 @@
         <v>121</v>
       </c>
       <c r="P48" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q48">
         <v>7</v>
@@ -10424,7 +10442,7 @@
         <v>122</v>
       </c>
       <c r="P49" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -10615,7 +10633,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q50">
         <v>3</v>
@@ -10705,7 +10723,7 @@
         <v>1.44</v>
       </c>
       <c r="AT50">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU50">
         <v>1.67</v>
@@ -11188,7 +11206,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -11379,7 +11397,7 @@
         <v>126</v>
       </c>
       <c r="P54" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -11469,7 +11487,7 @@
         <v>2.67</v>
       </c>
       <c r="AT54">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU54">
         <v>1.8</v>
@@ -11660,7 +11678,7 @@
         <v>2.22</v>
       </c>
       <c r="AT55">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AU55">
         <v>1.99</v>
@@ -11851,7 +11869,7 @@
         <v>2.33</v>
       </c>
       <c r="AT56">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU56">
         <v>1.15</v>
@@ -11952,7 +11970,7 @@
         <v>129</v>
       </c>
       <c r="P57" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12716,7 +12734,7 @@
         <v>84</v>
       </c>
       <c r="P61" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q61">
         <v>10</v>
@@ -13098,7 +13116,7 @@
         <v>134</v>
       </c>
       <c r="P63" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q63">
         <v>3</v>
@@ -13480,7 +13498,7 @@
         <v>84</v>
       </c>
       <c r="P65" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q65">
         <v>4</v>
@@ -13671,7 +13689,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q66">
         <v>10</v>
@@ -14053,7 +14071,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>234</v>
+        <v>213</v>
       </c>
       <c r="Q68">
         <v>7</v>
@@ -14626,7 +14644,7 @@
         <v>138</v>
       </c>
       <c r="P71" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q71">
         <v>3</v>
@@ -14713,7 +14731,7 @@
         <v>1</v>
       </c>
       <c r="AS71">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT71">
         <v>0.89</v>
@@ -15008,7 +15026,7 @@
         <v>140</v>
       </c>
       <c r="P73" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q73">
         <v>5</v>
@@ -15095,7 +15113,7 @@
         <v>1.33</v>
       </c>
       <c r="AS73">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT73">
         <v>0.5600000000000001</v>
@@ -15286,7 +15304,7 @@
         <v>1.5</v>
       </c>
       <c r="AS74">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT74">
         <v>1.22</v>
@@ -15581,7 +15599,7 @@
         <v>142</v>
       </c>
       <c r="P76" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q76">
         <v>7</v>
@@ -15862,7 +15880,7 @@
         <v>2.63</v>
       </c>
       <c r="AT77">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AU77">
         <v>1.75</v>
@@ -15963,7 +15981,7 @@
         <v>84</v>
       </c>
       <c r="P78" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q78">
         <v>5</v>
@@ -16053,7 +16071,7 @@
         <v>1.44</v>
       </c>
       <c r="AT78">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU78">
         <v>1.56</v>
@@ -16244,7 +16262,7 @@
         <v>1.78</v>
       </c>
       <c r="AT79">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU79">
         <v>1.44</v>
@@ -16536,7 +16554,7 @@
         <v>84</v>
       </c>
       <c r="P81" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q81">
         <v>4</v>
@@ -16727,7 +16745,7 @@
         <v>146</v>
       </c>
       <c r="P82" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q82">
         <v>10</v>
@@ -16918,7 +16936,7 @@
         <v>147</v>
       </c>
       <c r="P83" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q83">
         <v>6</v>
@@ -17008,7 +17026,7 @@
         <v>2.67</v>
       </c>
       <c r="AT83">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU83">
         <v>1.74</v>
@@ -17109,7 +17127,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q84">
         <v>10</v>
@@ -17196,7 +17214,7 @@
         <v>0</v>
       </c>
       <c r="AS84">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT84">
         <v>0.44</v>
@@ -17390,7 +17408,7 @@
         <v>2.22</v>
       </c>
       <c r="AT85">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU85">
         <v>1.99</v>
@@ -17491,7 +17509,7 @@
         <v>150</v>
       </c>
       <c r="P86" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q86">
         <v>8</v>
@@ -17769,7 +17787,7 @@
         <v>0.6</v>
       </c>
       <c r="AS87">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT87">
         <v>0.67</v>
@@ -17873,7 +17891,7 @@
         <v>152</v>
       </c>
       <c r="P88" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q88">
         <v>11</v>
@@ -18255,7 +18273,7 @@
         <v>154</v>
       </c>
       <c r="P90" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q90">
         <v>19</v>
@@ -18446,7 +18464,7 @@
         <v>84</v>
       </c>
       <c r="P91" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q91">
         <v>5</v>
@@ -18637,7 +18655,7 @@
         <v>155</v>
       </c>
       <c r="P92" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q92">
         <v>5</v>
@@ -18828,7 +18846,7 @@
         <v>156</v>
       </c>
       <c r="P93" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q93">
         <v>9</v>
@@ -19106,7 +19124,7 @@
         <v>1.25</v>
       </c>
       <c r="AS94">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT94">
         <v>0.5600000000000001</v>
@@ -19300,7 +19318,7 @@
         <v>1.78</v>
       </c>
       <c r="AT95">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU95">
         <v>1.42</v>
@@ -19401,7 +19419,7 @@
         <v>84</v>
       </c>
       <c r="P96" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -19488,7 +19506,7 @@
         <v>1.5</v>
       </c>
       <c r="AS96">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT96">
         <v>1.33</v>
@@ -19592,7 +19610,7 @@
         <v>159</v>
       </c>
       <c r="P97" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q97">
         <v>6</v>
@@ -19682,7 +19700,7 @@
         <v>1.63</v>
       </c>
       <c r="AT97">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU97">
         <v>2.28</v>
@@ -19873,7 +19891,7 @@
         <v>2</v>
       </c>
       <c r="AT98">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AU98">
         <v>1.17</v>
@@ -19974,7 +19992,7 @@
         <v>151</v>
       </c>
       <c r="P99" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q99">
         <v>5</v>
@@ -20061,7 +20079,7 @@
         <v>2</v>
       </c>
       <c r="AS99">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT99">
         <v>1.67</v>
@@ -20165,7 +20183,7 @@
         <v>161</v>
       </c>
       <c r="P100" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q100">
         <v>6</v>
@@ -20255,7 +20273,7 @@
         <v>2.63</v>
       </c>
       <c r="AT100">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU100">
         <v>1.72</v>
@@ -20356,7 +20374,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q101">
         <v>6</v>
@@ -20547,7 +20565,7 @@
         <v>163</v>
       </c>
       <c r="P102" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -20637,7 +20655,7 @@
         <v>2.22</v>
       </c>
       <c r="AT102">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU102">
         <v>1.91</v>
@@ -21311,7 +21329,7 @@
         <v>84</v>
       </c>
       <c r="P106" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q106">
         <v>1</v>
@@ -21780,7 +21798,7 @@
         <v>0</v>
       </c>
       <c r="AS108">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT108">
         <v>0.11</v>
@@ -21884,7 +21902,7 @@
         <v>167</v>
       </c>
       <c r="P109" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q109">
         <v>5</v>
@@ -22266,7 +22284,7 @@
         <v>169</v>
       </c>
       <c r="P111" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q111">
         <v>5</v>
@@ -22544,7 +22562,7 @@
         <v>0.5</v>
       </c>
       <c r="AS112">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT112">
         <v>0.44</v>
@@ -22735,10 +22753,10 @@
         <v>0.33</v>
       </c>
       <c r="AS113">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT113">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AU113">
         <v>1.42</v>
@@ -22929,7 +22947,7 @@
         <v>2.63</v>
       </c>
       <c r="AT114">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU114">
         <v>1.71</v>
@@ -23030,7 +23048,7 @@
         <v>173</v>
       </c>
       <c r="P115" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q115">
         <v>6</v>
@@ -23120,7 +23138,7 @@
         <v>2.13</v>
       </c>
       <c r="AT115">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU115">
         <v>1.53</v>
@@ -23311,7 +23329,7 @@
         <v>1.63</v>
       </c>
       <c r="AT116">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU116">
         <v>2.04</v>
@@ -23502,7 +23520,7 @@
         <v>2</v>
       </c>
       <c r="AT117">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU117">
         <v>1.26</v>
@@ -23603,7 +23621,7 @@
         <v>174</v>
       </c>
       <c r="P118" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q118">
         <v>7</v>
@@ -24176,7 +24194,7 @@
         <v>177</v>
       </c>
       <c r="P121" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q121">
         <v>6</v>
@@ -24263,7 +24281,7 @@
         <v>0.57</v>
       </c>
       <c r="AS121">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT121">
         <v>0.89</v>
@@ -24367,7 +24385,7 @@
         <v>178</v>
       </c>
       <c r="P122" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q122">
         <v>7</v>
@@ -25027,7 +25045,7 @@
         <v>0.2</v>
       </c>
       <c r="AS125">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT125">
         <v>0.5600000000000001</v>
@@ -25221,7 +25239,7 @@
         <v>1.78</v>
       </c>
       <c r="AT126">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU126">
         <v>1.83</v>
@@ -25322,7 +25340,7 @@
         <v>182</v>
       </c>
       <c r="P127" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q127">
         <v>4</v>
@@ -25409,7 +25427,7 @@
         <v>0.8</v>
       </c>
       <c r="AS127">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT127">
         <v>1.63</v>
@@ -25600,10 +25618,10 @@
         <v>0.67</v>
       </c>
       <c r="AS128">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT128">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU128">
         <v>1.56</v>
@@ -25704,7 +25722,7 @@
         <v>184</v>
       </c>
       <c r="P129" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q129">
         <v>1</v>
@@ -25895,7 +25913,7 @@
         <v>144</v>
       </c>
       <c r="P130" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q130">
         <v>7</v>
@@ -26086,7 +26104,7 @@
         <v>185</v>
       </c>
       <c r="P131" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q131">
         <v>8</v>
@@ -26173,10 +26191,10 @@
         <v>1.17</v>
       </c>
       <c r="AS131">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT131">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU131">
         <v>1.55</v>
@@ -26367,7 +26385,7 @@
         <v>3</v>
       </c>
       <c r="AT132">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU132">
         <v>1.6</v>
@@ -26555,7 +26573,7 @@
         <v>0.17</v>
       </c>
       <c r="AS133">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT133">
         <v>0.5600000000000001</v>
@@ -26746,7 +26764,7 @@
         <v>0.33</v>
       </c>
       <c r="AS134">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT134">
         <v>0.5600000000000001</v>
@@ -27041,7 +27059,7 @@
         <v>187</v>
       </c>
       <c r="P136" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q136">
         <v>3</v>
@@ -27128,7 +27146,7 @@
         <v>2.14</v>
       </c>
       <c r="AS136">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT136">
         <v>1.67</v>
@@ -27614,7 +27632,7 @@
         <v>189</v>
       </c>
       <c r="P139" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q139">
         <v>10</v>
@@ -27805,7 +27823,7 @@
         <v>190</v>
       </c>
       <c r="P140" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q140">
         <v>7</v>
@@ -28187,7 +28205,7 @@
         <v>134</v>
       </c>
       <c r="P142" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q142">
         <v>6</v>
@@ -28378,7 +28396,7 @@
         <v>192</v>
       </c>
       <c r="P143" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q143">
         <v>4</v>
@@ -28760,7 +28778,7 @@
         <v>194</v>
       </c>
       <c r="P145" t="s">
-        <v>234</v>
+        <v>213</v>
       </c>
       <c r="Q145">
         <v>4</v>
@@ -28847,10 +28865,10 @@
         <v>1.43</v>
       </c>
       <c r="AS145">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT145">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU145">
         <v>1.31</v>
@@ -29041,7 +29059,7 @@
         <v>2</v>
       </c>
       <c r="AT146">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU146">
         <v>1.46</v>
@@ -29142,7 +29160,7 @@
         <v>196</v>
       </c>
       <c r="P147" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q147">
         <v>1</v>
@@ -29232,7 +29250,7 @@
         <v>2.13</v>
       </c>
       <c r="AT147">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU147">
         <v>1.52</v>
@@ -29524,7 +29542,7 @@
         <v>198</v>
       </c>
       <c r="P149" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q149">
         <v>9</v>
@@ -29611,10 +29629,10 @@
         <v>0.86</v>
       </c>
       <c r="AS149">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT149">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU149">
         <v>1.6</v>
@@ -29906,7 +29924,7 @@
         <v>199</v>
       </c>
       <c r="P151" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q151">
         <v>4</v>
@@ -30097,7 +30115,7 @@
         <v>200</v>
       </c>
       <c r="P152" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q152">
         <v>2</v>
@@ -30184,7 +30202,7 @@
         <v>0.63</v>
       </c>
       <c r="AS152">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT152">
         <v>0.89</v>
@@ -30288,7 +30306,7 @@
         <v>201</v>
       </c>
       <c r="P153" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q153">
         <v>11</v>
@@ -30378,7 +30396,7 @@
         <v>3</v>
       </c>
       <c r="AT153">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AU153">
         <v>1.58</v>
@@ -30479,7 +30497,7 @@
         <v>202</v>
       </c>
       <c r="P154" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q154">
         <v>2</v>
@@ -30566,7 +30584,7 @@
         <v>0.86</v>
       </c>
       <c r="AS154">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT154">
         <v>0.88</v>
@@ -30670,7 +30688,7 @@
         <v>203</v>
       </c>
       <c r="P155" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q155">
         <v>6</v>
@@ -30861,7 +30879,7 @@
         <v>204</v>
       </c>
       <c r="P156" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q156">
         <v>8</v>
@@ -31625,7 +31643,7 @@
         <v>208</v>
       </c>
       <c r="P160" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q160">
         <v>15</v>
@@ -32531,6 +32549,961 @@
       </c>
       <c r="BK164">
         <v>10</v>
+      </c>
+    </row>
+    <row r="165" spans="1:63">
+      <c r="A165" s="1">
+        <v>164</v>
+      </c>
+      <c r="B165">
+        <v>5053114</v>
+      </c>
+      <c r="C165" t="s">
+        <v>63</v>
+      </c>
+      <c r="D165" t="s">
+        <v>64</v>
+      </c>
+      <c r="E165" s="2">
+        <v>45087.625</v>
+      </c>
+      <c r="F165">
+        <v>19</v>
+      </c>
+      <c r="G165" t="s">
+        <v>79</v>
+      </c>
+      <c r="H165" t="s">
+        <v>66</v>
+      </c>
+      <c r="I165">
+        <v>1</v>
+      </c>
+      <c r="J165">
+        <v>1</v>
+      </c>
+      <c r="K165">
+        <v>2</v>
+      </c>
+      <c r="L165">
+        <v>2</v>
+      </c>
+      <c r="M165">
+        <v>2</v>
+      </c>
+      <c r="N165">
+        <v>4</v>
+      </c>
+      <c r="O165" t="s">
+        <v>211</v>
+      </c>
+      <c r="P165" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q165">
+        <v>7</v>
+      </c>
+      <c r="R165">
+        <v>4</v>
+      </c>
+      <c r="S165">
+        <v>11</v>
+      </c>
+      <c r="T165">
+        <v>3.1</v>
+      </c>
+      <c r="U165">
+        <v>2.1</v>
+      </c>
+      <c r="V165">
+        <v>3.5</v>
+      </c>
+      <c r="W165">
+        <v>1.41</v>
+      </c>
+      <c r="X165">
+        <v>2.65</v>
+      </c>
+      <c r="Y165">
+        <v>3</v>
+      </c>
+      <c r="Z165">
+        <v>1.36</v>
+      </c>
+      <c r="AA165">
+        <v>8</v>
+      </c>
+      <c r="AB165">
+        <v>1.07</v>
+      </c>
+      <c r="AC165">
+        <v>2.25</v>
+      </c>
+      <c r="AD165">
+        <v>3.3</v>
+      </c>
+      <c r="AE165">
+        <v>2.8</v>
+      </c>
+      <c r="AF165">
+        <v>1.06</v>
+      </c>
+      <c r="AG165">
+        <v>10.5</v>
+      </c>
+      <c r="AH165">
+        <v>1.3</v>
+      </c>
+      <c r="AI165">
+        <v>3.35</v>
+      </c>
+      <c r="AJ165">
+        <v>1.61</v>
+      </c>
+      <c r="AK165">
+        <v>2.2</v>
+      </c>
+      <c r="AL165">
+        <v>1.78</v>
+      </c>
+      <c r="AM165">
+        <v>2</v>
+      </c>
+      <c r="AN165">
+        <v>1.42</v>
+      </c>
+      <c r="AO165">
+        <v>1.34</v>
+      </c>
+      <c r="AP165">
+        <v>1.57</v>
+      </c>
+      <c r="AQ165">
+        <v>1.75</v>
+      </c>
+      <c r="AR165">
+        <v>0.5</v>
+      </c>
+      <c r="AS165">
+        <v>1.67</v>
+      </c>
+      <c r="AT165">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AU165">
+        <v>1.79</v>
+      </c>
+      <c r="AV165">
+        <v>1.33</v>
+      </c>
+      <c r="AW165">
+        <v>3.12</v>
+      </c>
+      <c r="AX165">
+        <v>1.83</v>
+      </c>
+      <c r="AY165">
+        <v>8</v>
+      </c>
+      <c r="AZ165">
+        <v>2.2</v>
+      </c>
+      <c r="BA165">
+        <v>1.18</v>
+      </c>
+      <c r="BB165">
+        <v>1.35</v>
+      </c>
+      <c r="BC165">
+        <v>1.59</v>
+      </c>
+      <c r="BD165">
+        <v>1.96</v>
+      </c>
+      <c r="BE165">
+        <v>2.5</v>
+      </c>
+      <c r="BF165">
+        <v>10</v>
+      </c>
+      <c r="BG165">
+        <v>4</v>
+      </c>
+      <c r="BH165">
+        <v>6</v>
+      </c>
+      <c r="BI165">
+        <v>5</v>
+      </c>
+      <c r="BJ165">
+        <v>16</v>
+      </c>
+      <c r="BK165">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="166" spans="1:63">
+      <c r="A166" s="1">
+        <v>165</v>
+      </c>
+      <c r="B166">
+        <v>5053110</v>
+      </c>
+      <c r="C166" t="s">
+        <v>63</v>
+      </c>
+      <c r="D166" t="s">
+        <v>64</v>
+      </c>
+      <c r="E166" s="2">
+        <v>45087.72916666666</v>
+      </c>
+      <c r="F166">
+        <v>19</v>
+      </c>
+      <c r="G166" t="s">
+        <v>75</v>
+      </c>
+      <c r="H166" t="s">
+        <v>73</v>
+      </c>
+      <c r="I166">
+        <v>0</v>
+      </c>
+      <c r="J166">
+        <v>0</v>
+      </c>
+      <c r="K166">
+        <v>0</v>
+      </c>
+      <c r="L166">
+        <v>0</v>
+      </c>
+      <c r="M166">
+        <v>1</v>
+      </c>
+      <c r="N166">
+        <v>1</v>
+      </c>
+      <c r="O166" t="s">
+        <v>84</v>
+      </c>
+      <c r="P166" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q166">
+        <v>2</v>
+      </c>
+      <c r="R166">
+        <v>8</v>
+      </c>
+      <c r="S166">
+        <v>10</v>
+      </c>
+      <c r="T166">
+        <v>3.75</v>
+      </c>
+      <c r="U166">
+        <v>2.2</v>
+      </c>
+      <c r="V166">
+        <v>2.75</v>
+      </c>
+      <c r="W166">
+        <v>1.38</v>
+      </c>
+      <c r="X166">
+        <v>3</v>
+      </c>
+      <c r="Y166">
+        <v>2.8</v>
+      </c>
+      <c r="Z166">
+        <v>1.42</v>
+      </c>
+      <c r="AA166">
+        <v>7</v>
+      </c>
+      <c r="AB166">
+        <v>1.09</v>
+      </c>
+      <c r="AC166">
+        <v>3.2</v>
+      </c>
+      <c r="AD166">
+        <v>3.5</v>
+      </c>
+      <c r="AE166">
+        <v>2</v>
+      </c>
+      <c r="AF166">
+        <v>1.04</v>
+      </c>
+      <c r="AG166">
+        <v>12</v>
+      </c>
+      <c r="AH166">
+        <v>1.28</v>
+      </c>
+      <c r="AI166">
+        <v>3.6</v>
+      </c>
+      <c r="AJ166">
+        <v>1.74</v>
+      </c>
+      <c r="AK166">
+        <v>2</v>
+      </c>
+      <c r="AL166">
+        <v>1.72</v>
+      </c>
+      <c r="AM166">
+        <v>2.1</v>
+      </c>
+      <c r="AN166">
+        <v>1.72</v>
+      </c>
+      <c r="AO166">
+        <v>1.25</v>
+      </c>
+      <c r="AP166">
+        <v>1.33</v>
+      </c>
+      <c r="AQ166">
+        <v>1</v>
+      </c>
+      <c r="AR166">
+        <v>1</v>
+      </c>
+      <c r="AS166">
+        <v>0.89</v>
+      </c>
+      <c r="AT166">
+        <v>1.22</v>
+      </c>
+      <c r="AU166">
+        <v>1.27</v>
+      </c>
+      <c r="AV166">
+        <v>1.08</v>
+      </c>
+      <c r="AW166">
+        <v>2.35</v>
+      </c>
+      <c r="AX166">
+        <v>2.4</v>
+      </c>
+      <c r="AY166">
+        <v>7.9</v>
+      </c>
+      <c r="AZ166">
+        <v>1.8</v>
+      </c>
+      <c r="BA166">
+        <v>1.23</v>
+      </c>
+      <c r="BB166">
+        <v>1.42</v>
+      </c>
+      <c r="BC166">
+        <v>1.7</v>
+      </c>
+      <c r="BD166">
+        <v>2.14</v>
+      </c>
+      <c r="BE166">
+        <v>2.75</v>
+      </c>
+      <c r="BF166">
+        <v>5</v>
+      </c>
+      <c r="BG166">
+        <v>4</v>
+      </c>
+      <c r="BH166">
+        <v>4</v>
+      </c>
+      <c r="BI166">
+        <v>8</v>
+      </c>
+      <c r="BJ166">
+        <v>9</v>
+      </c>
+      <c r="BK166">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="167" spans="1:63">
+      <c r="A167" s="1">
+        <v>166</v>
+      </c>
+      <c r="B167">
+        <v>5053113</v>
+      </c>
+      <c r="C167" t="s">
+        <v>63</v>
+      </c>
+      <c r="D167" t="s">
+        <v>64</v>
+      </c>
+      <c r="E167" s="2">
+        <v>45087.83333333334</v>
+      </c>
+      <c r="F167">
+        <v>19</v>
+      </c>
+      <c r="G167" t="s">
+        <v>82</v>
+      </c>
+      <c r="H167" t="s">
+        <v>76</v>
+      </c>
+      <c r="I167">
+        <v>1</v>
+      </c>
+      <c r="J167">
+        <v>1</v>
+      </c>
+      <c r="K167">
+        <v>2</v>
+      </c>
+      <c r="L167">
+        <v>2</v>
+      </c>
+      <c r="M167">
+        <v>1</v>
+      </c>
+      <c r="N167">
+        <v>3</v>
+      </c>
+      <c r="O167" t="s">
+        <v>212</v>
+      </c>
+      <c r="P167" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q167">
+        <v>5</v>
+      </c>
+      <c r="R167">
+        <v>3</v>
+      </c>
+      <c r="S167">
+        <v>8</v>
+      </c>
+      <c r="T167">
+        <v>1.95</v>
+      </c>
+      <c r="U167">
+        <v>2.4</v>
+      </c>
+      <c r="V167">
+        <v>6</v>
+      </c>
+      <c r="W167">
+        <v>1.33</v>
+      </c>
+      <c r="X167">
+        <v>3.3</v>
+      </c>
+      <c r="Y167">
+        <v>2.4</v>
+      </c>
+      <c r="Z167">
+        <v>1.53</v>
+      </c>
+      <c r="AA167">
+        <v>5.5</v>
+      </c>
+      <c r="AB167">
+        <v>1.12</v>
+      </c>
+      <c r="AC167">
+        <v>1.4</v>
+      </c>
+      <c r="AD167">
+        <v>4.4</v>
+      </c>
+      <c r="AE167">
+        <v>6.5</v>
+      </c>
+      <c r="AF167">
+        <v>1.03</v>
+      </c>
+      <c r="AG167">
+        <v>13</v>
+      </c>
+      <c r="AH167">
+        <v>1.2</v>
+      </c>
+      <c r="AI167">
+        <v>4.5</v>
+      </c>
+      <c r="AJ167">
+        <v>1.55</v>
+      </c>
+      <c r="AK167">
+        <v>2.3</v>
+      </c>
+      <c r="AL167">
+        <v>1.78</v>
+      </c>
+      <c r="AM167">
+        <v>2</v>
+      </c>
+      <c r="AN167">
+        <v>1.09</v>
+      </c>
+      <c r="AO167">
+        <v>1.17</v>
+      </c>
+      <c r="AP167">
+        <v>2.7</v>
+      </c>
+      <c r="AQ167">
+        <v>1.75</v>
+      </c>
+      <c r="AR167">
+        <v>0.25</v>
+      </c>
+      <c r="AS167">
+        <v>1.89</v>
+      </c>
+      <c r="AT167">
+        <v>0.22</v>
+      </c>
+      <c r="AU167">
+        <v>1.69</v>
+      </c>
+      <c r="AV167">
+        <v>1.53</v>
+      </c>
+      <c r="AW167">
+        <v>3.22</v>
+      </c>
+      <c r="AX167">
+        <v>1.29</v>
+      </c>
+      <c r="AY167">
+        <v>10</v>
+      </c>
+      <c r="AZ167">
+        <v>4.32</v>
+      </c>
+      <c r="BA167">
+        <v>1.21</v>
+      </c>
+      <c r="BB167">
+        <v>1.4</v>
+      </c>
+      <c r="BC167">
+        <v>1.66</v>
+      </c>
+      <c r="BD167">
+        <v>2.07</v>
+      </c>
+      <c r="BE167">
+        <v>2.65</v>
+      </c>
+      <c r="BF167">
+        <v>8</v>
+      </c>
+      <c r="BG167">
+        <v>6</v>
+      </c>
+      <c r="BH167">
+        <v>4</v>
+      </c>
+      <c r="BI167">
+        <v>2</v>
+      </c>
+      <c r="BJ167">
+        <v>12</v>
+      </c>
+      <c r="BK167">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="168" spans="1:63">
+      <c r="A168" s="1">
+        <v>167</v>
+      </c>
+      <c r="B168">
+        <v>5053108</v>
+      </c>
+      <c r="C168" t="s">
+        <v>63</v>
+      </c>
+      <c r="D168" t="s">
+        <v>64</v>
+      </c>
+      <c r="E168" s="2">
+        <v>45087.91666666666</v>
+      </c>
+      <c r="F168">
+        <v>19</v>
+      </c>
+      <c r="G168" t="s">
+        <v>80</v>
+      </c>
+      <c r="H168" t="s">
+        <v>77</v>
+      </c>
+      <c r="I168">
+        <v>1</v>
+      </c>
+      <c r="J168">
+        <v>1</v>
+      </c>
+      <c r="K168">
+        <v>2</v>
+      </c>
+      <c r="L168">
+        <v>1</v>
+      </c>
+      <c r="M168">
+        <v>1</v>
+      </c>
+      <c r="N168">
+        <v>2</v>
+      </c>
+      <c r="O168" t="s">
+        <v>213</v>
+      </c>
+      <c r="P168" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q168">
+        <v>6</v>
+      </c>
+      <c r="R168">
+        <v>4</v>
+      </c>
+      <c r="S168">
+        <v>10</v>
+      </c>
+      <c r="T168">
+        <v>2.63</v>
+      </c>
+      <c r="U168">
+        <v>2.2</v>
+      </c>
+      <c r="V168">
+        <v>4</v>
+      </c>
+      <c r="W168">
+        <v>1.35</v>
+      </c>
+      <c r="X168">
+        <v>2.9</v>
+      </c>
+      <c r="Y168">
+        <v>2.6</v>
+      </c>
+      <c r="Z168">
+        <v>1.43</v>
+      </c>
+      <c r="AA168">
+        <v>6.5</v>
+      </c>
+      <c r="AB168">
+        <v>1.1</v>
+      </c>
+      <c r="AC168">
+        <v>1.83</v>
+      </c>
+      <c r="AD168">
+        <v>3.5</v>
+      </c>
+      <c r="AE168">
+        <v>3.7</v>
+      </c>
+      <c r="AF168">
+        <v>1.05</v>
+      </c>
+      <c r="AG168">
+        <v>9.75</v>
+      </c>
+      <c r="AH168">
+        <v>1.26</v>
+      </c>
+      <c r="AI168">
+        <v>3.5</v>
+      </c>
+      <c r="AJ168">
+        <v>1.92</v>
+      </c>
+      <c r="AK168">
+        <v>1.96</v>
+      </c>
+      <c r="AL168">
+        <v>1.71</v>
+      </c>
+      <c r="AM168">
+        <v>2</v>
+      </c>
+      <c r="AN168">
+        <v>1.29</v>
+      </c>
+      <c r="AO168">
+        <v>1.28</v>
+      </c>
+      <c r="AP168">
+        <v>1.77</v>
+      </c>
+      <c r="AQ168">
+        <v>1.75</v>
+      </c>
+      <c r="AR168">
+        <v>0.75</v>
+      </c>
+      <c r="AS168">
+        <v>1.67</v>
+      </c>
+      <c r="AT168">
+        <v>0.78</v>
+      </c>
+      <c r="AU168">
+        <v>1.61</v>
+      </c>
+      <c r="AV168">
+        <v>1.46</v>
+      </c>
+      <c r="AW168">
+        <v>3.07</v>
+      </c>
+      <c r="AX168">
+        <v>1.9</v>
+      </c>
+      <c r="AY168">
+        <v>7.7</v>
+      </c>
+      <c r="AZ168">
+        <v>2.26</v>
+      </c>
+      <c r="BA168">
+        <v>0</v>
+      </c>
+      <c r="BB168">
+        <v>1.22</v>
+      </c>
+      <c r="BC168">
+        <v>1.4</v>
+      </c>
+      <c r="BD168">
+        <v>1.65</v>
+      </c>
+      <c r="BE168">
+        <v>2.03</v>
+      </c>
+      <c r="BF168">
+        <v>5</v>
+      </c>
+      <c r="BG168">
+        <v>7</v>
+      </c>
+      <c r="BH168">
+        <v>5</v>
+      </c>
+      <c r="BI168">
+        <v>7</v>
+      </c>
+      <c r="BJ168">
+        <v>10</v>
+      </c>
+      <c r="BK168">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="169" spans="1:63">
+      <c r="A169" s="1">
+        <v>168</v>
+      </c>
+      <c r="B169">
+        <v>5053115</v>
+      </c>
+      <c r="C169" t="s">
+        <v>63</v>
+      </c>
+      <c r="D169" t="s">
+        <v>64</v>
+      </c>
+      <c r="E169" s="2">
+        <v>45087.9375</v>
+      </c>
+      <c r="F169">
+        <v>19</v>
+      </c>
+      <c r="G169" t="s">
+        <v>81</v>
+      </c>
+      <c r="H169" t="s">
+        <v>69</v>
+      </c>
+      <c r="I169">
+        <v>2</v>
+      </c>
+      <c r="J169">
+        <v>0</v>
+      </c>
+      <c r="K169">
+        <v>2</v>
+      </c>
+      <c r="L169">
+        <v>3</v>
+      </c>
+      <c r="M169">
+        <v>2</v>
+      </c>
+      <c r="N169">
+        <v>5</v>
+      </c>
+      <c r="O169" t="s">
+        <v>214</v>
+      </c>
+      <c r="P169" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q169">
+        <v>3</v>
+      </c>
+      <c r="R169">
+        <v>6</v>
+      </c>
+      <c r="S169">
+        <v>9</v>
+      </c>
+      <c r="T169">
+        <v>1.83</v>
+      </c>
+      <c r="U169">
+        <v>2.6</v>
+      </c>
+      <c r="V169">
+        <v>6.5</v>
+      </c>
+      <c r="W169">
+        <v>1.26</v>
+      </c>
+      <c r="X169">
+        <v>3.5</v>
+      </c>
+      <c r="Y169">
+        <v>2.15</v>
+      </c>
+      <c r="Z169">
+        <v>1.62</v>
+      </c>
+      <c r="AA169">
+        <v>4.75</v>
+      </c>
+      <c r="AB169">
+        <v>1.16</v>
+      </c>
+      <c r="AC169">
+        <v>1.33</v>
+      </c>
+      <c r="AD169">
+        <v>4.8</v>
+      </c>
+      <c r="AE169">
+        <v>7</v>
+      </c>
+      <c r="AF169">
+        <v>1.03</v>
+      </c>
+      <c r="AG169">
+        <v>19.75</v>
+      </c>
+      <c r="AH169">
+        <v>1.16</v>
+      </c>
+      <c r="AI169">
+        <v>4.75</v>
+      </c>
+      <c r="AJ169">
+        <v>1.55</v>
+      </c>
+      <c r="AK169">
+        <v>2.3</v>
+      </c>
+      <c r="AL169">
+        <v>1.72</v>
+      </c>
+      <c r="AM169">
+        <v>1.98</v>
+      </c>
+      <c r="AN169">
+        <v>1.09</v>
+      </c>
+      <c r="AO169">
+        <v>1.18</v>
+      </c>
+      <c r="AP169">
+        <v>2.87</v>
+      </c>
+      <c r="AQ169">
+        <v>3</v>
+      </c>
+      <c r="AR169">
+        <v>1.38</v>
+      </c>
+      <c r="AS169">
+        <v>3</v>
+      </c>
+      <c r="AT169">
+        <v>1.22</v>
+      </c>
+      <c r="AU169">
+        <v>1.8</v>
+      </c>
+      <c r="AV169">
+        <v>1.36</v>
+      </c>
+      <c r="AW169">
+        <v>3.16</v>
+      </c>
+      <c r="AX169">
+        <v>1.29</v>
+      </c>
+      <c r="AY169">
+        <v>10</v>
+      </c>
+      <c r="AZ169">
+        <v>4.32</v>
+      </c>
+      <c r="BA169">
+        <v>1.18</v>
+      </c>
+      <c r="BB169">
+        <v>1.3</v>
+      </c>
+      <c r="BC169">
+        <v>1.54</v>
+      </c>
+      <c r="BD169">
+        <v>1.96</v>
+      </c>
+      <c r="BE169">
+        <v>2.52</v>
+      </c>
+      <c r="BF169">
+        <v>6</v>
+      </c>
+      <c r="BG169">
+        <v>6</v>
+      </c>
+      <c r="BH169">
+        <v>8</v>
+      </c>
+      <c r="BI169">
+        <v>8</v>
+      </c>
+      <c r="BJ169">
+        <v>14</v>
+      </c>
+      <c r="BK169">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Peru Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Peru Primera División_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="284">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -661,6 +661,12 @@
     <t>['16', '32', '85']</t>
   </si>
   <si>
+    <t>['54', '57']</t>
+  </si>
+  <si>
+    <t>['77']</t>
+  </si>
+  <si>
     <t>['81']</t>
   </si>
   <si>
@@ -1221,7 +1227,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK169"/>
+  <dimension ref="A1:BK172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1552,7 +1558,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AT2">
         <v>1.22</v>
@@ -2611,7 +2617,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q8">
         <v>9</v>
@@ -2802,7 +2808,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -3375,7 +3381,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q12">
         <v>2</v>
@@ -3465,7 +3471,7 @@
         <v>0.89</v>
       </c>
       <c r="AT12">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3566,7 +3572,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q13">
         <v>6</v>
@@ -3757,7 +3763,7 @@
         <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q14">
         <v>7</v>
@@ -4035,7 +4041,7 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT15">
         <v>0.5600000000000001</v>
@@ -4229,7 +4235,7 @@
         <v>1.67</v>
       </c>
       <c r="AT16">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4420,7 +4426,7 @@
         <v>1.67</v>
       </c>
       <c r="AT17">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4712,7 +4718,7 @@
         <v>84</v>
       </c>
       <c r="P19" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q19">
         <v>6</v>
@@ -5285,7 +5291,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q22">
         <v>10</v>
@@ -5372,7 +5378,7 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT22">
         <v>0.67</v>
@@ -5858,7 +5864,7 @@
         <v>101</v>
       </c>
       <c r="P25" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q25">
         <v>6</v>
@@ -6049,7 +6055,7 @@
         <v>102</v>
       </c>
       <c r="P26" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q26">
         <v>1</v>
@@ -6136,7 +6142,7 @@
         <v>1</v>
       </c>
       <c r="AS26">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AT26">
         <v>0.5600000000000001</v>
@@ -6622,7 +6628,7 @@
         <v>105</v>
       </c>
       <c r="P29" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q29">
         <v>10</v>
@@ -6709,7 +6715,7 @@
         <v>3</v>
       </c>
       <c r="AS29">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT29">
         <v>1.22</v>
@@ -7476,7 +7482,7 @@
         <v>1.67</v>
       </c>
       <c r="AT33">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU33">
         <v>0.97</v>
@@ -7577,7 +7583,7 @@
         <v>110</v>
       </c>
       <c r="P34" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q34">
         <v>2</v>
@@ -7768,7 +7774,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q35">
         <v>8</v>
@@ -8046,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="AS36">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT36">
         <v>0.11</v>
@@ -8723,7 +8729,7 @@
         <v>84</v>
       </c>
       <c r="P40" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q40">
         <v>5</v>
@@ -8914,7 +8920,7 @@
         <v>84</v>
       </c>
       <c r="P41" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q41">
         <v>8</v>
@@ -9105,7 +9111,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q42">
         <v>11</v>
@@ -9192,7 +9198,7 @@
         <v>0</v>
       </c>
       <c r="AS42">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AT42">
         <v>0.44</v>
@@ -10251,7 +10257,7 @@
         <v>121</v>
       </c>
       <c r="P48" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q48">
         <v>7</v>
@@ -10341,7 +10347,7 @@
         <v>1.56</v>
       </c>
       <c r="AT48">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AU48">
         <v>1.61</v>
@@ -10442,7 +10448,7 @@
         <v>122</v>
       </c>
       <c r="P49" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -10532,7 +10538,7 @@
         <v>1.78</v>
       </c>
       <c r="AT49">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU49">
         <v>1.41</v>
@@ -10633,7 +10639,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q50">
         <v>3</v>
@@ -10911,7 +10917,7 @@
         <v>0</v>
       </c>
       <c r="AS51">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT51">
         <v>0.11</v>
@@ -11206,7 +11212,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -11397,7 +11403,7 @@
         <v>126</v>
       </c>
       <c r="P54" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -11970,7 +11976,7 @@
         <v>129</v>
       </c>
       <c r="P57" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12057,7 +12063,7 @@
         <v>2</v>
       </c>
       <c r="AS57">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT57">
         <v>1.67</v>
@@ -12248,7 +12254,7 @@
         <v>2</v>
       </c>
       <c r="AS58">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AT58">
         <v>1.33</v>
@@ -12734,7 +12740,7 @@
         <v>84</v>
       </c>
       <c r="P61" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q61">
         <v>10</v>
@@ -13116,7 +13122,7 @@
         <v>134</v>
       </c>
       <c r="P63" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q63">
         <v>3</v>
@@ -13498,7 +13504,7 @@
         <v>84</v>
       </c>
       <c r="P65" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q65">
         <v>4</v>
@@ -13689,7 +13695,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q66">
         <v>10</v>
@@ -14161,7 +14167,7 @@
         <v>1.44</v>
       </c>
       <c r="AT68">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AU68">
         <v>1.59</v>
@@ -14352,7 +14358,7 @@
         <v>1.56</v>
       </c>
       <c r="AT69">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU69">
         <v>1.78</v>
@@ -14543,7 +14549,7 @@
         <v>1.56</v>
       </c>
       <c r="AT70">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU70">
         <v>2.17</v>
@@ -14644,7 +14650,7 @@
         <v>138</v>
       </c>
       <c r="P71" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q71">
         <v>3</v>
@@ -15026,7 +15032,7 @@
         <v>140</v>
       </c>
       <c r="P73" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q73">
         <v>5</v>
@@ -15599,7 +15605,7 @@
         <v>142</v>
       </c>
       <c r="P76" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q76">
         <v>7</v>
@@ -15877,7 +15883,7 @@
         <v>0.25</v>
       </c>
       <c r="AS77">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AT77">
         <v>0.22</v>
@@ -15981,7 +15987,7 @@
         <v>84</v>
       </c>
       <c r="P78" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q78">
         <v>5</v>
@@ -16554,7 +16560,7 @@
         <v>84</v>
       </c>
       <c r="P81" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q81">
         <v>4</v>
@@ -16641,7 +16647,7 @@
         <v>1.8</v>
       </c>
       <c r="AS81">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT81">
         <v>1.67</v>
@@ -16745,7 +16751,7 @@
         <v>146</v>
       </c>
       <c r="P82" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q82">
         <v>10</v>
@@ -16832,7 +16838,7 @@
         <v>0.4</v>
       </c>
       <c r="AS82">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT82">
         <v>0.89</v>
@@ -16936,7 +16942,7 @@
         <v>147</v>
       </c>
       <c r="P83" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q83">
         <v>6</v>
@@ -17127,7 +17133,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q84">
         <v>10</v>
@@ -17509,7 +17515,7 @@
         <v>150</v>
       </c>
       <c r="P86" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q86">
         <v>8</v>
@@ -17891,7 +17897,7 @@
         <v>152</v>
       </c>
       <c r="P88" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q88">
         <v>11</v>
@@ -17981,7 +17987,7 @@
         <v>2</v>
       </c>
       <c r="AT88">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU88">
         <v>1.62</v>
@@ -18273,7 +18279,7 @@
         <v>154</v>
       </c>
       <c r="P90" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q90">
         <v>19</v>
@@ -18464,7 +18470,7 @@
         <v>84</v>
       </c>
       <c r="P91" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q91">
         <v>5</v>
@@ -18655,7 +18661,7 @@
         <v>155</v>
       </c>
       <c r="P92" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q92">
         <v>5</v>
@@ -18745,7 +18751,7 @@
         <v>1.44</v>
       </c>
       <c r="AT92">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU92">
         <v>1.6</v>
@@ -18846,7 +18852,7 @@
         <v>156</v>
       </c>
       <c r="P93" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q93">
         <v>9</v>
@@ -19419,7 +19425,7 @@
         <v>84</v>
       </c>
       <c r="P96" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -19610,7 +19616,7 @@
         <v>159</v>
       </c>
       <c r="P97" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q97">
         <v>6</v>
@@ -19697,7 +19703,7 @@
         <v>0.5</v>
       </c>
       <c r="AS97">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT97">
         <v>0.78</v>
@@ -19992,7 +19998,7 @@
         <v>151</v>
       </c>
       <c r="P99" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q99">
         <v>5</v>
@@ -20183,7 +20189,7 @@
         <v>161</v>
       </c>
       <c r="P100" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q100">
         <v>6</v>
@@ -20270,7 +20276,7 @@
         <v>1.5</v>
       </c>
       <c r="AS100">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AT100">
         <v>1.22</v>
@@ -20374,7 +20380,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q101">
         <v>6</v>
@@ -20461,7 +20467,7 @@
         <v>0.5</v>
       </c>
       <c r="AS101">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT101">
         <v>0.89</v>
@@ -20565,7 +20571,7 @@
         <v>163</v>
       </c>
       <c r="P102" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -20846,7 +20852,7 @@
         <v>2.67</v>
       </c>
       <c r="AT103">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AU103">
         <v>1.79</v>
@@ -21037,7 +21043,7 @@
         <v>2.33</v>
       </c>
       <c r="AT104">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU104">
         <v>1.38</v>
@@ -21329,7 +21335,7 @@
         <v>84</v>
       </c>
       <c r="P106" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q106">
         <v>1</v>
@@ -21419,7 +21425,7 @@
         <v>1.44</v>
       </c>
       <c r="AT106">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU106">
         <v>1.45</v>
@@ -21902,7 +21908,7 @@
         <v>167</v>
       </c>
       <c r="P109" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q109">
         <v>5</v>
@@ -22284,7 +22290,7 @@
         <v>169</v>
       </c>
       <c r="P111" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q111">
         <v>5</v>
@@ -22944,7 +22950,7 @@
         <v>1.6</v>
       </c>
       <c r="AS114">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AT114">
         <v>1.22</v>
@@ -23048,7 +23054,7 @@
         <v>173</v>
       </c>
       <c r="P115" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q115">
         <v>6</v>
@@ -23135,7 +23141,7 @@
         <v>1</v>
       </c>
       <c r="AS115">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT115">
         <v>0.78</v>
@@ -23326,7 +23332,7 @@
         <v>0.8</v>
       </c>
       <c r="AS116">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT116">
         <v>0.5600000000000001</v>
@@ -23621,7 +23627,7 @@
         <v>174</v>
       </c>
       <c r="P118" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q118">
         <v>7</v>
@@ -23711,7 +23717,7 @@
         <v>1.78</v>
       </c>
       <c r="AT118">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AU118">
         <v>1.5</v>
@@ -24194,7 +24200,7 @@
         <v>177</v>
       </c>
       <c r="P121" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q121">
         <v>6</v>
@@ -24385,7 +24391,7 @@
         <v>178</v>
       </c>
       <c r="P122" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q122">
         <v>7</v>
@@ -24666,7 +24672,7 @@
         <v>3</v>
       </c>
       <c r="AT123">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU123">
         <v>1.61</v>
@@ -24854,7 +24860,7 @@
         <v>0.4</v>
       </c>
       <c r="AS124">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT124">
         <v>0.5600000000000001</v>
@@ -25340,7 +25346,7 @@
         <v>182</v>
       </c>
       <c r="P127" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q127">
         <v>4</v>
@@ -25430,7 +25436,7 @@
         <v>1.67</v>
       </c>
       <c r="AT127">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AU127">
         <v>1.58</v>
@@ -25722,7 +25728,7 @@
         <v>184</v>
       </c>
       <c r="P129" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q129">
         <v>1</v>
@@ -25809,10 +25815,10 @@
         <v>1.67</v>
       </c>
       <c r="AS129">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT129">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU129">
         <v>1.57</v>
@@ -25913,7 +25919,7 @@
         <v>144</v>
       </c>
       <c r="P130" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q130">
         <v>7</v>
@@ -26003,7 +26009,7 @@
         <v>2</v>
       </c>
       <c r="AT130">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU130">
         <v>1.39</v>
@@ -26104,7 +26110,7 @@
         <v>185</v>
       </c>
       <c r="P131" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q131">
         <v>8</v>
@@ -26958,7 +26964,7 @@
         <v>1.78</v>
       </c>
       <c r="AT135">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AU135">
         <v>1.76</v>
@@ -27059,7 +27065,7 @@
         <v>187</v>
       </c>
       <c r="P136" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q136">
         <v>3</v>
@@ -27340,7 +27346,7 @@
         <v>2.67</v>
       </c>
       <c r="AT137">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU137">
         <v>1.87</v>
@@ -27632,7 +27638,7 @@
         <v>189</v>
       </c>
       <c r="P139" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q139">
         <v>10</v>
@@ -27823,7 +27829,7 @@
         <v>190</v>
       </c>
       <c r="P140" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q140">
         <v>7</v>
@@ -28205,7 +28211,7 @@
         <v>134</v>
       </c>
       <c r="P142" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q142">
         <v>6</v>
@@ -28396,7 +28402,7 @@
         <v>192</v>
       </c>
       <c r="P143" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q143">
         <v>4</v>
@@ -29160,7 +29166,7 @@
         <v>196</v>
       </c>
       <c r="P147" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q147">
         <v>1</v>
@@ -29247,7 +29253,7 @@
         <v>0.57</v>
       </c>
       <c r="AS147">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT147">
         <v>0.5600000000000001</v>
@@ -29438,7 +29444,7 @@
         <v>0.29</v>
       </c>
       <c r="AS148">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AT148">
         <v>0.5600000000000001</v>
@@ -29542,7 +29548,7 @@
         <v>198</v>
       </c>
       <c r="P149" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q149">
         <v>9</v>
@@ -29823,7 +29829,7 @@
         <v>1.78</v>
       </c>
       <c r="AT150">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU150">
         <v>1.57</v>
@@ -29924,7 +29930,7 @@
         <v>199</v>
       </c>
       <c r="P151" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q151">
         <v>4</v>
@@ -30011,10 +30017,10 @@
         <v>1.43</v>
       </c>
       <c r="AS151">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT151">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AU151">
         <v>2.15</v>
@@ -30115,7 +30121,7 @@
         <v>200</v>
       </c>
       <c r="P152" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q152">
         <v>2</v>
@@ -30306,7 +30312,7 @@
         <v>201</v>
       </c>
       <c r="P153" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q153">
         <v>11</v>
@@ -30497,7 +30503,7 @@
         <v>202</v>
       </c>
       <c r="P154" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q154">
         <v>2</v>
@@ -30587,7 +30593,7 @@
         <v>1.89</v>
       </c>
       <c r="AT154">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU154">
         <v>1.65</v>
@@ -30688,7 +30694,7 @@
         <v>203</v>
       </c>
       <c r="P155" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q155">
         <v>6</v>
@@ -30879,7 +30885,7 @@
         <v>204</v>
       </c>
       <c r="P156" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q156">
         <v>8</v>
@@ -31643,7 +31649,7 @@
         <v>208</v>
       </c>
       <c r="P160" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q160">
         <v>15</v>
@@ -32598,7 +32604,7 @@
         <v>211</v>
       </c>
       <c r="P165" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q165">
         <v>7</v>
@@ -32789,7 +32795,7 @@
         <v>84</v>
       </c>
       <c r="P166" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q166">
         <v>2</v>
@@ -32980,7 +32986,7 @@
         <v>212</v>
       </c>
       <c r="P167" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q167">
         <v>5</v>
@@ -33171,7 +33177,7 @@
         <v>213</v>
       </c>
       <c r="P168" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q168">
         <v>6</v>
@@ -33362,7 +33368,7 @@
         <v>214</v>
       </c>
       <c r="P169" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q169">
         <v>3</v>
@@ -33504,6 +33510,579 @@
       </c>
       <c r="BK169">
         <v>14</v>
+      </c>
+    </row>
+    <row r="170" spans="1:63">
+      <c r="A170" s="1">
+        <v>169</v>
+      </c>
+      <c r="B170">
+        <v>5053111</v>
+      </c>
+      <c r="C170" t="s">
+        <v>63</v>
+      </c>
+      <c r="D170" t="s">
+        <v>64</v>
+      </c>
+      <c r="E170" s="2">
+        <v>45088.625</v>
+      </c>
+      <c r="F170">
+        <v>19</v>
+      </c>
+      <c r="G170" t="s">
+        <v>78</v>
+      </c>
+      <c r="H170" t="s">
+        <v>70</v>
+      </c>
+      <c r="I170">
+        <v>0</v>
+      </c>
+      <c r="J170">
+        <v>0</v>
+      </c>
+      <c r="K170">
+        <v>0</v>
+      </c>
+      <c r="L170">
+        <v>0</v>
+      </c>
+      <c r="M170">
+        <v>0</v>
+      </c>
+      <c r="N170">
+        <v>0</v>
+      </c>
+      <c r="O170" t="s">
+        <v>84</v>
+      </c>
+      <c r="P170" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q170">
+        <v>1</v>
+      </c>
+      <c r="R170">
+        <v>8</v>
+      </c>
+      <c r="S170">
+        <v>9</v>
+      </c>
+      <c r="T170">
+        <v>4</v>
+      </c>
+      <c r="U170">
+        <v>2.25</v>
+      </c>
+      <c r="V170">
+        <v>2.6</v>
+      </c>
+      <c r="W170">
+        <v>1.35</v>
+      </c>
+      <c r="X170">
+        <v>3.2</v>
+      </c>
+      <c r="Y170">
+        <v>2.6</v>
+      </c>
+      <c r="Z170">
+        <v>1.43</v>
+      </c>
+      <c r="AA170">
+        <v>6.5</v>
+      </c>
+      <c r="AB170">
+        <v>1.1</v>
+      </c>
+      <c r="AC170">
+        <v>3.55</v>
+      </c>
+      <c r="AD170">
+        <v>3.6</v>
+      </c>
+      <c r="AE170">
+        <v>1.97</v>
+      </c>
+      <c r="AF170">
+        <v>1.03</v>
+      </c>
+      <c r="AG170">
+        <v>13</v>
+      </c>
+      <c r="AH170">
+        <v>1.23</v>
+      </c>
+      <c r="AI170">
+        <v>3.75</v>
+      </c>
+      <c r="AJ170">
+        <v>1.67</v>
+      </c>
+      <c r="AK170">
+        <v>2</v>
+      </c>
+      <c r="AL170">
+        <v>1.7</v>
+      </c>
+      <c r="AM170">
+        <v>2.15</v>
+      </c>
+      <c r="AN170">
+        <v>1.87</v>
+      </c>
+      <c r="AO170">
+        <v>1.22</v>
+      </c>
+      <c r="AP170">
+        <v>1.28</v>
+      </c>
+      <c r="AQ170">
+        <v>2.13</v>
+      </c>
+      <c r="AR170">
+        <v>1.63</v>
+      </c>
+      <c r="AS170">
+        <v>2</v>
+      </c>
+      <c r="AT170">
+        <v>1.56</v>
+      </c>
+      <c r="AU170">
+        <v>1.57</v>
+      </c>
+      <c r="AV170">
+        <v>1.36</v>
+      </c>
+      <c r="AW170">
+        <v>2.93</v>
+      </c>
+      <c r="AX170">
+        <v>2.63</v>
+      </c>
+      <c r="AY170">
+        <v>8.5</v>
+      </c>
+      <c r="AZ170">
+        <v>1.62</v>
+      </c>
+      <c r="BA170">
+        <v>1.2</v>
+      </c>
+      <c r="BB170">
+        <v>1.32</v>
+      </c>
+      <c r="BC170">
+        <v>1.56</v>
+      </c>
+      <c r="BD170">
+        <v>1.9</v>
+      </c>
+      <c r="BE170">
+        <v>2.62</v>
+      </c>
+      <c r="BF170">
+        <v>2</v>
+      </c>
+      <c r="BG170">
+        <v>8</v>
+      </c>
+      <c r="BH170">
+        <v>5</v>
+      </c>
+      <c r="BI170">
+        <v>9</v>
+      </c>
+      <c r="BJ170">
+        <v>7</v>
+      </c>
+      <c r="BK170">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="171" spans="1:63">
+      <c r="A171" s="1">
+        <v>170</v>
+      </c>
+      <c r="B171">
+        <v>5053109</v>
+      </c>
+      <c r="C171" t="s">
+        <v>63</v>
+      </c>
+      <c r="D171" t="s">
+        <v>64</v>
+      </c>
+      <c r="E171" s="2">
+        <v>45088.72916666666</v>
+      </c>
+      <c r="F171">
+        <v>19</v>
+      </c>
+      <c r="G171" t="s">
+        <v>65</v>
+      </c>
+      <c r="H171" t="s">
+        <v>72</v>
+      </c>
+      <c r="I171">
+        <v>0</v>
+      </c>
+      <c r="J171">
+        <v>0</v>
+      </c>
+      <c r="K171">
+        <v>0</v>
+      </c>
+      <c r="L171">
+        <v>2</v>
+      </c>
+      <c r="M171">
+        <v>0</v>
+      </c>
+      <c r="N171">
+        <v>2</v>
+      </c>
+      <c r="O171" t="s">
+        <v>215</v>
+      </c>
+      <c r="P171" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q171">
+        <v>7</v>
+      </c>
+      <c r="R171">
+        <v>3</v>
+      </c>
+      <c r="S171">
+        <v>10</v>
+      </c>
+      <c r="T171">
+        <v>2.1</v>
+      </c>
+      <c r="U171">
+        <v>2.25</v>
+      </c>
+      <c r="V171">
+        <v>6</v>
+      </c>
+      <c r="W171">
+        <v>1.4</v>
+      </c>
+      <c r="X171">
+        <v>3.1</v>
+      </c>
+      <c r="Y171">
+        <v>2.63</v>
+      </c>
+      <c r="Z171">
+        <v>1.4</v>
+      </c>
+      <c r="AA171">
+        <v>6.5</v>
+      </c>
+      <c r="AB171">
+        <v>1.08</v>
+      </c>
+      <c r="AC171">
+        <v>1.53</v>
+      </c>
+      <c r="AD171">
+        <v>3.7</v>
+      </c>
+      <c r="AE171">
+        <v>5.25</v>
+      </c>
+      <c r="AF171">
+        <v>1.03</v>
+      </c>
+      <c r="AG171">
+        <v>10</v>
+      </c>
+      <c r="AH171">
+        <v>1.29</v>
+      </c>
+      <c r="AI171">
+        <v>3.24</v>
+      </c>
+      <c r="AJ171">
+        <v>1.85</v>
+      </c>
+      <c r="AK171">
+        <v>1.95</v>
+      </c>
+      <c r="AL171">
+        <v>1.95</v>
+      </c>
+      <c r="AM171">
+        <v>1.8</v>
+      </c>
+      <c r="AN171">
+        <v>1.11</v>
+      </c>
+      <c r="AO171">
+        <v>1.18</v>
+      </c>
+      <c r="AP171">
+        <v>2.45</v>
+      </c>
+      <c r="AQ171">
+        <v>2.63</v>
+      </c>
+      <c r="AR171">
+        <v>0.88</v>
+      </c>
+      <c r="AS171">
+        <v>2.67</v>
+      </c>
+      <c r="AT171">
+        <v>0.78</v>
+      </c>
+      <c r="AU171">
+        <v>1.62</v>
+      </c>
+      <c r="AV171">
+        <v>1.19</v>
+      </c>
+      <c r="AW171">
+        <v>2.81</v>
+      </c>
+      <c r="AX171">
+        <v>1.33</v>
+      </c>
+      <c r="AY171">
+        <v>9.5</v>
+      </c>
+      <c r="AZ171">
+        <v>3.74</v>
+      </c>
+      <c r="BA171">
+        <v>1.17</v>
+      </c>
+      <c r="BB171">
+        <v>1.28</v>
+      </c>
+      <c r="BC171">
+        <v>1.51</v>
+      </c>
+      <c r="BD171">
+        <v>1.95</v>
+      </c>
+      <c r="BE171">
+        <v>2.45</v>
+      </c>
+      <c r="BF171">
+        <v>9</v>
+      </c>
+      <c r="BG171">
+        <v>0</v>
+      </c>
+      <c r="BH171">
+        <v>5</v>
+      </c>
+      <c r="BI171">
+        <v>4</v>
+      </c>
+      <c r="BJ171">
+        <v>14</v>
+      </c>
+      <c r="BK171">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="172" spans="1:63">
+      <c r="A172" s="1">
+        <v>171</v>
+      </c>
+      <c r="B172">
+        <v>5053112</v>
+      </c>
+      <c r="C172" t="s">
+        <v>63</v>
+      </c>
+      <c r="D172" t="s">
+        <v>64</v>
+      </c>
+      <c r="E172" s="2">
+        <v>45088.83333333334</v>
+      </c>
+      <c r="F172">
+        <v>19</v>
+      </c>
+      <c r="G172" t="s">
+        <v>83</v>
+      </c>
+      <c r="H172" t="s">
+        <v>67</v>
+      </c>
+      <c r="I172">
+        <v>0</v>
+      </c>
+      <c r="J172">
+        <v>0</v>
+      </c>
+      <c r="K172">
+        <v>0</v>
+      </c>
+      <c r="L172">
+        <v>1</v>
+      </c>
+      <c r="M172">
+        <v>0</v>
+      </c>
+      <c r="N172">
+        <v>1</v>
+      </c>
+      <c r="O172" t="s">
+        <v>216</v>
+      </c>
+      <c r="P172" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q172">
+        <v>2</v>
+      </c>
+      <c r="R172">
+        <v>1</v>
+      </c>
+      <c r="S172">
+        <v>3</v>
+      </c>
+      <c r="T172">
+        <v>3</v>
+      </c>
+      <c r="U172">
+        <v>2.2</v>
+      </c>
+      <c r="V172">
+        <v>3.4</v>
+      </c>
+      <c r="W172">
+        <v>1.4</v>
+      </c>
+      <c r="X172">
+        <v>3</v>
+      </c>
+      <c r="Y172">
+        <v>2.8</v>
+      </c>
+      <c r="Z172">
+        <v>1.4</v>
+      </c>
+      <c r="AA172">
+        <v>7</v>
+      </c>
+      <c r="AB172">
+        <v>1.08</v>
+      </c>
+      <c r="AC172">
+        <v>2.44</v>
+      </c>
+      <c r="AD172">
+        <v>3.2</v>
+      </c>
+      <c r="AE172">
+        <v>2.58</v>
+      </c>
+      <c r="AF172">
+        <v>1.04</v>
+      </c>
+      <c r="AG172">
+        <v>12</v>
+      </c>
+      <c r="AH172">
+        <v>1.3</v>
+      </c>
+      <c r="AI172">
+        <v>3.6</v>
+      </c>
+      <c r="AJ172">
+        <v>1.81</v>
+      </c>
+      <c r="AK172">
+        <v>1.9</v>
+      </c>
+      <c r="AL172">
+        <v>1.72</v>
+      </c>
+      <c r="AM172">
+        <v>2.05</v>
+      </c>
+      <c r="AN172">
+        <v>1.38</v>
+      </c>
+      <c r="AO172">
+        <v>1.25</v>
+      </c>
+      <c r="AP172">
+        <v>1.65</v>
+      </c>
+      <c r="AQ172">
+        <v>1.63</v>
+      </c>
+      <c r="AR172">
+        <v>1.25</v>
+      </c>
+      <c r="AS172">
+        <v>1.78</v>
+      </c>
+      <c r="AT172">
+        <v>1.11</v>
+      </c>
+      <c r="AU172">
+        <v>2.09</v>
+      </c>
+      <c r="AV172">
+        <v>1.33</v>
+      </c>
+      <c r="AW172">
+        <v>3.42</v>
+      </c>
+      <c r="AX172">
+        <v>2.1</v>
+      </c>
+      <c r="AY172">
+        <v>8</v>
+      </c>
+      <c r="AZ172">
+        <v>1.95</v>
+      </c>
+      <c r="BA172">
+        <v>1.18</v>
+      </c>
+      <c r="BB172">
+        <v>1.35</v>
+      </c>
+      <c r="BC172">
+        <v>1.59</v>
+      </c>
+      <c r="BD172">
+        <v>2</v>
+      </c>
+      <c r="BE172">
+        <v>2.5</v>
+      </c>
+      <c r="BF172">
+        <v>6</v>
+      </c>
+      <c r="BG172">
+        <v>4</v>
+      </c>
+      <c r="BH172">
+        <v>7</v>
+      </c>
+      <c r="BI172">
+        <v>7</v>
+      </c>
+      <c r="BJ172">
+        <v>13</v>
+      </c>
+      <c r="BK172">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Peru Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Peru Primera División_2023.xlsx
@@ -33688,19 +33688,19 @@
         <v>2</v>
       </c>
       <c r="BG170">
+        <v>7</v>
+      </c>
+      <c r="BH170">
+        <v>6</v>
+      </c>
+      <c r="BI170">
         <v>8</v>
       </c>
-      <c r="BH170">
-        <v>5</v>
-      </c>
-      <c r="BI170">
-        <v>9</v>
-      </c>
       <c r="BJ170">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BK170">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="171" spans="1:63">
@@ -33885,13 +33885,13 @@
         <v>5</v>
       </c>
       <c r="BI171">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BJ171">
         <v>14</v>
       </c>
       <c r="BK171">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="172" spans="1:63">

--- a/Bases_de_Dados_(2022-2023)/Peru Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Peru Primera División_2023.xlsx
@@ -217,10 +217,10 @@
     <t>Atlético Grau</t>
   </si>
   <si>
-    <t>Universitario</t>
+    <t>UTC Cajamarca</t>
   </si>
   <si>
-    <t>UTC Cajamarca</t>
+    <t>Universitario</t>
   </si>
   <si>
     <t>Deportivo Garcilaso</t>
@@ -1811,7 +1811,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>5052969</v>
+        <v>5052965</v>
       </c>
       <c r="C4" t="s">
         <v>63</v>
@@ -1829,109 +1829,109 @@
         <v>67</v>
       </c>
       <c r="H4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P4" t="s">
         <v>84</v>
       </c>
       <c r="Q4">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="R4">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="S4">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="T4">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="U4">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="V4">
-        <v>6.5</v>
+        <v>3.7</v>
       </c>
       <c r="W4">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="X4">
-        <v>2.95</v>
+        <v>3.1</v>
       </c>
       <c r="Y4">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="Z4">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="AA4">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB4">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="AC4">
-        <v>1.43</v>
+        <v>2.36</v>
       </c>
       <c r="AD4">
-        <v>4.47</v>
+        <v>3.14</v>
       </c>
       <c r="AE4">
-        <v>7.11</v>
+        <v>2.87</v>
       </c>
       <c r="AF4">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="AG4">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AH4">
+        <v>1.22</v>
+      </c>
+      <c r="AI4">
+        <v>4.2</v>
+      </c>
+      <c r="AJ4">
+        <v>1.85</v>
+      </c>
+      <c r="AK4">
+        <v>1.96</v>
+      </c>
+      <c r="AL4">
+        <v>1.6</v>
+      </c>
+      <c r="AM4">
+        <v>2.15</v>
+      </c>
+      <c r="AN4">
+        <v>1.33</v>
+      </c>
+      <c r="AO4">
         <v>1.25</v>
       </c>
-      <c r="AI4">
-        <v>3.75</v>
-      </c>
-      <c r="AJ4">
-        <v>1.77</v>
-      </c>
-      <c r="AK4">
-        <v>1.97</v>
-      </c>
-      <c r="AL4">
-        <v>1.93</v>
-      </c>
-      <c r="AM4">
-        <v>1.77</v>
-      </c>
-      <c r="AN4">
-        <v>1.11</v>
-      </c>
-      <c r="AO4">
-        <v>1.21</v>
-      </c>
       <c r="AP4">
-        <v>2.6</v>
+        <v>1.75</v>
       </c>
       <c r="AQ4">
         <v>0</v>
@@ -1940,10 +1940,10 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>2.67</v>
+        <v>1.78</v>
       </c>
       <c r="AT4">
-        <v>0.11</v>
+        <v>0.67</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1955,46 +1955,46 @@
         <v>0</v>
       </c>
       <c r="AX4">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="AY4">
-        <v>9.5</v>
+        <v>0</v>
       </c>
       <c r="AZ4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BA4">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="BB4">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="BC4">
-        <v>1.85</v>
+        <v>0</v>
       </c>
       <c r="BD4">
-        <v>2.37</v>
+        <v>0</v>
       </c>
       <c r="BE4">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="BF4">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="BG4">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="BH4">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="BI4">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="BJ4">
-        <v>18</v>
+        <v>-1</v>
       </c>
       <c r="BK4">
-        <v>4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:63">
@@ -2002,7 +2002,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>5052965</v>
+        <v>5052969</v>
       </c>
       <c r="C5" t="s">
         <v>63</v>
@@ -2020,172 +2020,172 @@
         <v>68</v>
       </c>
       <c r="H5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P5" t="s">
         <v>84</v>
       </c>
       <c r="Q5">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="R5">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="S5">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="T5">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="U5">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="V5">
-        <v>3.7</v>
+        <v>6.5</v>
       </c>
       <c r="W5">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="X5">
-        <v>3.1</v>
+        <v>2.95</v>
       </c>
       <c r="Y5">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="Z5">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AA5">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB5">
+        <v>1.1</v>
+      </c>
+      <c r="AC5">
+        <v>1.43</v>
+      </c>
+      <c r="AD5">
+        <v>4.47</v>
+      </c>
+      <c r="AE5">
+        <v>7.11</v>
+      </c>
+      <c r="AF5">
+        <v>1.03</v>
+      </c>
+      <c r="AG5">
+        <v>13</v>
+      </c>
+      <c r="AH5">
+        <v>1.25</v>
+      </c>
+      <c r="AI5">
+        <v>3.75</v>
+      </c>
+      <c r="AJ5">
+        <v>1.77</v>
+      </c>
+      <c r="AK5">
+        <v>1.97</v>
+      </c>
+      <c r="AL5">
+        <v>1.93</v>
+      </c>
+      <c r="AM5">
+        <v>1.77</v>
+      </c>
+      <c r="AN5">
         <v>1.11</v>
       </c>
-      <c r="AC5">
-        <v>2.36</v>
-      </c>
-      <c r="AD5">
-        <v>3.14</v>
-      </c>
-      <c r="AE5">
-        <v>2.87</v>
-      </c>
-      <c r="AF5">
-        <v>1.04</v>
-      </c>
-      <c r="AG5">
-        <v>11</v>
-      </c>
-      <c r="AH5">
-        <v>1.22</v>
-      </c>
-      <c r="AI5">
-        <v>4.2</v>
-      </c>
-      <c r="AJ5">
+      <c r="AO5">
+        <v>1.21</v>
+      </c>
+      <c r="AP5">
+        <v>2.6</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>2.67</v>
+      </c>
+      <c r="AT5">
+        <v>0.11</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>1.33</v>
+      </c>
+      <c r="AY5">
+        <v>9.5</v>
+      </c>
+      <c r="AZ5">
+        <v>4</v>
+      </c>
+      <c r="BA5">
+        <v>1.29</v>
+      </c>
+      <c r="BB5">
+        <v>1.48</v>
+      </c>
+      <c r="BC5">
         <v>1.85</v>
       </c>
-      <c r="AK5">
-        <v>1.96</v>
-      </c>
-      <c r="AL5">
-        <v>1.6</v>
-      </c>
-      <c r="AM5">
-        <v>2.15</v>
-      </c>
-      <c r="AN5">
-        <v>1.33</v>
-      </c>
-      <c r="AO5">
-        <v>1.25</v>
-      </c>
-      <c r="AP5">
-        <v>1.75</v>
-      </c>
-      <c r="AQ5">
-        <v>0</v>
-      </c>
-      <c r="AR5">
-        <v>0</v>
-      </c>
-      <c r="AS5">
-        <v>1.78</v>
-      </c>
-      <c r="AT5">
-        <v>0.67</v>
-      </c>
-      <c r="AU5">
-        <v>0</v>
-      </c>
-      <c r="AV5">
-        <v>0</v>
-      </c>
-      <c r="AW5">
-        <v>0</v>
-      </c>
-      <c r="AX5">
-        <v>0</v>
-      </c>
-      <c r="AY5">
-        <v>0</v>
-      </c>
-      <c r="AZ5">
-        <v>0</v>
-      </c>
-      <c r="BA5">
-        <v>0</v>
-      </c>
-      <c r="BB5">
-        <v>0</v>
-      </c>
-      <c r="BC5">
-        <v>0</v>
-      </c>
       <c r="BD5">
-        <v>0</v>
+        <v>2.37</v>
       </c>
       <c r="BE5">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="BF5">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BG5">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BH5">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BI5">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BJ5">
-        <v>-1</v>
+        <v>18</v>
       </c>
       <c r="BK5">
-        <v>-1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:63">
@@ -3930,7 +3930,7 @@
         <v>78</v>
       </c>
       <c r="H15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -4121,7 +4121,7 @@
         <v>79</v>
       </c>
       <c r="H16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -5837,7 +5837,7 @@
         <v>5</v>
       </c>
       <c r="G25" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H25" t="s">
         <v>81</v>
@@ -6410,7 +6410,7 @@
         <v>5</v>
       </c>
       <c r="G28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H28" t="s">
         <v>75</v>
@@ -6986,7 +6986,7 @@
         <v>79</v>
       </c>
       <c r="H31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -7368,7 +7368,7 @@
         <v>80</v>
       </c>
       <c r="H33" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -8511,7 +8511,7 @@
         <v>7</v>
       </c>
       <c r="G39" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H39" t="s">
         <v>82</v>
@@ -8702,7 +8702,7 @@
         <v>7</v>
       </c>
       <c r="G40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H40" t="s">
         <v>81</v>
@@ -10424,7 +10424,7 @@
         <v>76</v>
       </c>
       <c r="H49" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I49">
         <v>1</v>
@@ -10994,7 +10994,7 @@
         <v>9</v>
       </c>
       <c r="G52" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H52" t="s">
         <v>82</v>
@@ -11376,7 +11376,7 @@
         <v>9</v>
       </c>
       <c r="G54" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H54" t="s">
         <v>77</v>
@@ -12331,7 +12331,7 @@
         <v>1</v>
       </c>
       <c r="G59" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H59" t="s">
         <v>74</v>
@@ -13859,7 +13859,7 @@
         <v>1</v>
       </c>
       <c r="G67" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H67" t="s">
         <v>65</v>
@@ -14435,7 +14435,7 @@
         <v>69</v>
       </c>
       <c r="H70" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I70">
         <v>0</v>
@@ -15581,7 +15581,7 @@
         <v>76</v>
       </c>
       <c r="H76" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I76">
         <v>0</v>
@@ -16151,7 +16151,7 @@
         <v>11</v>
       </c>
       <c r="G79" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H79" t="s">
         <v>77</v>
@@ -16915,7 +16915,7 @@
         <v>11</v>
       </c>
       <c r="G83" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H83" t="s">
         <v>66</v>
@@ -18255,7 +18255,7 @@
         <v>69</v>
       </c>
       <c r="H90" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I90">
         <v>1</v>
@@ -18637,7 +18637,7 @@
         <v>73</v>
       </c>
       <c r="H92" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I92">
         <v>1</v>
@@ -19207,7 +19207,7 @@
         <v>13</v>
       </c>
       <c r="G95" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H95" t="s">
         <v>66</v>
@@ -20735,7 +20735,7 @@
         <v>13</v>
       </c>
       <c r="G103" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H103" t="s">
         <v>70</v>
@@ -21311,7 +21311,7 @@
         <v>71</v>
       </c>
       <c r="H106" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I106">
         <v>0</v>
@@ -22075,7 +22075,7 @@
         <v>73</v>
       </c>
       <c r="H110" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I110">
         <v>0</v>
@@ -23600,7 +23600,7 @@
         <v>15</v>
       </c>
       <c r="G118" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H118" t="s">
         <v>70</v>
@@ -24749,7 +24749,7 @@
         <v>83</v>
       </c>
       <c r="H124" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I124">
         <v>2</v>
@@ -25704,7 +25704,7 @@
         <v>78</v>
       </c>
       <c r="H129" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I129">
         <v>1</v>
@@ -26659,7 +26659,7 @@
         <v>80</v>
       </c>
       <c r="H134" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I134">
         <v>0</v>
@@ -27229,7 +27229,7 @@
         <v>16</v>
       </c>
       <c r="G137" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H137" t="s">
         <v>72</v>
@@ -28378,7 +28378,7 @@
         <v>71</v>
       </c>
       <c r="H143" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I143">
         <v>1</v>
@@ -29712,10 +29712,10 @@
         <v>17</v>
       </c>
       <c r="G150" t="s">
+        <v>67</v>
+      </c>
+      <c r="H150" t="s">
         <v>68</v>
-      </c>
-      <c r="H150" t="s">
-        <v>67</v>
       </c>
       <c r="I150">
         <v>1</v>
@@ -31049,7 +31049,7 @@
         <v>18</v>
       </c>
       <c r="G157" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H157" t="s">
         <v>65</v>
@@ -32198,7 +32198,7 @@
         <v>72</v>
       </c>
       <c r="H163" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I163">
         <v>0</v>
@@ -32539,7 +32539,7 @@
         <v>2.4</v>
       </c>
       <c r="BF164">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BG164">
         <v>4</v>
@@ -32551,7 +32551,7 @@
         <v>6</v>
       </c>
       <c r="BJ164">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BK164">
         <v>10</v>
@@ -33917,7 +33917,7 @@
         <v>83</v>
       </c>
       <c r="H172" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I172">
         <v>0</v>

--- a/Bases_de_Dados_(2022-2023)/Peru Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Peru Primera División_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="294">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -217,10 +217,10 @@
     <t>Atlético Grau</t>
   </si>
   <si>
-    <t>UTC Cajamarca</t>
+    <t>Universitario</t>
   </si>
   <si>
-    <t>Universitario</t>
+    <t>UTC Cajamarca</t>
   </si>
   <si>
     <t>Deportivo Garcilaso</t>
@@ -667,6 +667,24 @@
     <t>['77']</t>
   </si>
   <si>
+    <t>['23', '33', '90', '90+3']</t>
+  </si>
+  <si>
+    <t>['6', '27']</t>
+  </si>
+  <si>
+    <t>['54', '84']</t>
+  </si>
+  <si>
+    <t>['74']</t>
+  </si>
+  <si>
+    <t>['55']</t>
+  </si>
+  <si>
+    <t>['58', '85']</t>
+  </si>
+  <si>
     <t>['81']</t>
   </si>
   <si>
@@ -866,6 +884,18 @@
   </si>
   <si>
     <t>['73', '90+4']</t>
+  </si>
+  <si>
+    <t>['26', '44']</t>
+  </si>
+  <si>
+    <t>['21']</t>
+  </si>
+  <si>
+    <t>['22', '62']</t>
+  </si>
+  <si>
+    <t>['68', '80', '84']</t>
   </si>
 </sst>
 </file>
@@ -1227,7 +1257,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK172"/>
+  <dimension ref="A1:BK181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1558,7 +1588,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AT2">
         <v>1.22</v>
@@ -1811,7 +1841,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>5052965</v>
+        <v>5052969</v>
       </c>
       <c r="C4" t="s">
         <v>63</v>
@@ -1829,172 +1859,172 @@
         <v>67</v>
       </c>
       <c r="H4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P4" t="s">
         <v>84</v>
       </c>
       <c r="Q4">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="R4">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="S4">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="T4">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="U4">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="V4">
-        <v>3.7</v>
+        <v>6.5</v>
       </c>
       <c r="W4">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="X4">
-        <v>3.1</v>
+        <v>2.95</v>
       </c>
       <c r="Y4">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="Z4">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AA4">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB4">
+        <v>1.1</v>
+      </c>
+      <c r="AC4">
+        <v>1.43</v>
+      </c>
+      <c r="AD4">
+        <v>4.47</v>
+      </c>
+      <c r="AE4">
+        <v>7.11</v>
+      </c>
+      <c r="AF4">
+        <v>1.03</v>
+      </c>
+      <c r="AG4">
+        <v>13</v>
+      </c>
+      <c r="AH4">
+        <v>1.25</v>
+      </c>
+      <c r="AI4">
+        <v>3.75</v>
+      </c>
+      <c r="AJ4">
+        <v>1.77</v>
+      </c>
+      <c r="AK4">
+        <v>1.97</v>
+      </c>
+      <c r="AL4">
+        <v>1.93</v>
+      </c>
+      <c r="AM4">
+        <v>1.77</v>
+      </c>
+      <c r="AN4">
         <v>1.11</v>
       </c>
-      <c r="AC4">
-        <v>2.36</v>
-      </c>
-      <c r="AD4">
-        <v>3.14</v>
-      </c>
-      <c r="AE4">
-        <v>2.87</v>
-      </c>
-      <c r="AF4">
-        <v>1.04</v>
-      </c>
-      <c r="AG4">
-        <v>11</v>
-      </c>
-      <c r="AH4">
-        <v>1.22</v>
-      </c>
-      <c r="AI4">
-        <v>4.2</v>
-      </c>
-      <c r="AJ4">
+      <c r="AO4">
+        <v>1.21</v>
+      </c>
+      <c r="AP4">
+        <v>2.6</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>2.67</v>
+      </c>
+      <c r="AT4">
+        <v>0.11</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>1.33</v>
+      </c>
+      <c r="AY4">
+        <v>9.5</v>
+      </c>
+      <c r="AZ4">
+        <v>4</v>
+      </c>
+      <c r="BA4">
+        <v>1.29</v>
+      </c>
+      <c r="BB4">
+        <v>1.48</v>
+      </c>
+      <c r="BC4">
         <v>1.85</v>
       </c>
-      <c r="AK4">
-        <v>1.96</v>
-      </c>
-      <c r="AL4">
-        <v>1.6</v>
-      </c>
-      <c r="AM4">
-        <v>2.15</v>
-      </c>
-      <c r="AN4">
-        <v>1.33</v>
-      </c>
-      <c r="AO4">
-        <v>1.25</v>
-      </c>
-      <c r="AP4">
-        <v>1.75</v>
-      </c>
-      <c r="AQ4">
-        <v>0</v>
-      </c>
-      <c r="AR4">
-        <v>0</v>
-      </c>
-      <c r="AS4">
-        <v>1.78</v>
-      </c>
-      <c r="AT4">
-        <v>0.67</v>
-      </c>
-      <c r="AU4">
-        <v>0</v>
-      </c>
-      <c r="AV4">
-        <v>0</v>
-      </c>
-      <c r="AW4">
-        <v>0</v>
-      </c>
-      <c r="AX4">
-        <v>0</v>
-      </c>
-      <c r="AY4">
-        <v>0</v>
-      </c>
-      <c r="AZ4">
-        <v>0</v>
-      </c>
-      <c r="BA4">
-        <v>0</v>
-      </c>
-      <c r="BB4">
-        <v>0</v>
-      </c>
-      <c r="BC4">
-        <v>0</v>
-      </c>
       <c r="BD4">
-        <v>0</v>
+        <v>2.37</v>
       </c>
       <c r="BE4">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="BF4">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BG4">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BH4">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BI4">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BJ4">
-        <v>-1</v>
+        <v>18</v>
       </c>
       <c r="BK4">
-        <v>-1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:63">
@@ -2002,7 +2032,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>5052969</v>
+        <v>5052965</v>
       </c>
       <c r="C5" t="s">
         <v>63</v>
@@ -2020,109 +2050,109 @@
         <v>68</v>
       </c>
       <c r="H5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P5" t="s">
         <v>84</v>
       </c>
       <c r="Q5">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="R5">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="S5">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="T5">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="U5">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="V5">
-        <v>6.5</v>
+        <v>3.7</v>
       </c>
       <c r="W5">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="X5">
-        <v>2.95</v>
+        <v>3.1</v>
       </c>
       <c r="Y5">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="Z5">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="AA5">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB5">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="AC5">
-        <v>1.43</v>
+        <v>2.36</v>
       </c>
       <c r="AD5">
-        <v>4.47</v>
+        <v>3.14</v>
       </c>
       <c r="AE5">
-        <v>7.11</v>
+        <v>2.87</v>
       </c>
       <c r="AF5">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="AG5">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AH5">
+        <v>1.22</v>
+      </c>
+      <c r="AI5">
+        <v>4.2</v>
+      </c>
+      <c r="AJ5">
+        <v>1.85</v>
+      </c>
+      <c r="AK5">
+        <v>1.96</v>
+      </c>
+      <c r="AL5">
+        <v>1.6</v>
+      </c>
+      <c r="AM5">
+        <v>2.15</v>
+      </c>
+      <c r="AN5">
+        <v>1.33</v>
+      </c>
+      <c r="AO5">
         <v>1.25</v>
       </c>
-      <c r="AI5">
-        <v>3.75</v>
-      </c>
-      <c r="AJ5">
-        <v>1.77</v>
-      </c>
-      <c r="AK5">
-        <v>1.97</v>
-      </c>
-      <c r="AL5">
-        <v>1.93</v>
-      </c>
-      <c r="AM5">
-        <v>1.77</v>
-      </c>
-      <c r="AN5">
-        <v>1.11</v>
-      </c>
-      <c r="AO5">
-        <v>1.21</v>
-      </c>
       <c r="AP5">
-        <v>2.6</v>
+        <v>1.75</v>
       </c>
       <c r="AQ5">
         <v>0</v>
@@ -2131,10 +2161,10 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>2.67</v>
+        <v>1.78</v>
       </c>
       <c r="AT5">
-        <v>0.11</v>
+        <v>0.67</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2146,46 +2176,46 @@
         <v>0</v>
       </c>
       <c r="AX5">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>9.5</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BA5">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="BB5">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="BC5">
-        <v>1.85</v>
+        <v>0</v>
       </c>
       <c r="BD5">
-        <v>2.37</v>
+        <v>0</v>
       </c>
       <c r="BE5">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="BF5">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="BG5">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="BH5">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="BI5">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="BJ5">
-        <v>18</v>
+        <v>-1</v>
       </c>
       <c r="BK5">
-        <v>4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:63">
@@ -2617,7 +2647,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="Q8">
         <v>9</v>
@@ -2808,7 +2838,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -3277,7 +3307,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT11">
         <v>0.89</v>
@@ -3381,7 +3411,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="Q12">
         <v>2</v>
@@ -3468,10 +3498,10 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT12">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3572,7 +3602,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="Q13">
         <v>6</v>
@@ -3662,7 +3692,7 @@
         <v>1.78</v>
       </c>
       <c r="AT13">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3763,7 +3793,7 @@
         <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="Q14">
         <v>7</v>
@@ -3853,7 +3883,7 @@
         <v>1.56</v>
       </c>
       <c r="AT14">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -3930,7 +3960,7 @@
         <v>78</v>
       </c>
       <c r="H15" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -4041,10 +4071,10 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT15">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4121,7 +4151,7 @@
         <v>79</v>
       </c>
       <c r="H16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -4232,10 +4262,10 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT16">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4423,10 +4453,10 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT17">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4617,7 +4647,7 @@
         <v>3</v>
       </c>
       <c r="AT18">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -4718,7 +4748,7 @@
         <v>84</v>
       </c>
       <c r="P19" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="Q19">
         <v>6</v>
@@ -4805,10 +4835,10 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT19">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -5291,7 +5321,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="Q22">
         <v>10</v>
@@ -5378,7 +5408,7 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT22">
         <v>0.67</v>
@@ -5763,7 +5793,7 @@
         <v>2</v>
       </c>
       <c r="AT24">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU24">
         <v>0</v>
@@ -5837,7 +5867,7 @@
         <v>5</v>
       </c>
       <c r="G25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H25" t="s">
         <v>81</v>
@@ -5864,7 +5894,7 @@
         <v>101</v>
       </c>
       <c r="P25" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="Q25">
         <v>6</v>
@@ -6055,7 +6085,7 @@
         <v>102</v>
       </c>
       <c r="P26" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="Q26">
         <v>1</v>
@@ -6142,7 +6172,7 @@
         <v>1</v>
       </c>
       <c r="AS26">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AT26">
         <v>0.5600000000000001</v>
@@ -6410,7 +6440,7 @@
         <v>5</v>
       </c>
       <c r="G28" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H28" t="s">
         <v>75</v>
@@ -6628,7 +6658,7 @@
         <v>105</v>
       </c>
       <c r="P29" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="Q29">
         <v>10</v>
@@ -6715,7 +6745,7 @@
         <v>3</v>
       </c>
       <c r="AS29">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT29">
         <v>1.22</v>
@@ -6909,7 +6939,7 @@
         <v>1.56</v>
       </c>
       <c r="AT30">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU30">
         <v>0</v>
@@ -6986,7 +7016,7 @@
         <v>79</v>
       </c>
       <c r="H31" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -7097,10 +7127,10 @@
         <v>0</v>
       </c>
       <c r="AS31">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT31">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU31">
         <v>0.86</v>
@@ -7291,7 +7321,7 @@
         <v>1.56</v>
       </c>
       <c r="AT32">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU32">
         <v>3.15</v>
@@ -7368,7 +7398,7 @@
         <v>80</v>
       </c>
       <c r="H33" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -7479,10 +7509,10 @@
         <v>0</v>
       </c>
       <c r="AS33">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT33">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU33">
         <v>0.97</v>
@@ -7583,7 +7613,7 @@
         <v>110</v>
       </c>
       <c r="P34" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="Q34">
         <v>2</v>
@@ -7670,7 +7700,7 @@
         <v>0</v>
       </c>
       <c r="AS34">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT34">
         <v>0.89</v>
@@ -7774,7 +7804,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="Q35">
         <v>8</v>
@@ -8052,7 +8082,7 @@
         <v>0</v>
       </c>
       <c r="AS36">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT36">
         <v>0.11</v>
@@ -8246,7 +8276,7 @@
         <v>2.33</v>
       </c>
       <c r="AT37">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU37">
         <v>0.8100000000000001</v>
@@ -8496,7 +8526,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>5053003</v>
+        <v>5053001</v>
       </c>
       <c r="C39" t="s">
         <v>63</v>
@@ -8514,7 +8544,7 @@
         <v>68</v>
       </c>
       <c r="H39" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -8526,40 +8556,40 @@
         <v>0</v>
       </c>
       <c r="L39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N39">
         <v>1</v>
       </c>
       <c r="O39" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="P39" t="s">
-        <v>84</v>
+        <v>235</v>
       </c>
       <c r="Q39">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R39">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="S39">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="T39">
-        <v>2.95</v>
+        <v>3.25</v>
       </c>
       <c r="U39">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="V39">
-        <v>3.6</v>
+        <v>3.15</v>
       </c>
       <c r="W39">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="X39">
         <v>2.95</v>
@@ -8577,13 +8607,13 @@
         <v>1.07</v>
       </c>
       <c r="AC39">
-        <v>2.36</v>
+        <v>3</v>
       </c>
       <c r="AD39">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="AE39">
-        <v>3.05</v>
+        <v>2.34</v>
       </c>
       <c r="AF39">
         <v>1.04</v>
@@ -8598,88 +8628,88 @@
         <v>3.65</v>
       </c>
       <c r="AJ39">
+        <v>1.9</v>
+      </c>
+      <c r="AK39">
         <v>1.91</v>
       </c>
-      <c r="AK39">
-        <v>1.9</v>
-      </c>
       <c r="AL39">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="AM39">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="AN39">
-        <v>1.34</v>
+        <v>1.47</v>
       </c>
       <c r="AO39">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="AP39">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AQ39">
+        <v>3</v>
+      </c>
+      <c r="AR39">
         <v>1.5</v>
       </c>
-      <c r="AR39">
-        <v>0</v>
-      </c>
       <c r="AS39">
-        <v>2.67</v>
+        <v>1.78</v>
       </c>
       <c r="AT39">
-        <v>0.89</v>
+        <v>1.67</v>
       </c>
       <c r="AU39">
-        <v>1.92</v>
+        <v>1.54</v>
       </c>
       <c r="AV39">
-        <v>1.55</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AW39">
-        <v>3.47</v>
+        <v>2.23</v>
       </c>
       <c r="AX39">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AY39">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AZ39">
         <v>2.2</v>
       </c>
       <c r="BA39">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="BB39">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="BC39">
-        <v>1.7</v>
+        <v>1.54</v>
       </c>
       <c r="BD39">
-        <v>2.12</v>
+        <v>1.98</v>
       </c>
       <c r="BE39">
-        <v>2.79</v>
+        <v>2.49</v>
       </c>
       <c r="BF39">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BG39">
         <v>6</v>
       </c>
       <c r="BH39">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BI39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BJ39">
         <v>11</v>
       </c>
       <c r="BK39">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:63">
@@ -8687,7 +8717,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>5053001</v>
+        <v>5053003</v>
       </c>
       <c r="C40" t="s">
         <v>63</v>
@@ -8705,7 +8735,7 @@
         <v>67</v>
       </c>
       <c r="H40" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -8717,40 +8747,40 @@
         <v>0</v>
       </c>
       <c r="L40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N40">
         <v>1</v>
       </c>
       <c r="O40" t="s">
+        <v>114</v>
+      </c>
+      <c r="P40" t="s">
         <v>84</v>
       </c>
-      <c r="P40" t="s">
-        <v>229</v>
-      </c>
       <c r="Q40">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R40">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="S40">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="T40">
-        <v>3.25</v>
+        <v>2.95</v>
       </c>
       <c r="U40">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="V40">
-        <v>3.15</v>
+        <v>3.6</v>
       </c>
       <c r="W40">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="X40">
         <v>2.95</v>
@@ -8768,13 +8798,13 @@
         <v>1.07</v>
       </c>
       <c r="AC40">
-        <v>3</v>
+        <v>2.36</v>
       </c>
       <c r="AD40">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="AE40">
-        <v>2.34</v>
+        <v>3.05</v>
       </c>
       <c r="AF40">
         <v>1.04</v>
@@ -8789,88 +8819,88 @@
         <v>3.65</v>
       </c>
       <c r="AJ40">
+        <v>1.91</v>
+      </c>
+      <c r="AK40">
         <v>1.9</v>
       </c>
-      <c r="AK40">
+      <c r="AL40">
+        <v>1.65</v>
+      </c>
+      <c r="AM40">
+        <v>2.14</v>
+      </c>
+      <c r="AN40">
+        <v>1.34</v>
+      </c>
+      <c r="AO40">
+        <v>1.3</v>
+      </c>
+      <c r="AP40">
+        <v>1.55</v>
+      </c>
+      <c r="AQ40">
+        <v>1.5</v>
+      </c>
+      <c r="AR40">
+        <v>0</v>
+      </c>
+      <c r="AS40">
+        <v>2.67</v>
+      </c>
+      <c r="AT40">
+        <v>0.89</v>
+      </c>
+      <c r="AU40">
+        <v>1.92</v>
+      </c>
+      <c r="AV40">
+        <v>1.55</v>
+      </c>
+      <c r="AW40">
+        <v>3.47</v>
+      </c>
+      <c r="AX40">
         <v>1.91</v>
       </c>
-      <c r="AL40">
-        <v>1.67</v>
-      </c>
-      <c r="AM40">
-        <v>2.1</v>
-      </c>
-      <c r="AN40">
-        <v>1.47</v>
-      </c>
-      <c r="AO40">
-        <v>1.29</v>
-      </c>
-      <c r="AP40">
-        <v>1.42</v>
-      </c>
-      <c r="AQ40">
-        <v>3</v>
-      </c>
-      <c r="AR40">
-        <v>1.5</v>
-      </c>
-      <c r="AS40">
-        <v>1.78</v>
-      </c>
-      <c r="AT40">
-        <v>1.67</v>
-      </c>
-      <c r="AU40">
-        <v>1.54</v>
-      </c>
-      <c r="AV40">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="AW40">
-        <v>2.23</v>
-      </c>
-      <c r="AX40">
-        <v>1.83</v>
-      </c>
       <c r="AY40">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AZ40">
         <v>2.2</v>
       </c>
       <c r="BA40">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="BB40">
-        <v>1.29</v>
+        <v>1.38</v>
       </c>
       <c r="BC40">
-        <v>1.54</v>
+        <v>1.7</v>
       </c>
       <c r="BD40">
-        <v>1.98</v>
+        <v>2.12</v>
       </c>
       <c r="BE40">
-        <v>2.49</v>
+        <v>2.79</v>
       </c>
       <c r="BF40">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BG40">
         <v>6</v>
       </c>
       <c r="BH40">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BI40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BJ40">
         <v>11</v>
       </c>
       <c r="BK40">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:63">
@@ -8920,7 +8950,7 @@
         <v>84</v>
       </c>
       <c r="P41" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="Q41">
         <v>8</v>
@@ -9010,7 +9040,7 @@
         <v>1.44</v>
       </c>
       <c r="AT41">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU41">
         <v>1.47</v>
@@ -9111,7 +9141,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="Q42">
         <v>11</v>
@@ -9198,7 +9228,7 @@
         <v>0</v>
       </c>
       <c r="AS42">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AT42">
         <v>0.44</v>
@@ -9392,7 +9422,7 @@
         <v>1.56</v>
       </c>
       <c r="AT43">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AU43">
         <v>2.18</v>
@@ -9771,7 +9801,7 @@
         <v>1.5</v>
       </c>
       <c r="AS45">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT45">
         <v>1.22</v>
@@ -9965,7 +9995,7 @@
         <v>2</v>
       </c>
       <c r="AT46">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU46">
         <v>1.72</v>
@@ -10153,7 +10183,7 @@
         <v>1.5</v>
       </c>
       <c r="AS47">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT47">
         <v>0.67</v>
@@ -10257,7 +10287,7 @@
         <v>121</v>
       </c>
       <c r="P48" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="Q48">
         <v>7</v>
@@ -10347,7 +10377,7 @@
         <v>1.56</v>
       </c>
       <c r="AT48">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU48">
         <v>1.61</v>
@@ -10424,7 +10454,7 @@
         <v>76</v>
       </c>
       <c r="H49" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I49">
         <v>1</v>
@@ -10448,7 +10478,7 @@
         <v>122</v>
       </c>
       <c r="P49" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -10538,7 +10568,7 @@
         <v>1.78</v>
       </c>
       <c r="AT49">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU49">
         <v>1.41</v>
@@ -10639,7 +10669,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="Q50">
         <v>3</v>
@@ -10729,7 +10759,7 @@
         <v>1.44</v>
       </c>
       <c r="AT50">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU50">
         <v>1.67</v>
@@ -10917,7 +10947,7 @@
         <v>0</v>
       </c>
       <c r="AS51">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT51">
         <v>0.11</v>
@@ -10994,7 +11024,7 @@
         <v>9</v>
       </c>
       <c r="G52" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H52" t="s">
         <v>82</v>
@@ -11212,7 +11242,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -11299,7 +11329,7 @@
         <v>0</v>
       </c>
       <c r="AS53">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT53">
         <v>0.44</v>
@@ -11376,7 +11406,7 @@
         <v>9</v>
       </c>
       <c r="G54" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H54" t="s">
         <v>77</v>
@@ -11403,7 +11433,7 @@
         <v>126</v>
       </c>
       <c r="P54" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -11493,7 +11523,7 @@
         <v>2.67</v>
       </c>
       <c r="AT54">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU54">
         <v>1.8</v>
@@ -11875,7 +11905,7 @@
         <v>2.33</v>
       </c>
       <c r="AT56">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU56">
         <v>1.15</v>
@@ -11976,7 +12006,7 @@
         <v>129</v>
       </c>
       <c r="P57" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12063,7 +12093,7 @@
         <v>2</v>
       </c>
       <c r="AS57">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT57">
         <v>1.67</v>
@@ -12254,7 +12284,7 @@
         <v>2</v>
       </c>
       <c r="AS58">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AT58">
         <v>1.33</v>
@@ -12331,7 +12361,7 @@
         <v>1</v>
       </c>
       <c r="G59" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H59" t="s">
         <v>74</v>
@@ -12740,7 +12770,7 @@
         <v>84</v>
       </c>
       <c r="P61" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="Q61">
         <v>10</v>
@@ -13122,7 +13152,7 @@
         <v>134</v>
       </c>
       <c r="P63" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="Q63">
         <v>3</v>
@@ -13504,7 +13534,7 @@
         <v>84</v>
       </c>
       <c r="P65" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="Q65">
         <v>4</v>
@@ -13695,7 +13725,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="Q66">
         <v>10</v>
@@ -13859,7 +13889,7 @@
         <v>1</v>
       </c>
       <c r="G67" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H67" t="s">
         <v>65</v>
@@ -14167,7 +14197,7 @@
         <v>1.44</v>
       </c>
       <c r="AT68">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU68">
         <v>1.59</v>
@@ -14358,7 +14388,7 @@
         <v>1.56</v>
       </c>
       <c r="AT69">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU69">
         <v>1.78</v>
@@ -14435,7 +14465,7 @@
         <v>69</v>
       </c>
       <c r="H70" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I70">
         <v>0</v>
@@ -14549,7 +14579,7 @@
         <v>1.56</v>
       </c>
       <c r="AT70">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU70">
         <v>2.17</v>
@@ -14650,7 +14680,7 @@
         <v>138</v>
       </c>
       <c r="P71" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="Q71">
         <v>3</v>
@@ -14737,7 +14767,7 @@
         <v>1</v>
       </c>
       <c r="AS71">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT71">
         <v>0.89</v>
@@ -15032,7 +15062,7 @@
         <v>140</v>
       </c>
       <c r="P73" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="Q73">
         <v>5</v>
@@ -15119,7 +15149,7 @@
         <v>1.33</v>
       </c>
       <c r="AS73">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT73">
         <v>0.5600000000000001</v>
@@ -15310,7 +15340,7 @@
         <v>1.5</v>
       </c>
       <c r="AS74">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT74">
         <v>1.22</v>
@@ -15504,7 +15534,7 @@
         <v>2</v>
       </c>
       <c r="AT75">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AU75">
         <v>1.45</v>
@@ -15581,7 +15611,7 @@
         <v>76</v>
       </c>
       <c r="H76" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I76">
         <v>0</v>
@@ -15605,7 +15635,7 @@
         <v>142</v>
       </c>
       <c r="P76" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="Q76">
         <v>7</v>
@@ -15695,7 +15725,7 @@
         <v>1.78</v>
       </c>
       <c r="AT76">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU76">
         <v>1.38</v>
@@ -15883,7 +15913,7 @@
         <v>0.25</v>
       </c>
       <c r="AS77">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AT77">
         <v>0.22</v>
@@ -15987,7 +16017,7 @@
         <v>84</v>
       </c>
       <c r="P78" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="Q78">
         <v>5</v>
@@ -16077,7 +16107,7 @@
         <v>1.44</v>
       </c>
       <c r="AT78">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU78">
         <v>1.56</v>
@@ -16151,7 +16181,7 @@
         <v>11</v>
       </c>
       <c r="G79" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H79" t="s">
         <v>77</v>
@@ -16268,7 +16298,7 @@
         <v>1.78</v>
       </c>
       <c r="AT79">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU79">
         <v>1.44</v>
@@ -16456,7 +16486,7 @@
         <v>1.8</v>
       </c>
       <c r="AS80">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT80">
         <v>1.33</v>
@@ -16560,7 +16590,7 @@
         <v>84</v>
       </c>
       <c r="P81" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="Q81">
         <v>4</v>
@@ -16647,7 +16677,7 @@
         <v>1.8</v>
       </c>
       <c r="AS81">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT81">
         <v>1.67</v>
@@ -16751,7 +16781,7 @@
         <v>146</v>
       </c>
       <c r="P82" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="Q82">
         <v>10</v>
@@ -16838,7 +16868,7 @@
         <v>0.4</v>
       </c>
       <c r="AS82">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT82">
         <v>0.89</v>
@@ -16915,7 +16945,7 @@
         <v>11</v>
       </c>
       <c r="G83" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H83" t="s">
         <v>66</v>
@@ -16942,7 +16972,7 @@
         <v>147</v>
       </c>
       <c r="P83" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="Q83">
         <v>6</v>
@@ -17032,7 +17062,7 @@
         <v>2.67</v>
       </c>
       <c r="AT83">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU83">
         <v>1.74</v>
@@ -17133,7 +17163,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="Q84">
         <v>10</v>
@@ -17220,7 +17250,7 @@
         <v>0</v>
       </c>
       <c r="AS84">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT84">
         <v>0.44</v>
@@ -17414,7 +17444,7 @@
         <v>2.22</v>
       </c>
       <c r="AT85">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU85">
         <v>1.99</v>
@@ -17515,7 +17545,7 @@
         <v>150</v>
       </c>
       <c r="P86" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="Q86">
         <v>8</v>
@@ -17605,7 +17635,7 @@
         <v>2.33</v>
       </c>
       <c r="AT86">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AU86">
         <v>1.29</v>
@@ -17793,7 +17823,7 @@
         <v>0.6</v>
       </c>
       <c r="AS87">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT87">
         <v>0.67</v>
@@ -17897,7 +17927,7 @@
         <v>152</v>
       </c>
       <c r="P88" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="Q88">
         <v>11</v>
@@ -17987,7 +18017,7 @@
         <v>2</v>
       </c>
       <c r="AT88">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU88">
         <v>1.62</v>
@@ -18255,7 +18285,7 @@
         <v>69</v>
       </c>
       <c r="H90" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I90">
         <v>1</v>
@@ -18279,7 +18309,7 @@
         <v>154</v>
       </c>
       <c r="P90" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="Q90">
         <v>19</v>
@@ -18369,7 +18399,7 @@
         <v>1.56</v>
       </c>
       <c r="AT90">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU90">
         <v>2.05</v>
@@ -18470,7 +18500,7 @@
         <v>84</v>
       </c>
       <c r="P91" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="Q91">
         <v>5</v>
@@ -18637,7 +18667,7 @@
         <v>73</v>
       </c>
       <c r="H92" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I92">
         <v>1</v>
@@ -18661,7 +18691,7 @@
         <v>155</v>
       </c>
       <c r="P92" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="Q92">
         <v>5</v>
@@ -18751,7 +18781,7 @@
         <v>1.44</v>
       </c>
       <c r="AT92">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU92">
         <v>1.6</v>
@@ -18852,7 +18882,7 @@
         <v>156</v>
       </c>
       <c r="P93" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="Q93">
         <v>9</v>
@@ -19130,7 +19160,7 @@
         <v>1.25</v>
       </c>
       <c r="AS94">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT94">
         <v>0.5600000000000001</v>
@@ -19207,7 +19237,7 @@
         <v>13</v>
       </c>
       <c r="G95" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H95" t="s">
         <v>66</v>
@@ -19324,7 +19354,7 @@
         <v>1.78</v>
       </c>
       <c r="AT95">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU95">
         <v>1.42</v>
@@ -19425,7 +19455,7 @@
         <v>84</v>
       </c>
       <c r="P96" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -19512,7 +19542,7 @@
         <v>1.5</v>
       </c>
       <c r="AS96">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT96">
         <v>1.33</v>
@@ -19616,7 +19646,7 @@
         <v>159</v>
       </c>
       <c r="P97" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="Q97">
         <v>6</v>
@@ -19703,10 +19733,10 @@
         <v>0.5</v>
       </c>
       <c r="AS97">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT97">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU97">
         <v>2.28</v>
@@ -19894,7 +19924,7 @@
         <v>0.2</v>
       </c>
       <c r="AS98">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT98">
         <v>0.22</v>
@@ -19998,7 +20028,7 @@
         <v>151</v>
       </c>
       <c r="P99" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="Q99">
         <v>5</v>
@@ -20085,7 +20115,7 @@
         <v>2</v>
       </c>
       <c r="AS99">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT99">
         <v>1.67</v>
@@ -20189,7 +20219,7 @@
         <v>161</v>
       </c>
       <c r="P100" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="Q100">
         <v>6</v>
@@ -20276,10 +20306,10 @@
         <v>1.5</v>
       </c>
       <c r="AS100">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AT100">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU100">
         <v>1.72</v>
@@ -20380,7 +20410,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="Q101">
         <v>6</v>
@@ -20467,7 +20497,7 @@
         <v>0.5</v>
       </c>
       <c r="AS101">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT101">
         <v>0.89</v>
@@ -20571,7 +20601,7 @@
         <v>163</v>
       </c>
       <c r="P102" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -20661,7 +20691,7 @@
         <v>2.22</v>
       </c>
       <c r="AT102">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU102">
         <v>1.91</v>
@@ -20735,7 +20765,7 @@
         <v>13</v>
       </c>
       <c r="G103" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H103" t="s">
         <v>70</v>
@@ -20852,7 +20882,7 @@
         <v>2.67</v>
       </c>
       <c r="AT103">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU103">
         <v>1.79</v>
@@ -21043,7 +21073,7 @@
         <v>2.33</v>
       </c>
       <c r="AT104">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU104">
         <v>1.38</v>
@@ -21311,7 +21341,7 @@
         <v>71</v>
       </c>
       <c r="H106" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I106">
         <v>0</v>
@@ -21335,7 +21365,7 @@
         <v>84</v>
       </c>
       <c r="P106" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="Q106">
         <v>1</v>
@@ -21425,7 +21455,7 @@
         <v>1.44</v>
       </c>
       <c r="AT106">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU106">
         <v>1.45</v>
@@ -21804,7 +21834,7 @@
         <v>0</v>
       </c>
       <c r="AS108">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT108">
         <v>0.11</v>
@@ -21908,7 +21938,7 @@
         <v>167</v>
       </c>
       <c r="P109" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="Q109">
         <v>5</v>
@@ -22075,7 +22105,7 @@
         <v>73</v>
       </c>
       <c r="H110" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I110">
         <v>0</v>
@@ -22189,7 +22219,7 @@
         <v>1.44</v>
       </c>
       <c r="AT110">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU110">
         <v>1.64</v>
@@ -22290,7 +22320,7 @@
         <v>169</v>
       </c>
       <c r="P111" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="Q111">
         <v>5</v>
@@ -22568,7 +22598,7 @@
         <v>0.5</v>
       </c>
       <c r="AS112">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT112">
         <v>0.44</v>
@@ -22759,7 +22789,7 @@
         <v>0.33</v>
       </c>
       <c r="AS113">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT113">
         <v>0.22</v>
@@ -22950,10 +22980,10 @@
         <v>1.6</v>
       </c>
       <c r="AS114">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AT114">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU114">
         <v>1.71</v>
@@ -23054,7 +23084,7 @@
         <v>173</v>
       </c>
       <c r="P115" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="Q115">
         <v>6</v>
@@ -23141,10 +23171,10 @@
         <v>1</v>
       </c>
       <c r="AS115">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT115">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU115">
         <v>1.53</v>
@@ -23332,10 +23362,10 @@
         <v>0.8</v>
       </c>
       <c r="AS116">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT116">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU116">
         <v>2.04</v>
@@ -23523,10 +23553,10 @@
         <v>1.2</v>
       </c>
       <c r="AS117">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT117">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU117">
         <v>1.26</v>
@@ -23600,7 +23630,7 @@
         <v>15</v>
       </c>
       <c r="G118" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H118" t="s">
         <v>70</v>
@@ -23627,7 +23657,7 @@
         <v>174</v>
       </c>
       <c r="P118" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="Q118">
         <v>7</v>
@@ -23717,7 +23747,7 @@
         <v>1.78</v>
       </c>
       <c r="AT118">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU118">
         <v>1.5</v>
@@ -23908,7 +23938,7 @@
         <v>2.22</v>
       </c>
       <c r="AT119">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AU119">
         <v>1.79</v>
@@ -24200,7 +24230,7 @@
         <v>177</v>
       </c>
       <c r="P121" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="Q121">
         <v>6</v>
@@ -24287,7 +24317,7 @@
         <v>0.57</v>
       </c>
       <c r="AS121">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT121">
         <v>0.89</v>
@@ -24391,7 +24421,7 @@
         <v>178</v>
       </c>
       <c r="P122" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="Q122">
         <v>7</v>
@@ -24478,7 +24508,7 @@
         <v>0.83</v>
       </c>
       <c r="AS122">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT122">
         <v>0.5600000000000001</v>
@@ -24672,7 +24702,7 @@
         <v>3</v>
       </c>
       <c r="AT123">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU123">
         <v>1.61</v>
@@ -24749,7 +24779,7 @@
         <v>83</v>
       </c>
       <c r="H124" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I124">
         <v>2</v>
@@ -24860,10 +24890,10 @@
         <v>0.4</v>
       </c>
       <c r="AS124">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT124">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU124">
         <v>1.99</v>
@@ -25051,10 +25081,10 @@
         <v>0.2</v>
       </c>
       <c r="AS125">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT125">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AU125">
         <v>1.4</v>
@@ -25245,7 +25275,7 @@
         <v>1.78</v>
       </c>
       <c r="AT126">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU126">
         <v>1.83</v>
@@ -25346,7 +25376,7 @@
         <v>182</v>
       </c>
       <c r="P127" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="Q127">
         <v>4</v>
@@ -25433,10 +25463,10 @@
         <v>0.8</v>
       </c>
       <c r="AS127">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT127">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU127">
         <v>1.58</v>
@@ -25624,10 +25654,10 @@
         <v>0.67</v>
       </c>
       <c r="AS128">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT128">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU128">
         <v>1.56</v>
@@ -25704,7 +25734,7 @@
         <v>78</v>
       </c>
       <c r="H129" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I129">
         <v>1</v>
@@ -25728,7 +25758,7 @@
         <v>184</v>
       </c>
       <c r="P129" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="Q129">
         <v>1</v>
@@ -25815,10 +25845,10 @@
         <v>1.67</v>
       </c>
       <c r="AS129">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT129">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU129">
         <v>1.57</v>
@@ -25919,7 +25949,7 @@
         <v>144</v>
       </c>
       <c r="P130" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="Q130">
         <v>7</v>
@@ -26006,10 +26036,10 @@
         <v>1</v>
       </c>
       <c r="AS130">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT130">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU130">
         <v>1.39</v>
@@ -26110,7 +26140,7 @@
         <v>185</v>
       </c>
       <c r="P131" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="Q131">
         <v>8</v>
@@ -26197,10 +26227,10 @@
         <v>1.17</v>
       </c>
       <c r="AS131">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT131">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU131">
         <v>1.55</v>
@@ -26391,7 +26421,7 @@
         <v>3</v>
       </c>
       <c r="AT132">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU132">
         <v>1.6</v>
@@ -26579,10 +26609,10 @@
         <v>0.17</v>
       </c>
       <c r="AS133">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT133">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AU133">
         <v>1.4</v>
@@ -26659,7 +26689,7 @@
         <v>80</v>
       </c>
       <c r="H134" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I134">
         <v>0</v>
@@ -26770,10 +26800,10 @@
         <v>0.33</v>
       </c>
       <c r="AS134">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT134">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU134">
         <v>1.55</v>
@@ -26964,7 +26994,7 @@
         <v>1.78</v>
       </c>
       <c r="AT135">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU135">
         <v>1.76</v>
@@ -27065,7 +27095,7 @@
         <v>187</v>
       </c>
       <c r="P136" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="Q136">
         <v>3</v>
@@ -27152,7 +27182,7 @@
         <v>2.14</v>
       </c>
       <c r="AS136">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT136">
         <v>1.67</v>
@@ -27229,7 +27259,7 @@
         <v>16</v>
       </c>
       <c r="G137" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H137" t="s">
         <v>72</v>
@@ -27346,7 +27376,7 @@
         <v>2.67</v>
       </c>
       <c r="AT137">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU137">
         <v>1.87</v>
@@ -27638,7 +27668,7 @@
         <v>189</v>
       </c>
       <c r="P139" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="Q139">
         <v>10</v>
@@ -27829,7 +27859,7 @@
         <v>190</v>
       </c>
       <c r="P140" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="Q140">
         <v>7</v>
@@ -28211,7 +28241,7 @@
         <v>134</v>
       </c>
       <c r="P142" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="Q142">
         <v>6</v>
@@ -28378,7 +28408,7 @@
         <v>71</v>
       </c>
       <c r="H143" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I143">
         <v>1</v>
@@ -28402,7 +28432,7 @@
         <v>192</v>
       </c>
       <c r="P143" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="Q143">
         <v>4</v>
@@ -28492,7 +28522,7 @@
         <v>1.44</v>
       </c>
       <c r="AT143">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU143">
         <v>1.35</v>
@@ -28871,10 +28901,10 @@
         <v>1.43</v>
       </c>
       <c r="AS145">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT145">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU145">
         <v>1.31</v>
@@ -29062,10 +29092,10 @@
         <v>1.14</v>
       </c>
       <c r="AS146">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT146">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU146">
         <v>1.46</v>
@@ -29166,7 +29196,7 @@
         <v>196</v>
       </c>
       <c r="P147" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="Q147">
         <v>1</v>
@@ -29253,10 +29283,10 @@
         <v>0.57</v>
       </c>
       <c r="AS147">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT147">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU147">
         <v>1.52</v>
@@ -29444,10 +29474,10 @@
         <v>0.29</v>
       </c>
       <c r="AS148">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AT148">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AU148">
         <v>1.63</v>
@@ -29548,7 +29578,7 @@
         <v>198</v>
       </c>
       <c r="P149" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="Q149">
         <v>9</v>
@@ -29635,10 +29665,10 @@
         <v>0.86</v>
       </c>
       <c r="AS149">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT149">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU149">
         <v>1.6</v>
@@ -29712,10 +29742,10 @@
         <v>17</v>
       </c>
       <c r="G150" t="s">
+        <v>68</v>
+      </c>
+      <c r="H150" t="s">
         <v>67</v>
-      </c>
-      <c r="H150" t="s">
-        <v>68</v>
       </c>
       <c r="I150">
         <v>1</v>
@@ -29829,7 +29859,7 @@
         <v>1.78</v>
       </c>
       <c r="AT150">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU150">
         <v>1.57</v>
@@ -29930,7 +29960,7 @@
         <v>199</v>
       </c>
       <c r="P151" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="Q151">
         <v>4</v>
@@ -30017,10 +30047,10 @@
         <v>1.43</v>
       </c>
       <c r="AS151">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT151">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU151">
         <v>2.15</v>
@@ -30121,7 +30151,7 @@
         <v>200</v>
       </c>
       <c r="P152" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="Q152">
         <v>2</v>
@@ -30208,7 +30238,7 @@
         <v>0.63</v>
       </c>
       <c r="AS152">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT152">
         <v>0.89</v>
@@ -30312,7 +30342,7 @@
         <v>201</v>
       </c>
       <c r="P153" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="Q153">
         <v>11</v>
@@ -30503,7 +30533,7 @@
         <v>202</v>
       </c>
       <c r="P154" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="Q154">
         <v>2</v>
@@ -30590,10 +30620,10 @@
         <v>0.86</v>
       </c>
       <c r="AS154">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT154">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU154">
         <v>1.65</v>
@@ -30694,7 +30724,7 @@
         <v>203</v>
       </c>
       <c r="P155" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="Q155">
         <v>6</v>
@@ -30885,7 +30915,7 @@
         <v>204</v>
       </c>
       <c r="P156" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="Q156">
         <v>8</v>
@@ -31049,7 +31079,7 @@
         <v>18</v>
       </c>
       <c r="G157" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H157" t="s">
         <v>65</v>
@@ -31649,7 +31679,7 @@
         <v>208</v>
       </c>
       <c r="P160" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="Q160">
         <v>15</v>
@@ -32198,7 +32228,7 @@
         <v>72</v>
       </c>
       <c r="H163" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I163">
         <v>0</v>
@@ -32312,7 +32342,7 @@
         <v>2.22</v>
       </c>
       <c r="AT163">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU163">
         <v>1.77</v>
@@ -32500,10 +32530,10 @@
         <v>0.25</v>
       </c>
       <c r="AS164">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT164">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AU164">
         <v>1.47</v>
@@ -32604,7 +32634,7 @@
         <v>211</v>
       </c>
       <c r="P165" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="Q165">
         <v>7</v>
@@ -32691,10 +32721,10 @@
         <v>0.5</v>
       </c>
       <c r="AS165">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT165">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU165">
         <v>1.79</v>
@@ -32795,7 +32825,7 @@
         <v>84</v>
       </c>
       <c r="P166" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="Q166">
         <v>2</v>
@@ -32882,10 +32912,10 @@
         <v>1</v>
       </c>
       <c r="AS166">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT166">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU166">
         <v>1.27</v>
@@ -32986,7 +33016,7 @@
         <v>212</v>
       </c>
       <c r="P167" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="Q167">
         <v>5</v>
@@ -33073,7 +33103,7 @@
         <v>0.25</v>
       </c>
       <c r="AS167">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT167">
         <v>0.22</v>
@@ -33177,7 +33207,7 @@
         <v>213</v>
       </c>
       <c r="P168" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="Q168">
         <v>6</v>
@@ -33264,10 +33294,10 @@
         <v>0.75</v>
       </c>
       <c r="AS168">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT168">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU168">
         <v>1.61</v>
@@ -33368,7 +33398,7 @@
         <v>214</v>
       </c>
       <c r="P169" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="Q169">
         <v>3</v>
@@ -33458,7 +33488,7 @@
         <v>3</v>
       </c>
       <c r="AT169">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU169">
         <v>1.8</v>
@@ -33646,10 +33676,10 @@
         <v>1.63</v>
       </c>
       <c r="AS170">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT170">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU170">
         <v>1.57</v>
@@ -33837,10 +33867,10 @@
         <v>0.88</v>
       </c>
       <c r="AS171">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AT171">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU171">
         <v>1.62</v>
@@ -33917,7 +33947,7 @@
         <v>83</v>
       </c>
       <c r="H172" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I172">
         <v>0</v>
@@ -34028,10 +34058,10 @@
         <v>1.25</v>
       </c>
       <c r="AS172">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT172">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU172">
         <v>2.09</v>
@@ -34082,6 +34112,1725 @@
         <v>13</v>
       </c>
       <c r="BK172">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="173" spans="1:63">
+      <c r="A173" s="1">
+        <v>172</v>
+      </c>
+      <c r="B173">
+        <v>6452746</v>
+      </c>
+      <c r="C173" t="s">
+        <v>63</v>
+      </c>
+      <c r="D173" t="s">
+        <v>64</v>
+      </c>
+      <c r="E173" s="2">
+        <v>45099.70833333334</v>
+      </c>
+      <c r="F173">
+        <v>1</v>
+      </c>
+      <c r="G173" t="s">
+        <v>75</v>
+      </c>
+      <c r="H173" t="s">
+        <v>70</v>
+      </c>
+      <c r="I173">
+        <v>0</v>
+      </c>
+      <c r="J173">
+        <v>2</v>
+      </c>
+      <c r="K173">
+        <v>2</v>
+      </c>
+      <c r="L173">
+        <v>0</v>
+      </c>
+      <c r="M173">
+        <v>2</v>
+      </c>
+      <c r="N173">
+        <v>2</v>
+      </c>
+      <c r="O173" t="s">
+        <v>84</v>
+      </c>
+      <c r="P173" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q173">
+        <v>5</v>
+      </c>
+      <c r="R173">
+        <v>7</v>
+      </c>
+      <c r="S173">
+        <v>12</v>
+      </c>
+      <c r="T173">
+        <v>6.6</v>
+      </c>
+      <c r="U173">
+        <v>2.3</v>
+      </c>
+      <c r="V173">
+        <v>1.97</v>
+      </c>
+      <c r="W173">
+        <v>1.38</v>
+      </c>
+      <c r="X173">
+        <v>2.91</v>
+      </c>
+      <c r="Y173">
+        <v>2.75</v>
+      </c>
+      <c r="Z173">
+        <v>1.42</v>
+      </c>
+      <c r="AA173">
+        <v>6.9</v>
+      </c>
+      <c r="AB173">
+        <v>1.08</v>
+      </c>
+      <c r="AC173">
+        <v>4.73</v>
+      </c>
+      <c r="AD173">
+        <v>3.3</v>
+      </c>
+      <c r="AE173">
+        <v>1.68</v>
+      </c>
+      <c r="AF173">
+        <v>1.03</v>
+      </c>
+      <c r="AG173">
+        <v>13</v>
+      </c>
+      <c r="AH173">
+        <v>1.28</v>
+      </c>
+      <c r="AI173">
+        <v>3.6</v>
+      </c>
+      <c r="AJ173">
+        <v>1.76</v>
+      </c>
+      <c r="AK173">
+        <v>2</v>
+      </c>
+      <c r="AL173">
+        <v>2.08</v>
+      </c>
+      <c r="AM173">
+        <v>1.71</v>
+      </c>
+      <c r="AN173">
+        <v>2.67</v>
+      </c>
+      <c r="AO173">
+        <v>1.18</v>
+      </c>
+      <c r="AP173">
+        <v>1.07</v>
+      </c>
+      <c r="AQ173">
+        <v>0.89</v>
+      </c>
+      <c r="AR173">
+        <v>1.56</v>
+      </c>
+      <c r="AS173">
+        <v>0.8</v>
+      </c>
+      <c r="AT173">
+        <v>1.7</v>
+      </c>
+      <c r="AU173">
+        <v>1.26</v>
+      </c>
+      <c r="AV173">
+        <v>1.41</v>
+      </c>
+      <c r="AW173">
+        <v>2.67</v>
+      </c>
+      <c r="AX173">
+        <v>4</v>
+      </c>
+      <c r="AY173">
+        <v>10</v>
+      </c>
+      <c r="AZ173">
+        <v>1.3</v>
+      </c>
+      <c r="BA173">
+        <v>1.18</v>
+      </c>
+      <c r="BB173">
+        <v>1.3</v>
+      </c>
+      <c r="BC173">
+        <v>1.53</v>
+      </c>
+      <c r="BD173">
+        <v>1.96</v>
+      </c>
+      <c r="BE173">
+        <v>2.52</v>
+      </c>
+      <c r="BF173">
+        <v>6</v>
+      </c>
+      <c r="BG173">
+        <v>10</v>
+      </c>
+      <c r="BH173">
+        <v>8</v>
+      </c>
+      <c r="BI173">
+        <v>6</v>
+      </c>
+      <c r="BJ173">
+        <v>14</v>
+      </c>
+      <c r="BK173">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="174" spans="1:63">
+      <c r="A174" s="1">
+        <v>173</v>
+      </c>
+      <c r="B174">
+        <v>6452747</v>
+      </c>
+      <c r="C174" t="s">
+        <v>63</v>
+      </c>
+      <c r="D174" t="s">
+        <v>64</v>
+      </c>
+      <c r="E174" s="2">
+        <v>45099.83333333334</v>
+      </c>
+      <c r="F174">
+        <v>1</v>
+      </c>
+      <c r="G174" t="s">
+        <v>82</v>
+      </c>
+      <c r="H174" t="s">
+        <v>77</v>
+      </c>
+      <c r="I174">
+        <v>2</v>
+      </c>
+      <c r="J174">
+        <v>0</v>
+      </c>
+      <c r="K174">
+        <v>2</v>
+      </c>
+      <c r="L174">
+        <v>4</v>
+      </c>
+      <c r="M174">
+        <v>0</v>
+      </c>
+      <c r="N174">
+        <v>4</v>
+      </c>
+      <c r="O174" t="s">
+        <v>217</v>
+      </c>
+      <c r="P174" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q174">
+        <v>4</v>
+      </c>
+      <c r="R174">
+        <v>7</v>
+      </c>
+      <c r="S174">
+        <v>11</v>
+      </c>
+      <c r="T174">
+        <v>1.92</v>
+      </c>
+      <c r="U174">
+        <v>2.34</v>
+      </c>
+      <c r="V174">
+        <v>6.9</v>
+      </c>
+      <c r="W174">
+        <v>1.36</v>
+      </c>
+      <c r="X174">
+        <v>2.99</v>
+      </c>
+      <c r="Y174">
+        <v>2.71</v>
+      </c>
+      <c r="Z174">
+        <v>1.43</v>
+      </c>
+      <c r="AA174">
+        <v>6.75</v>
+      </c>
+      <c r="AB174">
+        <v>1.09</v>
+      </c>
+      <c r="AC174">
+        <v>1.72</v>
+      </c>
+      <c r="AD174">
+        <v>4.19</v>
+      </c>
+      <c r="AE174">
+        <v>3.46</v>
+      </c>
+      <c r="AF174">
+        <v>1.03</v>
+      </c>
+      <c r="AG174">
+        <v>13</v>
+      </c>
+      <c r="AH174">
+        <v>1.28</v>
+      </c>
+      <c r="AI174">
+        <v>3.6</v>
+      </c>
+      <c r="AJ174">
+        <v>1.79</v>
+      </c>
+      <c r="AK174">
+        <v>1.93</v>
+      </c>
+      <c r="AL174">
+        <v>2.09</v>
+      </c>
+      <c r="AM174">
+        <v>1.71</v>
+      </c>
+      <c r="AN174">
+        <v>1.09</v>
+      </c>
+      <c r="AO174">
+        <v>1.16</v>
+      </c>
+      <c r="AP174">
+        <v>2.35</v>
+      </c>
+      <c r="AQ174">
+        <v>1.89</v>
+      </c>
+      <c r="AR174">
+        <v>0.78</v>
+      </c>
+      <c r="AS174">
+        <v>2</v>
+      </c>
+      <c r="AT174">
+        <v>0.7</v>
+      </c>
+      <c r="AU174">
+        <v>1.68</v>
+      </c>
+      <c r="AV174">
+        <v>1.49</v>
+      </c>
+      <c r="AW174">
+        <v>3.17</v>
+      </c>
+      <c r="AX174">
+        <v>1.29</v>
+      </c>
+      <c r="AY174">
+        <v>10</v>
+      </c>
+      <c r="AZ174">
+        <v>4.33</v>
+      </c>
+      <c r="BA174">
+        <v>1.17</v>
+      </c>
+      <c r="BB174">
+        <v>1.29</v>
+      </c>
+      <c r="BC174">
+        <v>1.51</v>
+      </c>
+      <c r="BD174">
+        <v>1.9</v>
+      </c>
+      <c r="BE174">
+        <v>2.45</v>
+      </c>
+      <c r="BF174">
+        <v>4</v>
+      </c>
+      <c r="BG174">
+        <v>0</v>
+      </c>
+      <c r="BH174">
+        <v>2</v>
+      </c>
+      <c r="BI174">
+        <v>5</v>
+      </c>
+      <c r="BJ174">
+        <v>6</v>
+      </c>
+      <c r="BK174">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="175" spans="1:63">
+      <c r="A175" s="1">
+        <v>174</v>
+      </c>
+      <c r="B175">
+        <v>6452748</v>
+      </c>
+      <c r="C175" t="s">
+        <v>63</v>
+      </c>
+      <c r="D175" t="s">
+        <v>64</v>
+      </c>
+      <c r="E175" s="2">
+        <v>45099.875</v>
+      </c>
+      <c r="F175">
+        <v>1</v>
+      </c>
+      <c r="G175" t="s">
+        <v>74</v>
+      </c>
+      <c r="H175" t="s">
+        <v>67</v>
+      </c>
+      <c r="I175">
+        <v>0</v>
+      </c>
+      <c r="J175">
+        <v>1</v>
+      </c>
+      <c r="K175">
+        <v>1</v>
+      </c>
+      <c r="L175">
+        <v>1</v>
+      </c>
+      <c r="M175">
+        <v>1</v>
+      </c>
+      <c r="N175">
+        <v>2</v>
+      </c>
+      <c r="O175" t="s">
+        <v>92</v>
+      </c>
+      <c r="P175" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q175">
+        <v>4</v>
+      </c>
+      <c r="R175">
+        <v>1</v>
+      </c>
+      <c r="S175">
+        <v>5</v>
+      </c>
+      <c r="T175">
+        <v>3.18</v>
+      </c>
+      <c r="U175">
+        <v>2.15</v>
+      </c>
+      <c r="V175">
+        <v>3.18</v>
+      </c>
+      <c r="W175">
+        <v>1.38</v>
+      </c>
+      <c r="X175">
+        <v>2.91</v>
+      </c>
+      <c r="Y175">
+        <v>2.75</v>
+      </c>
+      <c r="Z175">
+        <v>1.42</v>
+      </c>
+      <c r="AA175">
+        <v>6.9</v>
+      </c>
+      <c r="AB175">
+        <v>1.08</v>
+      </c>
+      <c r="AC175">
+        <v>1.78</v>
+      </c>
+      <c r="AD175">
+        <v>2.59</v>
+      </c>
+      <c r="AE175">
+        <v>6.14</v>
+      </c>
+      <c r="AF175">
+        <v>1.04</v>
+      </c>
+      <c r="AG175">
+        <v>12</v>
+      </c>
+      <c r="AH175">
+        <v>1.3</v>
+      </c>
+      <c r="AI175">
+        <v>3.5</v>
+      </c>
+      <c r="AJ175">
+        <v>1.9</v>
+      </c>
+      <c r="AK175">
+        <v>1.9</v>
+      </c>
+      <c r="AL175">
+        <v>1.7</v>
+      </c>
+      <c r="AM175">
+        <v>2.1</v>
+      </c>
+      <c r="AN175">
+        <v>1.45</v>
+      </c>
+      <c r="AO175">
+        <v>1.28</v>
+      </c>
+      <c r="AP175">
+        <v>1.45</v>
+      </c>
+      <c r="AQ175">
+        <v>2</v>
+      </c>
+      <c r="AR175">
+        <v>1.11</v>
+      </c>
+      <c r="AS175">
+        <v>1.9</v>
+      </c>
+      <c r="AT175">
+        <v>1.1</v>
+      </c>
+      <c r="AU175">
+        <v>1.47</v>
+      </c>
+      <c r="AV175">
+        <v>1.31</v>
+      </c>
+      <c r="AW175">
+        <v>2.78</v>
+      </c>
+      <c r="AX175">
+        <v>2.15</v>
+      </c>
+      <c r="AY175">
+        <v>6.5</v>
+      </c>
+      <c r="AZ175">
+        <v>2.15</v>
+      </c>
+      <c r="BA175">
+        <v>0</v>
+      </c>
+      <c r="BB175">
+        <v>1.47</v>
+      </c>
+      <c r="BC175">
+        <v>1.8</v>
+      </c>
+      <c r="BD175">
+        <v>2.2</v>
+      </c>
+      <c r="BE175">
+        <v>3.05</v>
+      </c>
+      <c r="BF175">
+        <v>7</v>
+      </c>
+      <c r="BG175">
+        <v>3</v>
+      </c>
+      <c r="BH175">
+        <v>7</v>
+      </c>
+      <c r="BI175">
+        <v>3</v>
+      </c>
+      <c r="BJ175">
+        <v>14</v>
+      </c>
+      <c r="BK175">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="176" spans="1:63">
+      <c r="A176" s="1">
+        <v>175</v>
+      </c>
+      <c r="B176">
+        <v>6452749</v>
+      </c>
+      <c r="C176" t="s">
+        <v>63</v>
+      </c>
+      <c r="D176" t="s">
+        <v>64</v>
+      </c>
+      <c r="E176" s="2">
+        <v>45100.91666666666</v>
+      </c>
+      <c r="F176">
+        <v>1</v>
+      </c>
+      <c r="G176" t="s">
+        <v>81</v>
+      </c>
+      <c r="H176" t="s">
+        <v>66</v>
+      </c>
+      <c r="I176">
+        <v>2</v>
+      </c>
+      <c r="J176">
+        <v>0</v>
+      </c>
+      <c r="K176">
+        <v>2</v>
+      </c>
+      <c r="L176">
+        <v>2</v>
+      </c>
+      <c r="M176">
+        <v>0</v>
+      </c>
+      <c r="N176">
+        <v>2</v>
+      </c>
+      <c r="O176" t="s">
+        <v>218</v>
+      </c>
+      <c r="P176" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q176">
+        <v>3</v>
+      </c>
+      <c r="R176">
+        <v>6</v>
+      </c>
+      <c r="S176">
+        <v>9</v>
+      </c>
+      <c r="T176">
+        <v>1.8</v>
+      </c>
+      <c r="U176">
+        <v>2.35</v>
+      </c>
+      <c r="V176">
+        <v>6.3</v>
+      </c>
+      <c r="W176">
+        <v>1.3</v>
+      </c>
+      <c r="X176">
+        <v>3.2</v>
+      </c>
+      <c r="Y176">
+        <v>2.62</v>
+      </c>
+      <c r="Z176">
+        <v>1.44</v>
+      </c>
+      <c r="AA176">
+        <v>6</v>
+      </c>
+      <c r="AB176">
+        <v>1.1</v>
+      </c>
+      <c r="AC176">
+        <v>1.35</v>
+      </c>
+      <c r="AD176">
+        <v>4.7</v>
+      </c>
+      <c r="AE176">
+        <v>7.25</v>
+      </c>
+      <c r="AF176">
+        <v>1.02</v>
+      </c>
+      <c r="AG176">
+        <v>12</v>
+      </c>
+      <c r="AH176">
+        <v>1.2</v>
+      </c>
+      <c r="AI176">
+        <v>3.9</v>
+      </c>
+      <c r="AJ176">
+        <v>1.68</v>
+      </c>
+      <c r="AK176">
+        <v>2.14</v>
+      </c>
+      <c r="AL176">
+        <v>1.9</v>
+      </c>
+      <c r="AM176">
+        <v>1.8</v>
+      </c>
+      <c r="AN176">
+        <v>1.09</v>
+      </c>
+      <c r="AO176">
+        <v>1.15</v>
+      </c>
+      <c r="AP176">
+        <v>2.45</v>
+      </c>
+      <c r="AQ176">
+        <v>3</v>
+      </c>
+      <c r="AR176">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AS176">
+        <v>3</v>
+      </c>
+      <c r="AT176">
+        <v>0.5</v>
+      </c>
+      <c r="AU176">
+        <v>1.77</v>
+      </c>
+      <c r="AV176">
+        <v>1.3</v>
+      </c>
+      <c r="AW176">
+        <v>3.07</v>
+      </c>
+      <c r="AX176">
+        <v>1.3</v>
+      </c>
+      <c r="AY176">
+        <v>10</v>
+      </c>
+      <c r="AZ176">
+        <v>4</v>
+      </c>
+      <c r="BA176">
+        <v>1.15</v>
+      </c>
+      <c r="BB176">
+        <v>1.31</v>
+      </c>
+      <c r="BC176">
+        <v>1.48</v>
+      </c>
+      <c r="BD176">
+        <v>1.85</v>
+      </c>
+      <c r="BE176">
+        <v>2.35</v>
+      </c>
+      <c r="BF176">
+        <v>7</v>
+      </c>
+      <c r="BG176">
+        <v>3</v>
+      </c>
+      <c r="BH176">
+        <v>5</v>
+      </c>
+      <c r="BI176">
+        <v>4</v>
+      </c>
+      <c r="BJ176">
+        <v>12</v>
+      </c>
+      <c r="BK176">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="177" spans="1:63">
+      <c r="A177" s="1">
+        <v>176</v>
+      </c>
+      <c r="B177">
+        <v>6452750</v>
+      </c>
+      <c r="C177" t="s">
+        <v>63</v>
+      </c>
+      <c r="D177" t="s">
+        <v>64</v>
+      </c>
+      <c r="E177" s="2">
+        <v>45101.72916666666</v>
+      </c>
+      <c r="F177">
+        <v>1</v>
+      </c>
+      <c r="G177" t="s">
+        <v>83</v>
+      </c>
+      <c r="H177" t="s">
+        <v>72</v>
+      </c>
+      <c r="I177">
+        <v>0</v>
+      </c>
+      <c r="J177">
+        <v>0</v>
+      </c>
+      <c r="K177">
+        <v>0</v>
+      </c>
+      <c r="L177">
+        <v>2</v>
+      </c>
+      <c r="M177">
+        <v>0</v>
+      </c>
+      <c r="N177">
+        <v>2</v>
+      </c>
+      <c r="O177" t="s">
+        <v>219</v>
+      </c>
+      <c r="P177" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q177">
+        <v>6</v>
+      </c>
+      <c r="R177">
+        <v>2</v>
+      </c>
+      <c r="S177">
+        <v>8</v>
+      </c>
+      <c r="T177">
+        <v>2.2</v>
+      </c>
+      <c r="U177">
+        <v>2.25</v>
+      </c>
+      <c r="V177">
+        <v>5.5</v>
+      </c>
+      <c r="W177">
+        <v>1.36</v>
+      </c>
+      <c r="X177">
+        <v>3</v>
+      </c>
+      <c r="Y177">
+        <v>2.75</v>
+      </c>
+      <c r="Z177">
+        <v>1.4</v>
+      </c>
+      <c r="AA177">
+        <v>7</v>
+      </c>
+      <c r="AB177">
+        <v>1.1</v>
+      </c>
+      <c r="AC177">
+        <v>1.58</v>
+      </c>
+      <c r="AD177">
+        <v>3.7</v>
+      </c>
+      <c r="AE177">
+        <v>4.6</v>
+      </c>
+      <c r="AF177">
+        <v>0</v>
+      </c>
+      <c r="AG177">
+        <v>0</v>
+      </c>
+      <c r="AH177">
+        <v>0</v>
+      </c>
+      <c r="AI177">
+        <v>0</v>
+      </c>
+      <c r="AJ177">
+        <v>1.85</v>
+      </c>
+      <c r="AK177">
+        <v>1.95</v>
+      </c>
+      <c r="AL177">
+        <v>1.83</v>
+      </c>
+      <c r="AM177">
+        <v>1.83</v>
+      </c>
+      <c r="AN177">
+        <v>0</v>
+      </c>
+      <c r="AO177">
+        <v>0</v>
+      </c>
+      <c r="AP177">
+        <v>0</v>
+      </c>
+      <c r="AQ177">
+        <v>1.78</v>
+      </c>
+      <c r="AR177">
+        <v>0.78</v>
+      </c>
+      <c r="AS177">
+        <v>1.9</v>
+      </c>
+      <c r="AT177">
+        <v>0.7</v>
+      </c>
+      <c r="AU177">
+        <v>2.04</v>
+      </c>
+      <c r="AV177">
+        <v>1.11</v>
+      </c>
+      <c r="AW177">
+        <v>3.15</v>
+      </c>
+      <c r="AX177">
+        <v>0</v>
+      </c>
+      <c r="AY177">
+        <v>0</v>
+      </c>
+      <c r="AZ177">
+        <v>0</v>
+      </c>
+      <c r="BA177">
+        <v>0</v>
+      </c>
+      <c r="BB177">
+        <v>0</v>
+      </c>
+      <c r="BC177">
+        <v>0</v>
+      </c>
+      <c r="BD177">
+        <v>0</v>
+      </c>
+      <c r="BE177">
+        <v>0</v>
+      </c>
+      <c r="BF177">
+        <v>6</v>
+      </c>
+      <c r="BG177">
+        <v>2</v>
+      </c>
+      <c r="BH177">
+        <v>11</v>
+      </c>
+      <c r="BI177">
+        <v>3</v>
+      </c>
+      <c r="BJ177">
+        <v>17</v>
+      </c>
+      <c r="BK177">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="178" spans="1:63">
+      <c r="A178" s="1">
+        <v>177</v>
+      </c>
+      <c r="B178">
+        <v>6452751</v>
+      </c>
+      <c r="C178" t="s">
+        <v>63</v>
+      </c>
+      <c r="D178" t="s">
+        <v>64</v>
+      </c>
+      <c r="E178" s="2">
+        <v>45101.91666666666</v>
+      </c>
+      <c r="F178">
+        <v>1</v>
+      </c>
+      <c r="G178" t="s">
+        <v>80</v>
+      </c>
+      <c r="H178" t="s">
+        <v>69</v>
+      </c>
+      <c r="I178">
+        <v>0</v>
+      </c>
+      <c r="J178">
+        <v>0</v>
+      </c>
+      <c r="K178">
+        <v>0</v>
+      </c>
+      <c r="L178">
+        <v>0</v>
+      </c>
+      <c r="M178">
+        <v>1</v>
+      </c>
+      <c r="N178">
+        <v>1</v>
+      </c>
+      <c r="O178" t="s">
+        <v>84</v>
+      </c>
+      <c r="P178" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q178">
+        <v>1</v>
+      </c>
+      <c r="R178">
+        <v>3</v>
+      </c>
+      <c r="S178">
+        <v>4</v>
+      </c>
+      <c r="T178">
+        <v>2.63</v>
+      </c>
+      <c r="U178">
+        <v>2.1</v>
+      </c>
+      <c r="V178">
+        <v>4.33</v>
+      </c>
+      <c r="W178">
+        <v>1.4</v>
+      </c>
+      <c r="X178">
+        <v>2.75</v>
+      </c>
+      <c r="Y178">
+        <v>3</v>
+      </c>
+      <c r="Z178">
+        <v>1.36</v>
+      </c>
+      <c r="AA178">
+        <v>8</v>
+      </c>
+      <c r="AB178">
+        <v>1.08</v>
+      </c>
+      <c r="AC178">
+        <v>2.01</v>
+      </c>
+      <c r="AD178">
+        <v>3.25</v>
+      </c>
+      <c r="AE178">
+        <v>3.2</v>
+      </c>
+      <c r="AF178">
+        <v>1.03</v>
+      </c>
+      <c r="AG178">
+        <v>11</v>
+      </c>
+      <c r="AH178">
+        <v>1.3</v>
+      </c>
+      <c r="AI178">
+        <v>3.4</v>
+      </c>
+      <c r="AJ178">
+        <v>2</v>
+      </c>
+      <c r="AK178">
+        <v>1.8</v>
+      </c>
+      <c r="AL178">
+        <v>1.83</v>
+      </c>
+      <c r="AM178">
+        <v>1.83</v>
+      </c>
+      <c r="AN178">
+        <v>1.35</v>
+      </c>
+      <c r="AO178">
+        <v>1.33</v>
+      </c>
+      <c r="AP178">
+        <v>1.4</v>
+      </c>
+      <c r="AQ178">
+        <v>1.67</v>
+      </c>
+      <c r="AR178">
+        <v>1.22</v>
+      </c>
+      <c r="AS178">
+        <v>1.5</v>
+      </c>
+      <c r="AT178">
+        <v>1.4</v>
+      </c>
+      <c r="AU178">
+        <v>1.57</v>
+      </c>
+      <c r="AV178">
+        <v>1.4</v>
+      </c>
+      <c r="AW178">
+        <v>2.97</v>
+      </c>
+      <c r="AX178">
+        <v>0</v>
+      </c>
+      <c r="AY178">
+        <v>0</v>
+      </c>
+      <c r="AZ178">
+        <v>0</v>
+      </c>
+      <c r="BA178">
+        <v>0</v>
+      </c>
+      <c r="BB178">
+        <v>0</v>
+      </c>
+      <c r="BC178">
+        <v>0</v>
+      </c>
+      <c r="BD178">
+        <v>0</v>
+      </c>
+      <c r="BE178">
+        <v>0</v>
+      </c>
+      <c r="BF178">
+        <v>4</v>
+      </c>
+      <c r="BG178">
+        <v>5</v>
+      </c>
+      <c r="BH178">
+        <v>5</v>
+      </c>
+      <c r="BI178">
+        <v>4</v>
+      </c>
+      <c r="BJ178">
+        <v>9</v>
+      </c>
+      <c r="BK178">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="179" spans="1:63">
+      <c r="A179" s="1">
+        <v>178</v>
+      </c>
+      <c r="B179">
+        <v>6452752</v>
+      </c>
+      <c r="C179" t="s">
+        <v>63</v>
+      </c>
+      <c r="D179" t="s">
+        <v>64</v>
+      </c>
+      <c r="E179" s="2">
+        <v>45102.625</v>
+      </c>
+      <c r="F179">
+        <v>1</v>
+      </c>
+      <c r="G179" t="s">
+        <v>78</v>
+      </c>
+      <c r="H179" t="s">
+        <v>71</v>
+      </c>
+      <c r="I179">
+        <v>0</v>
+      </c>
+      <c r="J179">
+        <v>1</v>
+      </c>
+      <c r="K179">
+        <v>1</v>
+      </c>
+      <c r="L179">
+        <v>1</v>
+      </c>
+      <c r="M179">
+        <v>2</v>
+      </c>
+      <c r="N179">
+        <v>3</v>
+      </c>
+      <c r="O179" t="s">
+        <v>220</v>
+      </c>
+      <c r="P179" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q179">
+        <v>2</v>
+      </c>
+      <c r="R179">
+        <v>4</v>
+      </c>
+      <c r="S179">
+        <v>6</v>
+      </c>
+      <c r="T179">
+        <v>2.18</v>
+      </c>
+      <c r="U179">
+        <v>2.33</v>
+      </c>
+      <c r="V179">
+        <v>4.9</v>
+      </c>
+      <c r="W179">
+        <v>1.32</v>
+      </c>
+      <c r="X179">
+        <v>3.22</v>
+      </c>
+      <c r="Y179">
+        <v>2.49</v>
+      </c>
+      <c r="Z179">
+        <v>1.5</v>
+      </c>
+      <c r="AA179">
+        <v>5.95</v>
+      </c>
+      <c r="AB179">
+        <v>1.11</v>
+      </c>
+      <c r="AC179">
+        <v>1.63</v>
+      </c>
+      <c r="AD179">
+        <v>3.7</v>
+      </c>
+      <c r="AE179">
+        <v>4.9</v>
+      </c>
+      <c r="AF179">
+        <v>1.02</v>
+      </c>
+      <c r="AG179">
+        <v>15</v>
+      </c>
+      <c r="AH179">
+        <v>1.22</v>
+      </c>
+      <c r="AI179">
+        <v>4.2</v>
+      </c>
+      <c r="AJ179">
+        <v>1.67</v>
+      </c>
+      <c r="AK179">
+        <v>2.07</v>
+      </c>
+      <c r="AL179">
+        <v>1.72</v>
+      </c>
+      <c r="AM179">
+        <v>2.07</v>
+      </c>
+      <c r="AN179">
+        <v>1.16</v>
+      </c>
+      <c r="AO179">
+        <v>1.22</v>
+      </c>
+      <c r="AP179">
+        <v>2.15</v>
+      </c>
+      <c r="AQ179">
+        <v>2</v>
+      </c>
+      <c r="AR179">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AS179">
+        <v>1.8</v>
+      </c>
+      <c r="AT179">
+        <v>0.8</v>
+      </c>
+      <c r="AU179">
+        <v>1.49</v>
+      </c>
+      <c r="AV179">
+        <v>0.9</v>
+      </c>
+      <c r="AW179">
+        <v>2.39</v>
+      </c>
+      <c r="AX179">
+        <v>1.37</v>
+      </c>
+      <c r="AY179">
+        <v>8</v>
+      </c>
+      <c r="AZ179">
+        <v>4.5</v>
+      </c>
+      <c r="BA179">
+        <v>0</v>
+      </c>
+      <c r="BB179">
+        <v>1.45</v>
+      </c>
+      <c r="BC179">
+        <v>1.77</v>
+      </c>
+      <c r="BD179">
+        <v>2.25</v>
+      </c>
+      <c r="BE179">
+        <v>3</v>
+      </c>
+      <c r="BF179">
+        <v>5</v>
+      </c>
+      <c r="BG179">
+        <v>7</v>
+      </c>
+      <c r="BH179">
+        <v>4</v>
+      </c>
+      <c r="BI179">
+        <v>6</v>
+      </c>
+      <c r="BJ179">
+        <v>9</v>
+      </c>
+      <c r="BK179">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="180" spans="1:63">
+      <c r="A180" s="1">
+        <v>179</v>
+      </c>
+      <c r="B180">
+        <v>6452753</v>
+      </c>
+      <c r="C180" t="s">
+        <v>63</v>
+      </c>
+      <c r="D180" t="s">
+        <v>64</v>
+      </c>
+      <c r="E180" s="2">
+        <v>45102.72916666666</v>
+      </c>
+      <c r="F180">
+        <v>1</v>
+      </c>
+      <c r="G180" t="s">
+        <v>79</v>
+      </c>
+      <c r="H180" t="s">
+        <v>73</v>
+      </c>
+      <c r="I180">
+        <v>0</v>
+      </c>
+      <c r="J180">
+        <v>0</v>
+      </c>
+      <c r="K180">
+        <v>0</v>
+      </c>
+      <c r="L180">
+        <v>1</v>
+      </c>
+      <c r="M180">
+        <v>3</v>
+      </c>
+      <c r="N180">
+        <v>4</v>
+      </c>
+      <c r="O180" t="s">
+        <v>221</v>
+      </c>
+      <c r="P180" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q180">
+        <v>5</v>
+      </c>
+      <c r="R180">
+        <v>4</v>
+      </c>
+      <c r="S180">
+        <v>9</v>
+      </c>
+      <c r="T180">
+        <v>2.64</v>
+      </c>
+      <c r="U180">
+        <v>2.14</v>
+      </c>
+      <c r="V180">
+        <v>4.05</v>
+      </c>
+      <c r="W180">
+        <v>1.38</v>
+      </c>
+      <c r="X180">
+        <v>2.91</v>
+      </c>
+      <c r="Y180">
+        <v>2.68</v>
+      </c>
+      <c r="Z180">
+        <v>1.44</v>
+      </c>
+      <c r="AA180">
+        <v>6.65</v>
+      </c>
+      <c r="AB180">
+        <v>1.09</v>
+      </c>
+      <c r="AC180">
+        <v>1.83</v>
+      </c>
+      <c r="AD180">
+        <v>3.35</v>
+      </c>
+      <c r="AE180">
+        <v>3.95</v>
+      </c>
+      <c r="AF180">
+        <v>1.04</v>
+      </c>
+      <c r="AG180">
+        <v>12</v>
+      </c>
+      <c r="AH180">
+        <v>1.28</v>
+      </c>
+      <c r="AI180">
+        <v>3.6</v>
+      </c>
+      <c r="AJ180">
+        <v>1.84</v>
+      </c>
+      <c r="AK180">
+        <v>1.94</v>
+      </c>
+      <c r="AL180">
+        <v>1.7</v>
+      </c>
+      <c r="AM180">
+        <v>2.1</v>
+      </c>
+      <c r="AN180">
+        <v>1.28</v>
+      </c>
+      <c r="AO180">
+        <v>1.28</v>
+      </c>
+      <c r="AP180">
+        <v>1.7</v>
+      </c>
+      <c r="AQ180">
+        <v>1.67</v>
+      </c>
+      <c r="AR180">
+        <v>1.22</v>
+      </c>
+      <c r="AS180">
+        <v>1.5</v>
+      </c>
+      <c r="AT180">
+        <v>1.4</v>
+      </c>
+      <c r="AU180">
+        <v>1.82</v>
+      </c>
+      <c r="AV180">
+        <v>1.12</v>
+      </c>
+      <c r="AW180">
+        <v>2.94</v>
+      </c>
+      <c r="AX180">
+        <v>1.67</v>
+      </c>
+      <c r="AY180">
+        <v>8.5</v>
+      </c>
+      <c r="AZ180">
+        <v>2.5</v>
+      </c>
+      <c r="BA180">
+        <v>1.17</v>
+      </c>
+      <c r="BB180">
+        <v>1.28</v>
+      </c>
+      <c r="BC180">
+        <v>1.5</v>
+      </c>
+      <c r="BD180">
+        <v>1.9</v>
+      </c>
+      <c r="BE180">
+        <v>2.45</v>
+      </c>
+      <c r="BF180">
+        <v>6</v>
+      </c>
+      <c r="BG180">
+        <v>12</v>
+      </c>
+      <c r="BH180">
+        <v>5</v>
+      </c>
+      <c r="BI180">
+        <v>9</v>
+      </c>
+      <c r="BJ180">
+        <v>11</v>
+      </c>
+      <c r="BK180">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="181" spans="1:63">
+      <c r="A181" s="1">
+        <v>180</v>
+      </c>
+      <c r="B181">
+        <v>6462390</v>
+      </c>
+      <c r="C181" t="s">
+        <v>63</v>
+      </c>
+      <c r="D181" t="s">
+        <v>64</v>
+      </c>
+      <c r="E181" s="2">
+        <v>45103.72916666666</v>
+      </c>
+      <c r="F181">
+        <v>1</v>
+      </c>
+      <c r="G181" t="s">
+        <v>65</v>
+      </c>
+      <c r="H181" t="s">
+        <v>68</v>
+      </c>
+      <c r="I181">
+        <v>0</v>
+      </c>
+      <c r="J181">
+        <v>0</v>
+      </c>
+      <c r="K181">
+        <v>0</v>
+      </c>
+      <c r="L181">
+        <v>2</v>
+      </c>
+      <c r="M181">
+        <v>1</v>
+      </c>
+      <c r="N181">
+        <v>3</v>
+      </c>
+      <c r="O181" t="s">
+        <v>222</v>
+      </c>
+      <c r="P181" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q181">
+        <v>5</v>
+      </c>
+      <c r="R181">
+        <v>8</v>
+      </c>
+      <c r="S181">
+        <v>13</v>
+      </c>
+      <c r="T181">
+        <v>1.97</v>
+      </c>
+      <c r="U181">
+        <v>2.34</v>
+      </c>
+      <c r="V181">
+        <v>6.3</v>
+      </c>
+      <c r="W181">
+        <v>1.35</v>
+      </c>
+      <c r="X181">
+        <v>3.05</v>
+      </c>
+      <c r="Y181">
+        <v>2.64</v>
+      </c>
+      <c r="Z181">
+        <v>1.45</v>
+      </c>
+      <c r="AA181">
+        <v>6.45</v>
+      </c>
+      <c r="AB181">
+        <v>1.1</v>
+      </c>
+      <c r="AC181">
+        <v>1.45</v>
+      </c>
+      <c r="AD181">
+        <v>4.4</v>
+      </c>
+      <c r="AE181">
+        <v>6.3</v>
+      </c>
+      <c r="AF181">
+        <v>1.03</v>
+      </c>
+      <c r="AG181">
+        <v>13</v>
+      </c>
+      <c r="AH181">
+        <v>1.28</v>
+      </c>
+      <c r="AI181">
+        <v>3.75</v>
+      </c>
+      <c r="AJ181">
+        <v>1.85</v>
+      </c>
+      <c r="AK181">
+        <v>1.95</v>
+      </c>
+      <c r="AL181">
+        <v>1.96</v>
+      </c>
+      <c r="AM181">
+        <v>1.8</v>
+      </c>
+      <c r="AN181">
+        <v>1.08</v>
+      </c>
+      <c r="AO181">
+        <v>1.18</v>
+      </c>
+      <c r="AP181">
+        <v>2.61</v>
+      </c>
+      <c r="AQ181">
+        <v>2.67</v>
+      </c>
+      <c r="AR181">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AS181">
+        <v>2.7</v>
+      </c>
+      <c r="AT181">
+        <v>0.5</v>
+      </c>
+      <c r="AU181">
+        <v>1.64</v>
+      </c>
+      <c r="AV181">
+        <v>1.3</v>
+      </c>
+      <c r="AW181">
+        <v>2.94</v>
+      </c>
+      <c r="AX181">
+        <v>1.3</v>
+      </c>
+      <c r="AY181">
+        <v>10</v>
+      </c>
+      <c r="AZ181">
+        <v>4</v>
+      </c>
+      <c r="BA181">
+        <v>1.15</v>
+      </c>
+      <c r="BB181">
+        <v>1.31</v>
+      </c>
+      <c r="BC181">
+        <v>1.48</v>
+      </c>
+      <c r="BD181">
+        <v>1.85</v>
+      </c>
+      <c r="BE181">
+        <v>2.35</v>
+      </c>
+      <c r="BF181">
+        <v>8</v>
+      </c>
+      <c r="BG181">
+        <v>4</v>
+      </c>
+      <c r="BH181">
+        <v>7</v>
+      </c>
+      <c r="BI181">
+        <v>7</v>
+      </c>
+      <c r="BJ181">
+        <v>15</v>
+      </c>
+      <c r="BK181">
         <v>11</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Peru Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Peru Primera División_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1191" uniqueCount="301">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -217,10 +217,10 @@
     <t>Atlético Grau</t>
   </si>
   <si>
-    <t>Universitario</t>
+    <t>UTC Cajamarca</t>
   </si>
   <si>
-    <t>UTC Cajamarca</t>
+    <t>Universitario</t>
   </si>
   <si>
     <t>Deportivo Garcilaso</t>
@@ -685,6 +685,18 @@
     <t>['58', '85']</t>
   </si>
   <si>
+    <t>['15', '44']</t>
+  </si>
+  <si>
+    <t>['17', '73']</t>
+  </si>
+  <si>
+    <t>['18', '21', '86']</t>
+  </si>
+  <si>
+    <t>['26', '41']</t>
+  </si>
+  <si>
     <t>['81']</t>
   </si>
   <si>
@@ -896,6 +908,15 @@
   </si>
   <si>
     <t>['68', '80', '84']</t>
+  </si>
+  <si>
+    <t>['3', '9']</t>
+  </si>
+  <si>
+    <t>['60', '90+10']</t>
+  </si>
+  <si>
+    <t>['45', '66', '76']</t>
   </si>
 </sst>
 </file>
@@ -1257,7 +1278,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK181"/>
+  <dimension ref="A1:BK189"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1591,7 +1612,7 @@
         <v>2.7</v>
       </c>
       <c r="AT2">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1779,10 +1800,10 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT3">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1841,7 +1862,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>5052969</v>
+        <v>5052965</v>
       </c>
       <c r="C4" t="s">
         <v>63</v>
@@ -1859,109 +1880,109 @@
         <v>67</v>
       </c>
       <c r="H4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P4" t="s">
         <v>84</v>
       </c>
       <c r="Q4">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="R4">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="S4">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="T4">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="U4">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="V4">
-        <v>6.5</v>
+        <v>3.7</v>
       </c>
       <c r="W4">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="X4">
-        <v>2.95</v>
+        <v>3.1</v>
       </c>
       <c r="Y4">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="Z4">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="AA4">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB4">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="AC4">
-        <v>1.43</v>
+        <v>2.36</v>
       </c>
       <c r="AD4">
-        <v>4.47</v>
+        <v>3.14</v>
       </c>
       <c r="AE4">
-        <v>7.11</v>
+        <v>2.87</v>
       </c>
       <c r="AF4">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="AG4">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AH4">
+        <v>1.22</v>
+      </c>
+      <c r="AI4">
+        <v>4.2</v>
+      </c>
+      <c r="AJ4">
+        <v>1.85</v>
+      </c>
+      <c r="AK4">
+        <v>1.96</v>
+      </c>
+      <c r="AL4">
+        <v>1.6</v>
+      </c>
+      <c r="AM4">
+        <v>2.15</v>
+      </c>
+      <c r="AN4">
+        <v>1.33</v>
+      </c>
+      <c r="AO4">
         <v>1.25</v>
       </c>
-      <c r="AI4">
-        <v>3.75</v>
-      </c>
-      <c r="AJ4">
-        <v>1.77</v>
-      </c>
-      <c r="AK4">
-        <v>1.97</v>
-      </c>
-      <c r="AL4">
-        <v>1.93</v>
-      </c>
-      <c r="AM4">
-        <v>1.77</v>
-      </c>
-      <c r="AN4">
-        <v>1.11</v>
-      </c>
-      <c r="AO4">
-        <v>1.21</v>
-      </c>
       <c r="AP4">
-        <v>2.6</v>
+        <v>1.75</v>
       </c>
       <c r="AQ4">
         <v>0</v>
@@ -1970,10 +1991,10 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>2.67</v>
+        <v>1.7</v>
       </c>
       <c r="AT4">
-        <v>0.11</v>
+        <v>0.9</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1985,46 +2006,46 @@
         <v>0</v>
       </c>
       <c r="AX4">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="AY4">
-        <v>9.5</v>
+        <v>0</v>
       </c>
       <c r="AZ4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BA4">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="BB4">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="BC4">
-        <v>1.85</v>
+        <v>0</v>
       </c>
       <c r="BD4">
-        <v>2.37</v>
+        <v>0</v>
       </c>
       <c r="BE4">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="BF4">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="BG4">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="BH4">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="BI4">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="BJ4">
-        <v>18</v>
+        <v>-1</v>
       </c>
       <c r="BK4">
-        <v>4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:63">
@@ -2032,7 +2053,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>5052965</v>
+        <v>5052969</v>
       </c>
       <c r="C5" t="s">
         <v>63</v>
@@ -2050,172 +2071,172 @@
         <v>68</v>
       </c>
       <c r="H5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P5" t="s">
         <v>84</v>
       </c>
       <c r="Q5">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="R5">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="S5">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="T5">
+        <v>2</v>
+      </c>
+      <c r="U5">
+        <v>2.38</v>
+      </c>
+      <c r="V5">
+        <v>6.5</v>
+      </c>
+      <c r="W5">
+        <v>1.35</v>
+      </c>
+      <c r="X5">
+        <v>2.95</v>
+      </c>
+      <c r="Y5">
+        <v>2.55</v>
+      </c>
+      <c r="Z5">
+        <v>1.44</v>
+      </c>
+      <c r="AA5">
+        <v>6.5</v>
+      </c>
+      <c r="AB5">
+        <v>1.1</v>
+      </c>
+      <c r="AC5">
+        <v>1.43</v>
+      </c>
+      <c r="AD5">
+        <v>4.47</v>
+      </c>
+      <c r="AE5">
+        <v>7.11</v>
+      </c>
+      <c r="AF5">
+        <v>1.03</v>
+      </c>
+      <c r="AG5">
+        <v>13</v>
+      </c>
+      <c r="AH5">
+        <v>1.25</v>
+      </c>
+      <c r="AI5">
+        <v>3.75</v>
+      </c>
+      <c r="AJ5">
+        <v>1.77</v>
+      </c>
+      <c r="AK5">
+        <v>1.97</v>
+      </c>
+      <c r="AL5">
+        <v>1.93</v>
+      </c>
+      <c r="AM5">
+        <v>1.77</v>
+      </c>
+      <c r="AN5">
+        <v>1.11</v>
+      </c>
+      <c r="AO5">
+        <v>1.21</v>
+      </c>
+      <c r="AP5">
+        <v>2.6</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
         <v>2.7</v>
       </c>
-      <c r="U5">
-        <v>2.2</v>
-      </c>
-      <c r="V5">
-        <v>3.7</v>
-      </c>
-      <c r="W5">
-        <v>1.32</v>
-      </c>
-      <c r="X5">
-        <v>3.1</v>
-      </c>
-      <c r="Y5">
-        <v>2.45</v>
-      </c>
-      <c r="Z5">
-        <v>1.47</v>
-      </c>
-      <c r="AA5">
-        <v>6</v>
-      </c>
-      <c r="AB5">
-        <v>1.11</v>
-      </c>
-      <c r="AC5">
-        <v>2.36</v>
-      </c>
-      <c r="AD5">
-        <v>3.14</v>
-      </c>
-      <c r="AE5">
-        <v>2.87</v>
-      </c>
-      <c r="AF5">
-        <v>1.04</v>
-      </c>
-      <c r="AG5">
-        <v>11</v>
-      </c>
-      <c r="AH5">
-        <v>1.22</v>
-      </c>
-      <c r="AI5">
-        <v>4.2</v>
-      </c>
-      <c r="AJ5">
+      <c r="AT5">
+        <v>0.11</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>1.33</v>
+      </c>
+      <c r="AY5">
+        <v>9.5</v>
+      </c>
+      <c r="AZ5">
+        <v>4</v>
+      </c>
+      <c r="BA5">
+        <v>1.29</v>
+      </c>
+      <c r="BB5">
+        <v>1.48</v>
+      </c>
+      <c r="BC5">
         <v>1.85</v>
       </c>
-      <c r="AK5">
-        <v>1.96</v>
-      </c>
-      <c r="AL5">
-        <v>1.6</v>
-      </c>
-      <c r="AM5">
-        <v>2.15</v>
-      </c>
-      <c r="AN5">
-        <v>1.33</v>
-      </c>
-      <c r="AO5">
-        <v>1.25</v>
-      </c>
-      <c r="AP5">
-        <v>1.75</v>
-      </c>
-      <c r="AQ5">
-        <v>0</v>
-      </c>
-      <c r="AR5">
-        <v>0</v>
-      </c>
-      <c r="AS5">
-        <v>1.78</v>
-      </c>
-      <c r="AT5">
-        <v>0.67</v>
-      </c>
-      <c r="AU5">
-        <v>0</v>
-      </c>
-      <c r="AV5">
-        <v>0</v>
-      </c>
-      <c r="AW5">
-        <v>0</v>
-      </c>
-      <c r="AX5">
-        <v>0</v>
-      </c>
-      <c r="AY5">
-        <v>0</v>
-      </c>
-      <c r="AZ5">
-        <v>0</v>
-      </c>
-      <c r="BA5">
-        <v>0</v>
-      </c>
-      <c r="BB5">
-        <v>0</v>
-      </c>
-      <c r="BC5">
-        <v>0</v>
-      </c>
       <c r="BD5">
-        <v>0</v>
+        <v>2.37</v>
       </c>
       <c r="BE5">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="BF5">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BG5">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BH5">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BI5">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BJ5">
-        <v>-1</v>
+        <v>18</v>
       </c>
       <c r="BK5">
-        <v>-1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:63">
@@ -2352,10 +2373,10 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT6">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2543,10 +2564,10 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT7">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2647,7 +2668,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q8">
         <v>9</v>
@@ -2737,7 +2758,7 @@
         <v>1.44</v>
       </c>
       <c r="AT8">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2838,7 +2859,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -2925,10 +2946,10 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AT9">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -3116,10 +3137,10 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT10">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3411,7 +3432,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q12">
         <v>2</v>
@@ -3602,7 +3623,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q13">
         <v>6</v>
@@ -3793,7 +3814,7 @@
         <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q14">
         <v>7</v>
@@ -3880,7 +3901,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT14">
         <v>1.4</v>
@@ -3960,7 +3981,7 @@
         <v>78</v>
       </c>
       <c r="H15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -4151,7 +4172,7 @@
         <v>79</v>
       </c>
       <c r="H16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -4748,7 +4769,7 @@
         <v>84</v>
       </c>
       <c r="P19" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q19">
         <v>6</v>
@@ -5026,10 +5047,10 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT20">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU20">
         <v>0</v>
@@ -5217,10 +5238,10 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AT21">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU21">
         <v>1.69</v>
@@ -5321,7 +5342,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q22">
         <v>10</v>
@@ -5411,7 +5432,7 @@
         <v>1.9</v>
       </c>
       <c r="AT22">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU22">
         <v>0</v>
@@ -5602,7 +5623,7 @@
         <v>1.44</v>
       </c>
       <c r="AT23">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU23">
         <v>2.17</v>
@@ -5790,7 +5811,7 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT24">
         <v>0.7</v>
@@ -5867,7 +5888,7 @@
         <v>5</v>
       </c>
       <c r="G25" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H25" t="s">
         <v>81</v>
@@ -5894,7 +5915,7 @@
         <v>101</v>
       </c>
       <c r="P25" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q25">
         <v>6</v>
@@ -5981,10 +6002,10 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AT25">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AU25">
         <v>2.25</v>
@@ -6085,7 +6106,7 @@
         <v>102</v>
       </c>
       <c r="P26" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q26">
         <v>1</v>
@@ -6175,7 +6196,7 @@
         <v>2.7</v>
       </c>
       <c r="AT26">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU26">
         <v>0</v>
@@ -6363,10 +6384,10 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT27">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AU27">
         <v>0</v>
@@ -6440,7 +6461,7 @@
         <v>5</v>
       </c>
       <c r="G28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H28" t="s">
         <v>75</v>
@@ -6554,7 +6575,7 @@
         <v>0</v>
       </c>
       <c r="AS28">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT28">
         <v>0.11</v>
@@ -6658,7 +6679,7 @@
         <v>105</v>
       </c>
       <c r="P29" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q29">
         <v>10</v>
@@ -6748,7 +6769,7 @@
         <v>1.8</v>
       </c>
       <c r="AT29">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU29">
         <v>1.4</v>
@@ -6936,7 +6957,7 @@
         <v>3</v>
       </c>
       <c r="AS30">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT30">
         <v>0.5</v>
@@ -7016,7 +7037,7 @@
         <v>79</v>
       </c>
       <c r="H31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -7318,7 +7339,7 @@
         <v>3</v>
       </c>
       <c r="AS32">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT32">
         <v>1.4</v>
@@ -7398,7 +7419,7 @@
         <v>80</v>
       </c>
       <c r="H33" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -7613,7 +7634,7 @@
         <v>110</v>
       </c>
       <c r="P34" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q34">
         <v>2</v>
@@ -7804,7 +7825,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q35">
         <v>8</v>
@@ -7894,7 +7915,7 @@
         <v>1.44</v>
       </c>
       <c r="AT35">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AU35">
         <v>1.81</v>
@@ -8273,7 +8294,7 @@
         <v>1</v>
       </c>
       <c r="AS37">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT37">
         <v>0.7</v>
@@ -8464,10 +8485,10 @@
         <v>3</v>
       </c>
       <c r="AS38">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AT38">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU38">
         <v>1.84</v>
@@ -8541,7 +8562,7 @@
         <v>7</v>
       </c>
       <c r="G39" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H39" t="s">
         <v>81</v>
@@ -8568,7 +8589,7 @@
         <v>84</v>
       </c>
       <c r="P39" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q39">
         <v>5</v>
@@ -8655,10 +8676,10 @@
         <v>1.5</v>
       </c>
       <c r="AS39">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT39">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AU39">
         <v>1.54</v>
@@ -8732,7 +8753,7 @@
         <v>7</v>
       </c>
       <c r="G40" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H40" t="s">
         <v>82</v>
@@ -8846,10 +8867,10 @@
         <v>0</v>
       </c>
       <c r="AS40">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AT40">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU40">
         <v>1.92</v>
@@ -8950,7 +8971,7 @@
         <v>84</v>
       </c>
       <c r="P41" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q41">
         <v>8</v>
@@ -9037,7 +9058,7 @@
         <v>3</v>
       </c>
       <c r="AS41">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT41">
         <v>1.4</v>
@@ -9141,7 +9162,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q42">
         <v>11</v>
@@ -9231,7 +9252,7 @@
         <v>2.7</v>
       </c>
       <c r="AT42">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU42">
         <v>0</v>
@@ -9419,7 +9440,7 @@
         <v>0</v>
       </c>
       <c r="AS43">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT43">
         <v>0.8</v>
@@ -9804,7 +9825,7 @@
         <v>1.5</v>
       </c>
       <c r="AT45">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU45">
         <v>1.14</v>
@@ -9992,7 +10013,7 @@
         <v>1.5</v>
       </c>
       <c r="AS46">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT46">
         <v>1.4</v>
@@ -10186,7 +10207,7 @@
         <v>0.8</v>
       </c>
       <c r="AT47">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU47">
         <v>1.14</v>
@@ -10287,7 +10308,7 @@
         <v>121</v>
       </c>
       <c r="P48" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q48">
         <v>7</v>
@@ -10374,7 +10395,7 @@
         <v>1</v>
       </c>
       <c r="AS48">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT48">
         <v>1.7</v>
@@ -10454,7 +10475,7 @@
         <v>76</v>
       </c>
       <c r="H49" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I49">
         <v>1</v>
@@ -10478,7 +10499,7 @@
         <v>122</v>
       </c>
       <c r="P49" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -10669,7 +10690,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q50">
         <v>3</v>
@@ -11024,7 +11045,7 @@
         <v>9</v>
       </c>
       <c r="G52" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H52" t="s">
         <v>82</v>
@@ -11138,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="AS52">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT52">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU52">
         <v>1.35</v>
@@ -11242,7 +11263,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -11332,7 +11353,7 @@
         <v>1.9</v>
       </c>
       <c r="AT53">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU53">
         <v>0.4</v>
@@ -11406,7 +11427,7 @@
         <v>9</v>
       </c>
       <c r="G54" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H54" t="s">
         <v>77</v>
@@ -11433,7 +11454,7 @@
         <v>126</v>
       </c>
       <c r="P54" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -11520,7 +11541,7 @@
         <v>1</v>
       </c>
       <c r="AS54">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AT54">
         <v>0.7</v>
@@ -11711,10 +11732,10 @@
         <v>0.33</v>
       </c>
       <c r="AS55">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AT55">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AU55">
         <v>1.99</v>
@@ -11902,7 +11923,7 @@
         <v>1.5</v>
       </c>
       <c r="AS56">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT56">
         <v>0.5</v>
@@ -12006,7 +12027,7 @@
         <v>129</v>
       </c>
       <c r="P57" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12096,7 +12117,7 @@
         <v>1.9</v>
       </c>
       <c r="AT57">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AU57">
         <v>2.85</v>
@@ -12287,7 +12308,7 @@
         <v>2.7</v>
       </c>
       <c r="AT58">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU58">
         <v>1.94</v>
@@ -12361,7 +12382,7 @@
         <v>1</v>
       </c>
       <c r="G59" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H59" t="s">
         <v>74</v>
@@ -12475,10 +12496,10 @@
         <v>1</v>
       </c>
       <c r="AS59">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AT59">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU59">
         <v>1.85</v>
@@ -12666,7 +12687,7 @@
         <v>0</v>
       </c>
       <c r="AS60">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT60">
         <v>0.11</v>
@@ -12770,7 +12791,7 @@
         <v>84</v>
       </c>
       <c r="P61" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q61">
         <v>10</v>
@@ -12857,10 +12878,10 @@
         <v>1</v>
       </c>
       <c r="AS61">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AT61">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU61">
         <v>1.9</v>
@@ -13048,10 +13069,10 @@
         <v>0</v>
       </c>
       <c r="AS62">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT62">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU62">
         <v>1.55</v>
@@ -13152,7 +13173,7 @@
         <v>134</v>
       </c>
       <c r="P63" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q63">
         <v>3</v>
@@ -13239,10 +13260,10 @@
         <v>1.5</v>
       </c>
       <c r="AS63">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT63">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AU63">
         <v>1.33</v>
@@ -13430,10 +13451,10 @@
         <v>0.25</v>
       </c>
       <c r="AS64">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT64">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU64">
         <v>2.03</v>
@@ -13534,7 +13555,7 @@
         <v>84</v>
       </c>
       <c r="P65" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q65">
         <v>4</v>
@@ -13624,7 +13645,7 @@
         <v>1.44</v>
       </c>
       <c r="AT65">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU65">
         <v>1.6</v>
@@ -13725,7 +13746,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q66">
         <v>10</v>
@@ -13812,10 +13833,10 @@
         <v>1.5</v>
       </c>
       <c r="AS66">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT66">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU66">
         <v>1.93</v>
@@ -13889,7 +13910,7 @@
         <v>1</v>
       </c>
       <c r="G67" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H67" t="s">
         <v>65</v>
@@ -14003,7 +14024,7 @@
         <v>1</v>
       </c>
       <c r="AS67">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT67">
         <v>0.89</v>
@@ -14194,7 +14215,7 @@
         <v>1</v>
       </c>
       <c r="AS68">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT68">
         <v>1.7</v>
@@ -14385,7 +14406,7 @@
         <v>3</v>
       </c>
       <c r="AS69">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT69">
         <v>0.7</v>
@@ -14465,7 +14486,7 @@
         <v>69</v>
       </c>
       <c r="H70" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I70">
         <v>0</v>
@@ -14576,7 +14597,7 @@
         <v>1</v>
       </c>
       <c r="AS70">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT70">
         <v>1.1</v>
@@ -14680,7 +14701,7 @@
         <v>138</v>
       </c>
       <c r="P71" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q71">
         <v>3</v>
@@ -14961,7 +14982,7 @@
         <v>3</v>
       </c>
       <c r="AT72">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU72">
         <v>1.76</v>
@@ -15062,7 +15083,7 @@
         <v>140</v>
       </c>
       <c r="P73" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q73">
         <v>5</v>
@@ -15152,7 +15173,7 @@
         <v>1.5</v>
       </c>
       <c r="AT73">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU73">
         <v>1.45</v>
@@ -15343,7 +15364,7 @@
         <v>1.5</v>
       </c>
       <c r="AT74">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU74">
         <v>1.42</v>
@@ -15531,7 +15552,7 @@
         <v>0</v>
       </c>
       <c r="AS75">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT75">
         <v>0.8</v>
@@ -15611,7 +15632,7 @@
         <v>76</v>
       </c>
       <c r="H76" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I76">
         <v>0</v>
@@ -15635,7 +15656,7 @@
         <v>142</v>
       </c>
       <c r="P76" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q76">
         <v>7</v>
@@ -15916,7 +15937,7 @@
         <v>2.7</v>
       </c>
       <c r="AT77">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AU77">
         <v>1.75</v>
@@ -16017,7 +16038,7 @@
         <v>84</v>
       </c>
       <c r="P78" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q78">
         <v>5</v>
@@ -16181,7 +16202,7 @@
         <v>11</v>
       </c>
       <c r="G79" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H79" t="s">
         <v>77</v>
@@ -16295,7 +16316,7 @@
         <v>0.67</v>
       </c>
       <c r="AS79">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT79">
         <v>0.7</v>
@@ -16489,7 +16510,7 @@
         <v>1.9</v>
       </c>
       <c r="AT80">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU80">
         <v>0.95</v>
@@ -16590,7 +16611,7 @@
         <v>84</v>
       </c>
       <c r="P81" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q81">
         <v>4</v>
@@ -16680,7 +16701,7 @@
         <v>1.8</v>
       </c>
       <c r="AT81">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AU81">
         <v>1.67</v>
@@ -16781,7 +16802,7 @@
         <v>146</v>
       </c>
       <c r="P82" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q82">
         <v>10</v>
@@ -16871,7 +16892,7 @@
         <v>1.9</v>
       </c>
       <c r="AT82">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU82">
         <v>2.45</v>
@@ -16945,7 +16966,7 @@
         <v>11</v>
       </c>
       <c r="G83" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H83" t="s">
         <v>66</v>
@@ -16972,7 +16993,7 @@
         <v>147</v>
       </c>
       <c r="P83" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q83">
         <v>6</v>
@@ -17059,7 +17080,7 @@
         <v>1</v>
       </c>
       <c r="AS83">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AT83">
         <v>0.5</v>
@@ -17163,7 +17184,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q84">
         <v>10</v>
@@ -17253,7 +17274,7 @@
         <v>0.8</v>
       </c>
       <c r="AT84">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU84">
         <v>1.16</v>
@@ -17441,7 +17462,7 @@
         <v>2</v>
       </c>
       <c r="AS85">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AT85">
         <v>1.4</v>
@@ -17545,7 +17566,7 @@
         <v>150</v>
       </c>
       <c r="P86" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q86">
         <v>8</v>
@@ -17632,7 +17653,7 @@
         <v>0</v>
       </c>
       <c r="AS86">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT86">
         <v>0.8</v>
@@ -17826,7 +17847,7 @@
         <v>2</v>
       </c>
       <c r="AT87">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU87">
         <v>1.27</v>
@@ -17927,7 +17948,7 @@
         <v>152</v>
       </c>
       <c r="P88" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q88">
         <v>11</v>
@@ -18014,7 +18035,7 @@
         <v>1.5</v>
       </c>
       <c r="AS88">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT88">
         <v>0.7</v>
@@ -18285,7 +18306,7 @@
         <v>69</v>
       </c>
       <c r="H90" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I90">
         <v>1</v>
@@ -18309,7 +18330,7 @@
         <v>154</v>
       </c>
       <c r="P90" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q90">
         <v>19</v>
@@ -18396,7 +18417,7 @@
         <v>0.33</v>
       </c>
       <c r="AS90">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT90">
         <v>0.5</v>
@@ -18500,7 +18521,7 @@
         <v>84</v>
       </c>
       <c r="P91" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q91">
         <v>5</v>
@@ -18587,7 +18608,7 @@
         <v>1</v>
       </c>
       <c r="AS91">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT91">
         <v>0.89</v>
@@ -18667,7 +18688,7 @@
         <v>73</v>
       </c>
       <c r="H92" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I92">
         <v>1</v>
@@ -18691,7 +18712,7 @@
         <v>155</v>
       </c>
       <c r="P92" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q92">
         <v>5</v>
@@ -18778,7 +18799,7 @@
         <v>1</v>
       </c>
       <c r="AS92">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT92">
         <v>1.1</v>
@@ -18882,7 +18903,7 @@
         <v>156</v>
       </c>
       <c r="P93" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q93">
         <v>9</v>
@@ -18972,7 +18993,7 @@
         <v>1.78</v>
       </c>
       <c r="AT93">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU93">
         <v>1.44</v>
@@ -19163,7 +19184,7 @@
         <v>1.5</v>
       </c>
       <c r="AT94">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU94">
         <v>1.35</v>
@@ -19237,7 +19258,7 @@
         <v>13</v>
       </c>
       <c r="G95" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H95" t="s">
         <v>66</v>
@@ -19351,7 +19372,7 @@
         <v>0.75</v>
       </c>
       <c r="AS95">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT95">
         <v>0.5</v>
@@ -19455,7 +19476,7 @@
         <v>84</v>
       </c>
       <c r="P96" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -19545,7 +19566,7 @@
         <v>0.8</v>
       </c>
       <c r="AT96">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU96">
         <v>1.42</v>
@@ -19646,7 +19667,7 @@
         <v>159</v>
       </c>
       <c r="P97" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q97">
         <v>6</v>
@@ -19927,7 +19948,7 @@
         <v>1.9</v>
       </c>
       <c r="AT98">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AU98">
         <v>1.17</v>
@@ -20028,7 +20049,7 @@
         <v>151</v>
       </c>
       <c r="P99" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q99">
         <v>5</v>
@@ -20118,7 +20139,7 @@
         <v>1.5</v>
       </c>
       <c r="AT99">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AU99">
         <v>1.57</v>
@@ -20219,7 +20240,7 @@
         <v>161</v>
       </c>
       <c r="P100" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q100">
         <v>6</v>
@@ -20410,7 +20431,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q101">
         <v>6</v>
@@ -20500,7 +20521,7 @@
         <v>1.8</v>
       </c>
       <c r="AT101">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU101">
         <v>1.54</v>
@@ -20601,7 +20622,7 @@
         <v>163</v>
       </c>
       <c r="P102" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -20688,7 +20709,7 @@
         <v>1.75</v>
       </c>
       <c r="AS102">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AT102">
         <v>1.4</v>
@@ -20765,7 +20786,7 @@
         <v>13</v>
       </c>
       <c r="G103" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H103" t="s">
         <v>70</v>
@@ -20879,7 +20900,7 @@
         <v>1</v>
       </c>
       <c r="AS103">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AT103">
         <v>1.7</v>
@@ -21070,7 +21091,7 @@
         <v>1.33</v>
       </c>
       <c r="AS104">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT104">
         <v>0.7</v>
@@ -21261,7 +21282,7 @@
         <v>1.33</v>
       </c>
       <c r="AS105">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT105">
         <v>0.89</v>
@@ -21341,7 +21362,7 @@
         <v>71</v>
       </c>
       <c r="H106" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I106">
         <v>0</v>
@@ -21365,7 +21386,7 @@
         <v>84</v>
       </c>
       <c r="P106" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q106">
         <v>1</v>
@@ -21643,10 +21664,10 @@
         <v>1.17</v>
       </c>
       <c r="AS107">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT107">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU107">
         <v>2.14</v>
@@ -21938,7 +21959,7 @@
         <v>167</v>
       </c>
       <c r="P109" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q109">
         <v>5</v>
@@ -22028,7 +22049,7 @@
         <v>1.78</v>
       </c>
       <c r="AT109">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU109">
         <v>1.69</v>
@@ -22105,7 +22126,7 @@
         <v>73</v>
       </c>
       <c r="H110" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I110">
         <v>0</v>
@@ -22216,7 +22237,7 @@
         <v>0.5</v>
       </c>
       <c r="AS110">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT110">
         <v>0.5</v>
@@ -22320,7 +22341,7 @@
         <v>169</v>
       </c>
       <c r="P111" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q111">
         <v>5</v>
@@ -22407,10 +22428,10 @@
         <v>0.5</v>
       </c>
       <c r="AS111">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT111">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU111">
         <v>1.82</v>
@@ -22601,7 +22622,7 @@
         <v>1.5</v>
       </c>
       <c r="AT112">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU112">
         <v>1.43</v>
@@ -22792,7 +22813,7 @@
         <v>0.8</v>
       </c>
       <c r="AT113">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AU113">
         <v>1.42</v>
@@ -23084,7 +23105,7 @@
         <v>173</v>
       </c>
       <c r="P115" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q115">
         <v>6</v>
@@ -23630,7 +23651,7 @@
         <v>15</v>
       </c>
       <c r="G118" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H118" t="s">
         <v>70</v>
@@ -23657,7 +23678,7 @@
         <v>174</v>
       </c>
       <c r="P118" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q118">
         <v>7</v>
@@ -23744,7 +23765,7 @@
         <v>0.75</v>
       </c>
       <c r="AS118">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT118">
         <v>1.7</v>
@@ -23935,7 +23956,7 @@
         <v>0.25</v>
       </c>
       <c r="AS119">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AT119">
         <v>0.8</v>
@@ -24129,7 +24150,7 @@
         <v>3</v>
       </c>
       <c r="AT120">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU120">
         <v>1.64</v>
@@ -24230,7 +24251,7 @@
         <v>177</v>
       </c>
       <c r="P121" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q121">
         <v>6</v>
@@ -24320,7 +24341,7 @@
         <v>1.5</v>
       </c>
       <c r="AT121">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU121">
         <v>1.46</v>
@@ -24421,7 +24442,7 @@
         <v>178</v>
       </c>
       <c r="P122" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q122">
         <v>7</v>
@@ -24511,7 +24532,7 @@
         <v>1.9</v>
       </c>
       <c r="AT122">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU122">
         <v>1.37</v>
@@ -24779,7 +24800,7 @@
         <v>83</v>
       </c>
       <c r="H124" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I124">
         <v>2</v>
@@ -25376,7 +25397,7 @@
         <v>182</v>
       </c>
       <c r="P127" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Q127">
         <v>4</v>
@@ -25734,7 +25755,7 @@
         <v>78</v>
       </c>
       <c r="H129" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I129">
         <v>1</v>
@@ -25758,7 +25779,7 @@
         <v>184</v>
       </c>
       <c r="P129" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Q129">
         <v>1</v>
@@ -25949,7 +25970,7 @@
         <v>144</v>
       </c>
       <c r="P130" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q130">
         <v>7</v>
@@ -26140,7 +26161,7 @@
         <v>185</v>
       </c>
       <c r="P131" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="Q131">
         <v>8</v>
@@ -26689,7 +26710,7 @@
         <v>80</v>
       </c>
       <c r="H134" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I134">
         <v>0</v>
@@ -27095,7 +27116,7 @@
         <v>187</v>
       </c>
       <c r="P136" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q136">
         <v>3</v>
@@ -27185,7 +27206,7 @@
         <v>2</v>
       </c>
       <c r="AT136">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AU136">
         <v>1.74</v>
@@ -27259,7 +27280,7 @@
         <v>16</v>
       </c>
       <c r="G137" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H137" t="s">
         <v>72</v>
@@ -27373,7 +27394,7 @@
         <v>1</v>
       </c>
       <c r="AS137">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AT137">
         <v>0.7</v>
@@ -27564,7 +27585,7 @@
         <v>0</v>
       </c>
       <c r="AS138">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT138">
         <v>0.11</v>
@@ -27668,7 +27689,7 @@
         <v>189</v>
       </c>
       <c r="P139" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Q139">
         <v>10</v>
@@ -27755,10 +27776,10 @@
         <v>0.71</v>
       </c>
       <c r="AS139">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT139">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU139">
         <v>1.96</v>
@@ -27859,7 +27880,7 @@
         <v>190</v>
       </c>
       <c r="P140" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q140">
         <v>7</v>
@@ -27946,7 +27967,7 @@
         <v>1.14</v>
       </c>
       <c r="AS140">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT140">
         <v>0.89</v>
@@ -28137,10 +28158,10 @@
         <v>0.86</v>
       </c>
       <c r="AS141">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT141">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU141">
         <v>1.83</v>
@@ -28241,7 +28262,7 @@
         <v>134</v>
       </c>
       <c r="P142" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="Q142">
         <v>6</v>
@@ -28328,10 +28349,10 @@
         <v>1.14</v>
       </c>
       <c r="AS142">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT142">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU142">
         <v>1.58</v>
@@ -28408,7 +28429,7 @@
         <v>71</v>
       </c>
       <c r="H143" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I143">
         <v>1</v>
@@ -28432,7 +28453,7 @@
         <v>192</v>
       </c>
       <c r="P143" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="Q143">
         <v>4</v>
@@ -28713,7 +28734,7 @@
         <v>1.78</v>
       </c>
       <c r="AT144">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU144">
         <v>1.78</v>
@@ -29196,7 +29217,7 @@
         <v>196</v>
       </c>
       <c r="P147" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="Q147">
         <v>1</v>
@@ -29578,7 +29599,7 @@
         <v>198</v>
       </c>
       <c r="P149" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="Q149">
         <v>9</v>
@@ -29742,10 +29763,10 @@
         <v>17</v>
       </c>
       <c r="G150" t="s">
+        <v>67</v>
+      </c>
+      <c r="H150" t="s">
         <v>68</v>
-      </c>
-      <c r="H150" t="s">
-        <v>67</v>
       </c>
       <c r="I150">
         <v>1</v>
@@ -29856,7 +29877,7 @@
         <v>1.43</v>
       </c>
       <c r="AS150">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT150">
         <v>1.1</v>
@@ -29960,7 +29981,7 @@
         <v>199</v>
       </c>
       <c r="P151" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="Q151">
         <v>4</v>
@@ -30151,7 +30172,7 @@
         <v>200</v>
       </c>
       <c r="P152" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="Q152">
         <v>2</v>
@@ -30241,7 +30262,7 @@
         <v>1.5</v>
       </c>
       <c r="AT152">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU152">
         <v>1.71</v>
@@ -30342,7 +30363,7 @@
         <v>201</v>
       </c>
       <c r="P153" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q153">
         <v>11</v>
@@ -30432,7 +30453,7 @@
         <v>3</v>
       </c>
       <c r="AT153">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AU153">
         <v>1.58</v>
@@ -30533,7 +30554,7 @@
         <v>202</v>
       </c>
       <c r="P154" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="Q154">
         <v>2</v>
@@ -30724,7 +30745,7 @@
         <v>203</v>
       </c>
       <c r="P155" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q155">
         <v>6</v>
@@ -30811,10 +30832,10 @@
         <v>0.75</v>
       </c>
       <c r="AS155">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT155">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU155">
         <v>1.61</v>
@@ -30915,7 +30936,7 @@
         <v>204</v>
       </c>
       <c r="P156" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q156">
         <v>8</v>
@@ -31002,10 +31023,10 @@
         <v>1.88</v>
       </c>
       <c r="AS156">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT156">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AU156">
         <v>1.91</v>
@@ -31079,7 +31100,7 @@
         <v>18</v>
       </c>
       <c r="G157" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H157" t="s">
         <v>65</v>
@@ -31193,7 +31214,7 @@
         <v>1</v>
       </c>
       <c r="AS157">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AT157">
         <v>0.89</v>
@@ -31384,10 +31405,10 @@
         <v>0.63</v>
       </c>
       <c r="AS158">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT158">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU158">
         <v>1.59</v>
@@ -31578,7 +31599,7 @@
         <v>1.78</v>
       </c>
       <c r="AT159">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU159">
         <v>2.01</v>
@@ -31679,7 +31700,7 @@
         <v>208</v>
       </c>
       <c r="P160" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="Q160">
         <v>15</v>
@@ -31766,10 +31787,10 @@
         <v>0.38</v>
       </c>
       <c r="AS160">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT160">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU160">
         <v>1.99</v>
@@ -31957,7 +31978,7 @@
         <v>0.13</v>
       </c>
       <c r="AS161">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT161">
         <v>0.11</v>
@@ -32151,7 +32172,7 @@
         <v>1.44</v>
       </c>
       <c r="AT162">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU162">
         <v>1.42</v>
@@ -32228,7 +32249,7 @@
         <v>72</v>
       </c>
       <c r="H163" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I163">
         <v>0</v>
@@ -32339,7 +32360,7 @@
         <v>0.63</v>
       </c>
       <c r="AS163">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AT163">
         <v>0.5</v>
@@ -32634,7 +32655,7 @@
         <v>211</v>
       </c>
       <c r="P165" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="Q165">
         <v>7</v>
@@ -32825,7 +32846,7 @@
         <v>84</v>
       </c>
       <c r="P166" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q166">
         <v>2</v>
@@ -33016,7 +33037,7 @@
         <v>212</v>
       </c>
       <c r="P167" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="Q167">
         <v>5</v>
@@ -33106,7 +33127,7 @@
         <v>2</v>
       </c>
       <c r="AT167">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AU167">
         <v>1.69</v>
@@ -33207,7 +33228,7 @@
         <v>213</v>
       </c>
       <c r="P168" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q168">
         <v>6</v>
@@ -33398,7 +33419,7 @@
         <v>214</v>
       </c>
       <c r="P169" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="Q169">
         <v>3</v>
@@ -33947,7 +33968,7 @@
         <v>83</v>
       </c>
       <c r="H172" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I172">
         <v>0</v>
@@ -34162,7 +34183,7 @@
         <v>84</v>
       </c>
       <c r="P173" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="Q173">
         <v>5</v>
@@ -34520,7 +34541,7 @@
         <v>74</v>
       </c>
       <c r="H175" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I175">
         <v>0</v>
@@ -34544,7 +34565,7 @@
         <v>92</v>
       </c>
       <c r="P175" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="Q175">
         <v>4</v>
@@ -35117,7 +35138,7 @@
         <v>84</v>
       </c>
       <c r="P178" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q178">
         <v>1</v>
@@ -35308,7 +35329,7 @@
         <v>220</v>
       </c>
       <c r="P179" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="Q179">
         <v>2</v>
@@ -35499,7 +35520,7 @@
         <v>221</v>
       </c>
       <c r="P180" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="Q180">
         <v>5</v>
@@ -35666,7 +35687,7 @@
         <v>65</v>
       </c>
       <c r="H181" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I181">
         <v>0</v>
@@ -35832,6 +35853,1534 @@
       </c>
       <c r="BK181">
         <v>11</v>
+      </c>
+    </row>
+    <row r="182" spans="1:63">
+      <c r="A182" s="1">
+        <v>181</v>
+      </c>
+      <c r="B182">
+        <v>6462391</v>
+      </c>
+      <c r="C182" t="s">
+        <v>63</v>
+      </c>
+      <c r="D182" t="s">
+        <v>64</v>
+      </c>
+      <c r="E182" s="2">
+        <v>45107.72916666666</v>
+      </c>
+      <c r="F182">
+        <v>2</v>
+      </c>
+      <c r="G182" t="s">
+        <v>67</v>
+      </c>
+      <c r="H182" t="s">
+        <v>83</v>
+      </c>
+      <c r="I182">
+        <v>0</v>
+      </c>
+      <c r="J182">
+        <v>0</v>
+      </c>
+      <c r="K182">
+        <v>0</v>
+      </c>
+      <c r="L182">
+        <v>0</v>
+      </c>
+      <c r="M182">
+        <v>0</v>
+      </c>
+      <c r="N182">
+        <v>0</v>
+      </c>
+      <c r="O182" t="s">
+        <v>84</v>
+      </c>
+      <c r="P182" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q182">
+        <v>10</v>
+      </c>
+      <c r="R182">
+        <v>4</v>
+      </c>
+      <c r="S182">
+        <v>14</v>
+      </c>
+      <c r="T182">
+        <v>3.1</v>
+      </c>
+      <c r="U182">
+        <v>2.15</v>
+      </c>
+      <c r="V182">
+        <v>3.1</v>
+      </c>
+      <c r="W182">
+        <v>1.36</v>
+      </c>
+      <c r="X182">
+        <v>2.88</v>
+      </c>
+      <c r="Y182">
+        <v>2.8</v>
+      </c>
+      <c r="Z182">
+        <v>1.41</v>
+      </c>
+      <c r="AA182">
+        <v>7</v>
+      </c>
+      <c r="AB182">
+        <v>1.07</v>
+      </c>
+      <c r="AC182">
+        <v>2.41</v>
+      </c>
+      <c r="AD182">
+        <v>3.05</v>
+      </c>
+      <c r="AE182">
+        <v>2.41</v>
+      </c>
+      <c r="AF182">
+        <v>1.04</v>
+      </c>
+      <c r="AG182">
+        <v>9.5</v>
+      </c>
+      <c r="AH182">
+        <v>1.29</v>
+      </c>
+      <c r="AI182">
+        <v>3.25</v>
+      </c>
+      <c r="AJ182">
+        <v>1.96</v>
+      </c>
+      <c r="AK182">
+        <v>1.8</v>
+      </c>
+      <c r="AL182">
+        <v>1.73</v>
+      </c>
+      <c r="AM182">
+        <v>2.05</v>
+      </c>
+      <c r="AN182">
+        <v>1.42</v>
+      </c>
+      <c r="AO182">
+        <v>1.28</v>
+      </c>
+      <c r="AP182">
+        <v>1.4</v>
+      </c>
+      <c r="AQ182">
+        <v>1.78</v>
+      </c>
+      <c r="AR182">
+        <v>1.22</v>
+      </c>
+      <c r="AS182">
+        <v>1.7</v>
+      </c>
+      <c r="AT182">
+        <v>1.2</v>
+      </c>
+      <c r="AU182">
+        <v>1.58</v>
+      </c>
+      <c r="AV182">
+        <v>1.28</v>
+      </c>
+      <c r="AW182">
+        <v>2.86</v>
+      </c>
+      <c r="AX182">
+        <v>0</v>
+      </c>
+      <c r="AY182">
+        <v>0</v>
+      </c>
+      <c r="AZ182">
+        <v>0</v>
+      </c>
+      <c r="BA182">
+        <v>0</v>
+      </c>
+      <c r="BB182">
+        <v>0</v>
+      </c>
+      <c r="BC182">
+        <v>0</v>
+      </c>
+      <c r="BD182">
+        <v>0</v>
+      </c>
+      <c r="BE182">
+        <v>0</v>
+      </c>
+      <c r="BF182">
+        <v>3</v>
+      </c>
+      <c r="BG182">
+        <v>3</v>
+      </c>
+      <c r="BH182">
+        <v>11</v>
+      </c>
+      <c r="BI182">
+        <v>5</v>
+      </c>
+      <c r="BJ182">
+        <v>14</v>
+      </c>
+      <c r="BK182">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="183" spans="1:63">
+      <c r="A183" s="1">
+        <v>182</v>
+      </c>
+      <c r="B183">
+        <v>6452754</v>
+      </c>
+      <c r="C183" t="s">
+        <v>63</v>
+      </c>
+      <c r="D183" t="s">
+        <v>64</v>
+      </c>
+      <c r="E183" s="2">
+        <v>45108.72916666666</v>
+      </c>
+      <c r="F183">
+        <v>2</v>
+      </c>
+      <c r="G183" t="s">
+        <v>77</v>
+      </c>
+      <c r="H183" t="s">
+        <v>76</v>
+      </c>
+      <c r="I183">
+        <v>2</v>
+      </c>
+      <c r="J183">
+        <v>0</v>
+      </c>
+      <c r="K183">
+        <v>2</v>
+      </c>
+      <c r="L183">
+        <v>2</v>
+      </c>
+      <c r="M183">
+        <v>0</v>
+      </c>
+      <c r="N183">
+        <v>2</v>
+      </c>
+      <c r="O183" t="s">
+        <v>223</v>
+      </c>
+      <c r="P183" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q183">
+        <v>3</v>
+      </c>
+      <c r="R183">
+        <v>6</v>
+      </c>
+      <c r="S183">
+        <v>9</v>
+      </c>
+      <c r="T183">
+        <v>2.47</v>
+      </c>
+      <c r="U183">
+        <v>2.24</v>
+      </c>
+      <c r="V183">
+        <v>4</v>
+      </c>
+      <c r="W183">
+        <v>1.3</v>
+      </c>
+      <c r="X183">
+        <v>3.2</v>
+      </c>
+      <c r="Y183">
+        <v>2.63</v>
+      </c>
+      <c r="Z183">
+        <v>1.46</v>
+      </c>
+      <c r="AA183">
+        <v>6.75</v>
+      </c>
+      <c r="AB183">
+        <v>1.09</v>
+      </c>
+      <c r="AC183">
+        <v>1.13</v>
+      </c>
+      <c r="AD183">
+        <v>9.17</v>
+      </c>
+      <c r="AE183">
+        <v>8.039999999999999</v>
+      </c>
+      <c r="AF183">
+        <v>1.04</v>
+      </c>
+      <c r="AG183">
+        <v>13</v>
+      </c>
+      <c r="AH183">
+        <v>1.23</v>
+      </c>
+      <c r="AI183">
+        <v>4.25</v>
+      </c>
+      <c r="AJ183">
+        <v>1.66</v>
+      </c>
+      <c r="AK183">
+        <v>2.09</v>
+      </c>
+      <c r="AL183">
+        <v>1.62</v>
+      </c>
+      <c r="AM183">
+        <v>2.15</v>
+      </c>
+      <c r="AN183">
+        <v>1.25</v>
+      </c>
+      <c r="AO183">
+        <v>1.27</v>
+      </c>
+      <c r="AP183">
+        <v>1.78</v>
+      </c>
+      <c r="AQ183">
+        <v>1.56</v>
+      </c>
+      <c r="AR183">
+        <v>0.22</v>
+      </c>
+      <c r="AS183">
+        <v>1.7</v>
+      </c>
+      <c r="AT183">
+        <v>0.2</v>
+      </c>
+      <c r="AU183">
+        <v>1.94</v>
+      </c>
+      <c r="AV183">
+        <v>1.48</v>
+      </c>
+      <c r="AW183">
+        <v>3.42</v>
+      </c>
+      <c r="AX183">
+        <v>0</v>
+      </c>
+      <c r="AY183">
+        <v>0</v>
+      </c>
+      <c r="AZ183">
+        <v>0</v>
+      </c>
+      <c r="BA183">
+        <v>0</v>
+      </c>
+      <c r="BB183">
+        <v>0</v>
+      </c>
+      <c r="BC183">
+        <v>0</v>
+      </c>
+      <c r="BD183">
+        <v>0</v>
+      </c>
+      <c r="BE183">
+        <v>0</v>
+      </c>
+      <c r="BF183">
+        <v>9</v>
+      </c>
+      <c r="BG183">
+        <v>7</v>
+      </c>
+      <c r="BH183">
+        <v>6</v>
+      </c>
+      <c r="BI183">
+        <v>2</v>
+      </c>
+      <c r="BJ183">
+        <v>15</v>
+      </c>
+      <c r="BK183">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="184" spans="1:63">
+      <c r="A184" s="1">
+        <v>183</v>
+      </c>
+      <c r="B184">
+        <v>6452755</v>
+      </c>
+      <c r="C184" t="s">
+        <v>63</v>
+      </c>
+      <c r="D184" t="s">
+        <v>64</v>
+      </c>
+      <c r="E184" s="2">
+        <v>45108.83333333334</v>
+      </c>
+      <c r="F184">
+        <v>2</v>
+      </c>
+      <c r="G184" t="s">
+        <v>69</v>
+      </c>
+      <c r="H184" t="s">
+        <v>82</v>
+      </c>
+      <c r="I184">
+        <v>1</v>
+      </c>
+      <c r="J184">
+        <v>2</v>
+      </c>
+      <c r="K184">
+        <v>3</v>
+      </c>
+      <c r="L184">
+        <v>2</v>
+      </c>
+      <c r="M184">
+        <v>2</v>
+      </c>
+      <c r="N184">
+        <v>4</v>
+      </c>
+      <c r="O184" t="s">
+        <v>224</v>
+      </c>
+      <c r="P184" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q184">
+        <v>2</v>
+      </c>
+      <c r="R184">
+        <v>3</v>
+      </c>
+      <c r="S184">
+        <v>5</v>
+      </c>
+      <c r="T184">
+        <v>3.4</v>
+      </c>
+      <c r="U184">
+        <v>2.1</v>
+      </c>
+      <c r="V184">
+        <v>3.2</v>
+      </c>
+      <c r="W184">
+        <v>1.38</v>
+      </c>
+      <c r="X184">
+        <v>2.95</v>
+      </c>
+      <c r="Y184">
+        <v>2.88</v>
+      </c>
+      <c r="Z184">
+        <v>1.36</v>
+      </c>
+      <c r="AA184">
+        <v>7.5</v>
+      </c>
+      <c r="AB184">
+        <v>1.06</v>
+      </c>
+      <c r="AC184">
+        <v>2.5</v>
+      </c>
+      <c r="AD184">
+        <v>3.2</v>
+      </c>
+      <c r="AE184">
+        <v>2.61</v>
+      </c>
+      <c r="AF184">
+        <v>1.04</v>
+      </c>
+      <c r="AG184">
+        <v>9.5</v>
+      </c>
+      <c r="AH184">
+        <v>1.29</v>
+      </c>
+      <c r="AI184">
+        <v>3.25</v>
+      </c>
+      <c r="AJ184">
+        <v>1.9</v>
+      </c>
+      <c r="AK184">
+        <v>1.8</v>
+      </c>
+      <c r="AL184">
+        <v>1.73</v>
+      </c>
+      <c r="AM184">
+        <v>2.05</v>
+      </c>
+      <c r="AN184">
+        <v>1.45</v>
+      </c>
+      <c r="AO184">
+        <v>1.28</v>
+      </c>
+      <c r="AP184">
+        <v>1.38</v>
+      </c>
+      <c r="AQ184">
+        <v>1.56</v>
+      </c>
+      <c r="AR184">
+        <v>0.89</v>
+      </c>
+      <c r="AS184">
+        <v>1.5</v>
+      </c>
+      <c r="AT184">
+        <v>0.9</v>
+      </c>
+      <c r="AU184">
+        <v>2.14</v>
+      </c>
+      <c r="AV184">
+        <v>1.39</v>
+      </c>
+      <c r="AW184">
+        <v>3.53</v>
+      </c>
+      <c r="AX184">
+        <v>0</v>
+      </c>
+      <c r="AY184">
+        <v>0</v>
+      </c>
+      <c r="AZ184">
+        <v>0</v>
+      </c>
+      <c r="BA184">
+        <v>0</v>
+      </c>
+      <c r="BB184">
+        <v>0</v>
+      </c>
+      <c r="BC184">
+        <v>0</v>
+      </c>
+      <c r="BD184">
+        <v>0</v>
+      </c>
+      <c r="BE184">
+        <v>0</v>
+      </c>
+      <c r="BF184">
+        <v>3</v>
+      </c>
+      <c r="BG184">
+        <v>4</v>
+      </c>
+      <c r="BH184">
+        <v>4</v>
+      </c>
+      <c r="BI184">
+        <v>3</v>
+      </c>
+      <c r="BJ184">
+        <v>7</v>
+      </c>
+      <c r="BK184">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="185" spans="1:63">
+      <c r="A185" s="1">
+        <v>184</v>
+      </c>
+      <c r="B185">
+        <v>6452756</v>
+      </c>
+      <c r="C185" t="s">
+        <v>63</v>
+      </c>
+      <c r="D185" t="s">
+        <v>64</v>
+      </c>
+      <c r="E185" s="2">
+        <v>45108.9375</v>
+      </c>
+      <c r="F185">
+        <v>2</v>
+      </c>
+      <c r="G185" t="s">
+        <v>73</v>
+      </c>
+      <c r="H185" t="s">
+        <v>81</v>
+      </c>
+      <c r="I185">
+        <v>0</v>
+      </c>
+      <c r="J185">
+        <v>0</v>
+      </c>
+      <c r="K185">
+        <v>0</v>
+      </c>
+      <c r="L185">
+        <v>0</v>
+      </c>
+      <c r="M185">
+        <v>1</v>
+      </c>
+      <c r="N185">
+        <v>1</v>
+      </c>
+      <c r="O185" t="s">
+        <v>84</v>
+      </c>
+      <c r="P185" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q185">
+        <v>2</v>
+      </c>
+      <c r="R185">
+        <v>3</v>
+      </c>
+      <c r="S185">
+        <v>5</v>
+      </c>
+      <c r="T185">
+        <v>5.6</v>
+      </c>
+      <c r="U185">
+        <v>2.19</v>
+      </c>
+      <c r="V185">
+        <v>2.14</v>
+      </c>
+      <c r="W185">
+        <v>1.36</v>
+      </c>
+      <c r="X185">
+        <v>2.88</v>
+      </c>
+      <c r="Y185">
+        <v>2.9</v>
+      </c>
+      <c r="Z185">
+        <v>1.38</v>
+      </c>
+      <c r="AA185">
+        <v>7</v>
+      </c>
+      <c r="AB185">
+        <v>1.07</v>
+      </c>
+      <c r="AC185">
+        <v>5.95</v>
+      </c>
+      <c r="AD185">
+        <v>4.7</v>
+      </c>
+      <c r="AE185">
+        <v>1.4</v>
+      </c>
+      <c r="AF185">
+        <v>1.05</v>
+      </c>
+      <c r="AG185">
+        <v>11.5</v>
+      </c>
+      <c r="AH185">
+        <v>1.29</v>
+      </c>
+      <c r="AI185">
+        <v>3.28</v>
+      </c>
+      <c r="AJ185">
+        <v>1.9</v>
+      </c>
+      <c r="AK185">
+        <v>1.8</v>
+      </c>
+      <c r="AL185">
+        <v>1.95</v>
+      </c>
+      <c r="AM185">
+        <v>1.75</v>
+      </c>
+      <c r="AN185">
+        <v>2.3</v>
+      </c>
+      <c r="AO185">
+        <v>1.2</v>
+      </c>
+      <c r="AP185">
+        <v>1.14</v>
+      </c>
+      <c r="AQ185">
+        <v>1.44</v>
+      </c>
+      <c r="AR185">
+        <v>1.67</v>
+      </c>
+      <c r="AS185">
+        <v>1.3</v>
+      </c>
+      <c r="AT185">
+        <v>1.8</v>
+      </c>
+      <c r="AU185">
+        <v>1.55</v>
+      </c>
+      <c r="AV185">
+        <v>1.1</v>
+      </c>
+      <c r="AW185">
+        <v>2.65</v>
+      </c>
+      <c r="AX185">
+        <v>0</v>
+      </c>
+      <c r="AY185">
+        <v>0</v>
+      </c>
+      <c r="AZ185">
+        <v>0</v>
+      </c>
+      <c r="BA185">
+        <v>0</v>
+      </c>
+      <c r="BB185">
+        <v>0</v>
+      </c>
+      <c r="BC185">
+        <v>0</v>
+      </c>
+      <c r="BD185">
+        <v>0</v>
+      </c>
+      <c r="BE185">
+        <v>0</v>
+      </c>
+      <c r="BF185">
+        <v>2</v>
+      </c>
+      <c r="BG185">
+        <v>3</v>
+      </c>
+      <c r="BH185">
+        <v>5</v>
+      </c>
+      <c r="BI185">
+        <v>4</v>
+      </c>
+      <c r="BJ185">
+        <v>7</v>
+      </c>
+      <c r="BK185">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="186" spans="1:63">
+      <c r="A186" s="1">
+        <v>185</v>
+      </c>
+      <c r="B186">
+        <v>6452757</v>
+      </c>
+      <c r="C186" t="s">
+        <v>63</v>
+      </c>
+      <c r="D186" t="s">
+        <v>64</v>
+      </c>
+      <c r="E186" s="2">
+        <v>45109.625</v>
+      </c>
+      <c r="F186">
+        <v>2</v>
+      </c>
+      <c r="G186" t="s">
+        <v>70</v>
+      </c>
+      <c r="H186" t="s">
+        <v>79</v>
+      </c>
+      <c r="I186">
+        <v>2</v>
+      </c>
+      <c r="J186">
+        <v>0</v>
+      </c>
+      <c r="K186">
+        <v>2</v>
+      </c>
+      <c r="L186">
+        <v>3</v>
+      </c>
+      <c r="M186">
+        <v>0</v>
+      </c>
+      <c r="N186">
+        <v>3</v>
+      </c>
+      <c r="O186" t="s">
+        <v>225</v>
+      </c>
+      <c r="P186" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q186">
+        <v>3</v>
+      </c>
+      <c r="R186">
+        <v>5</v>
+      </c>
+      <c r="S186">
+        <v>8</v>
+      </c>
+      <c r="T186">
+        <v>1.73</v>
+      </c>
+      <c r="U186">
+        <v>2.5</v>
+      </c>
+      <c r="V186">
+        <v>9.5</v>
+      </c>
+      <c r="W186">
+        <v>1.3</v>
+      </c>
+      <c r="X186">
+        <v>3.2</v>
+      </c>
+      <c r="Y186">
+        <v>2.55</v>
+      </c>
+      <c r="Z186">
+        <v>1.49</v>
+      </c>
+      <c r="AA186">
+        <v>6</v>
+      </c>
+      <c r="AB186">
+        <v>1.1</v>
+      </c>
+      <c r="AC186">
+        <v>1.31</v>
+      </c>
+      <c r="AD186">
+        <v>4.8</v>
+      </c>
+      <c r="AE186">
+        <v>7.9</v>
+      </c>
+      <c r="AF186">
+        <v>0</v>
+      </c>
+      <c r="AG186">
+        <v>0</v>
+      </c>
+      <c r="AH186">
+        <v>0</v>
+      </c>
+      <c r="AI186">
+        <v>0</v>
+      </c>
+      <c r="AJ186">
+        <v>1.64</v>
+      </c>
+      <c r="AK186">
+        <v>2.05</v>
+      </c>
+      <c r="AL186">
+        <v>2.1</v>
+      </c>
+      <c r="AM186">
+        <v>1.7</v>
+      </c>
+      <c r="AN186">
+        <v>1.06</v>
+      </c>
+      <c r="AO186">
+        <v>1.12</v>
+      </c>
+      <c r="AP186">
+        <v>2.7</v>
+      </c>
+      <c r="AQ186">
+        <v>2.33</v>
+      </c>
+      <c r="AR186">
+        <v>0.44</v>
+      </c>
+      <c r="AS186">
+        <v>2.4</v>
+      </c>
+      <c r="AT186">
+        <v>0.4</v>
+      </c>
+      <c r="AU186">
+        <v>1.61</v>
+      </c>
+      <c r="AV186">
+        <v>1.15</v>
+      </c>
+      <c r="AW186">
+        <v>2.76</v>
+      </c>
+      <c r="AX186">
+        <v>0</v>
+      </c>
+      <c r="AY186">
+        <v>0</v>
+      </c>
+      <c r="AZ186">
+        <v>0</v>
+      </c>
+      <c r="BA186">
+        <v>0</v>
+      </c>
+      <c r="BB186">
+        <v>0</v>
+      </c>
+      <c r="BC186">
+        <v>0</v>
+      </c>
+      <c r="BD186">
+        <v>0</v>
+      </c>
+      <c r="BE186">
+        <v>0</v>
+      </c>
+      <c r="BF186">
+        <v>6</v>
+      </c>
+      <c r="BG186">
+        <v>2</v>
+      </c>
+      <c r="BH186">
+        <v>9</v>
+      </c>
+      <c r="BI186">
+        <v>3</v>
+      </c>
+      <c r="BJ186">
+        <v>15</v>
+      </c>
+      <c r="BK186">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="187" spans="1:63">
+      <c r="A187" s="1">
+        <v>186</v>
+      </c>
+      <c r="B187">
+        <v>6452758</v>
+      </c>
+      <c r="C187" t="s">
+        <v>63</v>
+      </c>
+      <c r="D187" t="s">
+        <v>64</v>
+      </c>
+      <c r="E187" s="2">
+        <v>45109.72916666666</v>
+      </c>
+      <c r="F187">
+        <v>2</v>
+      </c>
+      <c r="G187" t="s">
+        <v>66</v>
+      </c>
+      <c r="H187" t="s">
+        <v>80</v>
+      </c>
+      <c r="I187">
+        <v>0</v>
+      </c>
+      <c r="J187">
+        <v>0</v>
+      </c>
+      <c r="K187">
+        <v>0</v>
+      </c>
+      <c r="L187">
+        <v>0</v>
+      </c>
+      <c r="M187">
+        <v>2</v>
+      </c>
+      <c r="N187">
+        <v>2</v>
+      </c>
+      <c r="O187" t="s">
+        <v>84</v>
+      </c>
+      <c r="P187" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q187">
+        <v>4</v>
+      </c>
+      <c r="R187">
+        <v>1</v>
+      </c>
+      <c r="S187">
+        <v>5</v>
+      </c>
+      <c r="T187">
+        <v>1.93</v>
+      </c>
+      <c r="U187">
+        <v>2.43</v>
+      </c>
+      <c r="V187">
+        <v>6</v>
+      </c>
+      <c r="W187">
+        <v>1.3</v>
+      </c>
+      <c r="X187">
+        <v>3.3</v>
+      </c>
+      <c r="Y187">
+        <v>2.65</v>
+      </c>
+      <c r="Z187">
+        <v>1.45</v>
+      </c>
+      <c r="AA187">
+        <v>6.75</v>
+      </c>
+      <c r="AB187">
+        <v>1.09</v>
+      </c>
+      <c r="AC187">
+        <v>1.5</v>
+      </c>
+      <c r="AD187">
+        <v>3.95</v>
+      </c>
+      <c r="AE187">
+        <v>5.55</v>
+      </c>
+      <c r="AF187">
+        <v>1.01</v>
+      </c>
+      <c r="AG187">
+        <v>12.5</v>
+      </c>
+      <c r="AH187">
+        <v>1.23</v>
+      </c>
+      <c r="AI187">
+        <v>3.95</v>
+      </c>
+      <c r="AJ187">
+        <v>1.71</v>
+      </c>
+      <c r="AK187">
+        <v>1.94</v>
+      </c>
+      <c r="AL187">
+        <v>1.85</v>
+      </c>
+      <c r="AM187">
+        <v>1.91</v>
+      </c>
+      <c r="AN187">
+        <v>1.11</v>
+      </c>
+      <c r="AO187">
+        <v>1.18</v>
+      </c>
+      <c r="AP187">
+        <v>2.2</v>
+      </c>
+      <c r="AQ187">
+        <v>2</v>
+      </c>
+      <c r="AR187">
+        <v>1.33</v>
+      </c>
+      <c r="AS187">
+        <v>1.8</v>
+      </c>
+      <c r="AT187">
+        <v>1.5</v>
+      </c>
+      <c r="AU187">
+        <v>1.87</v>
+      </c>
+      <c r="AV187">
+        <v>1.14</v>
+      </c>
+      <c r="AW187">
+        <v>3.01</v>
+      </c>
+      <c r="AX187">
+        <v>0</v>
+      </c>
+      <c r="AY187">
+        <v>0</v>
+      </c>
+      <c r="AZ187">
+        <v>0</v>
+      </c>
+      <c r="BA187">
+        <v>0</v>
+      </c>
+      <c r="BB187">
+        <v>0</v>
+      </c>
+      <c r="BC187">
+        <v>0</v>
+      </c>
+      <c r="BD187">
+        <v>0</v>
+      </c>
+      <c r="BE187">
+        <v>0</v>
+      </c>
+      <c r="BF187">
+        <v>3</v>
+      </c>
+      <c r="BG187">
+        <v>4</v>
+      </c>
+      <c r="BH187">
+        <v>4</v>
+      </c>
+      <c r="BI187">
+        <v>5</v>
+      </c>
+      <c r="BJ187">
+        <v>7</v>
+      </c>
+      <c r="BK187">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="188" spans="1:63">
+      <c r="A188" s="1">
+        <v>187</v>
+      </c>
+      <c r="B188">
+        <v>6452759</v>
+      </c>
+      <c r="C188" t="s">
+        <v>63</v>
+      </c>
+      <c r="D188" t="s">
+        <v>64</v>
+      </c>
+      <c r="E188" s="2">
+        <v>45110.83333333334</v>
+      </c>
+      <c r="F188">
+        <v>2</v>
+      </c>
+      <c r="G188" t="s">
+        <v>72</v>
+      </c>
+      <c r="H188" t="s">
+        <v>74</v>
+      </c>
+      <c r="I188">
+        <v>0</v>
+      </c>
+      <c r="J188">
+        <v>1</v>
+      </c>
+      <c r="K188">
+        <v>1</v>
+      </c>
+      <c r="L188">
+        <v>0</v>
+      </c>
+      <c r="M188">
+        <v>3</v>
+      </c>
+      <c r="N188">
+        <v>3</v>
+      </c>
+      <c r="O188" t="s">
+        <v>84</v>
+      </c>
+      <c r="P188" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q188">
+        <v>5</v>
+      </c>
+      <c r="R188">
+        <v>5</v>
+      </c>
+      <c r="S188">
+        <v>10</v>
+      </c>
+      <c r="T188">
+        <v>2.4</v>
+      </c>
+      <c r="U188">
+        <v>2.2</v>
+      </c>
+      <c r="V188">
+        <v>4.2</v>
+      </c>
+      <c r="W188">
+        <v>1.35</v>
+      </c>
+      <c r="X188">
+        <v>2.95</v>
+      </c>
+      <c r="Y188">
+        <v>2.7</v>
+      </c>
+      <c r="Z188">
+        <v>1.44</v>
+      </c>
+      <c r="AA188">
+        <v>5.75</v>
+      </c>
+      <c r="AB188">
+        <v>1.1</v>
+      </c>
+      <c r="AC188">
+        <v>1.87</v>
+      </c>
+      <c r="AD188">
+        <v>3.35</v>
+      </c>
+      <c r="AE188">
+        <v>3.05</v>
+      </c>
+      <c r="AF188">
+        <v>1.04</v>
+      </c>
+      <c r="AG188">
+        <v>12.75</v>
+      </c>
+      <c r="AH188">
+        <v>1.24</v>
+      </c>
+      <c r="AI188">
+        <v>3.7</v>
+      </c>
+      <c r="AJ188">
+        <v>1.77</v>
+      </c>
+      <c r="AK188">
+        <v>1.98</v>
+      </c>
+      <c r="AL188">
+        <v>1.68</v>
+      </c>
+      <c r="AM188">
+        <v>2.05</v>
+      </c>
+      <c r="AN188">
+        <v>1.23</v>
+      </c>
+      <c r="AO188">
+        <v>1.25</v>
+      </c>
+      <c r="AP188">
+        <v>1.85</v>
+      </c>
+      <c r="AQ188">
+        <v>2.22</v>
+      </c>
+      <c r="AR188">
+        <v>0.67</v>
+      </c>
+      <c r="AS188">
+        <v>2</v>
+      </c>
+      <c r="AT188">
+        <v>0.9</v>
+      </c>
+      <c r="AU188">
+        <v>1.75</v>
+      </c>
+      <c r="AV188">
+        <v>1.17</v>
+      </c>
+      <c r="AW188">
+        <v>2.92</v>
+      </c>
+      <c r="AX188">
+        <v>0</v>
+      </c>
+      <c r="AY188">
+        <v>0</v>
+      </c>
+      <c r="AZ188">
+        <v>0</v>
+      </c>
+      <c r="BA188">
+        <v>0</v>
+      </c>
+      <c r="BB188">
+        <v>0</v>
+      </c>
+      <c r="BC188">
+        <v>0</v>
+      </c>
+      <c r="BD188">
+        <v>0</v>
+      </c>
+      <c r="BE188">
+        <v>0</v>
+      </c>
+      <c r="BF188">
+        <v>2</v>
+      </c>
+      <c r="BG188">
+        <v>6</v>
+      </c>
+      <c r="BH188">
+        <v>5</v>
+      </c>
+      <c r="BI188">
+        <v>3</v>
+      </c>
+      <c r="BJ188">
+        <v>7</v>
+      </c>
+      <c r="BK188">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="189" spans="1:63">
+      <c r="A189" s="1">
+        <v>188</v>
+      </c>
+      <c r="B189">
+        <v>6452760</v>
+      </c>
+      <c r="C189" t="s">
+        <v>63</v>
+      </c>
+      <c r="D189" t="s">
+        <v>64</v>
+      </c>
+      <c r="E189" s="2">
+        <v>45110.9375</v>
+      </c>
+      <c r="F189">
+        <v>2</v>
+      </c>
+      <c r="G189" t="s">
+        <v>68</v>
+      </c>
+      <c r="H189" t="s">
+        <v>78</v>
+      </c>
+      <c r="I189">
+        <v>2</v>
+      </c>
+      <c r="J189">
+        <v>0</v>
+      </c>
+      <c r="K189">
+        <v>2</v>
+      </c>
+      <c r="L189">
+        <v>2</v>
+      </c>
+      <c r="M189">
+        <v>0</v>
+      </c>
+      <c r="N189">
+        <v>2</v>
+      </c>
+      <c r="O189" t="s">
+        <v>226</v>
+      </c>
+      <c r="P189" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q189">
+        <v>5</v>
+      </c>
+      <c r="R189">
+        <v>2</v>
+      </c>
+      <c r="S189">
+        <v>7</v>
+      </c>
+      <c r="T189">
+        <v>1.8</v>
+      </c>
+      <c r="U189">
+        <v>2.5</v>
+      </c>
+      <c r="V189">
+        <v>8.5</v>
+      </c>
+      <c r="W189">
+        <v>1.33</v>
+      </c>
+      <c r="X189">
+        <v>3.25</v>
+      </c>
+      <c r="Y189">
+        <v>2.5</v>
+      </c>
+      <c r="Z189">
+        <v>1.5</v>
+      </c>
+      <c r="AA189">
+        <v>6</v>
+      </c>
+      <c r="AB189">
+        <v>1.13</v>
+      </c>
+      <c r="AC189">
+        <v>1.26</v>
+      </c>
+      <c r="AD189">
+        <v>4.55</v>
+      </c>
+      <c r="AE189">
+        <v>5.99</v>
+      </c>
+      <c r="AF189">
+        <v>0</v>
+      </c>
+      <c r="AG189">
+        <v>0</v>
+      </c>
+      <c r="AH189">
+        <v>0</v>
+      </c>
+      <c r="AI189">
+        <v>0</v>
+      </c>
+      <c r="AJ189">
+        <v>1.76</v>
+      </c>
+      <c r="AK189">
+        <v>1.99</v>
+      </c>
+      <c r="AL189">
+        <v>2.2</v>
+      </c>
+      <c r="AM189">
+        <v>1.62</v>
+      </c>
+      <c r="AN189">
+        <v>0</v>
+      </c>
+      <c r="AO189">
+        <v>0</v>
+      </c>
+      <c r="AP189">
+        <v>0</v>
+      </c>
+      <c r="AQ189">
+        <v>2.67</v>
+      </c>
+      <c r="AR189">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AS189">
+        <v>2.7</v>
+      </c>
+      <c r="AT189">
+        <v>0.5</v>
+      </c>
+      <c r="AU189">
+        <v>1.87</v>
+      </c>
+      <c r="AV189">
+        <v>1.41</v>
+      </c>
+      <c r="AW189">
+        <v>3.28</v>
+      </c>
+      <c r="AX189">
+        <v>0</v>
+      </c>
+      <c r="AY189">
+        <v>0</v>
+      </c>
+      <c r="AZ189">
+        <v>0</v>
+      </c>
+      <c r="BA189">
+        <v>0</v>
+      </c>
+      <c r="BB189">
+        <v>0</v>
+      </c>
+      <c r="BC189">
+        <v>0</v>
+      </c>
+      <c r="BD189">
+        <v>0</v>
+      </c>
+      <c r="BE189">
+        <v>0</v>
+      </c>
+      <c r="BF189">
+        <v>8</v>
+      </c>
+      <c r="BG189">
+        <v>3</v>
+      </c>
+      <c r="BH189">
+        <v>6</v>
+      </c>
+      <c r="BI189">
+        <v>3</v>
+      </c>
+      <c r="BJ189">
+        <v>14</v>
+      </c>
+      <c r="BK189">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Peru Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Peru Primera División_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1191" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="301">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1278,7 +1278,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK189"/>
+  <dimension ref="A1:BK190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2185,7 +2185,7 @@
         <v>2.7</v>
       </c>
       <c r="AT5">
-        <v>0.11</v>
+        <v>0.4</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2755,7 +2755,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT8">
         <v>0.4</v>
@@ -5620,7 +5620,7 @@
         <v>3</v>
       </c>
       <c r="AS23">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT23">
         <v>1.5</v>
@@ -6578,7 +6578,7 @@
         <v>1.7</v>
       </c>
       <c r="AT28">
-        <v>0.11</v>
+        <v>0.4</v>
       </c>
       <c r="AU28">
         <v>0</v>
@@ -7912,7 +7912,7 @@
         <v>0</v>
       </c>
       <c r="AS35">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT35">
         <v>0.2</v>
@@ -8106,7 +8106,7 @@
         <v>1.9</v>
       </c>
       <c r="AT36">
-        <v>0.11</v>
+        <v>0.4</v>
       </c>
       <c r="AU36">
         <v>2.39</v>
@@ -10777,7 +10777,7 @@
         <v>3</v>
       </c>
       <c r="AS50">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT50">
         <v>1.4</v>
@@ -10971,7 +10971,7 @@
         <v>1.8</v>
       </c>
       <c r="AT51">
-        <v>0.11</v>
+        <v>0.4</v>
       </c>
       <c r="AU51">
         <v>1.72</v>
@@ -12690,7 +12690,7 @@
         <v>2.4</v>
       </c>
       <c r="AT60">
-        <v>0.11</v>
+        <v>0.4</v>
       </c>
       <c r="AU60">
         <v>1.12</v>
@@ -13642,7 +13642,7 @@
         <v>0.5</v>
       </c>
       <c r="AS65">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT65">
         <v>0.5</v>
@@ -16125,7 +16125,7 @@
         <v>1.33</v>
       </c>
       <c r="AS78">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT78">
         <v>1.4</v>
@@ -18229,7 +18229,7 @@
         <v>3</v>
       </c>
       <c r="AT89">
-        <v>0.11</v>
+        <v>0.4</v>
       </c>
       <c r="AU89">
         <v>1.6</v>
@@ -21473,7 +21473,7 @@
         <v>1.4</v>
       </c>
       <c r="AS106">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT106">
         <v>1.1</v>
@@ -21858,7 +21858,7 @@
         <v>2</v>
       </c>
       <c r="AT108">
-        <v>0.11</v>
+        <v>0.4</v>
       </c>
       <c r="AU108">
         <v>1.22</v>
@@ -27588,7 +27588,7 @@
         <v>1.7</v>
       </c>
       <c r="AT138">
-        <v>0.11</v>
+        <v>0.4</v>
       </c>
       <c r="AU138">
         <v>1.79</v>
@@ -28540,7 +28540,7 @@
         <v>0.71</v>
       </c>
       <c r="AS143">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT143">
         <v>0.5</v>
@@ -31981,7 +31981,7 @@
         <v>1.8</v>
       </c>
       <c r="AT161">
-        <v>0.11</v>
+        <v>0.4</v>
       </c>
       <c r="AU161">
         <v>1.88</v>
@@ -32169,7 +32169,7 @@
         <v>1.38</v>
       </c>
       <c r="AS162">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT162">
         <v>1.2</v>
@@ -37381,6 +37381,197 @@
       </c>
       <c r="BK189">
         <v>6</v>
+      </c>
+    </row>
+    <row r="190" spans="1:63">
+      <c r="A190" s="1">
+        <v>189</v>
+      </c>
+      <c r="B190">
+        <v>6452761</v>
+      </c>
+      <c r="C190" t="s">
+        <v>63</v>
+      </c>
+      <c r="D190" t="s">
+        <v>64</v>
+      </c>
+      <c r="E190" s="2">
+        <v>45111.72916666666</v>
+      </c>
+      <c r="F190">
+        <v>2</v>
+      </c>
+      <c r="G190" t="s">
+        <v>71</v>
+      </c>
+      <c r="H190" t="s">
+        <v>75</v>
+      </c>
+      <c r="I190">
+        <v>0</v>
+      </c>
+      <c r="J190">
+        <v>0</v>
+      </c>
+      <c r="K190">
+        <v>0</v>
+      </c>
+      <c r="L190">
+        <v>0</v>
+      </c>
+      <c r="M190">
+        <v>1</v>
+      </c>
+      <c r="N190">
+        <v>1</v>
+      </c>
+      <c r="O190" t="s">
+        <v>84</v>
+      </c>
+      <c r="P190" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q190">
+        <v>7</v>
+      </c>
+      <c r="R190">
+        <v>2</v>
+      </c>
+      <c r="S190">
+        <v>9</v>
+      </c>
+      <c r="T190">
+        <v>2.05</v>
+      </c>
+      <c r="U190">
+        <v>2.3</v>
+      </c>
+      <c r="V190">
+        <v>6</v>
+      </c>
+      <c r="W190">
+        <v>1.36</v>
+      </c>
+      <c r="X190">
+        <v>3</v>
+      </c>
+      <c r="Y190">
+        <v>2.63</v>
+      </c>
+      <c r="Z190">
+        <v>1.44</v>
+      </c>
+      <c r="AA190">
+        <v>7</v>
+      </c>
+      <c r="AB190">
+        <v>1.1</v>
+      </c>
+      <c r="AC190">
+        <v>1.47</v>
+      </c>
+      <c r="AD190">
+        <v>3.9</v>
+      </c>
+      <c r="AE190">
+        <v>5.5</v>
+      </c>
+      <c r="AF190">
+        <v>1.04</v>
+      </c>
+      <c r="AG190">
+        <v>10.5</v>
+      </c>
+      <c r="AH190">
+        <v>1.25</v>
+      </c>
+      <c r="AI190">
+        <v>3.5</v>
+      </c>
+      <c r="AJ190">
+        <v>1.75</v>
+      </c>
+      <c r="AK190">
+        <v>1.95</v>
+      </c>
+      <c r="AL190">
+        <v>1.91</v>
+      </c>
+      <c r="AM190">
+        <v>1.8</v>
+      </c>
+      <c r="AN190">
+        <v>1.14</v>
+      </c>
+      <c r="AO190">
+        <v>1.21</v>
+      </c>
+      <c r="AP190">
+        <v>2.4</v>
+      </c>
+      <c r="AQ190">
+        <v>1.44</v>
+      </c>
+      <c r="AR190">
+        <v>0.11</v>
+      </c>
+      <c r="AS190">
+        <v>1.3</v>
+      </c>
+      <c r="AT190">
+        <v>0.4</v>
+      </c>
+      <c r="AU190">
+        <v>1.43</v>
+      </c>
+      <c r="AV190">
+        <v>0.76</v>
+      </c>
+      <c r="AW190">
+        <v>2.19</v>
+      </c>
+      <c r="AX190">
+        <v>1.53</v>
+      </c>
+      <c r="AY190">
+        <v>9.5</v>
+      </c>
+      <c r="AZ190">
+        <v>2.98</v>
+      </c>
+      <c r="BA190">
+        <v>1.23</v>
+      </c>
+      <c r="BB190">
+        <v>1.45</v>
+      </c>
+      <c r="BC190">
+        <v>1.7</v>
+      </c>
+      <c r="BD190">
+        <v>2.27</v>
+      </c>
+      <c r="BE190">
+        <v>3.04</v>
+      </c>
+      <c r="BF190">
+        <v>6</v>
+      </c>
+      <c r="BG190">
+        <v>4</v>
+      </c>
+      <c r="BH190">
+        <v>1</v>
+      </c>
+      <c r="BI190">
+        <v>3</v>
+      </c>
+      <c r="BJ190">
+        <v>7</v>
+      </c>
+      <c r="BK190">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Peru Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Peru Primera División_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="309">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -217,10 +217,10 @@
     <t>Atlético Grau</t>
   </si>
   <si>
-    <t>UTC Cajamarca</t>
+    <t>Universitario</t>
   </si>
   <si>
-    <t>Universitario</t>
+    <t>UTC Cajamarca</t>
   </si>
   <si>
     <t>Deportivo Garcilaso</t>
@@ -697,6 +697,21 @@
     <t>['26', '41']</t>
   </si>
   <si>
+    <t>['49', '52', '86']</t>
+  </si>
+  <si>
+    <t>['90+4']</t>
+  </si>
+  <si>
+    <t>['50', '70']</t>
+  </si>
+  <si>
+    <t>['24']</t>
+  </si>
+  <si>
+    <t>['8', '25', '90+3']</t>
+  </si>
+  <si>
     <t>['81']</t>
   </si>
   <si>
@@ -817,9 +832,6 @@
     <t>['25', '51', '90+3']</t>
   </si>
   <si>
-    <t>['24']</t>
-  </si>
-  <si>
     <t>['16', '45+2', '59']</t>
   </si>
   <si>
@@ -833,9 +845,6 @@
   </si>
   <si>
     <t>['10', '17', '29', '39']</t>
-  </si>
-  <si>
-    <t>['90+4']</t>
   </si>
   <si>
     <t>['3', '18']</t>
@@ -917,6 +926,21 @@
   </si>
   <si>
     <t>['45', '66', '76']</t>
+  </si>
+  <si>
+    <t>['24', '40', '45+2', '71']</t>
+  </si>
+  <si>
+    <t>['43', '90+4']</t>
+  </si>
+  <si>
+    <t>['90+8']</t>
+  </si>
+  <si>
+    <t>['6', '45+4', '65', '69', '90+3']</t>
+  </si>
+  <si>
+    <t>['43']</t>
   </si>
 </sst>
 </file>
@@ -1278,7 +1302,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK190"/>
+  <dimension ref="A1:BK198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1862,7 +1886,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>5052965</v>
+        <v>5052969</v>
       </c>
       <c r="C4" t="s">
         <v>63</v>
@@ -1880,172 +1904,172 @@
         <v>67</v>
       </c>
       <c r="H4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P4" t="s">
         <v>84</v>
       </c>
       <c r="Q4">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="R4">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="S4">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="T4">
+        <v>2</v>
+      </c>
+      <c r="U4">
+        <v>2.38</v>
+      </c>
+      <c r="V4">
+        <v>6.5</v>
+      </c>
+      <c r="W4">
+        <v>1.35</v>
+      </c>
+      <c r="X4">
+        <v>2.95</v>
+      </c>
+      <c r="Y4">
+        <v>2.55</v>
+      </c>
+      <c r="Z4">
+        <v>1.44</v>
+      </c>
+      <c r="AA4">
+        <v>6.5</v>
+      </c>
+      <c r="AB4">
+        <v>1.1</v>
+      </c>
+      <c r="AC4">
+        <v>1.43</v>
+      </c>
+      <c r="AD4">
+        <v>4.47</v>
+      </c>
+      <c r="AE4">
+        <v>7.11</v>
+      </c>
+      <c r="AF4">
+        <v>1.03</v>
+      </c>
+      <c r="AG4">
+        <v>13</v>
+      </c>
+      <c r="AH4">
+        <v>1.25</v>
+      </c>
+      <c r="AI4">
+        <v>3.75</v>
+      </c>
+      <c r="AJ4">
+        <v>1.77</v>
+      </c>
+      <c r="AK4">
+        <v>1.97</v>
+      </c>
+      <c r="AL4">
+        <v>1.93</v>
+      </c>
+      <c r="AM4">
+        <v>1.77</v>
+      </c>
+      <c r="AN4">
+        <v>1.11</v>
+      </c>
+      <c r="AO4">
+        <v>1.21</v>
+      </c>
+      <c r="AP4">
+        <v>2.6</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
         <v>2.7</v>
       </c>
-      <c r="U4">
-        <v>2.2</v>
-      </c>
-      <c r="V4">
-        <v>3.7</v>
-      </c>
-      <c r="W4">
-        <v>1.32</v>
-      </c>
-      <c r="X4">
-        <v>3.1</v>
-      </c>
-      <c r="Y4">
-        <v>2.45</v>
-      </c>
-      <c r="Z4">
-        <v>1.47</v>
-      </c>
-      <c r="AA4">
-        <v>6</v>
-      </c>
-      <c r="AB4">
-        <v>1.11</v>
-      </c>
-      <c r="AC4">
-        <v>2.36</v>
-      </c>
-      <c r="AD4">
-        <v>3.14</v>
-      </c>
-      <c r="AE4">
-        <v>2.87</v>
-      </c>
-      <c r="AF4">
-        <v>1.04</v>
-      </c>
-      <c r="AG4">
-        <v>11</v>
-      </c>
-      <c r="AH4">
-        <v>1.22</v>
-      </c>
-      <c r="AI4">
-        <v>4.2</v>
-      </c>
-      <c r="AJ4">
+      <c r="AT4">
+        <v>0.4</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>1.33</v>
+      </c>
+      <c r="AY4">
+        <v>9.5</v>
+      </c>
+      <c r="AZ4">
+        <v>4</v>
+      </c>
+      <c r="BA4">
+        <v>1.29</v>
+      </c>
+      <c r="BB4">
+        <v>1.48</v>
+      </c>
+      <c r="BC4">
         <v>1.85</v>
       </c>
-      <c r="AK4">
-        <v>1.96</v>
-      </c>
-      <c r="AL4">
-        <v>1.6</v>
-      </c>
-      <c r="AM4">
-        <v>2.15</v>
-      </c>
-      <c r="AN4">
-        <v>1.33</v>
-      </c>
-      <c r="AO4">
-        <v>1.25</v>
-      </c>
-      <c r="AP4">
-        <v>1.75</v>
-      </c>
-      <c r="AQ4">
-        <v>0</v>
-      </c>
-      <c r="AR4">
-        <v>0</v>
-      </c>
-      <c r="AS4">
-        <v>1.7</v>
-      </c>
-      <c r="AT4">
-        <v>0.9</v>
-      </c>
-      <c r="AU4">
-        <v>0</v>
-      </c>
-      <c r="AV4">
-        <v>0</v>
-      </c>
-      <c r="AW4">
-        <v>0</v>
-      </c>
-      <c r="AX4">
-        <v>0</v>
-      </c>
-      <c r="AY4">
-        <v>0</v>
-      </c>
-      <c r="AZ4">
-        <v>0</v>
-      </c>
-      <c r="BA4">
-        <v>0</v>
-      </c>
-      <c r="BB4">
-        <v>0</v>
-      </c>
-      <c r="BC4">
-        <v>0</v>
-      </c>
       <c r="BD4">
-        <v>0</v>
+        <v>2.37</v>
       </c>
       <c r="BE4">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="BF4">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BG4">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BH4">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BI4">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BJ4">
-        <v>-1</v>
+        <v>18</v>
       </c>
       <c r="BK4">
-        <v>-1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:63">
@@ -2053,7 +2077,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>5052969</v>
+        <v>5052965</v>
       </c>
       <c r="C5" t="s">
         <v>63</v>
@@ -2071,109 +2095,109 @@
         <v>68</v>
       </c>
       <c r="H5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P5" t="s">
         <v>84</v>
       </c>
       <c r="Q5">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="R5">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="S5">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="T5">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="U5">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="V5">
-        <v>6.5</v>
+        <v>3.7</v>
       </c>
       <c r="W5">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="X5">
-        <v>2.95</v>
+        <v>3.1</v>
       </c>
       <c r="Y5">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="Z5">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="AA5">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB5">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="AC5">
-        <v>1.43</v>
+        <v>2.36</v>
       </c>
       <c r="AD5">
-        <v>4.47</v>
+        <v>3.14</v>
       </c>
       <c r="AE5">
-        <v>7.11</v>
+        <v>2.87</v>
       </c>
       <c r="AF5">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="AG5">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AH5">
+        <v>1.22</v>
+      </c>
+      <c r="AI5">
+        <v>4.2</v>
+      </c>
+      <c r="AJ5">
+        <v>1.85</v>
+      </c>
+      <c r="AK5">
+        <v>1.96</v>
+      </c>
+      <c r="AL5">
+        <v>1.6</v>
+      </c>
+      <c r="AM5">
+        <v>2.15</v>
+      </c>
+      <c r="AN5">
+        <v>1.33</v>
+      </c>
+      <c r="AO5">
         <v>1.25</v>
       </c>
-      <c r="AI5">
-        <v>3.75</v>
-      </c>
-      <c r="AJ5">
-        <v>1.77</v>
-      </c>
-      <c r="AK5">
-        <v>1.97</v>
-      </c>
-      <c r="AL5">
-        <v>1.93</v>
-      </c>
-      <c r="AM5">
-        <v>1.77</v>
-      </c>
-      <c r="AN5">
-        <v>1.11</v>
-      </c>
-      <c r="AO5">
-        <v>1.21</v>
-      </c>
       <c r="AP5">
-        <v>2.6</v>
+        <v>1.75</v>
       </c>
       <c r="AQ5">
         <v>0</v>
@@ -2182,10 +2206,10 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>2.7</v>
+        <v>1.7</v>
       </c>
       <c r="AT5">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2197,46 +2221,46 @@
         <v>0</v>
       </c>
       <c r="AX5">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>9.5</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BA5">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="BB5">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="BC5">
-        <v>1.85</v>
+        <v>0</v>
       </c>
       <c r="BD5">
-        <v>2.37</v>
+        <v>0</v>
       </c>
       <c r="BE5">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="BF5">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="BG5">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="BH5">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="BI5">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="BJ5">
-        <v>18</v>
+        <v>-1</v>
       </c>
       <c r="BK5">
-        <v>4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:63">
@@ -2668,7 +2692,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="Q8">
         <v>9</v>
@@ -2859,7 +2883,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -3328,10 +3352,10 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AT11">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3432,7 +3456,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="Q12">
         <v>2</v>
@@ -3519,10 +3543,10 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AT12">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3623,7 +3647,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="Q13">
         <v>6</v>
@@ -3710,10 +3734,10 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT13">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3814,7 +3838,7 @@
         <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="Q14">
         <v>7</v>
@@ -3904,7 +3928,7 @@
         <v>1.7</v>
       </c>
       <c r="AT14">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -3981,7 +4005,7 @@
         <v>78</v>
       </c>
       <c r="H15" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -4092,10 +4116,10 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT15">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4172,7 +4196,7 @@
         <v>79</v>
       </c>
       <c r="H16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -4283,10 +4307,10 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT16">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4477,7 +4501,7 @@
         <v>1.5</v>
       </c>
       <c r="AT17">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4665,10 +4689,10 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>3</v>
+        <v>2.82</v>
       </c>
       <c r="AT18">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -4769,7 +4793,7 @@
         <v>84</v>
       </c>
       <c r="P19" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="Q19">
         <v>6</v>
@@ -4856,7 +4880,7 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT19">
         <v>1.4</v>
@@ -5342,7 +5366,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="Q22">
         <v>10</v>
@@ -5429,7 +5453,7 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT22">
         <v>0.9</v>
@@ -5888,7 +5912,7 @@
         <v>5</v>
       </c>
       <c r="G25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H25" t="s">
         <v>81</v>
@@ -5915,7 +5939,7 @@
         <v>101</v>
       </c>
       <c r="P25" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="Q25">
         <v>6</v>
@@ -6106,7 +6130,7 @@
         <v>102</v>
       </c>
       <c r="P26" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="Q26">
         <v>1</v>
@@ -6461,7 +6485,7 @@
         <v>5</v>
       </c>
       <c r="G28" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H28" t="s">
         <v>75</v>
@@ -6679,7 +6703,7 @@
         <v>105</v>
       </c>
       <c r="P29" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="Q29">
         <v>10</v>
@@ -6766,7 +6790,7 @@
         <v>3</v>
       </c>
       <c r="AS29">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT29">
         <v>1.2</v>
@@ -6960,7 +6984,7 @@
         <v>1.5</v>
       </c>
       <c r="AT30">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU30">
         <v>0</v>
@@ -7037,7 +7061,7 @@
         <v>79</v>
       </c>
       <c r="H31" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -7148,10 +7172,10 @@
         <v>0</v>
       </c>
       <c r="AS31">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT31">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AU31">
         <v>0.86</v>
@@ -7419,7 +7443,7 @@
         <v>80</v>
       </c>
       <c r="H33" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -7533,7 +7557,7 @@
         <v>1.5</v>
       </c>
       <c r="AT33">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU33">
         <v>0.97</v>
@@ -7634,7 +7658,7 @@
         <v>110</v>
       </c>
       <c r="P34" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="Q34">
         <v>2</v>
@@ -7721,10 +7745,10 @@
         <v>0</v>
       </c>
       <c r="AS34">
+        <v>0.73</v>
+      </c>
+      <c r="AT34">
         <v>0.8</v>
-      </c>
-      <c r="AT34">
-        <v>0.89</v>
       </c>
       <c r="AU34">
         <v>0.83</v>
@@ -7825,7 +7849,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="Q35">
         <v>8</v>
@@ -8103,7 +8127,7 @@
         <v>0</v>
       </c>
       <c r="AS36">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT36">
         <v>0.4</v>
@@ -8562,7 +8586,7 @@
         <v>7</v>
       </c>
       <c r="G39" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H39" t="s">
         <v>81</v>
@@ -8589,7 +8613,7 @@
         <v>84</v>
       </c>
       <c r="P39" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="Q39">
         <v>5</v>
@@ -8753,7 +8777,7 @@
         <v>7</v>
       </c>
       <c r="G40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H40" t="s">
         <v>82</v>
@@ -8971,7 +8995,7 @@
         <v>84</v>
       </c>
       <c r="P41" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="Q41">
         <v>8</v>
@@ -9061,7 +9085,7 @@
         <v>1.3</v>
       </c>
       <c r="AT41">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU41">
         <v>1.47</v>
@@ -9162,7 +9186,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="Q42">
         <v>11</v>
@@ -9443,7 +9467,7 @@
         <v>1.7</v>
       </c>
       <c r="AT43">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU43">
         <v>2.18</v>
@@ -9631,10 +9655,10 @@
         <v>1.5</v>
       </c>
       <c r="AS44">
-        <v>3</v>
+        <v>2.82</v>
       </c>
       <c r="AT44">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU44">
         <v>1.74</v>
@@ -9822,7 +9846,7 @@
         <v>1.5</v>
       </c>
       <c r="AS45">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT45">
         <v>1.2</v>
@@ -10204,7 +10228,7 @@
         <v>1.5</v>
       </c>
       <c r="AS47">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AT47">
         <v>0.9</v>
@@ -10308,7 +10332,7 @@
         <v>121</v>
       </c>
       <c r="P48" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="Q48">
         <v>7</v>
@@ -10398,7 +10422,7 @@
         <v>1.5</v>
       </c>
       <c r="AT48">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AU48">
         <v>1.61</v>
@@ -10475,7 +10499,7 @@
         <v>76</v>
       </c>
       <c r="H49" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I49">
         <v>1</v>
@@ -10499,7 +10523,7 @@
         <v>122</v>
       </c>
       <c r="P49" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -10586,10 +10610,10 @@
         <v>0</v>
       </c>
       <c r="AS49">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT49">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU49">
         <v>1.41</v>
@@ -10690,7 +10714,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="Q50">
         <v>3</v>
@@ -10780,7 +10804,7 @@
         <v>1.3</v>
       </c>
       <c r="AT50">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU50">
         <v>1.67</v>
@@ -10968,7 +10992,7 @@
         <v>0</v>
       </c>
       <c r="AS51">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT51">
         <v>0.4</v>
@@ -11045,7 +11069,7 @@
         <v>9</v>
       </c>
       <c r="G52" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H52" t="s">
         <v>82</v>
@@ -11263,7 +11287,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -11350,7 +11374,7 @@
         <v>0</v>
       </c>
       <c r="AS53">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AT53">
         <v>0.4</v>
@@ -11427,7 +11451,7 @@
         <v>9</v>
       </c>
       <c r="G54" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H54" t="s">
         <v>77</v>
@@ -11454,7 +11478,7 @@
         <v>126</v>
       </c>
       <c r="P54" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -11926,7 +11950,7 @@
         <v>2.4</v>
       </c>
       <c r="AT56">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU56">
         <v>1.15</v>
@@ -12027,7 +12051,7 @@
         <v>129</v>
       </c>
       <c r="P57" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12114,7 +12138,7 @@
         <v>2</v>
       </c>
       <c r="AS57">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT57">
         <v>1.8</v>
@@ -12382,7 +12406,7 @@
         <v>1</v>
       </c>
       <c r="G59" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H59" t="s">
         <v>74</v>
@@ -12791,7 +12815,7 @@
         <v>84</v>
       </c>
       <c r="P61" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="Q61">
         <v>10</v>
@@ -13173,7 +13197,7 @@
         <v>134</v>
       </c>
       <c r="P63" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="Q63">
         <v>3</v>
@@ -13555,7 +13579,7 @@
         <v>84</v>
       </c>
       <c r="P65" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="Q65">
         <v>4</v>
@@ -13746,7 +13770,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="Q66">
         <v>10</v>
@@ -13910,7 +13934,7 @@
         <v>1</v>
       </c>
       <c r="G67" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H67" t="s">
         <v>65</v>
@@ -14027,7 +14051,7 @@
         <v>1.7</v>
       </c>
       <c r="AT67">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU67">
         <v>1.37</v>
@@ -14218,7 +14242,7 @@
         <v>1.3</v>
       </c>
       <c r="AT68">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AU68">
         <v>1.59</v>
@@ -14409,7 +14433,7 @@
         <v>1.7</v>
       </c>
       <c r="AT69">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AU69">
         <v>1.78</v>
@@ -14486,7 +14510,7 @@
         <v>69</v>
       </c>
       <c r="H70" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I70">
         <v>0</v>
@@ -14600,7 +14624,7 @@
         <v>1.5</v>
       </c>
       <c r="AT70">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU70">
         <v>2.17</v>
@@ -14701,7 +14725,7 @@
         <v>138</v>
       </c>
       <c r="P71" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="Q71">
         <v>3</v>
@@ -14788,10 +14812,10 @@
         <v>1</v>
       </c>
       <c r="AS71">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT71">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU71">
         <v>1.27</v>
@@ -14979,7 +15003,7 @@
         <v>0.75</v>
       </c>
       <c r="AS72">
-        <v>3</v>
+        <v>2.82</v>
       </c>
       <c r="AT72">
         <v>0.9</v>
@@ -15083,7 +15107,7 @@
         <v>140</v>
       </c>
       <c r="P73" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="Q73">
         <v>5</v>
@@ -15170,7 +15194,7 @@
         <v>1.33</v>
       </c>
       <c r="AS73">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT73">
         <v>0.5</v>
@@ -15555,7 +15579,7 @@
         <v>1.8</v>
       </c>
       <c r="AT75">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU75">
         <v>1.45</v>
@@ -15632,7 +15656,7 @@
         <v>76</v>
       </c>
       <c r="H76" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I76">
         <v>0</v>
@@ -15656,7 +15680,7 @@
         <v>142</v>
       </c>
       <c r="P76" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="Q76">
         <v>7</v>
@@ -15743,10 +15767,10 @@
         <v>0</v>
       </c>
       <c r="AS76">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT76">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AU76">
         <v>1.38</v>
@@ -16038,7 +16062,7 @@
         <v>84</v>
       </c>
       <c r="P78" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="Q78">
         <v>5</v>
@@ -16202,7 +16226,7 @@
         <v>11</v>
       </c>
       <c r="G79" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H79" t="s">
         <v>77</v>
@@ -16507,7 +16531,7 @@
         <v>1.8</v>
       </c>
       <c r="AS80">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AT80">
         <v>1.5</v>
@@ -16611,7 +16635,7 @@
         <v>84</v>
       </c>
       <c r="P81" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="Q81">
         <v>4</v>
@@ -16698,7 +16722,7 @@
         <v>1.8</v>
       </c>
       <c r="AS81">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT81">
         <v>1.8</v>
@@ -16802,7 +16826,7 @@
         <v>146</v>
       </c>
       <c r="P82" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="Q82">
         <v>10</v>
@@ -16889,7 +16913,7 @@
         <v>0.4</v>
       </c>
       <c r="AS82">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT82">
         <v>0.9</v>
@@ -16966,7 +16990,7 @@
         <v>11</v>
       </c>
       <c r="G83" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H83" t="s">
         <v>66</v>
@@ -16993,7 +17017,7 @@
         <v>147</v>
       </c>
       <c r="P83" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="Q83">
         <v>6</v>
@@ -17083,7 +17107,7 @@
         <v>2.7</v>
       </c>
       <c r="AT83">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU83">
         <v>1.74</v>
@@ -17184,7 +17208,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="Q84">
         <v>10</v>
@@ -17271,7 +17295,7 @@
         <v>0</v>
       </c>
       <c r="AS84">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AT84">
         <v>0.4</v>
@@ -17465,7 +17489,7 @@
         <v>2</v>
       </c>
       <c r="AT85">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU85">
         <v>1.99</v>
@@ -17566,7 +17590,7 @@
         <v>150</v>
       </c>
       <c r="P86" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="Q86">
         <v>8</v>
@@ -17656,7 +17680,7 @@
         <v>2.4</v>
       </c>
       <c r="AT86">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU86">
         <v>1.29</v>
@@ -17844,7 +17868,7 @@
         <v>0.6</v>
       </c>
       <c r="AS87">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT87">
         <v>0.9</v>
@@ -17948,7 +17972,7 @@
         <v>152</v>
       </c>
       <c r="P88" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="Q88">
         <v>11</v>
@@ -18038,7 +18062,7 @@
         <v>1.8</v>
       </c>
       <c r="AT88">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AU88">
         <v>1.62</v>
@@ -18226,7 +18250,7 @@
         <v>0</v>
       </c>
       <c r="AS89">
-        <v>3</v>
+        <v>2.82</v>
       </c>
       <c r="AT89">
         <v>0.4</v>
@@ -18306,7 +18330,7 @@
         <v>69</v>
       </c>
       <c r="H90" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I90">
         <v>1</v>
@@ -18330,7 +18354,7 @@
         <v>154</v>
       </c>
       <c r="P90" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="Q90">
         <v>19</v>
@@ -18420,7 +18444,7 @@
         <v>1.5</v>
       </c>
       <c r="AT90">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AU90">
         <v>2.05</v>
@@ -18521,7 +18545,7 @@
         <v>84</v>
       </c>
       <c r="P91" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="Q91">
         <v>5</v>
@@ -18611,7 +18635,7 @@
         <v>1.7</v>
       </c>
       <c r="AT91">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU91">
         <v>1.71</v>
@@ -18688,7 +18712,7 @@
         <v>73</v>
       </c>
       <c r="H92" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I92">
         <v>1</v>
@@ -18712,7 +18736,7 @@
         <v>155</v>
       </c>
       <c r="P92" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="Q92">
         <v>5</v>
@@ -18802,7 +18826,7 @@
         <v>1.3</v>
       </c>
       <c r="AT92">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU92">
         <v>1.6</v>
@@ -18903,7 +18927,7 @@
         <v>156</v>
       </c>
       <c r="P93" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="Q93">
         <v>9</v>
@@ -18990,7 +19014,7 @@
         <v>1.4</v>
       </c>
       <c r="AS93">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT93">
         <v>1.2</v>
@@ -19258,7 +19282,7 @@
         <v>13</v>
       </c>
       <c r="G95" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H95" t="s">
         <v>66</v>
@@ -19375,7 +19399,7 @@
         <v>1.7</v>
       </c>
       <c r="AT95">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU95">
         <v>1.42</v>
@@ -19476,7 +19500,7 @@
         <v>84</v>
       </c>
       <c r="P96" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -19563,7 +19587,7 @@
         <v>1.5</v>
       </c>
       <c r="AS96">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AT96">
         <v>1.5</v>
@@ -19667,7 +19691,7 @@
         <v>159</v>
       </c>
       <c r="P97" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="Q97">
         <v>6</v>
@@ -19754,7 +19778,7 @@
         <v>0.5</v>
       </c>
       <c r="AS97">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT97">
         <v>0.7</v>
@@ -19945,7 +19969,7 @@
         <v>0.2</v>
       </c>
       <c r="AS98">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AT98">
         <v>0.2</v>
@@ -20049,7 +20073,7 @@
         <v>151</v>
       </c>
       <c r="P99" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="Q99">
         <v>5</v>
@@ -20136,7 +20160,7 @@
         <v>2</v>
       </c>
       <c r="AS99">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT99">
         <v>1.8</v>
@@ -20240,7 +20264,7 @@
         <v>161</v>
       </c>
       <c r="P100" t="s">
-        <v>267</v>
+        <v>230</v>
       </c>
       <c r="Q100">
         <v>6</v>
@@ -20330,7 +20354,7 @@
         <v>2.7</v>
       </c>
       <c r="AT100">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU100">
         <v>1.72</v>
@@ -20431,7 +20455,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q101">
         <v>6</v>
@@ -20518,7 +20542,7 @@
         <v>0.5</v>
       </c>
       <c r="AS101">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT101">
         <v>0.9</v>
@@ -20622,7 +20646,7 @@
         <v>163</v>
       </c>
       <c r="P102" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -20786,7 +20810,7 @@
         <v>13</v>
       </c>
       <c r="G103" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H103" t="s">
         <v>70</v>
@@ -20903,7 +20927,7 @@
         <v>2.7</v>
       </c>
       <c r="AT103">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AU103">
         <v>1.79</v>
@@ -21094,7 +21118,7 @@
         <v>2.4</v>
       </c>
       <c r="AT104">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AU104">
         <v>1.38</v>
@@ -21285,7 +21309,7 @@
         <v>1.8</v>
       </c>
       <c r="AT105">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU105">
         <v>1.79</v>
@@ -21362,7 +21386,7 @@
         <v>71</v>
       </c>
       <c r="H106" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I106">
         <v>0</v>
@@ -21386,7 +21410,7 @@
         <v>84</v>
       </c>
       <c r="P106" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q106">
         <v>1</v>
@@ -21476,7 +21500,7 @@
         <v>1.3</v>
       </c>
       <c r="AT106">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU106">
         <v>1.45</v>
@@ -21855,7 +21879,7 @@
         <v>0</v>
       </c>
       <c r="AS108">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT108">
         <v>0.4</v>
@@ -21959,7 +21983,7 @@
         <v>167</v>
       </c>
       <c r="P109" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Q109">
         <v>5</v>
@@ -22046,7 +22070,7 @@
         <v>1</v>
       </c>
       <c r="AS109">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT109">
         <v>0.5</v>
@@ -22126,7 +22150,7 @@
         <v>73</v>
       </c>
       <c r="H110" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I110">
         <v>0</v>
@@ -22240,7 +22264,7 @@
         <v>1.3</v>
       </c>
       <c r="AT110">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AU110">
         <v>1.64</v>
@@ -22341,7 +22365,7 @@
         <v>169</v>
       </c>
       <c r="P111" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Q111">
         <v>5</v>
@@ -22810,7 +22834,7 @@
         <v>0.33</v>
       </c>
       <c r="AS113">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AT113">
         <v>0.2</v>
@@ -23105,7 +23129,7 @@
         <v>173</v>
       </c>
       <c r="P115" t="s">
-        <v>273</v>
+        <v>228</v>
       </c>
       <c r="Q115">
         <v>6</v>
@@ -23192,7 +23216,7 @@
         <v>1</v>
       </c>
       <c r="AS115">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT115">
         <v>0.7</v>
@@ -23383,10 +23407,10 @@
         <v>0.8</v>
       </c>
       <c r="AS116">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT116">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU116">
         <v>2.04</v>
@@ -23574,10 +23598,10 @@
         <v>1.2</v>
       </c>
       <c r="AS117">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AT117">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU117">
         <v>1.26</v>
@@ -23651,7 +23675,7 @@
         <v>15</v>
       </c>
       <c r="G118" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H118" t="s">
         <v>70</v>
@@ -23678,7 +23702,7 @@
         <v>174</v>
       </c>
       <c r="P118" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="Q118">
         <v>7</v>
@@ -23768,7 +23792,7 @@
         <v>1.7</v>
       </c>
       <c r="AT118">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AU118">
         <v>1.5</v>
@@ -23959,7 +23983,7 @@
         <v>2</v>
       </c>
       <c r="AT119">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU119">
         <v>1.79</v>
@@ -24147,7 +24171,7 @@
         <v>1.71</v>
       </c>
       <c r="AS120">
-        <v>3</v>
+        <v>2.82</v>
       </c>
       <c r="AT120">
         <v>1.5</v>
@@ -24251,7 +24275,7 @@
         <v>177</v>
       </c>
       <c r="P121" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q121">
         <v>6</v>
@@ -24338,7 +24362,7 @@
         <v>0.57</v>
       </c>
       <c r="AS121">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT121">
         <v>0.9</v>
@@ -24442,7 +24466,7 @@
         <v>178</v>
       </c>
       <c r="P122" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q122">
         <v>7</v>
@@ -24529,7 +24553,7 @@
         <v>0.83</v>
       </c>
       <c r="AS122">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AT122">
         <v>0.5</v>
@@ -24720,10 +24744,10 @@
         <v>1.25</v>
       </c>
       <c r="AS123">
-        <v>3</v>
+        <v>2.82</v>
       </c>
       <c r="AT123">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AU123">
         <v>1.61</v>
@@ -24800,7 +24824,7 @@
         <v>83</v>
       </c>
       <c r="H124" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I124">
         <v>2</v>
@@ -24911,10 +24935,10 @@
         <v>0.4</v>
       </c>
       <c r="AS124">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT124">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AU124">
         <v>1.99</v>
@@ -25102,10 +25126,10 @@
         <v>0.2</v>
       </c>
       <c r="AS125">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT125">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU125">
         <v>1.4</v>
@@ -25293,7 +25317,7 @@
         <v>1</v>
       </c>
       <c r="AS126">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT126">
         <v>0.7</v>
@@ -25397,7 +25421,7 @@
         <v>182</v>
       </c>
       <c r="P127" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q127">
         <v>4</v>
@@ -25484,10 +25508,10 @@
         <v>0.8</v>
       </c>
       <c r="AS127">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT127">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AU127">
         <v>1.58</v>
@@ -25678,7 +25702,7 @@
         <v>1.5</v>
       </c>
       <c r="AT128">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU128">
         <v>1.56</v>
@@ -25755,7 +25779,7 @@
         <v>78</v>
       </c>
       <c r="H129" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I129">
         <v>1</v>
@@ -25779,7 +25803,7 @@
         <v>184</v>
       </c>
       <c r="P129" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q129">
         <v>1</v>
@@ -25866,10 +25890,10 @@
         <v>1.67</v>
       </c>
       <c r="AS129">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT129">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU129">
         <v>1.57</v>
@@ -25970,7 +25994,7 @@
         <v>144</v>
       </c>
       <c r="P130" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="Q130">
         <v>7</v>
@@ -26057,10 +26081,10 @@
         <v>1</v>
       </c>
       <c r="AS130">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AT130">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AU130">
         <v>1.39</v>
@@ -26161,7 +26185,7 @@
         <v>185</v>
       </c>
       <c r="P131" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q131">
         <v>8</v>
@@ -26248,10 +26272,10 @@
         <v>1.17</v>
       </c>
       <c r="AS131">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT131">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU131">
         <v>1.55</v>
@@ -26439,7 +26463,7 @@
         <v>1.33</v>
       </c>
       <c r="AS132">
-        <v>3</v>
+        <v>2.82</v>
       </c>
       <c r="AT132">
         <v>1.4</v>
@@ -26630,10 +26654,10 @@
         <v>0.17</v>
       </c>
       <c r="AS133">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AT133">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU133">
         <v>1.4</v>
@@ -26710,7 +26734,7 @@
         <v>80</v>
       </c>
       <c r="H134" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I134">
         <v>0</v>
@@ -26824,7 +26848,7 @@
         <v>1.5</v>
       </c>
       <c r="AT134">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AU134">
         <v>1.55</v>
@@ -27012,10 +27036,10 @@
         <v>1.17</v>
       </c>
       <c r="AS135">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT135">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AU135">
         <v>1.76</v>
@@ -27116,7 +27140,7 @@
         <v>187</v>
       </c>
       <c r="P136" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q136">
         <v>3</v>
@@ -27203,7 +27227,7 @@
         <v>2.14</v>
       </c>
       <c r="AS136">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT136">
         <v>1.8</v>
@@ -27280,7 +27304,7 @@
         <v>16</v>
       </c>
       <c r="G137" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H137" t="s">
         <v>72</v>
@@ -27397,7 +27421,7 @@
         <v>2.7</v>
       </c>
       <c r="AT137">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AU137">
         <v>1.87</v>
@@ -27689,7 +27713,7 @@
         <v>189</v>
       </c>
       <c r="P139" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q139">
         <v>10</v>
@@ -27880,7 +27904,7 @@
         <v>190</v>
       </c>
       <c r="P140" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q140">
         <v>7</v>
@@ -27970,7 +27994,7 @@
         <v>2.4</v>
       </c>
       <c r="AT140">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU140">
         <v>1.49</v>
@@ -28262,7 +28286,7 @@
         <v>134</v>
       </c>
       <c r="P142" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q142">
         <v>6</v>
@@ -28429,7 +28453,7 @@
         <v>71</v>
       </c>
       <c r="H143" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I143">
         <v>1</v>
@@ -28453,7 +28477,7 @@
         <v>192</v>
       </c>
       <c r="P143" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q143">
         <v>4</v>
@@ -28543,7 +28567,7 @@
         <v>1.3</v>
       </c>
       <c r="AT143">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AU143">
         <v>1.35</v>
@@ -28731,7 +28755,7 @@
         <v>0.43</v>
       </c>
       <c r="AS144">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT144">
         <v>0.4</v>
@@ -28922,10 +28946,10 @@
         <v>1.43</v>
       </c>
       <c r="AS145">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AT145">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU145">
         <v>1.31</v>
@@ -29113,7 +29137,7 @@
         <v>1.14</v>
       </c>
       <c r="AS146">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AT146">
         <v>1.4</v>
@@ -29217,7 +29241,7 @@
         <v>196</v>
       </c>
       <c r="P147" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q147">
         <v>1</v>
@@ -29304,10 +29328,10 @@
         <v>0.57</v>
       </c>
       <c r="AS147">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT147">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU147">
         <v>1.52</v>
@@ -29498,7 +29522,7 @@
         <v>2.7</v>
       </c>
       <c r="AT148">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU148">
         <v>1.63</v>
@@ -29599,7 +29623,7 @@
         <v>198</v>
       </c>
       <c r="P149" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q149">
         <v>9</v>
@@ -29686,7 +29710,7 @@
         <v>0.86</v>
       </c>
       <c r="AS149">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT149">
         <v>0.7</v>
@@ -29763,10 +29787,10 @@
         <v>17</v>
       </c>
       <c r="G150" t="s">
+        <v>68</v>
+      </c>
+      <c r="H150" t="s">
         <v>67</v>
-      </c>
-      <c r="H150" t="s">
-        <v>68</v>
       </c>
       <c r="I150">
         <v>1</v>
@@ -29880,7 +29904,7 @@
         <v>1.7</v>
       </c>
       <c r="AT150">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU150">
         <v>1.57</v>
@@ -29981,7 +30005,7 @@
         <v>199</v>
       </c>
       <c r="P151" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q151">
         <v>4</v>
@@ -30068,10 +30092,10 @@
         <v>1.43</v>
       </c>
       <c r="AS151">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT151">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AU151">
         <v>2.15</v>
@@ -30172,7 +30196,7 @@
         <v>200</v>
       </c>
       <c r="P152" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q152">
         <v>2</v>
@@ -30363,7 +30387,7 @@
         <v>201</v>
       </c>
       <c r="P153" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q153">
         <v>11</v>
@@ -30450,7 +30474,7 @@
         <v>0.29</v>
       </c>
       <c r="AS153">
-        <v>3</v>
+        <v>2.82</v>
       </c>
       <c r="AT153">
         <v>0.2</v>
@@ -30554,7 +30578,7 @@
         <v>202</v>
       </c>
       <c r="P154" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q154">
         <v>2</v>
@@ -30641,10 +30665,10 @@
         <v>0.86</v>
       </c>
       <c r="AS154">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT154">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AU154">
         <v>1.65</v>
@@ -30745,7 +30769,7 @@
         <v>203</v>
       </c>
       <c r="P155" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q155">
         <v>6</v>
@@ -30936,7 +30960,7 @@
         <v>204</v>
       </c>
       <c r="P156" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q156">
         <v>8</v>
@@ -31100,7 +31124,7 @@
         <v>18</v>
       </c>
       <c r="G157" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H157" t="s">
         <v>65</v>
@@ -31217,7 +31241,7 @@
         <v>2.7</v>
       </c>
       <c r="AT157">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU157">
         <v>1.95</v>
@@ -31596,7 +31620,7 @@
         <v>1.5</v>
       </c>
       <c r="AS159">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT159">
         <v>1.5</v>
@@ -31700,7 +31724,7 @@
         <v>208</v>
       </c>
       <c r="P160" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q160">
         <v>15</v>
@@ -32249,7 +32273,7 @@
         <v>72</v>
       </c>
       <c r="H163" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I163">
         <v>0</v>
@@ -32363,7 +32387,7 @@
         <v>2</v>
       </c>
       <c r="AT163">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AU163">
         <v>1.77</v>
@@ -32551,10 +32575,10 @@
         <v>0.25</v>
       </c>
       <c r="AS164">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AT164">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU164">
         <v>1.47</v>
@@ -32655,7 +32679,7 @@
         <v>211</v>
       </c>
       <c r="P165" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q165">
         <v>7</v>
@@ -32742,10 +32766,10 @@
         <v>0.5</v>
       </c>
       <c r="AS165">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT165">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU165">
         <v>1.79</v>
@@ -32846,7 +32870,7 @@
         <v>84</v>
       </c>
       <c r="P166" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="Q166">
         <v>2</v>
@@ -32933,7 +32957,7 @@
         <v>1</v>
       </c>
       <c r="AS166">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AT166">
         <v>1.4</v>
@@ -33037,7 +33061,7 @@
         <v>212</v>
       </c>
       <c r="P167" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q167">
         <v>5</v>
@@ -33124,7 +33148,7 @@
         <v>0.25</v>
       </c>
       <c r="AS167">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT167">
         <v>0.2</v>
@@ -33228,7 +33252,7 @@
         <v>213</v>
       </c>
       <c r="P168" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="Q168">
         <v>6</v>
@@ -33419,7 +33443,7 @@
         <v>214</v>
       </c>
       <c r="P169" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q169">
         <v>3</v>
@@ -33506,10 +33530,10 @@
         <v>1.38</v>
       </c>
       <c r="AS169">
-        <v>3</v>
+        <v>2.82</v>
       </c>
       <c r="AT169">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU169">
         <v>1.8</v>
@@ -33697,10 +33721,10 @@
         <v>1.63</v>
       </c>
       <c r="AS170">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT170">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AU170">
         <v>1.57</v>
@@ -33891,7 +33915,7 @@
         <v>2.7</v>
       </c>
       <c r="AT171">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AU171">
         <v>1.62</v>
@@ -33968,7 +33992,7 @@
         <v>83</v>
       </c>
       <c r="H172" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I172">
         <v>0</v>
@@ -34079,10 +34103,10 @@
         <v>1.25</v>
       </c>
       <c r="AS172">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT172">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU172">
         <v>2.09</v>
@@ -34183,7 +34207,7 @@
         <v>84</v>
       </c>
       <c r="P173" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q173">
         <v>5</v>
@@ -34270,10 +34294,10 @@
         <v>1.56</v>
       </c>
       <c r="AS173">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AT173">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AU173">
         <v>1.26</v>
@@ -34461,7 +34485,7 @@
         <v>0.78</v>
       </c>
       <c r="AS174">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT174">
         <v>0.7</v>
@@ -34541,7 +34565,7 @@
         <v>74</v>
       </c>
       <c r="H175" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I175">
         <v>0</v>
@@ -34565,7 +34589,7 @@
         <v>92</v>
       </c>
       <c r="P175" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q175">
         <v>4</v>
@@ -34652,10 +34676,10 @@
         <v>1.11</v>
       </c>
       <c r="AS175">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AT175">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU175">
         <v>1.47</v>
@@ -34843,10 +34867,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS176">
-        <v>3</v>
+        <v>2.82</v>
       </c>
       <c r="AT176">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU176">
         <v>1.77</v>
@@ -35034,10 +35058,10 @@
         <v>0.78</v>
       </c>
       <c r="AS177">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT177">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AU177">
         <v>2.04</v>
@@ -35138,7 +35162,7 @@
         <v>84</v>
       </c>
       <c r="P178" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q178">
         <v>1</v>
@@ -35228,7 +35252,7 @@
         <v>1.5</v>
       </c>
       <c r="AT178">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU178">
         <v>1.57</v>
@@ -35329,7 +35353,7 @@
         <v>220</v>
       </c>
       <c r="P179" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q179">
         <v>2</v>
@@ -35416,10 +35440,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS179">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT179">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU179">
         <v>1.49</v>
@@ -35520,7 +35544,7 @@
         <v>221</v>
       </c>
       <c r="P180" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q180">
         <v>5</v>
@@ -35607,7 +35631,7 @@
         <v>1.22</v>
       </c>
       <c r="AS180">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT180">
         <v>1.4</v>
@@ -35687,7 +35711,7 @@
         <v>65</v>
       </c>
       <c r="H181" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I181">
         <v>0</v>
@@ -35801,7 +35825,7 @@
         <v>2.7</v>
       </c>
       <c r="AT181">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AU181">
         <v>1.64</v>
@@ -35875,7 +35899,7 @@
         <v>2</v>
       </c>
       <c r="G182" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H182" t="s">
         <v>83</v>
@@ -36284,7 +36308,7 @@
         <v>224</v>
       </c>
       <c r="P184" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q184">
         <v>2</v>
@@ -36857,7 +36881,7 @@
         <v>84</v>
       </c>
       <c r="P187" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q187">
         <v>4</v>
@@ -37048,7 +37072,7 @@
         <v>84</v>
       </c>
       <c r="P188" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q188">
         <v>5</v>
@@ -37212,7 +37236,7 @@
         <v>2</v>
       </c>
       <c r="G189" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H189" t="s">
         <v>78</v>
@@ -37572,6 +37596,1534 @@
       </c>
       <c r="BK190">
         <v>7</v>
+      </c>
+    </row>
+    <row r="191" spans="1:63">
+      <c r="A191" s="1">
+        <v>190</v>
+      </c>
+      <c r="B191">
+        <v>6587758</v>
+      </c>
+      <c r="C191" t="s">
+        <v>63</v>
+      </c>
+      <c r="D191" t="s">
+        <v>64</v>
+      </c>
+      <c r="E191" s="2">
+        <v>45114.70833333334</v>
+      </c>
+      <c r="F191">
+        <v>3</v>
+      </c>
+      <c r="G191" t="s">
+        <v>82</v>
+      </c>
+      <c r="H191" t="s">
+        <v>66</v>
+      </c>
+      <c r="I191">
+        <v>0</v>
+      </c>
+      <c r="J191">
+        <v>0</v>
+      </c>
+      <c r="K191">
+        <v>0</v>
+      </c>
+      <c r="L191">
+        <v>3</v>
+      </c>
+      <c r="M191">
+        <v>0</v>
+      </c>
+      <c r="N191">
+        <v>3</v>
+      </c>
+      <c r="O191" t="s">
+        <v>227</v>
+      </c>
+      <c r="P191" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q191">
+        <v>3</v>
+      </c>
+      <c r="R191">
+        <v>0</v>
+      </c>
+      <c r="S191">
+        <v>3</v>
+      </c>
+      <c r="T191">
+        <v>2.05</v>
+      </c>
+      <c r="U191">
+        <v>2.3</v>
+      </c>
+      <c r="V191">
+        <v>5.5</v>
+      </c>
+      <c r="W191">
+        <v>1.35</v>
+      </c>
+      <c r="X191">
+        <v>3</v>
+      </c>
+      <c r="Y191">
+        <v>2.55</v>
+      </c>
+      <c r="Z191">
+        <v>1.45</v>
+      </c>
+      <c r="AA191">
+        <v>5.75</v>
+      </c>
+      <c r="AB191">
+        <v>1.1</v>
+      </c>
+      <c r="AC191">
+        <v>1.4</v>
+      </c>
+      <c r="AD191">
+        <v>4.2</v>
+      </c>
+      <c r="AE191">
+        <v>7.5</v>
+      </c>
+      <c r="AF191">
+        <v>1.03</v>
+      </c>
+      <c r="AG191">
+        <v>14</v>
+      </c>
+      <c r="AH191">
+        <v>1.23</v>
+      </c>
+      <c r="AI191">
+        <v>3.72</v>
+      </c>
+      <c r="AJ191">
+        <v>1.85</v>
+      </c>
+      <c r="AK191">
+        <v>1.87</v>
+      </c>
+      <c r="AL191">
+        <v>1.85</v>
+      </c>
+      <c r="AM191">
+        <v>1.85</v>
+      </c>
+      <c r="AN191">
+        <v>1.13</v>
+      </c>
+      <c r="AO191">
+        <v>1.19</v>
+      </c>
+      <c r="AP191">
+        <v>2.4</v>
+      </c>
+      <c r="AQ191">
+        <v>2</v>
+      </c>
+      <c r="AR191">
+        <v>0.5</v>
+      </c>
+      <c r="AS191">
+        <v>2.09</v>
+      </c>
+      <c r="AT191">
+        <v>0.45</v>
+      </c>
+      <c r="AU191">
+        <v>1.61</v>
+      </c>
+      <c r="AV191">
+        <v>1.28</v>
+      </c>
+      <c r="AW191">
+        <v>2.89</v>
+      </c>
+      <c r="AX191">
+        <v>1.31</v>
+      </c>
+      <c r="AY191">
+        <v>10.5</v>
+      </c>
+      <c r="AZ191">
+        <v>4.25</v>
+      </c>
+      <c r="BA191">
+        <v>1.21</v>
+      </c>
+      <c r="BB191">
+        <v>1.42</v>
+      </c>
+      <c r="BC191">
+        <v>1.75</v>
+      </c>
+      <c r="BD191">
+        <v>2.19</v>
+      </c>
+      <c r="BE191">
+        <v>2.88</v>
+      </c>
+      <c r="BF191">
+        <v>10</v>
+      </c>
+      <c r="BG191">
+        <v>3</v>
+      </c>
+      <c r="BH191">
+        <v>11</v>
+      </c>
+      <c r="BI191">
+        <v>2</v>
+      </c>
+      <c r="BJ191">
+        <v>21</v>
+      </c>
+      <c r="BK191">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="192" spans="1:63">
+      <c r="A192" s="1">
+        <v>191</v>
+      </c>
+      <c r="B192">
+        <v>6587759</v>
+      </c>
+      <c r="C192" t="s">
+        <v>63</v>
+      </c>
+      <c r="D192" t="s">
+        <v>64</v>
+      </c>
+      <c r="E192" s="2">
+        <v>45114.91666666666</v>
+      </c>
+      <c r="F192">
+        <v>3</v>
+      </c>
+      <c r="G192" t="s">
+        <v>75</v>
+      </c>
+      <c r="H192" t="s">
+        <v>67</v>
+      </c>
+      <c r="I192">
+        <v>0</v>
+      </c>
+      <c r="J192">
+        <v>3</v>
+      </c>
+      <c r="K192">
+        <v>3</v>
+      </c>
+      <c r="L192">
+        <v>1</v>
+      </c>
+      <c r="M192">
+        <v>4</v>
+      </c>
+      <c r="N192">
+        <v>5</v>
+      </c>
+      <c r="O192" t="s">
+        <v>228</v>
+      </c>
+      <c r="P192" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q192">
+        <v>2</v>
+      </c>
+      <c r="R192">
+        <v>6</v>
+      </c>
+      <c r="S192">
+        <v>8</v>
+      </c>
+      <c r="T192">
+        <v>7.6</v>
+      </c>
+      <c r="U192">
+        <v>2.5</v>
+      </c>
+      <c r="V192">
+        <v>1.75</v>
+      </c>
+      <c r="W192">
+        <v>1.29</v>
+      </c>
+      <c r="X192">
+        <v>3.25</v>
+      </c>
+      <c r="Y192">
+        <v>2.5</v>
+      </c>
+      <c r="Z192">
+        <v>1.5</v>
+      </c>
+      <c r="AA192">
+        <v>6</v>
+      </c>
+      <c r="AB192">
+        <v>1.11</v>
+      </c>
+      <c r="AC192">
+        <v>8</v>
+      </c>
+      <c r="AD192">
+        <v>4.33</v>
+      </c>
+      <c r="AE192">
+        <v>1.36</v>
+      </c>
+      <c r="AF192">
+        <v>1.02</v>
+      </c>
+      <c r="AG192">
+        <v>14</v>
+      </c>
+      <c r="AH192">
+        <v>1.17</v>
+      </c>
+      <c r="AI192">
+        <v>4.5</v>
+      </c>
+      <c r="AJ192">
+        <v>1.83</v>
+      </c>
+      <c r="AK192">
+        <v>1.9</v>
+      </c>
+      <c r="AL192">
+        <v>2</v>
+      </c>
+      <c r="AM192">
+        <v>1.72</v>
+      </c>
+      <c r="AN192">
+        <v>2.5</v>
+      </c>
+      <c r="AO192">
+        <v>1.15</v>
+      </c>
+      <c r="AP192">
+        <v>1.07</v>
+      </c>
+      <c r="AQ192">
+        <v>0.8</v>
+      </c>
+      <c r="AR192">
+        <v>1.1</v>
+      </c>
+      <c r="AS192">
+        <v>0.73</v>
+      </c>
+      <c r="AT192">
+        <v>1.27</v>
+      </c>
+      <c r="AU192">
+        <v>1.28</v>
+      </c>
+      <c r="AV192">
+        <v>1.25</v>
+      </c>
+      <c r="AW192">
+        <v>2.53</v>
+      </c>
+      <c r="AX192">
+        <v>6</v>
+      </c>
+      <c r="AY192">
+        <v>11</v>
+      </c>
+      <c r="AZ192">
+        <v>1.17</v>
+      </c>
+      <c r="BA192">
+        <v>1.26</v>
+      </c>
+      <c r="BB192">
+        <v>1.43</v>
+      </c>
+      <c r="BC192">
+        <v>1.85</v>
+      </c>
+      <c r="BD192">
+        <v>2.37</v>
+      </c>
+      <c r="BE192">
+        <v>3.2</v>
+      </c>
+      <c r="BF192">
+        <v>2</v>
+      </c>
+      <c r="BG192">
+        <v>8</v>
+      </c>
+      <c r="BH192">
+        <v>6</v>
+      </c>
+      <c r="BI192">
+        <v>3</v>
+      </c>
+      <c r="BJ192">
+        <v>8</v>
+      </c>
+      <c r="BK192">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="193" spans="1:63">
+      <c r="A193" s="1">
+        <v>192</v>
+      </c>
+      <c r="B193">
+        <v>6587760</v>
+      </c>
+      <c r="C193" t="s">
+        <v>63</v>
+      </c>
+      <c r="D193" t="s">
+        <v>64</v>
+      </c>
+      <c r="E193" s="2">
+        <v>45115.625</v>
+      </c>
+      <c r="F193">
+        <v>3</v>
+      </c>
+      <c r="G193" t="s">
+        <v>78</v>
+      </c>
+      <c r="H193" t="s">
+        <v>72</v>
+      </c>
+      <c r="I193">
+        <v>0</v>
+      </c>
+      <c r="J193">
+        <v>0</v>
+      </c>
+      <c r="K193">
+        <v>0</v>
+      </c>
+      <c r="L193">
+        <v>0</v>
+      </c>
+      <c r="M193">
+        <v>1</v>
+      </c>
+      <c r="N193">
+        <v>1</v>
+      </c>
+      <c r="O193" t="s">
+        <v>84</v>
+      </c>
+      <c r="P193" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q193">
+        <v>4</v>
+      </c>
+      <c r="R193">
+        <v>5</v>
+      </c>
+      <c r="S193">
+        <v>9</v>
+      </c>
+      <c r="T193">
+        <v>2.8</v>
+      </c>
+      <c r="U193">
+        <v>2.2</v>
+      </c>
+      <c r="V193">
+        <v>3.4</v>
+      </c>
+      <c r="W193">
+        <v>1.35</v>
+      </c>
+      <c r="X193">
+        <v>2.95</v>
+      </c>
+      <c r="Y193">
+        <v>2.55</v>
+      </c>
+      <c r="Z193">
+        <v>1.45</v>
+      </c>
+      <c r="AA193">
+        <v>5.75</v>
+      </c>
+      <c r="AB193">
+        <v>1.1</v>
+      </c>
+      <c r="AC193">
+        <v>2.17</v>
+      </c>
+      <c r="AD193">
+        <v>3.2</v>
+      </c>
+      <c r="AE193">
+        <v>3.05</v>
+      </c>
+      <c r="AF193">
+        <v>1.04</v>
+      </c>
+      <c r="AG193">
+        <v>13</v>
+      </c>
+      <c r="AH193">
+        <v>1.23</v>
+      </c>
+      <c r="AI193">
+        <v>3.8</v>
+      </c>
+      <c r="AJ193">
+        <v>1.71</v>
+      </c>
+      <c r="AK193">
+        <v>1.94</v>
+      </c>
+      <c r="AL193">
+        <v>1.6</v>
+      </c>
+      <c r="AM193">
+        <v>2.2</v>
+      </c>
+      <c r="AN193">
+        <v>1.3</v>
+      </c>
+      <c r="AO193">
+        <v>1.28</v>
+      </c>
+      <c r="AP193">
+        <v>1.52</v>
+      </c>
+      <c r="AQ193">
+        <v>1.8</v>
+      </c>
+      <c r="AR193">
+        <v>0.7</v>
+      </c>
+      <c r="AS193">
+        <v>1.64</v>
+      </c>
+      <c r="AT193">
+        <v>0.91</v>
+      </c>
+      <c r="AU193">
+        <v>1.46</v>
+      </c>
+      <c r="AV193">
+        <v>1.05</v>
+      </c>
+      <c r="AW193">
+        <v>2.51</v>
+      </c>
+      <c r="AX193">
+        <v>2.05</v>
+      </c>
+      <c r="AY193">
+        <v>8</v>
+      </c>
+      <c r="AZ193">
+        <v>2</v>
+      </c>
+      <c r="BA193">
+        <v>1.23</v>
+      </c>
+      <c r="BB193">
+        <v>1.42</v>
+      </c>
+      <c r="BC193">
+        <v>1.7</v>
+      </c>
+      <c r="BD193">
+        <v>2.17</v>
+      </c>
+      <c r="BE193">
+        <v>2.85</v>
+      </c>
+      <c r="BF193">
+        <v>4</v>
+      </c>
+      <c r="BG193">
+        <v>4</v>
+      </c>
+      <c r="BH193">
+        <v>6</v>
+      </c>
+      <c r="BI193">
+        <v>5</v>
+      </c>
+      <c r="BJ193">
+        <v>10</v>
+      </c>
+      <c r="BK193">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="194" spans="1:63">
+      <c r="A194" s="1">
+        <v>193</v>
+      </c>
+      <c r="B194">
+        <v>6587761</v>
+      </c>
+      <c r="C194" t="s">
+        <v>63</v>
+      </c>
+      <c r="D194" t="s">
+        <v>64</v>
+      </c>
+      <c r="E194" s="2">
+        <v>45115.72916666666</v>
+      </c>
+      <c r="F194">
+        <v>3</v>
+      </c>
+      <c r="G194" t="s">
+        <v>74</v>
+      </c>
+      <c r="H194" t="s">
+        <v>68</v>
+      </c>
+      <c r="I194">
+        <v>0</v>
+      </c>
+      <c r="J194">
+        <v>1</v>
+      </c>
+      <c r="K194">
+        <v>1</v>
+      </c>
+      <c r="L194">
+        <v>2</v>
+      </c>
+      <c r="M194">
+        <v>2</v>
+      </c>
+      <c r="N194">
+        <v>4</v>
+      </c>
+      <c r="O194" t="s">
+        <v>229</v>
+      </c>
+      <c r="P194" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q194">
+        <v>3</v>
+      </c>
+      <c r="R194">
+        <v>6</v>
+      </c>
+      <c r="S194">
+        <v>9</v>
+      </c>
+      <c r="T194">
+        <v>2.05</v>
+      </c>
+      <c r="U194">
+        <v>2.3</v>
+      </c>
+      <c r="V194">
+        <v>5.25</v>
+      </c>
+      <c r="W194">
+        <v>1.35</v>
+      </c>
+      <c r="X194">
+        <v>3</v>
+      </c>
+      <c r="Y194">
+        <v>2.55</v>
+      </c>
+      <c r="Z194">
+        <v>1.45</v>
+      </c>
+      <c r="AA194">
+        <v>5.75</v>
+      </c>
+      <c r="AB194">
+        <v>1.11</v>
+      </c>
+      <c r="AC194">
+        <v>1.91</v>
+      </c>
+      <c r="AD194">
+        <v>3.31</v>
+      </c>
+      <c r="AE194">
+        <v>3</v>
+      </c>
+      <c r="AF194">
+        <v>1.04</v>
+      </c>
+      <c r="AG194">
+        <v>13</v>
+      </c>
+      <c r="AH194">
+        <v>1.23</v>
+      </c>
+      <c r="AI194">
+        <v>3.77</v>
+      </c>
+      <c r="AJ194">
+        <v>1.75</v>
+      </c>
+      <c r="AK194">
+        <v>2.01</v>
+      </c>
+      <c r="AL194">
+        <v>1.78</v>
+      </c>
+      <c r="AM194">
+        <v>1.9</v>
+      </c>
+      <c r="AN194">
+        <v>1.13</v>
+      </c>
+      <c r="AO194">
+        <v>1.22</v>
+      </c>
+      <c r="AP194">
+        <v>2</v>
+      </c>
+      <c r="AQ194">
+        <v>1.9</v>
+      </c>
+      <c r="AR194">
+        <v>0.5</v>
+      </c>
+      <c r="AS194">
+        <v>1.82</v>
+      </c>
+      <c r="AT194">
+        <v>0.55</v>
+      </c>
+      <c r="AU194">
+        <v>1.49</v>
+      </c>
+      <c r="AV194">
+        <v>1.3</v>
+      </c>
+      <c r="AW194">
+        <v>2.79</v>
+      </c>
+      <c r="AX194">
+        <v>1.55</v>
+      </c>
+      <c r="AY194">
+        <v>7.5</v>
+      </c>
+      <c r="AZ194">
+        <v>3.4</v>
+      </c>
+      <c r="BA194">
+        <v>1.19</v>
+      </c>
+      <c r="BB194">
+        <v>1.36</v>
+      </c>
+      <c r="BC194">
+        <v>1.6</v>
+      </c>
+      <c r="BD194">
+        <v>2</v>
+      </c>
+      <c r="BE194">
+        <v>2.6</v>
+      </c>
+      <c r="BF194">
+        <v>6</v>
+      </c>
+      <c r="BG194">
+        <v>6</v>
+      </c>
+      <c r="BH194">
+        <v>3</v>
+      </c>
+      <c r="BI194">
+        <v>2</v>
+      </c>
+      <c r="BJ194">
+        <v>9</v>
+      </c>
+      <c r="BK194">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="195" spans="1:63">
+      <c r="A195" s="1">
+        <v>194</v>
+      </c>
+      <c r="B195">
+        <v>6587762</v>
+      </c>
+      <c r="C195" t="s">
+        <v>63</v>
+      </c>
+      <c r="D195" t="s">
+        <v>64</v>
+      </c>
+      <c r="E195" s="2">
+        <v>45115.875</v>
+      </c>
+      <c r="F195">
+        <v>3</v>
+      </c>
+      <c r="G195" t="s">
+        <v>81</v>
+      </c>
+      <c r="H195" t="s">
+        <v>70</v>
+      </c>
+      <c r="I195">
+        <v>0</v>
+      </c>
+      <c r="J195">
+        <v>0</v>
+      </c>
+      <c r="K195">
+        <v>0</v>
+      </c>
+      <c r="L195">
+        <v>0</v>
+      </c>
+      <c r="M195">
+        <v>0</v>
+      </c>
+      <c r="N195">
+        <v>0</v>
+      </c>
+      <c r="O195" t="s">
+        <v>84</v>
+      </c>
+      <c r="P195" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q195">
+        <v>3</v>
+      </c>
+      <c r="R195">
+        <v>3</v>
+      </c>
+      <c r="S195">
+        <v>6</v>
+      </c>
+      <c r="T195">
+        <v>2.4</v>
+      </c>
+      <c r="U195">
+        <v>2.2</v>
+      </c>
+      <c r="V195">
+        <v>3.9</v>
+      </c>
+      <c r="W195">
+        <v>1.33</v>
+      </c>
+      <c r="X195">
+        <v>3.25</v>
+      </c>
+      <c r="Y195">
+        <v>2.5</v>
+      </c>
+      <c r="Z195">
+        <v>1.5</v>
+      </c>
+      <c r="AA195">
+        <v>5.5</v>
+      </c>
+      <c r="AB195">
+        <v>1.13</v>
+      </c>
+      <c r="AC195">
+        <v>1.94</v>
+      </c>
+      <c r="AD195">
+        <v>2.97</v>
+      </c>
+      <c r="AE195">
+        <v>3.25</v>
+      </c>
+      <c r="AF195">
+        <v>1.04</v>
+      </c>
+      <c r="AG195">
+        <v>12.75</v>
+      </c>
+      <c r="AH195">
+        <v>1.22</v>
+      </c>
+      <c r="AI195">
+        <v>3.8</v>
+      </c>
+      <c r="AJ195">
+        <v>1.75</v>
+      </c>
+      <c r="AK195">
+        <v>2.01</v>
+      </c>
+      <c r="AL195">
+        <v>1.62</v>
+      </c>
+      <c r="AM195">
+        <v>2.15</v>
+      </c>
+      <c r="AN195">
+        <v>1.25</v>
+      </c>
+      <c r="AO195">
+        <v>1.28</v>
+      </c>
+      <c r="AP195">
+        <v>1.6</v>
+      </c>
+      <c r="AQ195">
+        <v>3</v>
+      </c>
+      <c r="AR195">
+        <v>1.7</v>
+      </c>
+      <c r="AS195">
+        <v>2.82</v>
+      </c>
+      <c r="AT195">
+        <v>1.64</v>
+      </c>
+      <c r="AU195">
+        <v>1.74</v>
+      </c>
+      <c r="AV195">
+        <v>1.47</v>
+      </c>
+      <c r="AW195">
+        <v>3.21</v>
+      </c>
+      <c r="AX195">
+        <v>1.62</v>
+      </c>
+      <c r="AY195">
+        <v>8.5</v>
+      </c>
+      <c r="AZ195">
+        <v>2.6</v>
+      </c>
+      <c r="BA195">
+        <v>1.15</v>
+      </c>
+      <c r="BB195">
+        <v>1.29</v>
+      </c>
+      <c r="BC195">
+        <v>1.47</v>
+      </c>
+      <c r="BD195">
+        <v>1.9</v>
+      </c>
+      <c r="BE195">
+        <v>2.35</v>
+      </c>
+      <c r="BF195">
+        <v>2</v>
+      </c>
+      <c r="BG195">
+        <v>2</v>
+      </c>
+      <c r="BH195">
+        <v>8</v>
+      </c>
+      <c r="BI195">
+        <v>6</v>
+      </c>
+      <c r="BJ195">
+        <v>10</v>
+      </c>
+      <c r="BK195">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="196" spans="1:63">
+      <c r="A196" s="1">
+        <v>195</v>
+      </c>
+      <c r="B196">
+        <v>6587763</v>
+      </c>
+      <c r="C196" t="s">
+        <v>63</v>
+      </c>
+      <c r="D196" t="s">
+        <v>64</v>
+      </c>
+      <c r="E196" s="2">
+        <v>45116.625</v>
+      </c>
+      <c r="F196">
+        <v>3</v>
+      </c>
+      <c r="G196" t="s">
+        <v>79</v>
+      </c>
+      <c r="H196" t="s">
+        <v>71</v>
+      </c>
+      <c r="I196">
+        <v>0</v>
+      </c>
+      <c r="J196">
+        <v>0</v>
+      </c>
+      <c r="K196">
+        <v>0</v>
+      </c>
+      <c r="L196">
+        <v>0</v>
+      </c>
+      <c r="M196">
+        <v>1</v>
+      </c>
+      <c r="N196">
+        <v>1</v>
+      </c>
+      <c r="O196" t="s">
+        <v>84</v>
+      </c>
+      <c r="P196" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q196">
+        <v>7</v>
+      </c>
+      <c r="R196">
+        <v>5</v>
+      </c>
+      <c r="S196">
+        <v>12</v>
+      </c>
+      <c r="T196">
+        <v>2.75</v>
+      </c>
+      <c r="U196">
+        <v>2.2</v>
+      </c>
+      <c r="V196">
+        <v>3.75</v>
+      </c>
+      <c r="W196">
+        <v>1.33</v>
+      </c>
+      <c r="X196">
+        <v>3</v>
+      </c>
+      <c r="Y196">
+        <v>2.55</v>
+      </c>
+      <c r="Z196">
+        <v>1.46</v>
+      </c>
+      <c r="AA196">
+        <v>6.1</v>
+      </c>
+      <c r="AB196">
+        <v>1.09</v>
+      </c>
+      <c r="AC196">
+        <v>2</v>
+      </c>
+      <c r="AD196">
+        <v>3.25</v>
+      </c>
+      <c r="AE196">
+        <v>3.25</v>
+      </c>
+      <c r="AF196">
+        <v>1.04</v>
+      </c>
+      <c r="AG196">
+        <v>13.25</v>
+      </c>
+      <c r="AH196">
+        <v>1.23</v>
+      </c>
+      <c r="AI196">
+        <v>3.77</v>
+      </c>
+      <c r="AJ196">
+        <v>1.75</v>
+      </c>
+      <c r="AK196">
+        <v>2</v>
+      </c>
+      <c r="AL196">
+        <v>1.62</v>
+      </c>
+      <c r="AM196">
+        <v>2.15</v>
+      </c>
+      <c r="AN196">
+        <v>1.3</v>
+      </c>
+      <c r="AO196">
+        <v>1.27</v>
+      </c>
+      <c r="AP196">
+        <v>1.68</v>
+      </c>
+      <c r="AQ196">
+        <v>1.5</v>
+      </c>
+      <c r="AR196">
+        <v>0.8</v>
+      </c>
+      <c r="AS196">
+        <v>1.36</v>
+      </c>
+      <c r="AT196">
+        <v>1</v>
+      </c>
+      <c r="AU196">
+        <v>1.78</v>
+      </c>
+      <c r="AV196">
+        <v>0.97</v>
+      </c>
+      <c r="AW196">
+        <v>2.75</v>
+      </c>
+      <c r="AX196">
+        <v>1.65</v>
+      </c>
+      <c r="AY196">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AZ196">
+        <v>2.7</v>
+      </c>
+      <c r="BA196">
+        <v>1.21</v>
+      </c>
+      <c r="BB196">
+        <v>1.39</v>
+      </c>
+      <c r="BC196">
+        <v>1.65</v>
+      </c>
+      <c r="BD196">
+        <v>2.06</v>
+      </c>
+      <c r="BE196">
+        <v>2.65</v>
+      </c>
+      <c r="BF196">
+        <v>7</v>
+      </c>
+      <c r="BG196">
+        <v>5</v>
+      </c>
+      <c r="BH196">
+        <v>7</v>
+      </c>
+      <c r="BI196">
+        <v>4</v>
+      </c>
+      <c r="BJ196">
+        <v>14</v>
+      </c>
+      <c r="BK196">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="197" spans="1:63">
+      <c r="A197" s="1">
+        <v>196</v>
+      </c>
+      <c r="B197">
+        <v>6587765</v>
+      </c>
+      <c r="C197" t="s">
+        <v>63</v>
+      </c>
+      <c r="D197" t="s">
+        <v>64</v>
+      </c>
+      <c r="E197" s="2">
+        <v>45116.89583333334</v>
+      </c>
+      <c r="F197">
+        <v>3</v>
+      </c>
+      <c r="G197" t="s">
+        <v>76</v>
+      </c>
+      <c r="H197" t="s">
+        <v>69</v>
+      </c>
+      <c r="I197">
+        <v>1</v>
+      </c>
+      <c r="J197">
+        <v>2</v>
+      </c>
+      <c r="K197">
+        <v>3</v>
+      </c>
+      <c r="L197">
+        <v>1</v>
+      </c>
+      <c r="M197">
+        <v>5</v>
+      </c>
+      <c r="N197">
+        <v>6</v>
+      </c>
+      <c r="O197" t="s">
+        <v>230</v>
+      </c>
+      <c r="P197" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q197">
+        <v>1</v>
+      </c>
+      <c r="R197">
+        <v>5</v>
+      </c>
+      <c r="S197">
+        <v>6</v>
+      </c>
+      <c r="T197">
+        <v>2.55</v>
+      </c>
+      <c r="U197">
+        <v>2.15</v>
+      </c>
+      <c r="V197">
+        <v>3.7</v>
+      </c>
+      <c r="W197">
+        <v>1.35</v>
+      </c>
+      <c r="X197">
+        <v>3.1</v>
+      </c>
+      <c r="Y197">
+        <v>2.63</v>
+      </c>
+      <c r="Z197">
+        <v>1.44</v>
+      </c>
+      <c r="AA197">
+        <v>7</v>
+      </c>
+      <c r="AB197">
+        <v>1.1</v>
+      </c>
+      <c r="AC197">
+        <v>1.97</v>
+      </c>
+      <c r="AD197">
+        <v>3.35</v>
+      </c>
+      <c r="AE197">
+        <v>2.84</v>
+      </c>
+      <c r="AF197">
+        <v>1.04</v>
+      </c>
+      <c r="AG197">
+        <v>10.5</v>
+      </c>
+      <c r="AH197">
+        <v>1.24</v>
+      </c>
+      <c r="AI197">
+        <v>3.7</v>
+      </c>
+      <c r="AJ197">
+        <v>1.65</v>
+      </c>
+      <c r="AK197">
+        <v>2.15</v>
+      </c>
+      <c r="AL197">
+        <v>1.68</v>
+      </c>
+      <c r="AM197">
+        <v>2.13</v>
+      </c>
+      <c r="AN197">
+        <v>1.29</v>
+      </c>
+      <c r="AO197">
+        <v>1.24</v>
+      </c>
+      <c r="AP197">
+        <v>1.75</v>
+      </c>
+      <c r="AQ197">
+        <v>1.78</v>
+      </c>
+      <c r="AR197">
+        <v>1.4</v>
+      </c>
+      <c r="AS197">
+        <v>1.6</v>
+      </c>
+      <c r="AT197">
+        <v>1.55</v>
+      </c>
+      <c r="AU197">
+        <v>1.99</v>
+      </c>
+      <c r="AV197">
+        <v>1.38</v>
+      </c>
+      <c r="AW197">
+        <v>3.37</v>
+      </c>
+      <c r="AX197">
+        <v>1.8</v>
+      </c>
+      <c r="AY197">
+        <v>8</v>
+      </c>
+      <c r="AZ197">
+        <v>2.38</v>
+      </c>
+      <c r="BA197">
+        <v>1.23</v>
+      </c>
+      <c r="BB197">
+        <v>1.4</v>
+      </c>
+      <c r="BC197">
+        <v>1.7</v>
+      </c>
+      <c r="BD197">
+        <v>2.13</v>
+      </c>
+      <c r="BE197">
+        <v>2.85</v>
+      </c>
+      <c r="BF197">
+        <v>4</v>
+      </c>
+      <c r="BG197">
+        <v>15</v>
+      </c>
+      <c r="BH197">
+        <v>5</v>
+      </c>
+      <c r="BI197">
+        <v>9</v>
+      </c>
+      <c r="BJ197">
+        <v>9</v>
+      </c>
+      <c r="BK197">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="198" spans="1:63">
+      <c r="A198" s="1">
+        <v>197</v>
+      </c>
+      <c r="B198">
+        <v>6587766</v>
+      </c>
+      <c r="C198" t="s">
+        <v>63</v>
+      </c>
+      <c r="D198" t="s">
+        <v>64</v>
+      </c>
+      <c r="E198" s="2">
+        <v>45117.71875</v>
+      </c>
+      <c r="F198">
+        <v>3</v>
+      </c>
+      <c r="G198" t="s">
+        <v>83</v>
+      </c>
+      <c r="H198" t="s">
+        <v>65</v>
+      </c>
+      <c r="I198">
+        <v>2</v>
+      </c>
+      <c r="J198">
+        <v>1</v>
+      </c>
+      <c r="K198">
+        <v>3</v>
+      </c>
+      <c r="L198">
+        <v>3</v>
+      </c>
+      <c r="M198">
+        <v>1</v>
+      </c>
+      <c r="N198">
+        <v>4</v>
+      </c>
+      <c r="O198" t="s">
+        <v>231</v>
+      </c>
+      <c r="P198" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q198">
+        <v>6</v>
+      </c>
+      <c r="R198">
+        <v>9</v>
+      </c>
+      <c r="S198">
+        <v>15</v>
+      </c>
+      <c r="T198">
+        <v>2.35</v>
+      </c>
+      <c r="U198">
+        <v>2.15</v>
+      </c>
+      <c r="V198">
+        <v>4.5</v>
+      </c>
+      <c r="W198">
+        <v>1.38</v>
+      </c>
+      <c r="X198">
+        <v>2.85</v>
+      </c>
+      <c r="Y198">
+        <v>2.7</v>
+      </c>
+      <c r="Z198">
+        <v>1.42</v>
+      </c>
+      <c r="AA198">
+        <v>6</v>
+      </c>
+      <c r="AB198">
+        <v>1.09</v>
+      </c>
+      <c r="AC198">
+        <v>1.73</v>
+      </c>
+      <c r="AD198">
+        <v>3.32</v>
+      </c>
+      <c r="AE198">
+        <v>3.83</v>
+      </c>
+      <c r="AF198">
+        <v>1.04</v>
+      </c>
+      <c r="AG198">
+        <v>12.25</v>
+      </c>
+      <c r="AH198">
+        <v>1.26</v>
+      </c>
+      <c r="AI198">
+        <v>3.5</v>
+      </c>
+      <c r="AJ198">
+        <v>1.78</v>
+      </c>
+      <c r="AK198">
+        <v>1.83</v>
+      </c>
+      <c r="AL198">
+        <v>1.75</v>
+      </c>
+      <c r="AM198">
+        <v>1.95</v>
+      </c>
+      <c r="AN198">
+        <v>1.22</v>
+      </c>
+      <c r="AO198">
+        <v>1.25</v>
+      </c>
+      <c r="AP198">
+        <v>1.9</v>
+      </c>
+      <c r="AQ198">
+        <v>1.9</v>
+      </c>
+      <c r="AR198">
+        <v>0.89</v>
+      </c>
+      <c r="AS198">
+        <v>2</v>
+      </c>
+      <c r="AT198">
+        <v>0.8</v>
+      </c>
+      <c r="AU198">
+        <v>2.02</v>
+      </c>
+      <c r="AV198">
+        <v>1.2</v>
+      </c>
+      <c r="AW198">
+        <v>3.22</v>
+      </c>
+      <c r="AX198">
+        <v>1.67</v>
+      </c>
+      <c r="AY198">
+        <v>8.5</v>
+      </c>
+      <c r="AZ198">
+        <v>2.6</v>
+      </c>
+      <c r="BA198">
+        <v>1.15</v>
+      </c>
+      <c r="BB198">
+        <v>1.31</v>
+      </c>
+      <c r="BC198">
+        <v>1.47</v>
+      </c>
+      <c r="BD198">
+        <v>1.85</v>
+      </c>
+      <c r="BE198">
+        <v>2.35</v>
+      </c>
+      <c r="BF198">
+        <v>6</v>
+      </c>
+      <c r="BG198">
+        <v>6</v>
+      </c>
+      <c r="BH198">
+        <v>7</v>
+      </c>
+      <c r="BI198">
+        <v>6</v>
+      </c>
+      <c r="BJ198">
+        <v>13</v>
+      </c>
+      <c r="BK198">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
